--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -5,65 +5,67 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/PycharmProjects/arches/digipolis-arches-pkg/rdm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/PycharmProjects/arches/digipolis-arches-pkg/admin/rdm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9B2A6A-3326-E141-8289-89BD18A70B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B01F087-3198-1B46-9564-72BA6F4E4790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="17040" xr2:uid="{4AC507F6-713F-9648-873D-23615CA63A17}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="17040" activeTab="2" xr2:uid="{4AC507F6-713F-9648-873D-23615CA63A17}"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
-    <sheet name="annotatie_types.csv" sheetId="1" r:id="rId2"/>
-    <sheet name="av_film_materiaal_types.csv" sheetId="2" r:id="rId3"/>
-    <sheet name="av_format_types.csv" sheetId="3" r:id="rId4"/>
-    <sheet name="av_kleur_types.csv" sheetId="4" r:id="rId5"/>
-    <sheet name="av_types.csv" sheetId="5" r:id="rId6"/>
-    <sheet name="beschrijving_types.csv" sheetId="6" r:id="rId7"/>
-    <sheet name="conditie_types.csv" sheetId="7" r:id="rId8"/>
-    <sheet name="date_types.csv" sheetId="8" r:id="rId9"/>
-    <sheet name="datum_types.csv" sheetId="9" r:id="rId10"/>
-    <sheet name="document_types.csv" sheetId="10" r:id="rId11"/>
-    <sheet name="externe_relatie_types.csv" sheetId="11" r:id="rId12"/>
-    <sheet name="formaat_types.csv" sheetId="12" r:id="rId13"/>
-    <sheet name="fotoformaat_types.csv" sheetId="13" r:id="rId14"/>
-    <sheet name="genre_types.csv" sheetId="14" r:id="rId15"/>
-    <sheet name="isaar_relatie_types.csv" sheetId="15" r:id="rId16"/>
-    <sheet name="kleur_types.csv" sheetId="16" r:id="rId17"/>
-    <sheet name="materiaal_types.csv" sheetId="17" r:id="rId18"/>
-    <sheet name="numberofpages_qualifier_types.c" sheetId="18" r:id="rId19"/>
-    <sheet name="object_types.csv" sheetId="19" r:id="rId20"/>
-    <sheet name="record_types.csv" sheetId="20" r:id="rId21"/>
-    <sheet name="schrijftechniek_types.csv" sheetId="21" r:id="rId22"/>
-    <sheet name="taal_types.csv" sheetId="22" r:id="rId23"/>
-    <sheet name="titel_types.csv" sheetId="23" r:id="rId24"/>
-    <sheet name="toegang_types.csv" sheetId="24" r:id="rId25"/>
+    <sheet name="techniek_types.csv" sheetId="26" r:id="rId2"/>
+    <sheet name="annotatie_types.csv" sheetId="1" r:id="rId3"/>
+    <sheet name="av_film_materiaal_types.csv" sheetId="2" r:id="rId4"/>
+    <sheet name="av_format_types.csv" sheetId="3" r:id="rId5"/>
+    <sheet name="av_kleur_types.csv" sheetId="4" r:id="rId6"/>
+    <sheet name="av_types.csv" sheetId="5" r:id="rId7"/>
+    <sheet name="beschrijving_types.csv" sheetId="6" r:id="rId8"/>
+    <sheet name="conditie_types.csv" sheetId="7" r:id="rId9"/>
+    <sheet name="date_types.csv" sheetId="8" r:id="rId10"/>
+    <sheet name="datum_types.csv" sheetId="9" r:id="rId11"/>
+    <sheet name="document_types.csv" sheetId="10" r:id="rId12"/>
+    <sheet name="externe_relatie_types.csv" sheetId="11" r:id="rId13"/>
+    <sheet name="formaat_types.csv" sheetId="12" r:id="rId14"/>
+    <sheet name="fotoformaat_types.csv" sheetId="13" r:id="rId15"/>
+    <sheet name="genre_types.csv" sheetId="14" r:id="rId16"/>
+    <sheet name="isaar_relatie_types.csv" sheetId="15" r:id="rId17"/>
+    <sheet name="kleur_types.csv" sheetId="16" r:id="rId18"/>
+    <sheet name="materiaal_types.csv" sheetId="17" r:id="rId19"/>
+    <sheet name="numberofpages_qualifier_types.c" sheetId="18" r:id="rId20"/>
+    <sheet name="object_types.csv" sheetId="19" r:id="rId21"/>
+    <sheet name="record_types.csv" sheetId="20" r:id="rId22"/>
+    <sheet name="schrijftechniek_types.csv" sheetId="21" r:id="rId23"/>
+    <sheet name="taal_types.csv" sheetId="22" r:id="rId24"/>
+    <sheet name="titel_types.csv" sheetId="23" r:id="rId25"/>
+    <sheet name="toegang_types.csv" sheetId="24" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="annotatie_types" localSheetId="1">annotatie_types.csv!$A$1:$B$19</definedName>
-    <definedName name="av_film_materiaal_types" localSheetId="2">av_film_materiaal_types.csv!$A$1:$B$4</definedName>
-    <definedName name="av_format_types" localSheetId="3">av_format_types.csv!$A$1:$B$37</definedName>
-    <definedName name="av_kleur_types" localSheetId="4">av_kleur_types.csv!$A$1:$B$3</definedName>
-    <definedName name="av_types" localSheetId="5">av_types.csv!$A$1:$B$4</definedName>
-    <definedName name="beschrijving_types" localSheetId="6">beschrijving_types.csv!$A$1:$B$5</definedName>
-    <definedName name="conditie_types" localSheetId="7">'conditie_types.csv'!$A$1:$B$7</definedName>
-    <definedName name="date_types" localSheetId="8">date_types.csv!$A$1:$B$10</definedName>
-    <definedName name="datum_types" localSheetId="9">datum_types.csv!$A$1:$B$3</definedName>
-    <definedName name="document_types" localSheetId="10">document_types.csv!$A$1:$B$82</definedName>
-    <definedName name="externe_relatie_types" localSheetId="11">externe_relatie_types.csv!$A$1:$B$24</definedName>
-    <definedName name="formaat_types" localSheetId="12">formaat_types.csv!$A$1:$B$2</definedName>
-    <definedName name="fotoformaat_types" localSheetId="13">fotoformaat_types.csv!$A$1:$B$11</definedName>
-    <definedName name="genre_types" localSheetId="14">genre_types.csv!$A$1:$B$53</definedName>
-    <definedName name="isaar_relatie_types" localSheetId="15">isaar_relatie_types.csv!$A$1:$B$39</definedName>
-    <definedName name="kleur_types" localSheetId="16">kleur_types.csv!$A$1:$B$36</definedName>
-    <definedName name="materiaal_types" localSheetId="17">materiaal_types.csv!$A$1:$B$140</definedName>
-    <definedName name="numberofpages_qualifier_types" localSheetId="18">numberofpages_qualifier_types.c!$A$1:$B$2</definedName>
-    <definedName name="object_types" localSheetId="19">object_types.csv!$A$1:$B$86</definedName>
-    <definedName name="record_types" localSheetId="20">'record_types.csv'!$A$1:$B$21</definedName>
-    <definedName name="schrijftechniek_types" localSheetId="21">schrijftechniek_types.csv!$A$1:$B$6</definedName>
-    <definedName name="taal_types" localSheetId="22">taal_types.csv!$A$1:$B$17</definedName>
-    <definedName name="titel_types" localSheetId="23">titel_types.csv!$A$1:$B$8</definedName>
-    <definedName name="toegang_types" localSheetId="24">toegang_types.csv!$A$1:$B$2</definedName>
+    <definedName name="annotatie_types" localSheetId="2">annotatie_types.csv!$A$1:$B$19</definedName>
+    <definedName name="av_film_materiaal_types" localSheetId="3">av_film_materiaal_types.csv!$A$1:$B$4</definedName>
+    <definedName name="av_format_types" localSheetId="4">av_format_types.csv!$A$1:$B$37</definedName>
+    <definedName name="av_kleur_types" localSheetId="5">av_kleur_types.csv!$A$1:$B$3</definedName>
+    <definedName name="av_types" localSheetId="6">av_types.csv!$A$1:$B$4</definedName>
+    <definedName name="beschrijving_types" localSheetId="7">beschrijving_types.csv!$A$1:$B$5</definedName>
+    <definedName name="conditie_types" localSheetId="8">'conditie_types.csv'!$A$1:$B$7</definedName>
+    <definedName name="date_types" localSheetId="9">date_types.csv!$A$1:$B$10</definedName>
+    <definedName name="datum_types" localSheetId="10">datum_types.csv!$A$1:$B$3</definedName>
+    <definedName name="document_types" localSheetId="11">document_types.csv!$A$1:$B$82</definedName>
+    <definedName name="externe_relatie_types" localSheetId="12">externe_relatie_types.csv!$A$1:$B$24</definedName>
+    <definedName name="formaat_types" localSheetId="13">formaat_types.csv!$A$1:$B$2</definedName>
+    <definedName name="fotoformaat_types" localSheetId="14">fotoformaat_types.csv!$A$1:$B$11</definedName>
+    <definedName name="genre_types" localSheetId="15">genre_types.csv!$A$1:$B$53</definedName>
+    <definedName name="isaar_relatie_types" localSheetId="16">isaar_relatie_types.csv!$A$1:$B$39</definedName>
+    <definedName name="kleur_types" localSheetId="17">kleur_types.csv!$A$1:$B$36</definedName>
+    <definedName name="materiaal_types" localSheetId="18">materiaal_types.csv!$A$1:$B$140</definedName>
+    <definedName name="numberofpages_qualifier_types" localSheetId="19">numberofpages_qualifier_types.c!$A$1:$B$2</definedName>
+    <definedName name="object_types" localSheetId="20">object_types.csv!$A$1:$B$86</definedName>
+    <definedName name="record_types" localSheetId="21">'record_types.csv'!$A$1:$B$21</definedName>
+    <definedName name="schrijftechniek_types" localSheetId="22">schrijftechniek_types.csv!$A$1:$B$6</definedName>
+    <definedName name="taal_types" localSheetId="23">taal_types.csv!$A$1:$B$17</definedName>
+    <definedName name="techniek_types" localSheetId="1">techniek_types.csv!$A$1:$B$162</definedName>
+    <definedName name="titel_types" localSheetId="24">titel_types.csv!$A$1:$B$8</definedName>
+    <definedName name="toegang_types" localSheetId="25">toegang_types.csv!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -86,7 +88,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{51448F0B-7DC6-B648-9957-55426ABC0C19}" name="annotatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/annotatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/annotatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -94,7 +96,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{2D5C478D-4230-704A-A9B3-3287EBBFA2FD}" name="av_film_materiaal_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_film_materiaal_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_film_materiaal_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -102,7 +104,7 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{50BBF0EF-9712-084A-99EE-AA470488201F}" name="av_format_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_format_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_format_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -110,7 +112,7 @@
     </textPr>
   </connection>
   <connection id="4" xr16:uid="{6D1C792C-834F-F74B-8A4A-8704AC698CFB}" name="av_kleur_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_kleur_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_kleur_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -118,7 +120,7 @@
     </textPr>
   </connection>
   <connection id="5" xr16:uid="{8AC3B444-23E6-0C45-9E62-D849AA9CBACA}" name="av_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_types.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_types.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -126,7 +128,7 @@
     </textPr>
   </connection>
   <connection id="6" xr16:uid="{0E36511C-F95A-2F46-9E98-4F399ECE476B}" name="beschrijving_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/beschrijving_types.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/beschrijving_types.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -134,7 +136,7 @@
     </textPr>
   </connection>
   <connection id="7" xr16:uid="{DE97D7E5-5B7C-0541-AB29-FE80066D75B1}" name="conditie_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/conditie_types.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/conditie_types.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -142,7 +144,7 @@
     </textPr>
   </connection>
   <connection id="8" xr16:uid="{2594618D-003E-BA4B-A408-E5CE35C3F64D}" name="date_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/date_types.csv" decimal="," thousands=" " comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/date_types.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -150,7 +152,7 @@
     </textPr>
   </connection>
   <connection id="9" xr16:uid="{FF299327-4357-2E48-AB4C-377D6160DE69}" name="datum_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/datum_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/datum_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -158,7 +160,7 @@
     </textPr>
   </connection>
   <connection id="10" xr16:uid="{D79E8EF5-C081-CA4D-8E0F-CD3B85F17851}" name="document_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/document_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/document_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -166,7 +168,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{EADD99E3-0D34-174D-90C3-82ABB35E5271}" name="externe_relatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/externe_relatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/externe_relatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -174,7 +176,7 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{7F6C4A10-D7D4-B34A-AB45-BD1A1D875549}" name="formaat_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/formaat_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/formaat_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -182,7 +184,7 @@
     </textPr>
   </connection>
   <connection id="13" xr16:uid="{1750A3A4-8E1D-D243-82E5-606D1DB65273}" name="fotoformaat_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/fotoformaat_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/fotoformaat_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -190,7 +192,7 @@
     </textPr>
   </connection>
   <connection id="14" xr16:uid="{1225A17B-80FD-5549-A7E5-0012B83FF451}" name="genre_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/genre_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/genre_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -198,7 +200,7 @@
     </textPr>
   </connection>
   <connection id="15" xr16:uid="{7C7AF4E7-8297-C24B-A2EC-9C44D594EAA6}" name="isaar_relatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/isaar_relatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/isaar_relatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -206,7 +208,7 @@
     </textPr>
   </connection>
   <connection id="16" xr16:uid="{3D77F709-73F4-1242-8944-7FA0740E694F}" name="kleur_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/kleur_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/kleur_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -214,7 +216,7 @@
     </textPr>
   </connection>
   <connection id="17" xr16:uid="{E5E5DB3E-B152-774A-9D00-06186A56B4A1}" name="materiaal_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/materiaal_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/materiaal_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -222,7 +224,7 @@
     </textPr>
   </connection>
   <connection id="18" xr16:uid="{82F6F6E1-3410-CC43-8A9D-81BD2B80FC0A}" name="numberofpages_qualifier_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/numberofpages_qualifier_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/numberofpages_qualifier_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -230,7 +232,7 @@
     </textPr>
   </connection>
   <connection id="19" xr16:uid="{54115430-6BF3-DB43-A6F2-4BAFEBAF1AB4}" name="object_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/object_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/object_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -238,7 +240,7 @@
     </textPr>
   </connection>
   <connection id="20" xr16:uid="{F5C635AA-C29C-2A4F-92A5-0AF7F741ED15}" name="record_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/record_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/record_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -246,7 +248,7 @@
     </textPr>
   </connection>
   <connection id="21" xr16:uid="{5259228B-D75C-BB4B-A7DD-85FB5071D2D7}" name="schrijftechniek_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/schrijftechniek_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/schrijftechniek_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -254,23 +256,31 @@
     </textPr>
   </connection>
   <connection id="22" xr16:uid="{ABB72374-DA3D-1D4A-8125-BB04633787B1}" name="taal_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/taal_types.csv" decimal="," thousands=" " tab="0" comma="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/taal_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="23" xr16:uid="{839596A5-5D6D-0A43-9A17-9836C92FD6F3}" name="titel_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/titel_types.csv" decimal="," thousands=" " tab="0" comma="1">
+  <connection id="23" xr16:uid="{EA039FA8-C05F-2D44-AADC-4F8AF0A6DCB2}" name="techniek_types" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/techniek_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="24" xr16:uid="{DCA0104B-168E-EF41-8714-C2C48B8092E5}" name="toegang_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/toegang_types.csv" decimal="," thousands=" " tab="0" comma="1">
+  <connection id="24" xr16:uid="{839596A5-5D6D-0A43-9A17-9836C92FD6F3}" name="titel_types" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/titel_types.csv" decimal="," thousands=" " tab="0" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="25" xr16:uid="{DCA0104B-168E-EF41-8714-C2C48B8092E5}" name="toegang_types" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/toegang_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
@@ -281,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="1158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1328">
   <si>
     <t>code</t>
   </si>
@@ -3755,6 +3765,516 @@
   </si>
   <si>
     <t>new concept</t>
+  </si>
+  <si>
+    <t>aaq</t>
+  </si>
+  <si>
+    <t>aca</t>
+  </si>
+  <si>
+    <t>Cama√Øeu</t>
+  </si>
+  <si>
+    <t>agi</t>
+  </si>
+  <si>
+    <t>Gewassen Inkt</t>
+  </si>
+  <si>
+    <t>ago</t>
+  </si>
+  <si>
+    <t>Gouache</t>
+  </si>
+  <si>
+    <t>agr</t>
+  </si>
+  <si>
+    <t>Grisaille</t>
+  </si>
+  <si>
+    <t>aio</t>
+  </si>
+  <si>
+    <t>mpmtechplet</t>
+  </si>
+  <si>
+    <t>Ets</t>
+  </si>
+  <si>
+    <t>mpmtechplgr</t>
+  </si>
+  <si>
+    <t>mpmtechplin</t>
+  </si>
+  <si>
+    <t>Intaglio</t>
+  </si>
+  <si>
+    <t>paq</t>
+  </si>
+  <si>
+    <t>Aquatint</t>
+  </si>
+  <si>
+    <t>pau</t>
+  </si>
+  <si>
+    <t>Autotypie Of Rasterclich√©</t>
+  </si>
+  <si>
+    <t>pba</t>
+  </si>
+  <si>
+    <t>Baxterprint</t>
+  </si>
+  <si>
+    <t>pbg</t>
+  </si>
+  <si>
+    <t>Burijngravure</t>
+  </si>
+  <si>
+    <t>pcg</t>
+  </si>
+  <si>
+    <t>Collografie</t>
+  </si>
+  <si>
+    <t>pcl</t>
+  </si>
+  <si>
+    <t>Chromolithografie</t>
+  </si>
+  <si>
+    <t>pco</t>
+  </si>
+  <si>
+    <t>Clair-Obscur Houtsnede</t>
+  </si>
+  <si>
+    <t>pct</t>
+  </si>
+  <si>
+    <t>Chromotypografie</t>
+  </si>
+  <si>
+    <t>pcv</t>
+  </si>
+  <si>
+    <t>Clich√©-Verre</t>
+  </si>
+  <si>
+    <t>pda</t>
+  </si>
+  <si>
+    <t>Duplexautotypie</t>
+  </si>
+  <si>
+    <t>pdn</t>
+  </si>
+  <si>
+    <t>Droge Naald</t>
+  </si>
+  <si>
+    <t>pee</t>
+  </si>
+  <si>
+    <t>Echoppe-Ets</t>
+  </si>
+  <si>
+    <t>pet</t>
+  </si>
+  <si>
+    <t>pfg</t>
+  </si>
+  <si>
+    <t>Fotogravure</t>
+  </si>
+  <si>
+    <t>pfl</t>
+  </si>
+  <si>
+    <t>Fotolitho</t>
+  </si>
+  <si>
+    <t>phg</t>
+  </si>
+  <si>
+    <t>Houtgravure</t>
+  </si>
+  <si>
+    <t>phs</t>
+  </si>
+  <si>
+    <t>Houtsnede</t>
+  </si>
+  <si>
+    <t>pka</t>
+  </si>
+  <si>
+    <t>Kleurenaquatint</t>
+  </si>
+  <si>
+    <t>pkd</t>
+  </si>
+  <si>
+    <t>Koperdiepdruk Of Rotogravure</t>
+  </si>
+  <si>
+    <t>pkg</t>
+  </si>
+  <si>
+    <t>Kleurenhoutgravure</t>
+  </si>
+  <si>
+    <t>pkh</t>
+  </si>
+  <si>
+    <t>Kleurenhoutsnede</t>
+  </si>
+  <si>
+    <t>pkl</t>
+  </si>
+  <si>
+    <t>Kleurenlijnclich√©</t>
+  </si>
+  <si>
+    <t>pkm</t>
+  </si>
+  <si>
+    <t>Kleurenmezzotint</t>
+  </si>
+  <si>
+    <t>pko</t>
+  </si>
+  <si>
+    <t>Kleurenlitho</t>
+  </si>
+  <si>
+    <t>pkr</t>
+  </si>
+  <si>
+    <t>Krijtlithografie</t>
+  </si>
+  <si>
+    <t>pks</t>
+  </si>
+  <si>
+    <t>Kleurenstippelgravure</t>
+  </si>
+  <si>
+    <t>pku</t>
+  </si>
+  <si>
+    <t>Kopergravure</t>
+  </si>
+  <si>
+    <t>plc</t>
+  </si>
+  <si>
+    <t>Lijnclich√©</t>
+  </si>
+  <si>
+    <t>pld</t>
+  </si>
+  <si>
+    <t>Lichtdruk Of Collotypie</t>
+  </si>
+  <si>
+    <t>plg</t>
+  </si>
+  <si>
+    <t>Lijngravure</t>
+  </si>
+  <si>
+    <t>pll</t>
+  </si>
+  <si>
+    <t>Linoleumsnede</t>
+  </si>
+  <si>
+    <t>pls</t>
+  </si>
+  <si>
+    <t>Lithografie Of Steendruk</t>
+  </si>
+  <si>
+    <t>pmh</t>
+  </si>
+  <si>
+    <t>Metaalhoogdruk</t>
+  </si>
+  <si>
+    <t>pmk</t>
+  </si>
+  <si>
+    <t>Meerkleurenautotypie</t>
+  </si>
+  <si>
+    <t>pms</t>
+  </si>
+  <si>
+    <t>Metaalsnede</t>
+  </si>
+  <si>
+    <t>pmt</t>
+  </si>
+  <si>
+    <t>Mezzotint</t>
+  </si>
+  <si>
+    <t>pmy</t>
+  </si>
+  <si>
+    <t>Monotypie</t>
+  </si>
+  <si>
+    <t>pnp</t>
+  </si>
+  <si>
+    <t>Nelsonprint</t>
+  </si>
+  <si>
+    <t>pnz</t>
+  </si>
+  <si>
+    <t>Natuurzelfdruk</t>
+  </si>
+  <si>
+    <t>pos</t>
+  </si>
+  <si>
+    <t>Offset</t>
+  </si>
+  <si>
+    <t>psc</t>
+  </si>
+  <si>
+    <t>Schrootblad Of Mani√®re Cribl√©e</t>
+  </si>
+  <si>
+    <t>psg</t>
+  </si>
+  <si>
+    <t>Staalgravure</t>
+  </si>
+  <si>
+    <t>psh</t>
+  </si>
+  <si>
+    <t>Samengestelde Hoogdrukprent</t>
+  </si>
+  <si>
+    <t>pst</t>
+  </si>
+  <si>
+    <t>Stippelgravure</t>
+  </si>
+  <si>
+    <t>pta</t>
+  </si>
+  <si>
+    <t>Toonautotypie</t>
+  </si>
+  <si>
+    <t>ptf</t>
+  </si>
+  <si>
+    <t>Transferlitho</t>
+  </si>
+  <si>
+    <t>ptg</t>
+  </si>
+  <si>
+    <t>Toonhoutgravure</t>
+  </si>
+  <si>
+    <t>ptl</t>
+  </si>
+  <si>
+    <t>Toonlitho</t>
+  </si>
+  <si>
+    <t>pvg</t>
+  </si>
+  <si>
+    <t>Fotogalvanografie</t>
+  </si>
+  <si>
+    <t>pvm</t>
+  </si>
+  <si>
+    <t>Vernis Mou</t>
+  </si>
+  <si>
+    <t>pzc</t>
+  </si>
+  <si>
+    <t>Zincografie</t>
+  </si>
+  <si>
+    <t>pzd</t>
+  </si>
+  <si>
+    <t>Zeefdruk</t>
+  </si>
+  <si>
+    <t>sac</t>
+  </si>
+  <si>
+    <t>Acryl</t>
+  </si>
+  <si>
+    <t>sag</t>
+  </si>
+  <si>
+    <t>Achterglasschilderij</t>
+  </si>
+  <si>
+    <t>sov</t>
+  </si>
+  <si>
+    <t>Olieverf</t>
+  </si>
+  <si>
+    <t>stp</t>
+  </si>
+  <si>
+    <t>Tempera</t>
+  </si>
+  <si>
+    <t>svo</t>
+  </si>
+  <si>
+    <t>Verdunde Olieverf</t>
+  </si>
+  <si>
+    <t>vema</t>
+  </si>
+  <si>
+    <t>Ge√´mailleerd</t>
+  </si>
+  <si>
+    <t>vgog</t>
+  </si>
+  <si>
+    <t>Gegoten</t>
+  </si>
+  <si>
+    <t>vgra</t>
+  </si>
+  <si>
+    <t>Gegraveerd</t>
+  </si>
+  <si>
+    <t>vgul</t>
+  </si>
+  <si>
+    <t>Verguld</t>
+  </si>
+  <si>
+    <t>vlak</t>
+  </si>
+  <si>
+    <t>vleg</t>
+  </si>
+  <si>
+    <t>Legering</t>
+  </si>
+  <si>
+    <t>vpat</t>
+  </si>
+  <si>
+    <t>vsla</t>
+  </si>
+  <si>
+    <t>Geslagen</t>
+  </si>
+  <si>
+    <t>vzil</t>
+  </si>
+  <si>
+    <t>zaq</t>
+  </si>
+  <si>
+    <t>zat</t>
+  </si>
+  <si>
+    <t>zbu</t>
+  </si>
+  <si>
+    <t>Burain</t>
+  </si>
+  <si>
+    <t>zbw</t>
+  </si>
+  <si>
+    <t>Bisterwas</t>
+  </si>
+  <si>
+    <t>zdn</t>
+  </si>
+  <si>
+    <t>zdv</t>
+  </si>
+  <si>
+    <t>Dekverf</t>
+  </si>
+  <si>
+    <t>zec</t>
+  </si>
+  <si>
+    <t>√âchoppe</t>
+  </si>
+  <si>
+    <t>zga</t>
+  </si>
+  <si>
+    <t>Geaquarelleerd</t>
+  </si>
+  <si>
+    <t>zgw</t>
+  </si>
+  <si>
+    <t>Gewassen</t>
+  </si>
+  <si>
+    <t>zkg</t>
+  </si>
+  <si>
+    <t>zlv</t>
+  </si>
+  <si>
+    <t>Lavis</t>
+  </si>
+  <si>
+    <t>zmt</t>
+  </si>
+  <si>
+    <t>zov</t>
+  </si>
+  <si>
+    <t>zsm</t>
+  </si>
+  <si>
+    <t>Sepiamonotype</t>
+  </si>
+  <si>
+    <t>ztd</t>
+  </si>
+  <si>
+    <t>Tegendruk</t>
+  </si>
+  <si>
+    <t>zvm</t>
+  </si>
+  <si>
+    <t>zwv</t>
+  </si>
+  <si>
+    <t>Waterverf</t>
   </si>
 </sst>
 </file>
@@ -3827,99 +4347,103 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="techniek_types" connectionId="23" xr16:uid="{369E393D-AEF7-B14D-8972-E8FD4EC69E49}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="datum_types" connectionId="9" xr16:uid="{A44055F3-01E5-F74D-A902-0123CB9C43FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="document_types" connectionId="10" xr16:uid="{0ABDD7FB-A963-4743-8BBA-290C9D73AA4D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="externe_relatie_types" connectionId="11" xr16:uid="{353FB807-E422-5D4F-88B1-79E8650F6F5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="formaat_types" connectionId="12" xr16:uid="{288DF9CF-B1DE-0D4D-8BD0-09ACE4EEA9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fotoformaat_types" connectionId="13" xr16:uid="{487BC9FA-0677-0547-9DAF-3042DAB5787C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="genre_types" connectionId="14" xr16:uid="{C794CD13-5B9B-BD46-AD9C-FA6998D6D939}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="isaar_relatie_types" connectionId="15" xr16:uid="{7F548076-8EDE-304B-B838-598240AC0B9E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="kleur_types" connectionId="16" xr16:uid="{1B738385-53AF-8D4B-B3E1-555E6B18E8B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="materiaal_types" connectionId="17" xr16:uid="{47691027-20B2-844A-B7C2-A03478BF7CB6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="numberofpages_qualifier_types" connectionId="18" xr16:uid="{15E0D788-1DDF-1042-8650-0007D4FE55B0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="annotatie_types" connectionId="1" xr16:uid="{4441D7EA-B9D1-BC49-AA01-E0FB7A202BA6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="document_types" connectionId="10" xr16:uid="{0ABDD7FB-A963-4743-8BBA-290C9D73AA4D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="externe_relatie_types" connectionId="11" xr16:uid="{353FB807-E422-5D4F-88B1-79E8650F6F5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="formaat_types" connectionId="12" xr16:uid="{288DF9CF-B1DE-0D4D-8BD0-09ACE4EEA9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fotoformaat_types" connectionId="13" xr16:uid="{487BC9FA-0677-0547-9DAF-3042DAB5787C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="genre_types" connectionId="14" xr16:uid="{C794CD13-5B9B-BD46-AD9C-FA6998D6D939}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="isaar_relatie_types" connectionId="15" xr16:uid="{7F548076-8EDE-304B-B838-598240AC0B9E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="kleur_types" connectionId="16" xr16:uid="{1B738385-53AF-8D4B-B3E1-555E6B18E8B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="materiaal_types" connectionId="17" xr16:uid="{47691027-20B2-844A-B7C2-A03478BF7CB6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="numberofpages_qualifier_types" connectionId="18" xr16:uid="{15E0D788-1DDF-1042-8650-0007D4FE55B0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="object_types" connectionId="19" xr16:uid="{D3EDAA94-82FB-9843-97D1-A85E54B9ED3B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="record_types" connectionId="20" xr16:uid="{9DBFD946-3EE7-ED40-8326-C26C8C3A16B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="schrijftechniek_types" connectionId="21" xr16:uid="{033DC900-A6D7-FB4D-BF4D-83A8A15EF30E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="taal_types" connectionId="22" xr16:uid="{EF5408E6-3083-7A45-BAC5-6F164112014F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="titel_types" connectionId="24" xr16:uid="{EAB53443-3E0C-5F4A-8156-384566466ACD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="toegang_types" connectionId="25" xr16:uid="{2E951D2E-9F85-974E-A08F-3B20B9AA616C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="av_film_materiaal_types" connectionId="2" xr16:uid="{4C45396F-8588-DB45-B170-073911EBD596}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="record_types" connectionId="20" xr16:uid="{9DBFD946-3EE7-ED40-8326-C26C8C3A16B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="schrijftechniek_types" connectionId="21" xr16:uid="{033DC900-A6D7-FB4D-BF4D-83A8A15EF30E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="taal_types" connectionId="22" xr16:uid="{EF5408E6-3083-7A45-BAC5-6F164112014F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="titel_types" connectionId="23" xr16:uid="{EAB53443-3E0C-5F4A-8156-384566466ACD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="toegang_types" connectionId="24" xr16:uid="{2E951D2E-9F85-974E-A08F-3B20B9AA616C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="av_format_types" connectionId="3" xr16:uid="{B41143CF-4BCE-2447-9BB6-38A1B77E4D30}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="av_kleur_types" connectionId="4" xr16:uid="{6CD64F85-E0DE-8947-9FCC-236E1FE3E9A0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="av_types" connectionId="5" xr16:uid="{B892C377-AC3B-0A44-9403-39EAB694B27D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="beschrijving_types" connectionId="6" xr16:uid="{98369F33-21AC-B24D-824E-B7F9B26BA9CD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="conditie_types" connectionId="7" xr16:uid="{D579C305-4590-5547-88A6-AE562A15F084}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="date_types" connectionId="8" xr16:uid="{45681EB1-8E7B-3B44-801D-2B17D5914579}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="datum_types" connectionId="9" xr16:uid="{A44055F3-01E5-F74D-A902-0123CB9C43FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4221,7 +4745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65D70F-7AD3-CB44-B02B-848DCC67D02F}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4450,6 +4974,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425DF91F-83B9-A140-A193-562CBBDED4B2}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G18" s="2"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.2">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E5ECC2-EE41-E240-8735-2AC05E34D806}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -4495,7 +5163,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D288237-0FD0-F345-9BDB-E3324607A3A4}">
   <dimension ref="A1:C74"/>
   <sheetViews>
@@ -5101,7 +5769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56DCFA5-9D2E-D340-8E79-94C6DBAF1361}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -5315,7 +5983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4DB1E-4E00-6E4C-9348-A9642A5DB9DD}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5353,7 +6021,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A317B5-97E8-984F-8EB9-C95AF0D70FF7}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -5463,7 +6131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64648D77-1B7D-9E4C-8BD9-36ED0361385C}">
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -5909,7 +6577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A345C2D-9141-D04B-A4A4-E4B6ECFDDB0C}">
   <dimension ref="A1:C39"/>
   <sheetViews>
@@ -6243,7 +6911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352414A6-4928-E341-95E8-CD098BB02A27}">
   <dimension ref="A1:C36"/>
   <sheetViews>
@@ -6553,7 +7221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721CD6E8-8694-024A-8158-C37677F11FC5}">
   <dimension ref="A1:C140"/>
   <sheetViews>
@@ -7695,7 +8363,1320 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C124FC5F-1A9F-D042-B822-202E008BA292}">
+  <dimension ref="A1:B162"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B7" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>613</v>
+      </c>
+      <c r="B8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B9" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>617</v>
+      </c>
+      <c r="B10" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B12" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>623</v>
+      </c>
+      <c r="B13" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B14" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B15" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B16" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>631</v>
+      </c>
+      <c r="B17" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>633</v>
+      </c>
+      <c r="B18" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>635</v>
+      </c>
+      <c r="B19" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>637</v>
+      </c>
+      <c r="B20" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>639</v>
+      </c>
+      <c r="B21" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>641</v>
+      </c>
+      <c r="B22" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>643</v>
+      </c>
+      <c r="B23" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>645</v>
+      </c>
+      <c r="B24" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>647</v>
+      </c>
+      <c r="B25" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>649</v>
+      </c>
+      <c r="B26" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>651</v>
+      </c>
+      <c r="B27" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>653</v>
+      </c>
+      <c r="B28" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>655</v>
+      </c>
+      <c r="B29" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>657</v>
+      </c>
+      <c r="B30" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>659</v>
+      </c>
+      <c r="B31" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>661</v>
+      </c>
+      <c r="B32" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>663</v>
+      </c>
+      <c r="B33" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>665</v>
+      </c>
+      <c r="B34" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>667</v>
+      </c>
+      <c r="B35" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>669</v>
+      </c>
+      <c r="B36" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>671</v>
+      </c>
+      <c r="B37" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>673</v>
+      </c>
+      <c r="B38" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>675</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>676</v>
+      </c>
+      <c r="B40" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>678</v>
+      </c>
+      <c r="B41" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>680</v>
+      </c>
+      <c r="B42" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>682</v>
+      </c>
+      <c r="B43" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>684</v>
+      </c>
+      <c r="B44" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>686</v>
+      </c>
+      <c r="B45" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>687</v>
+      </c>
+      <c r="B46" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>689</v>
+      </c>
+      <c r="B47" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>691</v>
+      </c>
+      <c r="B48" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>693</v>
+      </c>
+      <c r="B49" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>695</v>
+      </c>
+      <c r="B50" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>697</v>
+      </c>
+      <c r="B51" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>699</v>
+      </c>
+      <c r="B52" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>701</v>
+      </c>
+      <c r="B53" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B55" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>812</v>
+      </c>
+      <c r="B114" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>814</v>
+      </c>
+      <c r="B115" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>816</v>
+      </c>
+      <c r="B116" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>818</v>
+      </c>
+      <c r="B117" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>820</v>
+      </c>
+      <c r="B118" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>822</v>
+      </c>
+      <c r="B119" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>824</v>
+      </c>
+      <c r="B120" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>826</v>
+      </c>
+      <c r="B121" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>828</v>
+      </c>
+      <c r="B122" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>830</v>
+      </c>
+      <c r="B123" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>832</v>
+      </c>
+      <c r="B124" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>834</v>
+      </c>
+      <c r="B125" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>836</v>
+      </c>
+      <c r="B126" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>838</v>
+      </c>
+      <c r="B127" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>840</v>
+      </c>
+      <c r="B128" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>842</v>
+      </c>
+      <c r="B129" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>844</v>
+      </c>
+      <c r="B130" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>846</v>
+      </c>
+      <c r="B131" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>848</v>
+      </c>
+      <c r="B132" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>850</v>
+      </c>
+      <c r="B133" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>851</v>
+      </c>
+      <c r="B134" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>853</v>
+      </c>
+      <c r="B135" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>855</v>
+      </c>
+      <c r="B136" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B141" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B142" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B143" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B145" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B146" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B147" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B148" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B149" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B150" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B151" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B152" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B153" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B154" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B155" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B156" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B157" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B159" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B160" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B51C5-A0D1-1145-A055-1E53F1FA37D2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -7733,181 +9714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83381BE-701B-2F4C-80B0-CD4B3163ADB6}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D6A88A-5F16-4B40-BEDD-3467E1F95C0B}">
   <dimension ref="A1:C86"/>
   <sheetViews>
@@ -8617,7 +10424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510CD0AC-4AFC-BE41-8E7A-4726954367E5}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -8806,7 +10613,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD00F6EB-63BC-7A40-AEA0-555CB336FDD4}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -8876,7 +10683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C90025-FD26-EE42-B76C-4CA5FF1EDFC2}">
   <dimension ref="A1:C17"/>
   <sheetViews>
@@ -9034,7 +10841,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6730DF06-75DF-ED49-9A81-9584C7DEE49F}">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -9120,7 +10927,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F3AAB3-78C7-F64C-B979-5754CD754AB5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -9159,6 +10966,180 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83381BE-701B-2F4C-80B0-CD4B3163ADB6}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB55F4F-239E-CB46-994B-D5E45F335BE8}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -9212,7 +11193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE6CE4-8F25-9C47-B665-FCC00FDBC4F2}">
   <dimension ref="A1:C37"/>
   <sheetViews>
@@ -9530,7 +11511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D461AB7B-3FD6-CD43-A456-697DA4E810FB}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -9576,7 +11557,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6130AF6-DA92-7B48-B358-2DBC8A755A2C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -9630,7 +11611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE5F775-AB62-3243-BC00-B767226C0C37}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -9692,7 +11673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58313AB4-C1C9-2F4C-A2CE-2EB6D9D821B0}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -9768,148 +11749,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425DF91F-83B9-A140-A193-562CBBDED4B2}">
-  <dimension ref="A1:K21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.2">
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tw/PycharmProjects/arches/digipolis-arches-pkg/admin/rdm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sa83755\Documents\LH\digipolis-arches-pkg\admin\rdm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B01F087-3198-1B46-9564-72BA6F4E4790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28400" windowHeight="17040" activeTab="2" xr2:uid="{4AC507F6-713F-9648-873D-23615CA63A17}"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -67,7 +66,7 @@
     <definedName name="titel_types" localSheetId="24">titel_types.csv!$A$1:$B$8</definedName>
     <definedName name="toegang_types" localSheetId="25">toegang_types.csv!$A$1:$B$2</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,8 +85,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{51448F0B-7DC6-B648-9957-55426ABC0C19}" name="annotatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="annotatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/annotatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -95,7 +94,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{2D5C478D-4230-704A-A9B3-3287EBBFA2FD}" name="av_film_materiaal_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" name="av_film_materiaal_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_film_materiaal_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -103,7 +102,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="3" xr16:uid="{50BBF0EF-9712-084A-99EE-AA470488201F}" name="av_format_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="3" name="av_format_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_format_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -111,7 +110,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="4" xr16:uid="{6D1C792C-834F-F74B-8A4A-8704AC698CFB}" name="av_kleur_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="4" name="av_kleur_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_kleur_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -119,7 +118,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="5" xr16:uid="{8AC3B444-23E6-0C45-9E62-D849AA9CBACA}" name="av_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="5" name="av_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/av_types.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
@@ -127,7 +126,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="6" xr16:uid="{0E36511C-F95A-2F46-9E98-4F399ECE476B}" name="beschrijving_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="6" name="beschrijving_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/beschrijving_types.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
@@ -135,7 +134,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="7" xr16:uid="{DE97D7E5-5B7C-0541-AB29-FE80066D75B1}" name="conditie_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="7" name="conditie_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/conditie_types.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
@@ -143,7 +142,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="8" xr16:uid="{2594618D-003E-BA4B-A408-E5CE35C3F64D}" name="date_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="8" name="date_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/date_types.csv" decimal="," thousands=" " comma="1">
       <textFields count="2">
         <textField/>
@@ -151,7 +150,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="9" xr16:uid="{FF299327-4357-2E48-AB4C-377D6160DE69}" name="datum_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="9" name="datum_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/datum_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -159,7 +158,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="10" xr16:uid="{D79E8EF5-C081-CA4D-8E0F-CD3B85F17851}" name="document_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="10" name="document_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/document_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -167,7 +166,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="11" xr16:uid="{EADD99E3-0D34-174D-90C3-82ABB35E5271}" name="externe_relatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="11" name="externe_relatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/externe_relatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -175,7 +174,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="12" xr16:uid="{7F6C4A10-D7D4-B34A-AB45-BD1A1D875549}" name="formaat_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="12" name="formaat_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/formaat_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -183,7 +182,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="13" xr16:uid="{1750A3A4-8E1D-D243-82E5-606D1DB65273}" name="fotoformaat_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="13" name="fotoformaat_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/fotoformaat_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -191,7 +190,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="14" xr16:uid="{1225A17B-80FD-5549-A7E5-0012B83FF451}" name="genre_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="14" name="genre_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/genre_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -199,7 +198,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="15" xr16:uid="{7C7AF4E7-8297-C24B-A2EC-9C44D594EAA6}" name="isaar_relatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="15" name="isaar_relatie_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/isaar_relatie_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -207,7 +206,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="16" xr16:uid="{3D77F709-73F4-1242-8944-7FA0740E694F}" name="kleur_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="16" name="kleur_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/kleur_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -215,7 +214,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="17" xr16:uid="{E5E5DB3E-B152-774A-9D00-06186A56B4A1}" name="materiaal_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="17" name="materiaal_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/materiaal_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -223,7 +222,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="18" xr16:uid="{82F6F6E1-3410-CC43-8A9D-81BD2B80FC0A}" name="numberofpages_qualifier_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="18" name="numberofpages_qualifier_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/numberofpages_qualifier_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -231,7 +230,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="19" xr16:uid="{54115430-6BF3-DB43-A6F2-4BAFEBAF1AB4}" name="object_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="19" name="object_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/object_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -239,7 +238,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="20" xr16:uid="{F5C635AA-C29C-2A4F-92A5-0AF7F741ED15}" name="record_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="20" name="record_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/record_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -247,7 +246,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="21" xr16:uid="{5259228B-D75C-BB4B-A7DD-85FB5071D2D7}" name="schrijftechniek_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="21" name="schrijftechniek_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/schrijftechniek_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -255,7 +254,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="22" xr16:uid="{ABB72374-DA3D-1D4A-8125-BB04633787B1}" name="taal_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="22" name="taal_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/taal_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -263,15 +262,15 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="23" xr16:uid="{EA039FA8-C05F-2D44-AADC-4F8AF0A6DCB2}" name="techniek_types" type="6" refreshedVersion="7" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/techniek_types.csv" decimal="," thousands=" " tab="0" comma="1">
+  <connection id="23" name="techniek_types" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/techniek_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="24" xr16:uid="{839596A5-5D6D-0A43-9A17-9836C92FD6F3}" name="titel_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="24" name="titel_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/titel_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -279,7 +278,7 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="25" xr16:uid="{DCA0104B-168E-EF41-8714-C2C48B8092E5}" name="toegang_types" type="6" refreshedVersion="7" background="1" saveData="1">
+  <connection id="25" name="toegang_types" type="6" refreshedVersion="7" background="1" saveData="1">
     <textPr sourceFile="/Users/tw/PycharmProjects/arches/digipolis_importer/import/csv/lookup/toegang_types.csv" decimal="," thousands=" " tab="0" comma="1">
       <textFields count="2">
         <textField/>
@@ -291,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1350">
   <si>
     <t>code</t>
   </si>
@@ -4275,12 +4274,78 @@
   </si>
   <si>
     <t>Waterverf</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>AAT ID</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\published titles</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\incipits</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\collective titles</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\titles proper</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\English (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Dutch (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\French (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\German (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Ancient Greek (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Greek (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Hebrew (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Italian (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Latin (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Norwegian (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Portuguese (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Spanish (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Swedish (language)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Annotatie Type\remarks</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Annotatie Type\descriptive note</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4331,7 +4396,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4347,103 +4412,103 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="techniek_types" connectionId="23" xr16:uid="{369E393D-AEF7-B14D-8972-E8FD4EC69E49}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="techniek_types" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="datum_types" connectionId="9" xr16:uid="{A44055F3-01E5-F74D-A902-0123CB9C43FC}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="datum_types" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="document_types" connectionId="10" xr16:uid="{0ABDD7FB-A963-4743-8BBA-290C9D73AA4D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="document_types" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="externe_relatie_types" connectionId="11" xr16:uid="{353FB807-E422-5D4F-88B1-79E8650F6F5F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="externe_relatie_types" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="formaat_types" connectionId="12" xr16:uid="{288DF9CF-B1DE-0D4D-8BD0-09ACE4EEA9F4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="formaat_types" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="fotoformaat_types" connectionId="13" xr16:uid="{487BC9FA-0677-0547-9DAF-3042DAB5787C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="fotoformaat_types" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="genre_types" connectionId="14" xr16:uid="{C794CD13-5B9B-BD46-AD9C-FA6998D6D939}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="genre_types" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="isaar_relatie_types" connectionId="15" xr16:uid="{7F548076-8EDE-304B-B838-598240AC0B9E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="isaar_relatie_types" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="kleur_types" connectionId="16" xr16:uid="{1B738385-53AF-8D4B-B3E1-555E6B18E8B4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="kleur_types" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="materiaal_types" connectionId="17" xr16:uid="{47691027-20B2-844A-B7C2-A03478BF7CB6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="materiaal_types" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="numberofpages_qualifier_types" connectionId="18" xr16:uid="{15E0D788-1DDF-1042-8650-0007D4FE55B0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="numberofpages_qualifier_types" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="annotatie_types" connectionId="1" xr16:uid="{4441D7EA-B9D1-BC49-AA01-E0FB7A202BA6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="annotatie_types" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="object_types" connectionId="19" xr16:uid="{D3EDAA94-82FB-9843-97D1-A85E54B9ED3B}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="object_types" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="record_types" connectionId="20" xr16:uid="{9DBFD946-3EE7-ED40-8326-C26C8C3A16B1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="record_types" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="schrijftechniek_types" connectionId="21" xr16:uid="{033DC900-A6D7-FB4D-BF4D-83A8A15EF30E}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="schrijftechniek_types" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="taal_types" connectionId="22" xr16:uid="{EF5408E6-3083-7A45-BAC5-6F164112014F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="taal_types" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="titel_types" connectionId="24" xr16:uid="{EAB53443-3E0C-5F4A-8156-384566466ACD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="titel_types" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="toegang_types" connectionId="25" xr16:uid="{2E951D2E-9F85-974E-A08F-3B20B9AA616C}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="toegang_types" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="av_film_materiaal_types" connectionId="2" xr16:uid="{4C45396F-8588-DB45-B170-073911EBD596}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="av_film_materiaal_types" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="av_format_types" connectionId="3" xr16:uid="{B41143CF-4BCE-2447-9BB6-38A1B77E4D30}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="av_format_types" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="av_kleur_types" connectionId="4" xr16:uid="{6CD64F85-E0DE-8947-9FCC-236E1FE3E9A0}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="av_kleur_types" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="av_types" connectionId="5" xr16:uid="{B892C377-AC3B-0A44-9403-39EAB694B27D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="av_types" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="beschrijving_types" connectionId="6" xr16:uid="{98369F33-21AC-B24D-824E-B7F9B26BA9CD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="beschrijving_types" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="conditie_types" connectionId="7" xr16:uid="{D579C305-4590-5547-88A6-AE562A15F084}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="conditie_types" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="date_types" connectionId="8" xr16:uid="{45681EB1-8E7B-3B44-801D-2B17D5914579}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="date_types" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4742,20 +4807,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C65D70F-7AD3-CB44-B02B-848DCC67D02F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1105</v>
       </c>
@@ -4763,7 +4828,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1107</v>
       </c>
@@ -4771,7 +4836,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -4779,7 +4844,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1108</v>
       </c>
@@ -4787,7 +4852,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1109</v>
       </c>
@@ -4795,7 +4860,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1110</v>
       </c>
@@ -4803,7 +4868,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1111</v>
       </c>
@@ -4811,7 +4876,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1112</v>
       </c>
@@ -4819,7 +4884,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1113</v>
       </c>
@@ -4827,7 +4892,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1114</v>
       </c>
@@ -4835,7 +4900,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1115</v>
       </c>
@@ -4843,7 +4908,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1116</v>
       </c>
@@ -4851,7 +4916,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1117</v>
       </c>
@@ -4859,7 +4924,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1118</v>
       </c>
@@ -4867,7 +4932,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1119</v>
       </c>
@@ -4875,7 +4940,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1120</v>
       </c>
@@ -4883,7 +4948,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1121</v>
       </c>
@@ -4891,7 +4956,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1122</v>
       </c>
@@ -4899,7 +4964,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1123</v>
       </c>
@@ -4907,7 +4972,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1124</v>
       </c>
@@ -4915,7 +4980,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>1125</v>
       </c>
@@ -4923,7 +4988,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>1127</v>
       </c>
@@ -4931,7 +4996,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1128</v>
       </c>
@@ -4939,7 +5004,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1129</v>
       </c>
@@ -4947,7 +5012,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>1130</v>
       </c>
@@ -4955,12 +5020,12 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>1152</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>1126</v>
       </c>
@@ -4974,20 +5039,20 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425DF91F-83B9-A140-A193-562CBBDED4B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4998,7 +5063,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -5006,7 +5071,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>142</v>
       </c>
@@ -5014,7 +5079,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>144</v>
       </c>
@@ -5022,7 +5087,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -5030,7 +5095,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>148</v>
       </c>
@@ -5038,7 +5103,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -5046,7 +5111,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>152</v>
       </c>
@@ -5054,7 +5119,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -5062,7 +5127,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>156</v>
       </c>
@@ -5070,42 +5135,42 @@
         <v>157</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="7:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="7:11" x14ac:dyDescent="0.3">
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
@@ -5118,20 +5183,20 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E5ECC2-EE41-E240-8735-2AC05E34D806}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5142,7 +5207,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -5150,7 +5215,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -5164,20 +5229,20 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D288237-0FD0-F345-9BDB-E3324607A3A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5188,7 +5253,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -5196,7 +5261,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -5204,7 +5269,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -5212,7 +5277,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -5220,7 +5285,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -5228,7 +5293,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -5236,7 +5301,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -5244,7 +5309,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -5252,7 +5317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -5260,7 +5325,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -5268,7 +5333,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -5276,7 +5341,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -5284,7 +5349,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -5292,7 +5357,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -5300,7 +5365,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -5308,7 +5373,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>192</v>
       </c>
@@ -5316,7 +5381,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>194</v>
       </c>
@@ -5324,7 +5389,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>196</v>
       </c>
@@ -5332,7 +5397,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -5340,7 +5405,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>200</v>
       </c>
@@ -5348,7 +5413,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>123</v>
       </c>
@@ -5356,7 +5421,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -5364,7 +5429,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>204</v>
       </c>
@@ -5372,7 +5437,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>206</v>
       </c>
@@ -5380,7 +5445,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>208</v>
       </c>
@@ -5388,7 +5453,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>210</v>
       </c>
@@ -5396,7 +5461,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>212</v>
       </c>
@@ -5404,7 +5469,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -5412,7 +5477,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -5420,7 +5485,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>218</v>
       </c>
@@ -5428,7 +5493,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>220</v>
       </c>
@@ -5436,7 +5501,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>222</v>
       </c>
@@ -5444,7 +5509,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>224</v>
       </c>
@@ -5452,7 +5517,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>226</v>
       </c>
@@ -5460,7 +5525,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>228</v>
       </c>
@@ -5468,7 +5533,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>230</v>
       </c>
@@ -5476,7 +5541,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>232</v>
       </c>
@@ -5484,7 +5549,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>234</v>
       </c>
@@ -5492,7 +5557,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>236</v>
       </c>
@@ -5500,7 +5565,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>238</v>
       </c>
@@ -5508,7 +5573,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>240</v>
       </c>
@@ -5516,7 +5581,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>242</v>
       </c>
@@ -5524,7 +5589,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>244</v>
       </c>
@@ -5532,7 +5597,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>246</v>
       </c>
@@ -5540,7 +5605,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>248</v>
       </c>
@@ -5548,7 +5613,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>250</v>
       </c>
@@ -5556,7 +5621,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>252</v>
       </c>
@@ -5564,7 +5629,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>254</v>
       </c>
@@ -5572,7 +5637,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>256</v>
       </c>
@@ -5580,7 +5645,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>258</v>
       </c>
@@ -5588,7 +5653,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>260</v>
       </c>
@@ -5596,7 +5661,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>262</v>
       </c>
@@ -5604,7 +5669,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>264</v>
       </c>
@@ -5612,7 +5677,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>266</v>
       </c>
@@ -5620,7 +5685,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>268</v>
       </c>
@@ -5628,7 +5693,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>270</v>
       </c>
@@ -5636,7 +5701,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>272</v>
       </c>
@@ -5644,7 +5709,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>274</v>
       </c>
@@ -5652,7 +5717,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>275</v>
       </c>
@@ -5660,7 +5725,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>277</v>
       </c>
@@ -5668,7 +5733,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>279</v>
       </c>
@@ -5676,7 +5741,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>281</v>
       </c>
@@ -5684,7 +5749,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>283</v>
       </c>
@@ -5692,7 +5757,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>285</v>
       </c>
@@ -5700,7 +5765,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>287</v>
       </c>
@@ -5708,7 +5773,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>289</v>
       </c>
@@ -5716,7 +5781,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>291</v>
       </c>
@@ -5724,7 +5789,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>293</v>
       </c>
@@ -5732,7 +5797,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>295</v>
       </c>
@@ -5740,7 +5805,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>297</v>
       </c>
@@ -5748,7 +5813,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>299</v>
       </c>
@@ -5756,7 +5821,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>301</v>
       </c>
@@ -5770,20 +5835,20 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A56DCFA5-9D2E-D340-8E79-94C6DBAF1361}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5794,7 +5859,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>303</v>
       </c>
@@ -5802,7 +5867,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>305</v>
       </c>
@@ -5810,7 +5875,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -5818,7 +5883,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>309</v>
       </c>
@@ -5826,7 +5891,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -5834,7 +5899,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>312</v>
       </c>
@@ -5842,7 +5907,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -5850,7 +5915,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>316</v>
       </c>
@@ -5858,7 +5923,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -5866,7 +5931,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>320</v>
       </c>
@@ -5874,7 +5939,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -5882,7 +5947,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>323</v>
       </c>
@@ -5890,7 +5955,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -5898,7 +5963,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -5906,7 +5971,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -5914,7 +5979,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>330</v>
       </c>
@@ -5922,7 +5987,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>332</v>
       </c>
@@ -5930,7 +5995,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>334</v>
       </c>
@@ -5938,7 +6003,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>336</v>
       </c>
@@ -5946,7 +6011,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>338</v>
       </c>
@@ -5954,7 +6019,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>340</v>
       </c>
@@ -5962,7 +6027,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>342</v>
       </c>
@@ -5970,7 +6035,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>344</v>
       </c>
@@ -5984,20 +6049,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB4DB1E-4E00-6E4C-9348-A9642A5DB9DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6008,7 +6073,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>346</v>
       </c>
@@ -6022,20 +6087,20 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A317B5-97E8-984F-8EB9-C95AF0D70FF7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6046,7 +6111,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>348</v>
       </c>
@@ -6054,7 +6119,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>350</v>
       </c>
@@ -6062,7 +6127,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>352</v>
       </c>
@@ -6070,7 +6135,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -6078,7 +6143,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>356</v>
       </c>
@@ -6086,7 +6151,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>358</v>
       </c>
@@ -6094,7 +6159,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>360</v>
       </c>
@@ -6102,7 +6167,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -6110,7 +6175,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -6118,7 +6183,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -6132,20 +6197,20 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64648D77-1B7D-9E4C-8BD9-36ED0361385C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6156,7 +6221,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>368</v>
       </c>
@@ -6164,7 +6229,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -6172,7 +6237,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -6180,7 +6245,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -6188,7 +6253,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>376</v>
       </c>
@@ -6196,7 +6261,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -6204,7 +6269,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>380</v>
       </c>
@@ -6212,7 +6277,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>382</v>
       </c>
@@ -6220,7 +6285,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -6228,7 +6293,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -6236,7 +6301,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>388</v>
       </c>
@@ -6244,7 +6309,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -6252,7 +6317,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>392</v>
       </c>
@@ -6260,7 +6325,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -6268,7 +6333,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -6276,7 +6341,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>398</v>
       </c>
@@ -6284,7 +6349,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>400</v>
       </c>
@@ -6292,7 +6357,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>402</v>
       </c>
@@ -6300,7 +6365,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>404</v>
       </c>
@@ -6308,7 +6373,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>406</v>
       </c>
@@ -6316,7 +6381,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -6324,7 +6389,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>410</v>
       </c>
@@ -6332,7 +6397,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>412</v>
       </c>
@@ -6340,7 +6405,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>414</v>
       </c>
@@ -6348,7 +6413,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>416</v>
       </c>
@@ -6356,7 +6421,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>418</v>
       </c>
@@ -6364,7 +6429,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>420</v>
       </c>
@@ -6372,7 +6437,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>422</v>
       </c>
@@ -6380,7 +6445,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>424</v>
       </c>
@@ -6388,7 +6453,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>426</v>
       </c>
@@ -6396,7 +6461,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>428</v>
       </c>
@@ -6404,7 +6469,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>430</v>
       </c>
@@ -6412,7 +6477,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>432</v>
       </c>
@@ -6420,7 +6485,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>434</v>
       </c>
@@ -6428,7 +6493,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>436</v>
       </c>
@@ -6436,7 +6501,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>438</v>
       </c>
@@ -6444,7 +6509,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>440</v>
       </c>
@@ -6452,7 +6517,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>442</v>
       </c>
@@ -6460,7 +6525,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>444</v>
       </c>
@@ -6468,7 +6533,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>446</v>
       </c>
@@ -6476,7 +6541,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>448</v>
       </c>
@@ -6484,7 +6549,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>450</v>
       </c>
@@ -6492,7 +6557,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>452</v>
       </c>
@@ -6500,7 +6565,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>454</v>
       </c>
@@ -6508,7 +6573,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>456</v>
       </c>
@@ -6516,7 +6581,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>458</v>
       </c>
@@ -6524,7 +6589,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>460</v>
       </c>
@@ -6532,7 +6597,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>462</v>
       </c>
@@ -6540,7 +6605,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>464</v>
       </c>
@@ -6548,7 +6613,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>466</v>
       </c>
@@ -6556,7 +6621,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>468</v>
       </c>
@@ -6564,7 +6629,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>470</v>
       </c>
@@ -6578,20 +6643,20 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A345C2D-9141-D04B-A4A4-E4B6ECFDDB0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6602,7 +6667,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -6610,7 +6675,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>474</v>
       </c>
@@ -6618,7 +6683,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>476</v>
       </c>
@@ -6626,7 +6691,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>478</v>
       </c>
@@ -6634,7 +6699,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -6642,7 +6707,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>482</v>
       </c>
@@ -6650,7 +6715,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -6658,7 +6723,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>486</v>
       </c>
@@ -6666,7 +6731,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>488</v>
       </c>
@@ -6674,7 +6739,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>490</v>
       </c>
@@ -6682,7 +6747,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>492</v>
       </c>
@@ -6690,7 +6755,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>494</v>
       </c>
@@ -6698,7 +6763,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>374</v>
       </c>
@@ -6706,7 +6771,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>497</v>
       </c>
@@ -6714,7 +6779,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>499</v>
       </c>
@@ -6722,7 +6787,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>501</v>
       </c>
@@ -6730,7 +6795,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>503</v>
       </c>
@@ -6738,7 +6803,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>505</v>
       </c>
@@ -6746,7 +6811,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>507</v>
       </c>
@@ -6754,7 +6819,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>509</v>
       </c>
@@ -6762,7 +6827,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>511</v>
       </c>
@@ -6770,7 +6835,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>513</v>
       </c>
@@ -6778,7 +6843,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>515</v>
       </c>
@@ -6786,7 +6851,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>517</v>
       </c>
@@ -6794,7 +6859,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>519</v>
       </c>
@@ -6802,7 +6867,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>289</v>
       </c>
@@ -6810,7 +6875,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>522</v>
       </c>
@@ -6818,7 +6883,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>524</v>
       </c>
@@ -6826,7 +6891,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>526</v>
       </c>
@@ -6834,7 +6899,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>528</v>
       </c>
@@ -6842,7 +6907,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>530</v>
       </c>
@@ -6850,7 +6915,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>275</v>
       </c>
@@ -6858,7 +6923,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>533</v>
       </c>
@@ -6866,7 +6931,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>422</v>
       </c>
@@ -6874,7 +6939,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>536</v>
       </c>
@@ -6882,7 +6947,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>538</v>
       </c>
@@ -6890,7 +6955,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>281</v>
       </c>
@@ -6898,7 +6963,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -6912,20 +6977,20 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{352414A6-4928-E341-95E8-CD098BB02A27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6936,7 +7001,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>543</v>
       </c>
@@ -6944,7 +7009,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>545</v>
       </c>
@@ -6952,7 +7017,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>547</v>
       </c>
@@ -6960,7 +7025,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>549</v>
       </c>
@@ -6968,7 +7033,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>551</v>
       </c>
@@ -6976,7 +7041,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>553</v>
       </c>
@@ -6984,7 +7049,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>555</v>
       </c>
@@ -6992,7 +7057,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>557</v>
       </c>
@@ -7000,7 +7065,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>559</v>
       </c>
@@ -7008,7 +7073,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>561</v>
       </c>
@@ -7016,7 +7081,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>563</v>
       </c>
@@ -7024,7 +7089,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>565</v>
       </c>
@@ -7032,7 +7097,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>567</v>
       </c>
@@ -7040,7 +7105,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>569</v>
       </c>
@@ -7048,7 +7113,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>571</v>
       </c>
@@ -7056,7 +7121,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>573</v>
       </c>
@@ -7064,7 +7129,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>575</v>
       </c>
@@ -7072,7 +7137,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>577</v>
       </c>
@@ -7080,7 +7145,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>579</v>
       </c>
@@ -7088,7 +7153,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>581</v>
       </c>
@@ -7096,7 +7161,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>583</v>
       </c>
@@ -7104,7 +7169,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>585</v>
       </c>
@@ -7112,7 +7177,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>587</v>
       </c>
@@ -7120,7 +7185,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>589</v>
       </c>
@@ -7128,7 +7193,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>591</v>
       </c>
@@ -7136,7 +7201,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>593</v>
       </c>
@@ -7144,7 +7209,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>595</v>
       </c>
@@ -7152,7 +7217,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>597</v>
       </c>
@@ -7160,7 +7225,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>599</v>
       </c>
@@ -7168,7 +7233,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>601</v>
       </c>
@@ -7176,7 +7241,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>603</v>
       </c>
@@ -7184,7 +7249,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>605</v>
       </c>
@@ -7192,7 +7257,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>607</v>
       </c>
@@ -7200,7 +7265,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>609</v>
       </c>
@@ -7208,7 +7273,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>611</v>
       </c>
@@ -7222,20 +7287,20 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721CD6E8-8694-024A-8158-C37677F11FC5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7246,7 +7311,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>613</v>
       </c>
@@ -7254,7 +7319,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>615</v>
       </c>
@@ -7262,7 +7327,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>617</v>
       </c>
@@ -7270,7 +7335,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>619</v>
       </c>
@@ -7278,7 +7343,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>621</v>
       </c>
@@ -7286,7 +7351,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>623</v>
       </c>
@@ -7294,7 +7359,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>625</v>
       </c>
@@ -7302,7 +7367,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>627</v>
       </c>
@@ -7310,7 +7375,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>629</v>
       </c>
@@ -7318,7 +7383,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>631</v>
       </c>
@@ -7326,7 +7391,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>633</v>
       </c>
@@ -7334,7 +7399,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>635</v>
       </c>
@@ -7342,7 +7407,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>637</v>
       </c>
@@ -7350,7 +7415,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>639</v>
       </c>
@@ -7358,7 +7423,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>641</v>
       </c>
@@ -7366,7 +7431,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>643</v>
       </c>
@@ -7374,7 +7439,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>645</v>
       </c>
@@ -7382,7 +7447,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>647</v>
       </c>
@@ -7390,7 +7455,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>649</v>
       </c>
@@ -7398,7 +7463,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>651</v>
       </c>
@@ -7406,7 +7471,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>653</v>
       </c>
@@ -7414,7 +7479,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>655</v>
       </c>
@@ -7422,7 +7487,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>657</v>
       </c>
@@ -7430,7 +7495,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>659</v>
       </c>
@@ -7438,7 +7503,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>661</v>
       </c>
@@ -7446,7 +7511,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>663</v>
       </c>
@@ -7454,7 +7519,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>665</v>
       </c>
@@ -7462,7 +7527,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>667</v>
       </c>
@@ -7470,7 +7535,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>669</v>
       </c>
@@ -7478,7 +7543,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>671</v>
       </c>
@@ -7486,7 +7551,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>673</v>
       </c>
@@ -7494,7 +7559,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>675</v>
       </c>
@@ -7502,7 +7567,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>676</v>
       </c>
@@ -7510,7 +7575,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>678</v>
       </c>
@@ -7518,7 +7583,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>680</v>
       </c>
@@ -7526,7 +7591,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>682</v>
       </c>
@@ -7534,7 +7599,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>684</v>
       </c>
@@ -7542,7 +7607,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>686</v>
       </c>
@@ -7550,7 +7615,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>687</v>
       </c>
@@ -7558,7 +7623,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>689</v>
       </c>
@@ -7566,7 +7631,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>691</v>
       </c>
@@ -7574,7 +7639,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>693</v>
       </c>
@@ -7582,7 +7647,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>695</v>
       </c>
@@ -7590,7 +7655,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>697</v>
       </c>
@@ -7598,7 +7663,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>699</v>
       </c>
@@ -7606,7 +7671,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>701</v>
       </c>
@@ -7614,7 +7679,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>703</v>
       </c>
@@ -7622,7 +7687,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>705</v>
       </c>
@@ -7630,7 +7695,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>707</v>
       </c>
@@ -7638,7 +7703,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>709</v>
       </c>
@@ -7646,7 +7711,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>711</v>
       </c>
@@ -7654,7 +7719,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>712</v>
       </c>
@@ -7662,7 +7727,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>713</v>
       </c>
@@ -7670,7 +7735,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>715</v>
       </c>
@@ -7678,7 +7743,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>717</v>
       </c>
@@ -7686,7 +7751,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>719</v>
       </c>
@@ -7694,7 +7759,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>721</v>
       </c>
@@ -7702,7 +7767,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>723</v>
       </c>
@@ -7710,7 +7775,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>725</v>
       </c>
@@ -7718,7 +7783,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>727</v>
       </c>
@@ -7726,7 +7791,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>729</v>
       </c>
@@ -7734,7 +7799,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>731</v>
       </c>
@@ -7742,7 +7807,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>732</v>
       </c>
@@ -7750,7 +7815,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>734</v>
       </c>
@@ -7758,7 +7823,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>735</v>
       </c>
@@ -7766,7 +7831,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>737</v>
       </c>
@@ -7774,7 +7839,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>738</v>
       </c>
@@ -7782,7 +7847,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>740</v>
       </c>
@@ -7790,7 +7855,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>742</v>
       </c>
@@ -7798,7 +7863,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>744</v>
       </c>
@@ -7806,7 +7871,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>746</v>
       </c>
@@ -7814,7 +7879,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>748</v>
       </c>
@@ -7822,7 +7887,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>750</v>
       </c>
@@ -7830,7 +7895,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>751</v>
       </c>
@@ -7838,7 +7903,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>753</v>
       </c>
@@ -7846,7 +7911,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>755</v>
       </c>
@@ -7854,7 +7919,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>757</v>
       </c>
@@ -7862,7 +7927,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>759</v>
       </c>
@@ -7870,7 +7935,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>761</v>
       </c>
@@ -7878,7 +7943,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>762</v>
       </c>
@@ -7886,7 +7951,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>764</v>
       </c>
@@ -7894,7 +7959,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>766</v>
       </c>
@@ -7902,7 +7967,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>768</v>
       </c>
@@ -7910,7 +7975,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>769</v>
       </c>
@@ -7918,7 +7983,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>771</v>
       </c>
@@ -7926,7 +7991,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>773</v>
       </c>
@@ -7934,7 +7999,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>775</v>
       </c>
@@ -7942,7 +8007,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>777</v>
       </c>
@@ -7950,7 +8015,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>779</v>
       </c>
@@ -7958,7 +8023,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>781</v>
       </c>
@@ -7966,7 +8031,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>783</v>
       </c>
@@ -7974,7 +8039,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>785</v>
       </c>
@@ -7982,7 +8047,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>787</v>
       </c>
@@ -7990,7 +8055,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>789</v>
       </c>
@@ -7998,7 +8063,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>791</v>
       </c>
@@ -8006,7 +8071,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>793</v>
       </c>
@@ -8014,7 +8079,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>794</v>
       </c>
@@ -8022,7 +8087,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>796</v>
       </c>
@@ -8030,7 +8095,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>798</v>
       </c>
@@ -8038,7 +8103,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>800</v>
       </c>
@@ -8046,7 +8111,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>802</v>
       </c>
@@ -8054,7 +8119,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>804</v>
       </c>
@@ -8062,7 +8127,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>805</v>
       </c>
@@ -8070,7 +8135,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>807</v>
       </c>
@@ -8078,7 +8143,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>808</v>
       </c>
@@ -8086,7 +8151,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>809</v>
       </c>
@@ -8094,7 +8159,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>810</v>
       </c>
@@ -8102,7 +8167,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>812</v>
       </c>
@@ -8110,7 +8175,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>814</v>
       </c>
@@ -8118,7 +8183,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>816</v>
       </c>
@@ -8126,7 +8191,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>818</v>
       </c>
@@ -8134,7 +8199,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>820</v>
       </c>
@@ -8142,7 +8207,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>822</v>
       </c>
@@ -8150,7 +8215,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>824</v>
       </c>
@@ -8158,7 +8223,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>826</v>
       </c>
@@ -8166,7 +8231,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>828</v>
       </c>
@@ -8174,7 +8239,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>830</v>
       </c>
@@ -8182,7 +8247,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>832</v>
       </c>
@@ -8190,7 +8255,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>834</v>
       </c>
@@ -8198,7 +8263,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>836</v>
       </c>
@@ -8206,7 +8271,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>838</v>
       </c>
@@ -8214,7 +8279,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>840</v>
       </c>
@@ -8222,7 +8287,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>842</v>
       </c>
@@ -8230,7 +8295,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>844</v>
       </c>
@@ -8238,7 +8303,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>846</v>
       </c>
@@ -8246,7 +8311,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>848</v>
       </c>
@@ -8254,7 +8319,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>850</v>
       </c>
@@ -8262,7 +8327,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>851</v>
       </c>
@@ -8270,7 +8335,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>853</v>
       </c>
@@ -8278,7 +8343,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>855</v>
       </c>
@@ -8286,7 +8351,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>857</v>
       </c>
@@ -8294,7 +8359,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>859</v>
       </c>
@@ -8302,7 +8367,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>861</v>
       </c>
@@ -8310,7 +8375,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>863</v>
       </c>
@@ -8318,7 +8383,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>865</v>
       </c>
@@ -8326,7 +8391,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>867</v>
       </c>
@@ -8334,7 +8399,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>869</v>
       </c>
@@ -8342,7 +8407,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>871</v>
       </c>
@@ -8350,7 +8415,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>873</v>
       </c>
@@ -8364,18 +8429,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C124FC5F-1A9F-D042-B822-202E008BA292}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8383,7 +8448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1158</v>
       </c>
@@ -8391,7 +8456,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1159</v>
       </c>
@@ -8399,7 +8464,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1161</v>
       </c>
@@ -8407,7 +8472,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1163</v>
       </c>
@@ -8415,7 +8480,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1165</v>
       </c>
@@ -8423,7 +8488,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1167</v>
       </c>
@@ -8431,7 +8496,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>613</v>
       </c>
@@ -8439,7 +8504,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>615</v>
       </c>
@@ -8447,7 +8512,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>617</v>
       </c>
@@ -8455,7 +8520,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>619</v>
       </c>
@@ -8463,7 +8528,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>621</v>
       </c>
@@ -8471,7 +8536,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>623</v>
       </c>
@@ -8479,7 +8544,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>625</v>
       </c>
@@ -8487,7 +8552,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>627</v>
       </c>
@@ -8495,7 +8560,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>629</v>
       </c>
@@ -8503,7 +8568,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>631</v>
       </c>
@@ -8511,7 +8576,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>633</v>
       </c>
@@ -8519,7 +8584,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>635</v>
       </c>
@@ -8527,7 +8592,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>637</v>
       </c>
@@ -8535,7 +8600,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>639</v>
       </c>
@@ -8543,7 +8608,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>641</v>
       </c>
@@ -8551,7 +8616,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>643</v>
       </c>
@@ -8559,7 +8624,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>645</v>
       </c>
@@ -8567,7 +8632,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>647</v>
       </c>
@@ -8575,7 +8640,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>649</v>
       </c>
@@ -8583,7 +8648,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>651</v>
       </c>
@@ -8591,7 +8656,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>653</v>
       </c>
@@ -8599,7 +8664,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>655</v>
       </c>
@@ -8607,7 +8672,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>657</v>
       </c>
@@ -8615,7 +8680,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>659</v>
       </c>
@@ -8623,7 +8688,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>661</v>
       </c>
@@ -8631,7 +8696,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>663</v>
       </c>
@@ -8639,7 +8704,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>665</v>
       </c>
@@ -8647,7 +8712,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>667</v>
       </c>
@@ -8655,7 +8720,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>669</v>
       </c>
@@ -8663,7 +8728,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>671</v>
       </c>
@@ -8671,7 +8736,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>673</v>
       </c>
@@ -8679,7 +8744,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>675</v>
       </c>
@@ -8687,7 +8752,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>676</v>
       </c>
@@ -8695,7 +8760,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>678</v>
       </c>
@@ -8703,7 +8768,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>680</v>
       </c>
@@ -8711,7 +8776,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>682</v>
       </c>
@@ -8719,7 +8784,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>684</v>
       </c>
@@ -8727,7 +8792,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>686</v>
       </c>
@@ -8735,7 +8800,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>687</v>
       </c>
@@ -8743,7 +8808,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>689</v>
       </c>
@@ -8751,7 +8816,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>691</v>
       </c>
@@ -8759,7 +8824,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>693</v>
       </c>
@@ -8767,7 +8832,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>695</v>
       </c>
@@ -8775,7 +8840,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>697</v>
       </c>
@@ -8783,7 +8848,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>699</v>
       </c>
@@ -8791,7 +8856,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>701</v>
       </c>
@@ -8799,7 +8864,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>1168</v>
       </c>
@@ -8807,7 +8872,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>1170</v>
       </c>
@@ -8815,7 +8880,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>1171</v>
       </c>
@@ -8823,7 +8888,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>1173</v>
       </c>
@@ -8831,7 +8896,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>1175</v>
       </c>
@@ -8839,7 +8904,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>1177</v>
       </c>
@@ -8847,7 +8912,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>1179</v>
       </c>
@@ -8855,7 +8920,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>1181</v>
       </c>
@@ -8863,7 +8928,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>1183</v>
       </c>
@@ -8871,7 +8936,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>1185</v>
       </c>
@@ -8879,7 +8944,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>1187</v>
       </c>
@@ -8887,7 +8952,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>1189</v>
       </c>
@@ -8895,7 +8960,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>1191</v>
       </c>
@@ -8903,7 +8968,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>1193</v>
       </c>
@@ -8911,7 +8976,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>1195</v>
       </c>
@@ -8919,7 +8984,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>1197</v>
       </c>
@@ -8927,7 +8992,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>1198</v>
       </c>
@@ -8935,7 +9000,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>1200</v>
       </c>
@@ -8943,7 +9008,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1202</v>
       </c>
@@ -8951,7 +9016,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1204</v>
       </c>
@@ -8959,7 +9024,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1206</v>
       </c>
@@ -8967,7 +9032,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1208</v>
       </c>
@@ -8975,7 +9040,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1210</v>
       </c>
@@ -8983,7 +9048,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1212</v>
       </c>
@@ -8991,7 +9056,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1214</v>
       </c>
@@ -8999,7 +9064,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1216</v>
       </c>
@@ -9007,7 +9072,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1218</v>
       </c>
@@ -9015,7 +9080,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1220</v>
       </c>
@@ -9023,7 +9088,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1222</v>
       </c>
@@ -9031,7 +9096,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1224</v>
       </c>
@@ -9039,7 +9104,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1226</v>
       </c>
@@ -9047,7 +9112,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1228</v>
       </c>
@@ -9055,7 +9120,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1230</v>
       </c>
@@ -9063,7 +9128,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>1232</v>
       </c>
@@ -9071,7 +9136,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>1234</v>
       </c>
@@ -9079,7 +9144,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>1236</v>
       </c>
@@ -9087,7 +9152,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>1238</v>
       </c>
@@ -9095,7 +9160,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>1240</v>
       </c>
@@ -9103,7 +9168,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>1242</v>
       </c>
@@ -9111,7 +9176,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>1244</v>
       </c>
@@ -9119,7 +9184,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>1246</v>
       </c>
@@ -9127,7 +9192,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>1248</v>
       </c>
@@ -9135,7 +9200,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>1250</v>
       </c>
@@ -9143,7 +9208,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>1252</v>
       </c>
@@ -9151,7 +9216,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>1254</v>
       </c>
@@ -9159,7 +9224,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>1256</v>
       </c>
@@ -9167,7 +9232,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>1258</v>
       </c>
@@ -9175,7 +9240,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>1260</v>
       </c>
@@ -9183,7 +9248,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>1262</v>
       </c>
@@ -9191,7 +9256,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>1264</v>
       </c>
@@ -9199,7 +9264,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>1266</v>
       </c>
@@ -9207,7 +9272,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>1268</v>
       </c>
@@ -9215,7 +9280,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>1270</v>
       </c>
@@ -9223,7 +9288,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>1272</v>
       </c>
@@ -9231,7 +9296,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>1274</v>
       </c>
@@ -9239,7 +9304,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>1276</v>
       </c>
@@ -9247,7 +9312,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>1278</v>
       </c>
@@ -9255,7 +9320,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>1280</v>
       </c>
@@ -9263,7 +9328,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>1282</v>
       </c>
@@ -9271,7 +9336,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>1284</v>
       </c>
@@ -9279,7 +9344,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>812</v>
       </c>
@@ -9287,7 +9352,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>814</v>
       </c>
@@ -9295,7 +9360,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>816</v>
       </c>
@@ -9303,7 +9368,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>818</v>
       </c>
@@ -9311,7 +9376,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>820</v>
       </c>
@@ -9319,7 +9384,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>822</v>
       </c>
@@ -9327,7 +9392,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>824</v>
       </c>
@@ -9335,7 +9400,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>826</v>
       </c>
@@ -9343,7 +9408,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>828</v>
       </c>
@@ -9351,7 +9416,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>830</v>
       </c>
@@ -9359,7 +9424,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>832</v>
       </c>
@@ -9367,7 +9432,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>834</v>
       </c>
@@ -9375,7 +9440,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>836</v>
       </c>
@@ -9383,7 +9448,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>838</v>
       </c>
@@ -9391,7 +9456,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>840</v>
       </c>
@@ -9399,7 +9464,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>842</v>
       </c>
@@ -9407,7 +9472,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>844</v>
       </c>
@@ -9415,7 +9480,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>846</v>
       </c>
@@ -9423,7 +9488,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>848</v>
       </c>
@@ -9431,7 +9496,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>850</v>
       </c>
@@ -9439,7 +9504,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>851</v>
       </c>
@@ -9447,7 +9512,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>853</v>
       </c>
@@ -9455,7 +9520,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>855</v>
       </c>
@@ -9463,7 +9528,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>1286</v>
       </c>
@@ -9471,7 +9536,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>1288</v>
       </c>
@@ -9479,7 +9544,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>1290</v>
       </c>
@@ -9487,7 +9552,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>1292</v>
       </c>
@@ -9495,7 +9560,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>1294</v>
       </c>
@@ -9503,7 +9568,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>1295</v>
       </c>
@@ -9511,7 +9576,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>1297</v>
       </c>
@@ -9519,7 +9584,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>1298</v>
       </c>
@@ -9527,7 +9592,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>1300</v>
       </c>
@@ -9535,7 +9600,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>1301</v>
       </c>
@@ -9543,7 +9608,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>1302</v>
       </c>
@@ -9551,7 +9616,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>1303</v>
       </c>
@@ -9559,7 +9624,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1305</v>
       </c>
@@ -9567,7 +9632,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1307</v>
       </c>
@@ -9575,7 +9640,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1308</v>
       </c>
@@ -9583,7 +9648,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>1310</v>
       </c>
@@ -9591,7 +9656,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>1312</v>
       </c>
@@ -9599,7 +9664,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>1314</v>
       </c>
@@ -9607,7 +9672,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>1316</v>
       </c>
@@ -9615,7 +9680,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>1317</v>
       </c>
@@ -9623,7 +9688,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>1319</v>
       </c>
@@ -9631,7 +9696,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>1320</v>
       </c>
@@ -9639,7 +9704,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>1321</v>
       </c>
@@ -9647,7 +9712,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>1323</v>
       </c>
@@ -9655,7 +9720,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>1325</v>
       </c>
@@ -9663,7 +9728,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>1326</v>
       </c>
@@ -9677,20 +9742,20 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F91B51C5-A0D1-1145-A055-1E53F1FA37D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9701,7 +9766,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>875</v>
       </c>
@@ -9715,20 +9780,20 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57D6A88A-5F16-4B40-BEDD-3467E1F95C0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9739,7 +9804,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>876</v>
       </c>
@@ -9747,7 +9812,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>878</v>
       </c>
@@ -9755,7 +9820,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>880</v>
       </c>
@@ -9763,7 +9828,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>882</v>
       </c>
@@ -9771,7 +9836,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>883</v>
       </c>
@@ -9779,7 +9844,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>885</v>
       </c>
@@ -9787,7 +9852,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>887</v>
       </c>
@@ -9795,7 +9860,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>888</v>
       </c>
@@ -9803,7 +9868,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>890</v>
       </c>
@@ -9811,7 +9876,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>892</v>
       </c>
@@ -9819,7 +9884,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>894</v>
       </c>
@@ -9827,7 +9892,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>896</v>
       </c>
@@ -9835,7 +9900,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>898</v>
       </c>
@@ -9843,7 +9908,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>899</v>
       </c>
@@ -9851,7 +9916,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>900</v>
       </c>
@@ -9859,7 +9924,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>902</v>
       </c>
@@ -9867,7 +9932,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>904</v>
       </c>
@@ -9875,7 +9940,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>905</v>
       </c>
@@ -9883,7 +9948,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>907</v>
       </c>
@@ -9891,7 +9956,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>909</v>
       </c>
@@ -9899,7 +9964,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>911</v>
       </c>
@@ -9907,7 +9972,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>913</v>
       </c>
@@ -9915,7 +9980,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>915</v>
       </c>
@@ -9923,7 +9988,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>917</v>
       </c>
@@ -9931,7 +9996,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>918</v>
       </c>
@@ -9939,7 +10004,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>920</v>
       </c>
@@ -9947,7 +10012,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>922</v>
       </c>
@@ -9955,7 +10020,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>923</v>
       </c>
@@ -9963,7 +10028,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>925</v>
       </c>
@@ -9971,7 +10036,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>927</v>
       </c>
@@ -9979,7 +10044,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>929</v>
       </c>
@@ -9987,7 +10052,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>930</v>
       </c>
@@ -9995,7 +10060,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>932</v>
       </c>
@@ -10003,7 +10068,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>934</v>
       </c>
@@ -10011,7 +10076,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>936</v>
       </c>
@@ -10019,7 +10084,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>938</v>
       </c>
@@ -10027,7 +10092,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>940</v>
       </c>
@@ -10035,7 +10100,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>942</v>
       </c>
@@ -10043,7 +10108,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>944</v>
       </c>
@@ -10051,7 +10116,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>946</v>
       </c>
@@ -10059,7 +10124,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>948</v>
       </c>
@@ -10067,7 +10132,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>949</v>
       </c>
@@ -10075,7 +10140,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>951</v>
       </c>
@@ -10083,7 +10148,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>953</v>
       </c>
@@ -10091,7 +10156,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>955</v>
       </c>
@@ -10099,7 +10164,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>957</v>
       </c>
@@ -10107,7 +10172,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>959</v>
       </c>
@@ -10115,7 +10180,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>961</v>
       </c>
@@ -10123,7 +10188,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>963</v>
       </c>
@@ -10131,7 +10196,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>965</v>
       </c>
@@ -10139,7 +10204,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>967</v>
       </c>
@@ -10147,7 +10212,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>969</v>
       </c>
@@ -10155,7 +10220,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>971</v>
       </c>
@@ -10163,7 +10228,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>973</v>
       </c>
@@ -10171,7 +10236,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>975</v>
       </c>
@@ -10179,7 +10244,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>977</v>
       </c>
@@ -10187,7 +10252,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>979</v>
       </c>
@@ -10195,7 +10260,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>980</v>
       </c>
@@ -10203,7 +10268,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>981</v>
       </c>
@@ -10211,7 +10276,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>982</v>
       </c>
@@ -10219,7 +10284,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>983</v>
       </c>
@@ -10227,7 +10292,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>984</v>
       </c>
@@ -10235,7 +10300,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>985</v>
       </c>
@@ -10243,7 +10308,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>987</v>
       </c>
@@ -10251,7 +10316,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>988</v>
       </c>
@@ -10259,7 +10324,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>990</v>
       </c>
@@ -10267,7 +10332,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>992</v>
       </c>
@@ -10275,7 +10340,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>994</v>
       </c>
@@ -10283,7 +10348,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>996</v>
       </c>
@@ -10291,7 +10356,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>998</v>
       </c>
@@ -10299,7 +10364,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1000</v>
       </c>
@@ -10307,7 +10372,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1002</v>
       </c>
@@ -10315,7 +10380,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1004</v>
       </c>
@@ -10323,7 +10388,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1006</v>
       </c>
@@ -10331,7 +10396,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1008</v>
       </c>
@@ -10339,7 +10404,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1010</v>
       </c>
@@ -10347,7 +10412,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1012</v>
       </c>
@@ -10355,7 +10420,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1014</v>
       </c>
@@ -10363,7 +10428,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1016</v>
       </c>
@@ -10371,7 +10436,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1018</v>
       </c>
@@ -10379,7 +10444,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1020</v>
       </c>
@@ -10387,7 +10452,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1022</v>
       </c>
@@ -10395,7 +10460,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1024</v>
       </c>
@@ -10403,7 +10468,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1026</v>
       </c>
@@ -10411,7 +10476,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1028</v>
       </c>
@@ -10425,19 +10490,19 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{510CD0AC-4AFC-BE41-8E7A-4726954367E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10448,7 +10513,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1030</v>
       </c>
@@ -10456,7 +10521,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1032</v>
       </c>
@@ -10464,7 +10529,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1034</v>
       </c>
@@ -10472,7 +10537,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -10480,7 +10545,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1036</v>
       </c>
@@ -10488,7 +10553,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1036</v>
       </c>
@@ -10496,7 +10561,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1039</v>
       </c>
@@ -10504,7 +10569,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>733</v>
       </c>
@@ -10512,7 +10577,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>296</v>
       </c>
@@ -10520,7 +10585,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>296</v>
       </c>
@@ -10528,7 +10593,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>743</v>
       </c>
@@ -10536,7 +10601,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1043</v>
       </c>
@@ -10544,7 +10609,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1045</v>
       </c>
@@ -10552,7 +10617,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>288</v>
       </c>
@@ -10560,7 +10625,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -10568,7 +10633,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1048</v>
       </c>
@@ -10576,7 +10641,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1049</v>
       </c>
@@ -10584,7 +10649,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1051</v>
       </c>
@@ -10592,7 +10657,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1045</v>
       </c>
@@ -10600,7 +10665,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>950</v>
       </c>
@@ -10614,20 +10679,20 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD00F6EB-63BC-7A40-AEA0-555CB336FDD4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10638,7 +10703,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1055</v>
       </c>
@@ -10646,7 +10711,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1057</v>
       </c>
@@ -10654,7 +10719,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1058</v>
       </c>
@@ -10662,7 +10727,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1060</v>
       </c>
@@ -10670,7 +10735,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1061</v>
       </c>
@@ -10684,20 +10749,20 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C90025-FD26-EE42-B76C-4CA5FF1EDFC2}">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10707,155 +10772,249 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1062</v>
       </c>
       <c r="B2" t="s">
         <v>1063</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D2">
+        <v>300388256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1064</v>
       </c>
       <c r="B3" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D3">
+        <v>300388277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1066</v>
       </c>
       <c r="B4" t="s">
         <v>1067</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>1337</v>
+      </c>
+      <c r="D4">
+        <v>300388306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1068</v>
       </c>
       <c r="B5" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D5">
+        <v>300388344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>406</v>
       </c>
       <c r="B6" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>1339</v>
+      </c>
+      <c r="D6">
+        <v>300387827</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1071</v>
       </c>
       <c r="B7" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D7">
+        <v>300389734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1072</v>
       </c>
       <c r="B8" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D8">
+        <v>300388401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1074</v>
       </c>
       <c r="B9" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D9">
+        <v>300388474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1076</v>
       </c>
       <c r="B10" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D10">
+        <v>300388693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1078</v>
       </c>
       <c r="B11" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D11">
+        <v>300443706</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1080</v>
       </c>
       <c r="B12" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D12">
+        <v>300389115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1082</v>
       </c>
       <c r="B13" t="s">
         <v>1083</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>1346</v>
+      </c>
+      <c r="D13">
+        <v>300389311</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1084</v>
       </c>
       <c r="B14" t="s">
         <v>1085</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D14">
+        <v>300389336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1086</v>
       </c>
       <c r="B15" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1088</v>
       </c>
       <c r="B16" t="s">
         <v>1089</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1090</v>
       </c>
       <c r="B17" t="s">
         <v>1091</v>
       </c>
+      <c r="E17" t="s">
+        <v>1329</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6730DF06-75DF-ED49-9A81-9584C7DEE49F}">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10865,83 +11024,126 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>1092</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1093</v>
       </c>
       <c r="B3" t="s">
         <v>1094</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D3">
+        <v>300417206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1057</v>
       </c>
       <c r="B4" t="s">
         <v>1095</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D4">
+        <v>300055029</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1060</v>
       </c>
       <c r="B5" t="s">
         <v>1096</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D5">
+        <v>300055029</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1097</v>
       </c>
       <c r="B6" t="s">
         <v>1098</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1099</v>
       </c>
       <c r="B7" t="s">
         <v>1100</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D7">
+        <v>300417198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1101</v>
       </c>
       <c r="B8" t="s">
         <v>1102</v>
       </c>
+      <c r="C8" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D8">
+        <v>300417196</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F3AAB3-78C7-F64C-B979-5754CD754AB5}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10951,13 +11153,22 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1103</v>
       </c>
       <c r="B2" t="s">
         <v>1104</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -10966,20 +11177,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C83381BE-701B-2F4C-80B0-CD4B3163ADB6}">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10989,72 +11200,111 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D2">
+        <v>300435415</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D5">
+        <v>300435416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D9">
+        <v>300435415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -11062,98 +11312,141 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D12">
+        <v>300435416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D15">
+        <v>300435415</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D16">
+        <v>300435415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D17">
+        <v>300435416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
       </c>
+      <c r="C19" t="s">
+        <v>1348</v>
+      </c>
+      <c r="D19">
+        <v>300435415</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB55F4F-239E-CB46-994B-D5E45F335BE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11164,7 +11457,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
@@ -11172,7 +11465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -11180,7 +11473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -11194,20 +11487,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CE6CE4-8F25-9C47-B665-FCC00FDBC4F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11218,7 +11511,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
@@ -11226,7 +11519,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -11234,7 +11527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -11242,7 +11535,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -11250,7 +11543,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -11258,7 +11551,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -11266,7 +11559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -11274,7 +11567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -11282,7 +11575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -11290,7 +11583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -11298,7 +11591,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -11306,7 +11599,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
@@ -11314,7 +11607,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -11322,7 +11615,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -11330,7 +11623,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -11338,7 +11631,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -11346,7 +11639,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -11354,7 +11647,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>73</v>
       </c>
@@ -11362,7 +11655,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>75</v>
       </c>
@@ -11370,7 +11663,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
@@ -11378,7 +11671,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
@@ -11386,7 +11679,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -11394,7 +11687,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>83</v>
       </c>
@@ -11402,7 +11695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -11410,7 +11703,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -11418,7 +11711,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
@@ -11426,7 +11719,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -11434,7 +11727,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
@@ -11442,7 +11735,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
@@ -11450,7 +11743,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -11458,7 +11751,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
@@ -11466,7 +11759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
@@ -11474,7 +11767,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
@@ -11482,7 +11775,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -11490,7 +11783,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -11498,7 +11791,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -11512,20 +11805,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D461AB7B-3FD6-CD43-A456-697DA4E810FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11536,7 +11829,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
@@ -11544,7 +11837,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -11558,20 +11851,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6130AF6-DA92-7B48-B358-2DBC8A755A2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11582,7 +11875,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -11590,7 +11883,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
@@ -11598,7 +11891,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -11612,20 +11905,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FE5F775-AB62-3243-BC00-B767226C0C37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11636,7 +11929,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -11644,7 +11937,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -11652,7 +11945,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -11660,7 +11953,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -11674,20 +11967,20 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58313AB4-C1C9-2F4C-A2CE-2EB6D9D821B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11698,7 +11991,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
@@ -11706,7 +11999,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>131</v>
       </c>
@@ -11714,7 +12007,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>133</v>
       </c>
@@ -11722,7 +12015,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -11730,7 +12023,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
@@ -11738,7 +12031,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>139</v>
       </c>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="2"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1350">
   <si>
     <t>code</t>
   </si>
@@ -11180,8 +11180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11434,10 +11434,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11446,7 +11446,7 @@
     <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11456,29 +11456,44 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -11488,10 +11503,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11500,7 +11515,7 @@
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11510,293 +11525,407 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E31" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E34" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>105</v>
       </c>
       <c r="B35" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>107</v>
       </c>
       <c r="B36" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -11806,10 +11935,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11818,7 +11947,7 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11828,21 +11957,33 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -11852,10 +11993,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11864,7 +12005,7 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11874,29 +12015,44 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -11906,10 +12062,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" activeCellId="1" sqref="E2:E5 E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11918,7 +12074,7 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11928,37 +12084,55 @@
       <c r="C1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="1350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1393">
   <si>
     <t>code</t>
   </si>
@@ -4285,61 +4285,190 @@
     <t>AAT ID</t>
   </si>
   <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\published titles</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\incipits</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\collective titles</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\titles proper</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\English (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Dutch (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\French (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\German (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Ancient Greek (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Greek (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Hebrew (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Italian (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Latin (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Norwegian (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Portuguese (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Spanish (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\Swedish (language)</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Annotatie Type\remarks</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Annotatie Type\descriptive note</t>
+    <t>inscription description</t>
+  </si>
+  <si>
+    <t>groepsbeschrijving</t>
+  </si>
+  <si>
+    <t>gerelateerde kunstwerken</t>
+  </si>
+  <si>
+    <t>circa</t>
+  </si>
+  <si>
+    <t>centuries</t>
+  </si>
+  <si>
+    <t>onzeker</t>
+  </si>
+  <si>
+    <t>datum voor</t>
+  </si>
+  <si>
+    <t>datum na</t>
+  </si>
+  <si>
+    <t>beige (color)</t>
+  </si>
+  <si>
+    <t>blue (color)</t>
+  </si>
+  <si>
+    <t>brown (color)</t>
+  </si>
+  <si>
+    <t>bronze (color)</t>
+  </si>
+  <si>
+    <t>yellow (color)</t>
+  </si>
+  <si>
+    <t>green (color)</t>
+  </si>
+  <si>
+    <t>cream (color)</t>
+  </si>
+  <si>
+    <t>ivory (color)</t>
+  </si>
+  <si>
+    <t>gray (color)</t>
+  </si>
+  <si>
+    <t>ocher (color)</t>
+  </si>
+  <si>
+    <t>orange (color)</t>
+  </si>
+  <si>
+    <t>gold (color)</t>
+  </si>
+  <si>
+    <t>purple (color)</t>
+  </si>
+  <si>
+    <t>red (color)</t>
+  </si>
+  <si>
+    <t>pink (color)</t>
+  </si>
+  <si>
+    <t>sepia (color)</t>
+  </si>
+  <si>
+    <t>white (color)</t>
+  </si>
+  <si>
+    <t>silver (color)</t>
+  </si>
+  <si>
+    <t>black (color)</t>
+  </si>
+  <si>
+    <t>thesaurus</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Annotatie Type\</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Beschrijving Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesaurus\Objectkenmerken\Annotatie Type\</t>
+  </si>
+  <si>
+    <t>condition/examination description</t>
+  </si>
+  <si>
+    <t>descriptive note</t>
+  </si>
+  <si>
+    <t>detailbeschrijving</t>
+  </si>
+  <si>
+    <t>provenance description</t>
+  </si>
+  <si>
+    <t>temporary location</t>
+  </si>
+  <si>
+    <t>related artwork</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Datumbepaling Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Kleur Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\</t>
+  </si>
+  <si>
+    <t>Dutch (language)</t>
+  </si>
+  <si>
+    <t>English (language)</t>
+  </si>
+  <si>
+    <t>French (language)</t>
+  </si>
+  <si>
+    <t>German (language)</t>
+  </si>
+  <si>
+    <t>Ancient Greek (language)</t>
+  </si>
+  <si>
+    <t>Greek (language)</t>
+  </si>
+  <si>
+    <t>Hebrew (language)</t>
+  </si>
+  <si>
+    <t>Italian (language)</t>
+  </si>
+  <si>
+    <t>Latin (language)</t>
+  </si>
+  <si>
+    <t>Norwegian (language)</t>
+  </si>
+  <si>
+    <t>Portuguese (language)</t>
+  </si>
+  <si>
+    <t>Spanish (language)</t>
+  </si>
+  <si>
+    <t>Swedish (language)</t>
+  </si>
+  <si>
+    <t>published titles</t>
+  </si>
+  <si>
+    <t>incipits</t>
+  </si>
+  <si>
+    <t>collective titles</t>
+  </si>
+  <si>
+    <t>titles proper</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\</t>
+  </si>
+  <si>
+    <t>Low German (language)</t>
+  </si>
+  <si>
+    <t>undetermined (language)</t>
+  </si>
+  <si>
+    <t>unidentified (information indicator)</t>
   </si>
 </sst>
 </file>
@@ -5042,14 +5171,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.69921875" customWidth="1"/>
+    <col min="4" max="4" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -5060,7 +5191,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -5070,6 +5210,9 @@
       <c r="B2" t="s">
         <v>141</v>
       </c>
+      <c r="F2" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -5078,6 +5221,15 @@
       <c r="B3" t="s">
         <v>143</v>
       </c>
+      <c r="C3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E3">
+        <v>300435723</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -5086,6 +5238,15 @@
       <c r="B4" t="s">
         <v>145</v>
       </c>
+      <c r="C4" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E4">
+        <v>300435723</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -5094,6 +5255,15 @@
       <c r="B5" t="s">
         <v>147</v>
       </c>
+      <c r="C5" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E5">
+        <v>300379247</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -5102,6 +5272,12 @@
       <c r="B6" t="s">
         <v>149</v>
       </c>
+      <c r="C6" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1336</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -5110,6 +5286,15 @@
       <c r="B7" t="s">
         <v>151</v>
       </c>
+      <c r="C7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E7">
+        <v>300386154</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -5118,6 +5303,12 @@
       <c r="B8" t="s">
         <v>153</v>
       </c>
+      <c r="C8" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1337</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -5126,6 +5317,12 @@
       <c r="B9" t="s">
         <v>155</v>
       </c>
+      <c r="C9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1338</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -5133,6 +5330,15 @@
       </c>
       <c r="B10" t="s">
         <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E10">
+        <v>300435723</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -5179,15 +5385,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5196,7 +5403,7 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5204,10 +5411,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>158</v>
       </c>
@@ -5215,7 +5431,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -5230,10 +5446,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5242,7 +5458,7 @@
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5250,10 +5466,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>162</v>
       </c>
@@ -5261,7 +5486,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>164</v>
       </c>
@@ -5269,7 +5494,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>166</v>
       </c>
@@ -5277,7 +5502,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>168</v>
       </c>
@@ -5285,7 +5510,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -5293,7 +5518,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -5301,7 +5526,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>174</v>
       </c>
@@ -5309,7 +5534,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>176</v>
       </c>
@@ -5317,7 +5542,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>178</v>
       </c>
@@ -5325,7 +5550,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>180</v>
       </c>
@@ -5333,7 +5558,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>182</v>
       </c>
@@ -5341,7 +5566,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>184</v>
       </c>
@@ -5349,7 +5574,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>186</v>
       </c>
@@ -5357,7 +5582,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>188</v>
       </c>
@@ -5365,7 +5590,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>190</v>
       </c>
@@ -5836,10 +6061,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5848,7 +6073,7 @@
     <col min="2" max="2" width="42.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5856,10 +6081,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>303</v>
       </c>
@@ -5867,7 +6101,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>305</v>
       </c>
@@ -5875,7 +6109,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>307</v>
       </c>
@@ -5883,7 +6117,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>309</v>
       </c>
@@ -5891,7 +6125,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>311</v>
       </c>
@@ -5899,7 +6133,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>312</v>
       </c>
@@ -5907,7 +6141,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>314</v>
       </c>
@@ -5915,7 +6149,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>316</v>
       </c>
@@ -5923,7 +6157,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>318</v>
       </c>
@@ -5931,7 +6165,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>320</v>
       </c>
@@ -5939,7 +6173,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>321</v>
       </c>
@@ -5947,7 +6181,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>323</v>
       </c>
@@ -5955,7 +6189,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>324</v>
       </c>
@@ -5963,7 +6197,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>326</v>
       </c>
@@ -5971,7 +6205,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>328</v>
       </c>
@@ -6050,10 +6284,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6062,7 +6296,7 @@
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6070,15 +6304,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>346</v>
       </c>
       <c r="B2" t="s">
         <v>347</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -6088,10 +6334,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6100,7 +6346,7 @@
     <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6108,10 +6354,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>348</v>
       </c>
@@ -6119,7 +6374,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>350</v>
       </c>
@@ -6127,7 +6382,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>352</v>
       </c>
@@ -6135,7 +6390,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>354</v>
       </c>
@@ -6143,7 +6398,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>356</v>
       </c>
@@ -6151,7 +6406,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>358</v>
       </c>
@@ -6159,7 +6414,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>360</v>
       </c>
@@ -6167,7 +6422,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>362</v>
       </c>
@@ -6175,7 +6430,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>364</v>
       </c>
@@ -6183,7 +6438,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>366</v>
       </c>
@@ -6198,10 +6453,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6210,7 +6465,7 @@
     <col min="2" max="2" width="28.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6218,10 +6473,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>368</v>
       </c>
@@ -6229,7 +6493,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>370</v>
       </c>
@@ -6237,7 +6501,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>372</v>
       </c>
@@ -6245,7 +6509,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>374</v>
       </c>
@@ -6253,7 +6517,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>376</v>
       </c>
@@ -6261,7 +6525,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -6269,7 +6533,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>380</v>
       </c>
@@ -6277,7 +6541,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>382</v>
       </c>
@@ -6285,7 +6549,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>384</v>
       </c>
@@ -6293,7 +6557,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -6301,7 +6565,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>388</v>
       </c>
@@ -6309,7 +6573,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>390</v>
       </c>
@@ -6317,7 +6581,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>392</v>
       </c>
@@ -6325,7 +6589,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>394</v>
       </c>
@@ -6333,7 +6597,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>396</v>
       </c>
@@ -6644,10 +6908,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6656,7 +6920,7 @@
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6664,10 +6928,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>472</v>
       </c>
@@ -6675,7 +6948,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>474</v>
       </c>
@@ -6683,7 +6956,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>476</v>
       </c>
@@ -6691,7 +6964,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>478</v>
       </c>
@@ -6699,7 +6972,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>480</v>
       </c>
@@ -6707,7 +6980,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>482</v>
       </c>
@@ -6715,7 +6988,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>484</v>
       </c>
@@ -6723,7 +6996,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>486</v>
       </c>
@@ -6731,7 +7004,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>488</v>
       </c>
@@ -6739,7 +7012,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>490</v>
       </c>
@@ -6747,7 +7020,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>492</v>
       </c>
@@ -6755,7 +7028,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>494</v>
       </c>
@@ -6763,7 +7036,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>374</v>
       </c>
@@ -6771,7 +7044,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>497</v>
       </c>
@@ -6779,7 +7052,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>499</v>
       </c>
@@ -6978,19 +7251,21 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.3984375" customWidth="1"/>
+    <col min="4" max="4" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6998,287 +7273,548 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>543</v>
       </c>
       <c r="B2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E2">
+        <v>300266234</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>545</v>
       </c>
       <c r="B3" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>547</v>
       </c>
       <c r="B4" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E4">
+        <v>300129361</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>549</v>
       </c>
       <c r="B5" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E5">
+        <v>300129361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>551</v>
       </c>
       <c r="B6" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E6">
+        <v>300127490</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>553</v>
       </c>
       <c r="B7" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E7">
+        <v>300311355</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>555</v>
       </c>
       <c r="B8" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>557</v>
       </c>
       <c r="B9" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E9">
+        <v>300129361</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>559</v>
       </c>
       <c r="B10" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E10">
+        <v>300127490</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>561</v>
       </c>
       <c r="B11" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E11">
+        <v>300127794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>563</v>
       </c>
       <c r="B12" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>565</v>
       </c>
       <c r="B13" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E13">
+        <v>300128438</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>567</v>
       </c>
       <c r="B14" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E14">
+        <v>300266242</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>569</v>
       </c>
       <c r="B15" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E15">
+        <v>300266252</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>571</v>
       </c>
       <c r="B16" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>573</v>
       </c>
       <c r="B17" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E17">
+        <v>300130811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>575</v>
       </c>
       <c r="B18" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E18">
+        <v>300266267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>577</v>
       </c>
       <c r="B19" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E19">
+        <v>300129361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>579</v>
       </c>
       <c r="B20" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E20">
+        <v>300127490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>581</v>
       </c>
       <c r="B21" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>583</v>
       </c>
       <c r="B22" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>585</v>
       </c>
       <c r="B23" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>587</v>
       </c>
       <c r="B24" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E24">
+        <v>300126734</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>589</v>
       </c>
       <c r="B25" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>591</v>
       </c>
       <c r="B26" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E26">
+        <v>300311191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>593</v>
       </c>
       <c r="B27" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E27">
+        <v>300130257</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>595</v>
       </c>
       <c r="B28" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E28">
+        <v>300126225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>597</v>
       </c>
       <c r="B29" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E29">
+        <v>300124707</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>599</v>
       </c>
       <c r="B30" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>601</v>
       </c>
       <c r="B31" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E31">
+        <v>300266260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>603</v>
       </c>
       <c r="B32" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>605</v>
       </c>
       <c r="B33" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>607</v>
       </c>
       <c r="B34" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E34">
+        <v>300129784</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>609</v>
       </c>
       <c r="B35" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E35">
+        <v>300311368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>611</v>
       </c>
       <c r="B36" t="s">
         <v>612</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E36">
+        <v>300130920</v>
       </c>
     </row>
   </sheetData>
@@ -7288,10 +7824,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7300,7 +7836,7 @@
     <col min="2" max="2" width="19.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7308,10 +7844,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>613</v>
       </c>
@@ -7319,7 +7864,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>615</v>
       </c>
@@ -7327,7 +7872,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>617</v>
       </c>
@@ -7335,7 +7880,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>619</v>
       </c>
@@ -7343,7 +7888,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>621</v>
       </c>
@@ -7351,7 +7896,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>623</v>
       </c>
@@ -7359,7 +7904,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>625</v>
       </c>
@@ -7367,7 +7912,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>627</v>
       </c>
@@ -7375,7 +7920,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>629</v>
       </c>
@@ -7383,7 +7928,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>631</v>
       </c>
@@ -7391,7 +7936,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>633</v>
       </c>
@@ -7399,7 +7944,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>635</v>
       </c>
@@ -7407,7 +7952,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>637</v>
       </c>
@@ -7415,7 +7960,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>639</v>
       </c>
@@ -7423,7 +7968,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>641</v>
       </c>
@@ -8430,9 +8975,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B162"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8440,15 +8987,27 @@
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1158</v>
       </c>
@@ -8456,7 +9015,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1159</v>
       </c>
@@ -8464,7 +9023,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1161</v>
       </c>
@@ -8472,7 +9031,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1163</v>
       </c>
@@ -8480,7 +9039,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1165</v>
       </c>
@@ -8488,7 +9047,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1167</v>
       </c>
@@ -8496,7 +9055,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>613</v>
       </c>
@@ -8504,7 +9063,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>615</v>
       </c>
@@ -8512,7 +9071,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>617</v>
       </c>
@@ -8520,7 +9079,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>619</v>
       </c>
@@ -8528,7 +9087,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>621</v>
       </c>
@@ -8536,7 +9095,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>623</v>
       </c>
@@ -8544,7 +9103,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>625</v>
       </c>
@@ -8552,7 +9111,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>627</v>
       </c>
@@ -8560,7 +9119,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>629</v>
       </c>
@@ -9738,15 +10297,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9755,7 +10315,7 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9763,15 +10323,27 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>875</v>
       </c>
       <c r="B2" t="s">
         <v>145</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -9781,10 +10353,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9793,7 +10365,7 @@
     <col min="2" max="2" width="32.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9801,10 +10373,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>876</v>
       </c>
@@ -9812,7 +10393,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>878</v>
       </c>
@@ -9820,7 +10401,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>880</v>
       </c>
@@ -9828,7 +10409,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>882</v>
       </c>
@@ -9836,7 +10417,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>883</v>
       </c>
@@ -9844,7 +10425,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>885</v>
       </c>
@@ -9852,7 +10433,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>887</v>
       </c>
@@ -9860,7 +10441,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>888</v>
       </c>
@@ -9868,7 +10449,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>890</v>
       </c>
@@ -9876,7 +10457,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>892</v>
       </c>
@@ -9884,7 +10465,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>894</v>
       </c>
@@ -9892,7 +10473,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>896</v>
       </c>
@@ -9900,7 +10481,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>898</v>
       </c>
@@ -9908,7 +10489,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>899</v>
       </c>
@@ -9916,7 +10497,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>900</v>
       </c>
@@ -10491,10 +11072,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10502,7 +11083,7 @@
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10510,10 +11091,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1030</v>
       </c>
@@ -10521,7 +11111,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1032</v>
       </c>
@@ -10529,7 +11119,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1034</v>
       </c>
@@ -10537,7 +11127,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -10545,7 +11135,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1036</v>
       </c>
@@ -10553,7 +11143,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1036</v>
       </c>
@@ -10561,7 +11151,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1039</v>
       </c>
@@ -10569,7 +11159,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>733</v>
       </c>
@@ -10577,7 +11167,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>296</v>
       </c>
@@ -10585,7 +11175,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>296</v>
       </c>
@@ -10593,7 +11183,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>743</v>
       </c>
@@ -10601,7 +11191,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1043</v>
       </c>
@@ -10609,7 +11199,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1045</v>
       </c>
@@ -10617,7 +11207,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>288</v>
       </c>
@@ -10625,7 +11215,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -10680,10 +11270,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10692,7 +11282,7 @@
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10700,10 +11290,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1055</v>
       </c>
@@ -10711,7 +11310,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1057</v>
       </c>
@@ -10719,7 +11318,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1058</v>
       </c>
@@ -10727,7 +11326,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1060</v>
       </c>
@@ -10735,7 +11334,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1061</v>
       </c>
@@ -10750,19 +11349,21 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.296875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10770,16 +11371,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1062</v>
       </c>
@@ -10787,13 +11391,16 @@
         <v>1063</v>
       </c>
       <c r="C2" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D2">
+        <v>1371</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E2">
         <v>300388256</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1064</v>
       </c>
@@ -10801,13 +11408,16 @@
         <v>1065</v>
       </c>
       <c r="C3" t="s">
-        <v>1335</v>
-      </c>
-      <c r="D3">
+        <v>1371</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E3">
         <v>300388277</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1066</v>
       </c>
@@ -10815,13 +11425,16 @@
         <v>1067</v>
       </c>
       <c r="C4" t="s">
-        <v>1337</v>
-      </c>
-      <c r="D4">
+        <v>1371</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E4">
         <v>300388306</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1068</v>
       </c>
@@ -10829,13 +11442,16 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="D5">
+        <v>1371</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1375</v>
+      </c>
+      <c r="E5">
         <v>300388344</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>406</v>
       </c>
@@ -10843,13 +11459,16 @@
         <v>1070</v>
       </c>
       <c r="C6" t="s">
-        <v>1339</v>
-      </c>
-      <c r="D6">
+        <v>1371</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E6">
         <v>300387827</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1071</v>
       </c>
@@ -10857,13 +11476,16 @@
         <v>1070</v>
       </c>
       <c r="C7" t="s">
-        <v>1340</v>
-      </c>
-      <c r="D7">
+        <v>1371</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E7">
         <v>300389734</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1072</v>
       </c>
@@ -10871,13 +11493,16 @@
         <v>1073</v>
       </c>
       <c r="C8" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D8">
+        <v>1371</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E8">
         <v>300388401</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1074</v>
       </c>
@@ -10885,13 +11510,16 @@
         <v>1075</v>
       </c>
       <c r="C9" t="s">
-        <v>1342</v>
-      </c>
-      <c r="D9">
+        <v>1371</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="E9">
         <v>300388474</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1076</v>
       </c>
@@ -10899,13 +11527,16 @@
         <v>1077</v>
       </c>
       <c r="C10" t="s">
-        <v>1343</v>
-      </c>
-      <c r="D10">
+        <v>1371</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E10">
         <v>300388693</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1078</v>
       </c>
@@ -10913,13 +11544,16 @@
         <v>1079</v>
       </c>
       <c r="C11" t="s">
-        <v>1344</v>
-      </c>
-      <c r="D11">
+        <v>1371</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E11">
         <v>300443706</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1080</v>
       </c>
@@ -10927,13 +11561,16 @@
         <v>1081</v>
       </c>
       <c r="C12" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D12">
+        <v>1371</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E12">
         <v>300389115</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1082</v>
       </c>
@@ -10941,13 +11578,16 @@
         <v>1083</v>
       </c>
       <c r="C13" t="s">
-        <v>1346</v>
-      </c>
-      <c r="D13">
+        <v>1371</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E13">
         <v>300389311</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1084</v>
       </c>
@@ -10955,32 +11595,47 @@
         <v>1085</v>
       </c>
       <c r="C14" t="s">
-        <v>1347</v>
-      </c>
-      <c r="D14">
+        <v>1371</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E14">
         <v>300389336</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1086</v>
       </c>
       <c r="B15" t="s">
         <v>1087</v>
       </c>
-      <c r="E15" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E15">
+        <v>300388737</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1088</v>
       </c>
       <c r="B16" t="s">
         <v>1089</v>
       </c>
-      <c r="E16" t="s">
-        <v>1329</v>
+      <c r="C16" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E16">
+        <v>300388256</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -10990,8 +11645,14 @@
       <c r="B17" t="s">
         <v>1091</v>
       </c>
-      <c r="E17" t="s">
-        <v>1329</v>
+      <c r="C17" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E17">
+        <v>300389645</v>
       </c>
     </row>
   </sheetData>
@@ -11002,19 +11663,21 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.69921875" customWidth="1"/>
+    <col min="4" max="4" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11022,27 +11685,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>484</v>
       </c>
       <c r="B2" t="s">
         <v>1092</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1093</v>
       </c>
@@ -11050,13 +11716,16 @@
         <v>1094</v>
       </c>
       <c r="C3" t="s">
-        <v>1331</v>
-      </c>
-      <c r="D3">
+        <v>1389</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E3">
         <v>300417206</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1057</v>
       </c>
@@ -11064,13 +11733,16 @@
         <v>1095</v>
       </c>
       <c r="C4" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D4">
+        <v>1389</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E4">
         <v>300055029</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1060</v>
       </c>
@@ -11078,24 +11750,27 @@
         <v>1096</v>
       </c>
       <c r="C5" t="s">
-        <v>1332</v>
-      </c>
-      <c r="D5">
+        <v>1389</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E5">
         <v>300055029</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1097</v>
       </c>
       <c r="B6" t="s">
         <v>1098</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1099</v>
       </c>
@@ -11103,13 +11778,16 @@
         <v>1100</v>
       </c>
       <c r="C7" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D7">
+        <v>1389</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E7">
         <v>300417198</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1101</v>
       </c>
@@ -11117,9 +11795,12 @@
         <v>1102</v>
       </c>
       <c r="C8" t="s">
-        <v>1334</v>
-      </c>
-      <c r="D8">
+        <v>1389</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E8">
         <v>300417196</v>
       </c>
     </row>
@@ -11131,10 +11812,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11143,7 +11824,7 @@
     <col min="2" max="2" width="16.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11151,23 +11832,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1103</v>
       </c>
       <c r="B2" t="s">
         <v>1104</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -11178,19 +11862,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.09765625" customWidth="1"/>
+    <col min="4" max="4" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11198,16 +11884,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -11215,35 +11904,50 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D2">
+        <v>1359</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E2">
         <v>300435415</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="E3">
+        <v>300435425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E4">
+        <v>300435416</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -11251,46 +11955,64 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D5">
+        <v>1361</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E5">
         <v>300435416</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E6">
+        <v>300435438</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E7">
+        <v>300435414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -11298,32 +12020,44 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D9">
+        <v>1359</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E9">
         <v>300435415</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E10">
+        <v>300435416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -11331,35 +12065,50 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D12">
+        <v>1361</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E12">
         <v>300435416</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E13">
+        <v>300435414</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="E14" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E14">
+        <v>300435414</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -11367,13 +12116,16 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D15">
+        <v>1359</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E15">
         <v>300435415</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -11381,13 +12133,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D16">
+        <v>1359</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E16">
         <v>300435415</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -11395,24 +12150,27 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1349</v>
-      </c>
-      <c r="D17">
+        <v>1361</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E17">
         <v>300435416</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
       <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -11420,10 +12178,35 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D19">
+        <v>1359</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E19">
         <v>300435415</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1368</v>
       </c>
     </row>
   </sheetData>
@@ -11434,10 +12217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11446,7 +12229,7 @@
     <col min="2" max="2" width="8.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11454,45 +12237,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>33</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -11503,10 +12289,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection activeCell="F2" sqref="F2:F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11515,7 +12301,7 @@
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11523,408 +12309,411 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>39</v>
       </c>
       <c r="B2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
         <v>44</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>45</v>
       </c>
       <c r="B5" t="s">
         <v>46</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>47</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>52</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>56</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
       <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
       <c r="B14" t="s">
         <v>64</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>65</v>
       </c>
       <c r="B15" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>73</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>75</v>
       </c>
       <c r="B20" t="s">
         <v>76</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>77</v>
       </c>
       <c r="B21" t="s">
         <v>78</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>79</v>
       </c>
       <c r="B22" t="s">
         <v>80</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>81</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>84</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>85</v>
       </c>
       <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>87</v>
       </c>
       <c r="B26" t="s">
         <v>88</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>89</v>
       </c>
       <c r="B27" t="s">
         <v>90</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>93</v>
       </c>
       <c r="B29" t="s">
         <v>94</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>96</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
       <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>99</v>
       </c>
       <c r="B32" t="s">
         <v>100</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>102</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>103</v>
       </c>
       <c r="B34" t="s">
         <v>104</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>105</v>
       </c>
       <c r="B35" t="s">
         <v>106</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>107</v>
       </c>
       <c r="B36" t="s">
         <v>108</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>109</v>
       </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -11935,10 +12724,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11947,7 +12736,7 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11955,34 +12744,37 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>112</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>114</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -11993,10 +12785,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:E1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12005,7 +12797,7 @@
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12013,45 +12805,48 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
       <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>119</v>
       </c>
       <c r="B4" t="s">
         <v>120</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -12062,10 +12857,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" activeCellId="1" sqref="E2:E5 E20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12074,7 +12869,7 @@
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12082,56 +12877,59 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>121</v>
       </c>
       <c r="B2" t="s">
         <v>122</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>123</v>
       </c>
       <c r="B3" t="s">
         <v>124</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>125</v>
       </c>
       <c r="B4" t="s">
         <v>126</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>127</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>1329</v>
       </c>
     </row>
@@ -12142,10 +12940,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12154,7 +12952,7 @@
     <col min="2" max="2" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12162,55 +12960,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1157</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>129</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>131</v>
       </c>
       <c r="B3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>133</v>
       </c>
       <c r="B4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>135</v>
       </c>
       <c r="B5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>137</v>
       </c>
       <c r="B6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>139</v>
       </c>
       <c r="B7" t="s">
         <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1329</v>
       </c>
     </row>
   </sheetData>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="7" activeTab="9"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="12" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -53,7 +53,7 @@
     <definedName name="externe_relatie_types" localSheetId="12">externe_relatie_types.csv!$A$1:$B$24</definedName>
     <definedName name="formaat_types" localSheetId="13">formaat_types.csv!$A$1:$B$2</definedName>
     <definedName name="fotoformaat_types" localSheetId="14">fotoformaat_types.csv!$A$1:$B$11</definedName>
-    <definedName name="genre_types" localSheetId="15">genre_types.csv!$A$1:$B$53</definedName>
+    <definedName name="genre_types" localSheetId="15">genre_types.csv!$A$1:$C$53</definedName>
     <definedName name="isaar_relatie_types" localSheetId="16">isaar_relatie_types.csv!$A$1:$B$39</definedName>
     <definedName name="kleur_types" localSheetId="17">kleur_types.csv!$A$1:$B$36</definedName>
     <definedName name="materiaal_types" localSheetId="18">materiaal_types.csv!$A$1:$B$140</definedName>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1408">
   <si>
     <t>code</t>
   </si>
@@ -4369,18 +4369,9 @@
     <t>thesaurus</t>
   </si>
   <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Annotatie Type\</t>
-  </si>
-  <si>
     <t>remarks</t>
   </si>
   <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Beschrijving Type\</t>
-  </si>
-  <si>
-    <t>Digipolis Thesaurus\Objectkenmerken\Annotatie Type\</t>
-  </si>
-  <si>
     <t>condition/examination description</t>
   </si>
   <si>
@@ -4399,15 +4390,6 @@
     <t>related artwork</t>
   </si>
   <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Datumbepaling Type\</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Kleur Type\</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Taal Type\</t>
-  </si>
-  <si>
     <t>Dutch (language)</t>
   </si>
   <si>
@@ -4459,9 +4441,6 @@
     <t>titles proper</t>
   </si>
   <si>
-    <t>Digipolis Thesauri\Objectkenmerken\Titel Type\</t>
-  </si>
-  <si>
     <t>Low German (language)</t>
   </si>
   <si>
@@ -4469,6 +4448,72 @@
   </si>
   <si>
     <t>unidentified (information indicator)</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>assemblage (sculpture technique)</t>
+  </si>
+  <si>
+    <t>bas-relief (sculpture technique)</t>
+  </si>
+  <si>
+    <t>busts (general, figures)</t>
+  </si>
+  <si>
+    <t>death masks</t>
+  </si>
+  <si>
+    <t>half figures</t>
+  </si>
+  <si>
+    <t>installations (visual works)</t>
+  </si>
+  <si>
+    <t>heads (representations)</t>
+  </si>
+  <si>
+    <t>medallions (medals)</t>
+  </si>
+  <si>
+    <t>masks (costume)</t>
+  </si>
+  <si>
+    <t>maquettes (sculptures)</t>
+  </si>
+  <si>
+    <t>plaques (flat objects)</t>
+  </si>
+  <si>
+    <t>full-length figures</t>
+  </si>
+  <si>
+    <t>seated figures</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Types\sculpture (visual works)\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Annotatie Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Beschrijving Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesaurus\Annotatie Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Datumbepaling Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Kleur Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Taal Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Titel Type\</t>
   </si>
 </sst>
 </file>
@@ -5171,8 +5216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5222,7 +5267,7 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="D3" t="s">
         <v>1334</v>
@@ -5239,7 +5284,7 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="D4" t="s">
         <v>1334</v>
@@ -5256,7 +5301,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="D5" t="s">
         <v>1335</v>
@@ -5273,7 +5318,7 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="D6" t="s">
         <v>1336</v>
@@ -5287,10 +5332,10 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="D7" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="E7">
         <v>300386154</v>
@@ -5304,7 +5349,7 @@
         <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="D8" t="s">
         <v>1337</v>
@@ -5318,7 +5363,7 @@
         <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="D9" t="s">
         <v>1338</v>
@@ -5332,7 +5377,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>1369</v>
+        <v>1404</v>
       </c>
       <c r="D10" t="s">
         <v>1334</v>
@@ -6453,451 +6498,593 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.19921875" customWidth="1"/>
+    <col min="3" max="3" width="28.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1157</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1330</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>368</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>370</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>372</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>374</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>376</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>378</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F7">
+        <v>300138696</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>380</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F8">
+        <v>300138696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>382</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F9">
+        <v>300053623</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>384</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F10">
+        <v>300047457</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>386</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F11">
+        <v>300047724</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>388</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F12">
+        <v>300047469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>390</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>392</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F14">
+        <v>300047724</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>394</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F15">
+        <v>300047896</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>396</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F16">
+        <v>300262520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>398</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F17">
+        <v>300077357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>400</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F18">
+        <v>300138758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>402</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F19">
+        <v>300047837</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>404</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F20">
+        <v>300010262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>406</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>408</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F22">
+        <v>300343592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>410</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>1400</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F23">
+        <v>300404835</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>412</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>414</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>416</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>418</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>420</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>422</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>424</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>426</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>428</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>430</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>432</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>434</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>436</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>438</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>440</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>442</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>444</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>446</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>448</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>450</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>452</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>454</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>456</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>458</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>460</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>462</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>464</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>466</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>468</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>470</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>471</v>
       </c>
     </row>
@@ -7293,7 +7480,7 @@
         <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D2" t="s">
         <v>1339</v>
@@ -7310,7 +7497,7 @@
         <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="F3" t="s">
         <v>1329</v>
@@ -7324,7 +7511,7 @@
         <v>548</v>
       </c>
       <c r="C4" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D4" t="s">
         <v>1340</v>
@@ -7341,7 +7528,7 @@
         <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D5" t="s">
         <v>1340</v>
@@ -7358,7 +7545,7 @@
         <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D6" t="s">
         <v>1341</v>
@@ -7375,7 +7562,7 @@
         <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D7" t="s">
         <v>1342</v>
@@ -7403,7 +7590,7 @@
         <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D9" t="s">
         <v>1340</v>
@@ -7420,7 +7607,7 @@
         <v>560</v>
       </c>
       <c r="C10" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D10" t="s">
         <v>1341</v>
@@ -7437,7 +7624,7 @@
         <v>562</v>
       </c>
       <c r="C11" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D11" t="s">
         <v>1343</v>
@@ -7465,7 +7652,7 @@
         <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D13" t="s">
         <v>1344</v>
@@ -7482,7 +7669,7 @@
         <v>568</v>
       </c>
       <c r="C14" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D14" t="s">
         <v>1345</v>
@@ -7499,7 +7686,7 @@
         <v>570</v>
       </c>
       <c r="C15" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D15" t="s">
         <v>1346</v>
@@ -7527,7 +7714,7 @@
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D17" t="s">
         <v>1347</v>
@@ -7544,7 +7731,7 @@
         <v>576</v>
       </c>
       <c r="C18" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D18" t="s">
         <v>1348</v>
@@ -7561,7 +7748,7 @@
         <v>578</v>
       </c>
       <c r="C19" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D19" t="s">
         <v>1340</v>
@@ -7578,7 +7765,7 @@
         <v>580</v>
       </c>
       <c r="C20" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D20" t="s">
         <v>1341</v>
@@ -7628,7 +7815,7 @@
         <v>588</v>
       </c>
       <c r="C24" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D24" t="s">
         <v>1349</v>
@@ -7656,7 +7843,7 @@
         <v>592</v>
       </c>
       <c r="C26" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D26" t="s">
         <v>1350</v>
@@ -7673,7 +7860,7 @@
         <v>594</v>
       </c>
       <c r="C27" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D27" t="s">
         <v>1351</v>
@@ -7690,7 +7877,7 @@
         <v>596</v>
       </c>
       <c r="C28" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D28" t="s">
         <v>1352</v>
@@ -7707,7 +7894,7 @@
         <v>598</v>
       </c>
       <c r="C29" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D29" t="s">
         <v>1353</v>
@@ -7735,7 +7922,7 @@
         <v>602</v>
       </c>
       <c r="C31" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D31" t="s">
         <v>1354</v>
@@ -7774,7 +7961,7 @@
         <v>608</v>
       </c>
       <c r="C34" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D34" t="s">
         <v>1355</v>
@@ -7791,7 +7978,7 @@
         <v>610</v>
       </c>
       <c r="C35" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D35" t="s">
         <v>1356</v>
@@ -7808,7 +7995,7 @@
         <v>612</v>
       </c>
       <c r="C36" t="s">
-        <v>1370</v>
+        <v>1405</v>
       </c>
       <c r="D36" t="s">
         <v>1357</v>
@@ -11391,10 +11578,10 @@
         <v>1063</v>
       </c>
       <c r="C2" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D2" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E2">
         <v>300388256</v>
@@ -11408,10 +11595,10 @@
         <v>1065</v>
       </c>
       <c r="C3" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D3" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="E3">
         <v>300388277</v>
@@ -11425,10 +11612,10 @@
         <v>1067</v>
       </c>
       <c r="C4" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D4" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
       <c r="E4">
         <v>300388306</v>
@@ -11442,10 +11629,10 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D5" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
       <c r="E5">
         <v>300388344</v>
@@ -11459,10 +11646,10 @@
         <v>1070</v>
       </c>
       <c r="C6" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D6" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
       <c r="E6">
         <v>300387827</v>
@@ -11476,10 +11663,10 @@
         <v>1070</v>
       </c>
       <c r="C7" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D7" t="s">
         <v>1371</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1377</v>
       </c>
       <c r="E7">
         <v>300389734</v>
@@ -11493,10 +11680,10 @@
         <v>1073</v>
       </c>
       <c r="C8" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D8" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
       <c r="E8">
         <v>300388401</v>
@@ -11510,10 +11697,10 @@
         <v>1075</v>
       </c>
       <c r="C9" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D9" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
       <c r="E9">
         <v>300388474</v>
@@ -11527,10 +11714,10 @@
         <v>1077</v>
       </c>
       <c r="C10" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D10" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
       <c r="E10">
         <v>300388693</v>
@@ -11544,10 +11731,10 @@
         <v>1079</v>
       </c>
       <c r="C11" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D11" t="s">
-        <v>1381</v>
+        <v>1375</v>
       </c>
       <c r="E11">
         <v>300443706</v>
@@ -11561,10 +11748,10 @@
         <v>1081</v>
       </c>
       <c r="C12" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D12" t="s">
-        <v>1382</v>
+        <v>1376</v>
       </c>
       <c r="E12">
         <v>300389115</v>
@@ -11578,10 +11765,10 @@
         <v>1083</v>
       </c>
       <c r="C13" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D13" t="s">
-        <v>1383</v>
+        <v>1377</v>
       </c>
       <c r="E13">
         <v>300389311</v>
@@ -11595,10 +11782,10 @@
         <v>1085</v>
       </c>
       <c r="C14" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D14" t="s">
-        <v>1384</v>
+        <v>1378</v>
       </c>
       <c r="E14">
         <v>300389336</v>
@@ -11612,10 +11799,10 @@
         <v>1087</v>
       </c>
       <c r="C15" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D15" t="s">
-        <v>1390</v>
+        <v>1383</v>
       </c>
       <c r="E15">
         <v>300388737</v>
@@ -11629,10 +11816,10 @@
         <v>1089</v>
       </c>
       <c r="C16" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D16" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="E16">
         <v>300388256</v>
@@ -11646,10 +11833,10 @@
         <v>1091</v>
       </c>
       <c r="C17" t="s">
-        <v>1371</v>
+        <v>1406</v>
       </c>
       <c r="D17" t="s">
-        <v>1391</v>
+        <v>1384</v>
       </c>
       <c r="E17">
         <v>300389645</v>
@@ -11716,10 +11903,10 @@
         <v>1094</v>
       </c>
       <c r="C3" t="s">
-        <v>1389</v>
+        <v>1407</v>
       </c>
       <c r="D3" t="s">
-        <v>1385</v>
+        <v>1379</v>
       </c>
       <c r="E3">
         <v>300417206</v>
@@ -11733,10 +11920,10 @@
         <v>1095</v>
       </c>
       <c r="C4" t="s">
-        <v>1389</v>
+        <v>1407</v>
       </c>
       <c r="D4" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="E4">
         <v>300055029</v>
@@ -11750,10 +11937,10 @@
         <v>1096</v>
       </c>
       <c r="C5" t="s">
-        <v>1389</v>
+        <v>1407</v>
       </c>
       <c r="D5" t="s">
-        <v>1386</v>
+        <v>1380</v>
       </c>
       <c r="E5">
         <v>300055029</v>
@@ -11778,10 +11965,10 @@
         <v>1100</v>
       </c>
       <c r="C7" t="s">
-        <v>1389</v>
+        <v>1407</v>
       </c>
       <c r="D7" t="s">
-        <v>1387</v>
+        <v>1381</v>
       </c>
       <c r="E7">
         <v>300417198</v>
@@ -11795,10 +11982,10 @@
         <v>1102</v>
       </c>
       <c r="C8" t="s">
-        <v>1389</v>
+        <v>1407</v>
       </c>
       <c r="D8" t="s">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="E8">
         <v>300417196</v>
@@ -11904,10 +12091,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D2" t="s">
         <v>1359</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1360</v>
       </c>
       <c r="E2">
         <v>300435415</v>
@@ -11921,10 +12108,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="D3" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E3">
         <v>300435425</v>
@@ -11938,10 +12125,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D4" t="s">
         <v>1361</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1364</v>
       </c>
       <c r="E4">
         <v>300435416</v>
@@ -11955,10 +12142,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1361</v>
+        <v>1402</v>
       </c>
       <c r="D5" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E5">
         <v>300435416</v>
@@ -11972,10 +12159,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="D6" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E6">
         <v>300435438</v>
@@ -11989,7 +12176,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="D7" t="s">
         <v>1331</v>
@@ -12006,10 +12193,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>1362</v>
+        <v>1403</v>
       </c>
       <c r="D8" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -12020,10 +12207,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D9" t="s">
         <v>1359</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1360</v>
       </c>
       <c r="E9">
         <v>300435415</v>
@@ -12037,10 +12224,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D10" t="s">
         <v>1361</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1364</v>
       </c>
       <c r="E10">
         <v>300435416</v>
@@ -12065,10 +12252,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1361</v>
+        <v>1402</v>
       </c>
       <c r="D12" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E12">
         <v>300435416</v>
@@ -12082,7 +12269,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="D13" t="s">
         <v>1331</v>
@@ -12099,7 +12286,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="D14" t="s">
         <v>1331</v>
@@ -12116,10 +12303,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D15" t="s">
         <v>1359</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1360</v>
       </c>
       <c r="E15">
         <v>300435415</v>
@@ -12133,10 +12320,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D16" t="s">
         <v>1359</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1360</v>
       </c>
       <c r="E16">
         <v>300435415</v>
@@ -12150,10 +12337,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1361</v>
+        <v>1402</v>
       </c>
       <c r="D17" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E17">
         <v>300435416</v>
@@ -12178,10 +12365,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D19" t="s">
         <v>1359</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1360</v>
       </c>
       <c r="E19">
         <v>300435415</v>
@@ -12192,7 +12379,7 @@
         <v>1332</v>
       </c>
       <c r="C20" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="D20" t="s">
         <v>1332</v>
@@ -12203,10 +12390,10 @@
         <v>1333</v>
       </c>
       <c r="C21" t="s">
-        <v>1359</v>
+        <v>1401</v>
       </c>
       <c r="D21" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
     </row>
   </sheetData>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="12" activeTab="15"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -40,6 +40,8 @@
     <sheet name="toegang_types.csv" sheetId="24" r:id="rId26"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">materiaal_types.csv!$A$1:$F$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">techniek_types.csv!$A$1:$F$162</definedName>
     <definedName name="annotatie_types" localSheetId="2">annotatie_types.csv!$A$1:$B$19</definedName>
     <definedName name="av_film_materiaal_types" localSheetId="3">av_film_materiaal_types.csv!$A$1:$B$4</definedName>
     <definedName name="av_format_types" localSheetId="4">av_format_types.csv!$A$1:$B$37</definedName>
@@ -56,7 +58,7 @@
     <definedName name="genre_types" localSheetId="15">genre_types.csv!$A$1:$C$53</definedName>
     <definedName name="isaar_relatie_types" localSheetId="16">isaar_relatie_types.csv!$A$1:$B$39</definedName>
     <definedName name="kleur_types" localSheetId="17">kleur_types.csv!$A$1:$B$36</definedName>
-    <definedName name="materiaal_types" localSheetId="18">materiaal_types.csv!$A$1:$B$140</definedName>
+    <definedName name="materiaal_types" localSheetId="18">materiaal_types.csv!$A$1:$B$142</definedName>
     <definedName name="numberofpages_qualifier_types" localSheetId="19">numberofpages_qualifier_types.c!$A$1:$B$2</definedName>
     <definedName name="object_types" localSheetId="20">object_types.csv!$A$1:$B$86</definedName>
     <definedName name="record_types" localSheetId="21">'record_types.csv'!$A$1:$B$21</definedName>
@@ -290,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1951" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1587">
   <si>
     <t>code</t>
   </si>
@@ -4514,13 +4516,553 @@
   </si>
   <si>
     <t>Digipolis Thesauri\Titel Type\</t>
+  </si>
+  <si>
+    <t>notarial documents</t>
+  </si>
+  <si>
+    <t>aquarelles (paintings)</t>
+  </si>
+  <si>
+    <t>letters (correspondence)</t>
+  </si>
+  <si>
+    <t>documents (object genre)</t>
+  </si>
+  <si>
+    <t>files (document groupings)</t>
+  </si>
+  <si>
+    <t>manuscripts (documents)</t>
+  </si>
+  <si>
+    <t>cultural artifacts</t>
+  </si>
+  <si>
+    <t>paintings (visual works)</t>
+  </si>
+  <si>
+    <t>photographs</t>
+  </si>
+  <si>
+    <t>prints (visual works)</t>
+  </si>
+  <si>
+    <t>posters</t>
+  </si>
+  <si>
+    <t>sculpture (visual works)</t>
+  </si>
+  <si>
+    <t>drawings (visual works)</t>
+  </si>
+  <si>
+    <t>aantekenaar</t>
+  </si>
+  <si>
+    <t>artists (visual artists)</t>
+  </si>
+  <si>
+    <t>architects</t>
+  </si>
+  <si>
+    <t>authors</t>
+  </si>
+  <si>
+    <t>originators (administrative)</t>
+  </si>
+  <si>
+    <t>bookbinders</t>
+  </si>
+  <si>
+    <t>recipients (people)</t>
+  </si>
+  <si>
+    <t>correspondents (correspondence writers)</t>
+  </si>
+  <si>
+    <t>composers (people in music)</t>
+  </si>
+  <si>
+    <t>revisers</t>
+  </si>
+  <si>
+    <t>printers (people)</t>
+  </si>
+  <si>
+    <t>designers</t>
+  </si>
+  <si>
+    <t>photographers</t>
+  </si>
+  <si>
+    <t>getuige</t>
+  </si>
+  <si>
+    <t>engravers (printmakers)</t>
+  </si>
+  <si>
+    <t>casters (people)</t>
+  </si>
+  <si>
+    <t>illustrators</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>lithographers</t>
+  </si>
+  <si>
+    <t>makers</t>
+  </si>
+  <si>
+    <t>ondertekenaar</t>
+  </si>
+  <si>
+    <t>dedicatees</t>
+  </si>
+  <si>
+    <t>opsteller</t>
+  </si>
+  <si>
+    <t>subjects (content of works)</t>
+  </si>
+  <si>
+    <t>directors (performing arts)</t>
+  </si>
+  <si>
+    <t>signers</t>
+  </si>
+  <si>
+    <t>publishers</t>
+  </si>
+  <si>
+    <t>begunstigde</t>
+  </si>
+  <si>
+    <t>begunstiger</t>
+  </si>
+  <si>
+    <t>translators</t>
+  </si>
+  <si>
+    <t>original artists</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\ISAAR Relatie Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Record Type\</t>
+  </si>
+  <si>
+    <t>gerelateerde publicatie</t>
+  </si>
+  <si>
+    <t>gepubliceerd in /als</t>
+  </si>
+  <si>
+    <t>transcripts</t>
+  </si>
+  <si>
+    <t>online catalogs</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Externe Relatie Type\</t>
+  </si>
+  <si>
+    <t>blotters (bookkeeping records)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Techniek Type\</t>
+  </si>
+  <si>
+    <t>reverse painting on glass (image-making)</t>
+  </si>
+  <si>
+    <t>aquatint (printing process)</t>
+  </si>
+  <si>
+    <t>relief halftone (process)</t>
+  </si>
+  <si>
+    <t>Baxter prints</t>
+  </si>
+  <si>
+    <t>camaieu (painting technique)</t>
+  </si>
+  <si>
+    <t>chromolithography</t>
+  </si>
+  <si>
+    <t>chromotypography (relief printing process)</t>
+  </si>
+  <si>
+    <t>cliché-verre (photographic process)</t>
+  </si>
+  <si>
+    <t>collage (technique)</t>
+  </si>
+  <si>
+    <t>collagraph printing</t>
+  </si>
+  <si>
+    <t>Droge naald</t>
+  </si>
+  <si>
+    <t>drypoint (printing process)</t>
+  </si>
+  <si>
+    <t>etching (printing process)</t>
+  </si>
+  <si>
+    <t>photogalvanography</t>
+  </si>
+  <si>
+    <t>photogravure (process)</t>
+  </si>
+  <si>
+    <t>photolithography</t>
+  </si>
+  <si>
+    <t>aquarelle (technique)</t>
+  </si>
+  <si>
+    <t>verdigris (color)</t>
+  </si>
+  <si>
+    <t>enameling</t>
+  </si>
+  <si>
+    <t>casting (process)</t>
+  </si>
+  <si>
+    <t>engraving (printing process)</t>
+  </si>
+  <si>
+    <t>lacquering</t>
+  </si>
+  <si>
+    <t>mixed technique</t>
+  </si>
+  <si>
+    <t>artificial patina</t>
+  </si>
+  <si>
+    <t>painting (image-making)</t>
+  </si>
+  <si>
+    <t>ink wash (technique)</t>
+  </si>
+  <si>
+    <t>grisaille</t>
+  </si>
+  <si>
+    <t>wood engraving (process)</t>
+  </si>
+  <si>
+    <t>woodcut (process)</t>
+  </si>
+  <si>
+    <t>line blocks</t>
+  </si>
+  <si>
+    <t>lithography</t>
+  </si>
+  <si>
+    <t>stipple engraving (printing process)</t>
+  </si>
+  <si>
+    <t>rotogravure</t>
+  </si>
+  <si>
+    <t>copper engraving (printing process)</t>
+  </si>
+  <si>
+    <t>chalk lithography</t>
+  </si>
+  <si>
+    <t>lavis (technique)</t>
+  </si>
+  <si>
+    <t>alloy</t>
+  </si>
+  <si>
+    <t>collotype (process)</t>
+  </si>
+  <si>
+    <t>line engraving (printing process)</t>
+  </si>
+  <si>
+    <t>linoleum block printing</t>
+  </si>
+  <si>
+    <t>relief printing</t>
+  </si>
+  <si>
+    <t>mezzotint (process)</t>
+  </si>
+  <si>
+    <t>monotype (planographic process)</t>
+  </si>
+  <si>
+    <t>offset printing</t>
+  </si>
+  <si>
+    <t>pens (drawing and writing implements)</t>
+  </si>
+  <si>
+    <t>artists' brushes</t>
+  </si>
+  <si>
+    <t>steel engraving (printing process)</t>
+  </si>
+  <si>
+    <t>counterproving (printing)</t>
+  </si>
+  <si>
+    <t>soft-ground etching (process)</t>
+  </si>
+  <si>
+    <t>silvering</t>
+  </si>
+  <si>
+    <t>screen printing</t>
+  </si>
+  <si>
+    <t>zincography</t>
+  </si>
+  <si>
+    <t>ceramic (material)</t>
+  </si>
+  <si>
+    <t>acrylic (resin)</t>
+  </si>
+  <si>
+    <t>aluminum (metal)</t>
+  </si>
+  <si>
+    <t>watercolor (paint)</t>
+  </si>
+  <si>
+    <t>stone (worked rock)</t>
+  </si>
+  <si>
+    <t>bone (material)</t>
+  </si>
+  <si>
+    <t>bister (pigment)</t>
+  </si>
+  <si>
+    <t>bronze (metal)</t>
+  </si>
+  <si>
+    <t>Conté crayon (TM)</t>
+  </si>
+  <si>
+    <t>deck paint</t>
+  </si>
+  <si>
+    <t>enamel (fused coating)</t>
+  </si>
+  <si>
+    <t>gypsum</t>
+  </si>
+  <si>
+    <t>glass (material)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kenmerken/lhmateriaalaanvob/lhmateriaalsoortob
+kenmerken/lhmateriaalob/lhmateriaalsoortob
+</t>
+  </si>
+  <si>
+    <t>gouache (paint)</t>
+  </si>
+  <si>
+    <t>gold (metal)</t>
+  </si>
+  <si>
+    <t>wood (plant material)</t>
+  </si>
+  <si>
+    <t>kenmerken/lhmateriaalob/lhmateriaalsoortob
+kenmerken/lhmateriaalaanvob/lhmateriaalsoortob</t>
+  </si>
+  <si>
+    <t>charcoal (material)</t>
+  </si>
+  <si>
+    <t>iron (metal)</t>
+  </si>
+  <si>
+    <t>ink</t>
+  </si>
+  <si>
+    <t>ivory (material)</t>
+  </si>
+  <si>
+    <t>textile materials</t>
+  </si>
+  <si>
+    <t>chalk sticks</t>
+  </si>
+  <si>
+    <t>colored pencils</t>
+  </si>
+  <si>
+    <t>ball-point pens</t>
+  </si>
+  <si>
+    <t>copper (metal)</t>
+  </si>
+  <si>
+    <t>plastic (material)</t>
+  </si>
+  <si>
+    <t>leather</t>
+  </si>
+  <si>
+    <t>lead (metal)</t>
+  </si>
+  <si>
+    <t>marble (rock)</t>
+  </si>
+  <si>
+    <t>metal</t>
+  </si>
+  <si>
+    <t>mixed media</t>
+  </si>
+  <si>
+    <t>mortar (filler)</t>
+  </si>
+  <si>
+    <t>pencils (drawing and writing equipment)</t>
+  </si>
+  <si>
+    <t>oil pastels</t>
+  </si>
+  <si>
+    <t>oil paint (paint)</t>
+  </si>
+  <si>
+    <t>India ink (ink)</t>
+  </si>
+  <si>
+    <t>pastels (crayons)</t>
+  </si>
+  <si>
+    <t>Plexiglas (TM)</t>
+  </si>
+  <si>
+    <t>polyester (resin)</t>
+  </si>
+  <si>
+    <t>porcelain (material)</t>
+  </si>
+  <si>
+    <t>red chalk</t>
+  </si>
+  <si>
+    <t>plate glass</t>
+  </si>
+  <si>
+    <t>tempera</t>
+  </si>
+  <si>
+    <t>terracotta (clay material)</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>felt-tip pens</t>
+  </si>
+  <si>
+    <t>wax</t>
+  </si>
+  <si>
+    <t>wax crayons</t>
+  </si>
+  <si>
+    <t>silver (metal)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Materiaal Type\</t>
+  </si>
+  <si>
+    <t>canvas (textile material)</t>
+  </si>
+  <si>
+    <t>asbestos-cement</t>
+  </si>
+  <si>
+    <t>paper (fiber product)</t>
+  </si>
+  <si>
+    <t>linen (material)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Drager Type\</t>
+  </si>
+  <si>
+    <t>kenmerken/lhdragerico/lhdragertypeico</t>
+  </si>
+  <si>
+    <t>handmade paper</t>
+  </si>
+  <si>
+    <t>Japanese paper (handmade paper)</t>
+  </si>
+  <si>
+    <t>tracing paper</t>
+  </si>
+  <si>
+    <t>cardboard</t>
+  </si>
+  <si>
+    <t>copper plates (printing plates)</t>
+  </si>
+  <si>
+    <t>medium-density fiberboard</t>
+  </si>
+  <si>
+    <t>panel (wood by form)</t>
+  </si>
+  <si>
+    <t>parchment (animal material)</t>
+  </si>
+  <si>
+    <t>sketchbooks</t>
+  </si>
+  <si>
+    <t>particle board</t>
+  </si>
+  <si>
+    <t>plywood</t>
+  </si>
+  <si>
+    <t>hardboard</t>
+  </si>
+  <si>
+    <t>laid paper</t>
+  </si>
+  <si>
+    <t>silk (textile)</t>
+  </si>
+  <si>
+    <t>zinc</t>
+  </si>
+  <si>
+    <t>pencils</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4536,8 +5078,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4547,6 +5096,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4563,11 +5130,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -5214,6 +5811,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5493,7 +6093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
@@ -6106,16 +6706,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.69921875" customWidth="1"/>
+    <col min="3" max="3" width="38.19921875" customWidth="1"/>
+    <col min="4" max="4" width="23.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6145,6 +6750,12 @@
       <c r="B2" t="s">
         <v>304</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6153,6 +6764,12 @@
       <c r="B3" t="s">
         <v>306</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6161,6 +6778,12 @@
       <c r="B4" t="s">
         <v>308</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6169,6 +6792,12 @@
       <c r="B5" t="s">
         <v>310</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6177,6 +6806,12 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1455</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6185,6 +6820,9 @@
       <c r="B7" t="s">
         <v>313</v>
       </c>
+      <c r="F7" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6193,6 +6831,15 @@
       <c r="B8" t="s">
         <v>315</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1456</v>
+      </c>
+      <c r="E8">
+        <v>300027388</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6201,6 +6848,9 @@
       <c r="B9" t="s">
         <v>317</v>
       </c>
+      <c r="F9" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6209,6 +6859,9 @@
       <c r="B10" t="s">
         <v>319</v>
       </c>
+      <c r="F10" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6217,6 +6870,9 @@
       <c r="B11" t="s">
         <v>319</v>
       </c>
+      <c r="F11" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6225,6 +6881,9 @@
       <c r="B12" t="s">
         <v>322</v>
       </c>
+      <c r="F12" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6233,6 +6892,12 @@
       <c r="B13" t="s">
         <v>310</v>
       </c>
+      <c r="C13" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1454</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6241,6 +6906,15 @@
       <c r="B14" t="s">
         <v>325</v>
       </c>
+      <c r="C14" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E14">
+        <v>300026614</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6249,6 +6923,9 @@
       <c r="B15" t="s">
         <v>327</v>
       </c>
+      <c r="F15" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6257,69 +6934,102 @@
       <c r="B16" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>330</v>
       </c>
       <c r="B17" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>332</v>
       </c>
       <c r="B18" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>334</v>
       </c>
       <c r="B19" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>336</v>
       </c>
       <c r="B20" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>338</v>
       </c>
       <c r="B21" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>340</v>
       </c>
       <c r="B22" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>342</v>
       </c>
       <c r="B23" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>344</v>
       </c>
       <c r="B24" t="s">
         <v>345</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1455</v>
       </c>
     </row>
   </sheetData>
@@ -6329,10 +7039,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6500,8 +7213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7095,16 +7808,20 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -7134,6 +7851,12 @@
       <c r="B2" t="s">
         <v>473</v>
       </c>
+      <c r="C2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7142,6 +7865,15 @@
       <c r="B3" t="s">
         <v>475</v>
       </c>
+      <c r="C3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E3">
+        <v>300025103</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7150,6 +7882,15 @@
       <c r="B4" t="s">
         <v>477</v>
       </c>
+      <c r="C4" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E4">
+        <v>300024987</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7158,6 +7899,15 @@
       <c r="B5" t="s">
         <v>479</v>
       </c>
+      <c r="C5" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E5">
+        <v>300025492</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7166,6 +7916,15 @@
       <c r="B6" t="s">
         <v>481</v>
       </c>
+      <c r="C6" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1425</v>
+      </c>
+      <c r="E6">
+        <v>300386177</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7174,6 +7933,15 @@
       <c r="B7" t="s">
         <v>483</v>
       </c>
+      <c r="C7" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E7">
+        <v>300025704</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7182,6 +7950,15 @@
       <c r="B8" t="s">
         <v>485</v>
       </c>
+      <c r="C8" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E8">
+        <v>300443565</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7190,6 +7967,15 @@
       <c r="B9" t="s">
         <v>487</v>
       </c>
+      <c r="C9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="E9">
+        <v>300225705</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7198,6 +7984,15 @@
       <c r="B10" t="s">
         <v>489</v>
       </c>
+      <c r="C10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E10">
+        <v>300025671</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7206,6 +8001,15 @@
       <c r="B11" t="s">
         <v>491</v>
       </c>
+      <c r="C11" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E11">
+        <v>300443565</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7214,6 +8018,9 @@
       <c r="B12" t="s">
         <v>493</v>
       </c>
+      <c r="F12" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -7222,6 +8029,15 @@
       <c r="B13" t="s">
         <v>495</v>
       </c>
+      <c r="C13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="E13">
+        <v>300132961</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -7230,6 +8046,15 @@
       <c r="B14" t="s">
         <v>496</v>
       </c>
+      <c r="C14" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E14">
+        <v>300025732</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -7238,6 +8063,15 @@
       <c r="B15" t="s">
         <v>498</v>
       </c>
+      <c r="C15" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E15">
+        <v>300025190</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -7246,189 +8080,372 @@
       <c r="B16" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>501</v>
       </c>
       <c r="B17" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E17">
+        <v>300025687</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>503</v>
       </c>
       <c r="B18" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>505</v>
       </c>
       <c r="B19" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1435</v>
+      </c>
+      <c r="E19">
+        <v>300025165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>507</v>
       </c>
       <c r="B20" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1436</v>
+      </c>
+      <c r="E20">
+        <v>300025257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>509</v>
       </c>
       <c r="B21" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>511</v>
       </c>
       <c r="B22" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1437</v>
+      </c>
+      <c r="E22">
+        <v>300025123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>513</v>
       </c>
       <c r="B23" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E23">
+        <v>300311841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>515</v>
       </c>
       <c r="B24" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1439</v>
+      </c>
+      <c r="E24">
+        <v>300025175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>517</v>
       </c>
       <c r="B25" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E25">
+        <v>300251917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>519</v>
       </c>
       <c r="B26" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>289</v>
       </c>
       <c r="B27" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E27">
+        <v>300121765</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>522</v>
       </c>
       <c r="B28" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>524</v>
       </c>
       <c r="B29" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1444</v>
+      </c>
+      <c r="E29">
+        <v>300404126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>526</v>
       </c>
       <c r="B30" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>528</v>
       </c>
       <c r="B31" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1445</v>
+      </c>
+      <c r="E31">
+        <v>300025654</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>530</v>
       </c>
       <c r="B32" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1446</v>
+      </c>
+      <c r="E32">
+        <v>300137375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>275</v>
       </c>
       <c r="B33" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E33">
+        <v>300025492</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>533</v>
       </c>
       <c r="B34" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1447</v>
+      </c>
+      <c r="E34">
+        <v>300025574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>422</v>
       </c>
       <c r="B35" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>536</v>
       </c>
       <c r="B36" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E36">
+        <v>300311841</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>538</v>
       </c>
       <c r="B37" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>281</v>
       </c>
       <c r="B38" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E38">
+        <v>300025601</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>541</v>
       </c>
       <c r="B39" t="s">
         <v>542</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E39">
+        <v>300417530</v>
       </c>
     </row>
   </sheetData>
@@ -7438,6 +8455,9 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7448,7 +8468,7 @@
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.3984375" customWidth="1"/>
+    <col min="3" max="3" width="29.5" customWidth="1"/>
     <col min="4" max="4" width="16.8984375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8011,2478 +9031,4421 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F140"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.296875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>1328</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E3" s="8">
+        <v>300011015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>617</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C4" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E4" s="14">
+        <v>300011176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>619</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>620</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E5" s="8">
+        <v>300010957</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>622</v>
       </c>
+      <c r="F6" s="6" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="F7" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>626</v>
       </c>
+      <c r="C8" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E8" s="8">
+        <v>300011914</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="6" t="s">
         <v>627</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>628</v>
       </c>
+      <c r="F9" s="11" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>630</v>
       </c>
+      <c r="F10" s="11" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>632</v>
       </c>
+      <c r="C11" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E11" s="8">
+        <v>300011099</v>
+      </c>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="F12" s="11" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="C13" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E13" s="14">
+        <v>300011176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>637</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>638</v>
       </c>
+      <c r="C14" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E14" s="8">
+        <v>300010797</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>640</v>
       </c>
+      <c r="F15" s="6" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="6" t="s">
         <v>641</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="F16" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
         <v>643</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="C17" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E17" s="8">
+        <v>300011914</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="C18" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>1532</v>
+      </c>
+      <c r="E18" s="8">
+        <v>300011002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="C19" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>1534</v>
+      </c>
+      <c r="E19" s="8">
+        <v>300011857</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="C20" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E20" s="8">
+        <v>300235507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
         <v>651</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="C21" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E21" s="8">
+        <v>300011020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
         <v>653</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="C22" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E22" s="8">
+        <v>300014570</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
         <v>655</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="F23" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="C24" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E24" s="8">
+        <v>300011914</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="C25" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E25" s="8">
+        <v>300011443</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="C26" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E26" s="8">
+        <v>300011443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="F27" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>665</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="C28" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>1545</v>
+      </c>
+      <c r="E28" s="8">
+        <v>300163347</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="C29" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>1546</v>
+      </c>
+      <c r="E29" s="8">
+        <v>300014741</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="6" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="C30" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E30" s="8">
+        <v>300011914</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>671</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="C31" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E31" s="8">
+        <v>300011914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C32" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>1552</v>
+      </c>
+      <c r="E32" s="8">
+        <v>300014436</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C33" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E33" s="8">
+        <v>300014546</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C34" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E34" s="8">
+        <v>300010662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
         <v>678</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C35" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E35" s="14">
+        <v>300011176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>680</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C36" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>1556</v>
+      </c>
+      <c r="E36" s="8">
+        <v>300010822</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>682</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C37" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E37" s="14">
+        <v>300011176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
         <v>684</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="F38" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="C39" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>1558</v>
+      </c>
+      <c r="E39" s="8">
+        <v>300010669</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
         <v>687</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="C40" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E40" s="8">
+        <v>300011914</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
         <v>689</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="F41" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
         <v>691</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C42" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E42" s="8">
+        <v>300014585</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
         <v>693</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C43" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E43" s="14">
+        <v>300011176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C44" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E44" s="14">
+        <v>300011176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C45" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E45" s="8">
+        <v>300231565</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>699</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="6" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="F46" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>701</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="6" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="F47" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>703</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="6" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C48" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E48" s="8">
+        <v>300235507</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>705</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="6" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="F49" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="6" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="C50" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>1518</v>
+      </c>
+      <c r="E50" s="8">
+        <v>300011798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="6" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="F51" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>711</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="6" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="C52" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>1520</v>
+      </c>
+      <c r="E52" s="8">
+        <v>300010957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="6" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C53" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>1539</v>
+      </c>
+      <c r="E53" s="8">
+        <v>300011020</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C54" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E54" s="8">
+        <v>300014078</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>715</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C55" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E55" s="8">
+        <v>300014078</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>717</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C56" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C57" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>1523</v>
+      </c>
+      <c r="E57" s="8">
+        <v>300014910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>721</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C58" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>1566</v>
+      </c>
+      <c r="E58" s="8">
+        <v>300010367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="F59" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>725</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="C60" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E60" s="8">
+        <v>300014069</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>727</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C61" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="E61" s="8">
+        <v>300011021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>729</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C62" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E62" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="156" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
         <v>731</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="C63" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E63" s="8">
+        <v>300010797</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>638</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>1525</v>
+      </c>
+      <c r="E64" s="8">
+        <v>300010797</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" s="6" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="C65" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E65" s="8">
+        <v>300011914</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" s="6" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C66" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E66" s="8">
+        <v>300011914</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>1529</v>
+      </c>
+      <c r="E67" s="8">
+        <v>300011914</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B68" s="6" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="C68" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E68" s="8">
+        <v>300411543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B69" s="6" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="70" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>738</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B70" s="6" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="C70" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E70" s="8">
+        <v>300014143</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B71" s="6" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="C71" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E71" s="8">
+        <v>300231565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B72" s="6" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="C72" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E72" s="8">
+        <v>300435274</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B73" s="6" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="C73" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>1573</v>
+      </c>
+      <c r="E73" s="8">
+        <v>300014161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>746</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B74" s="6" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="C74" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E74" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B75" s="6" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="C75" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E75" s="8">
+        <v>300014224</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>750</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B76" s="6" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="C76" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E76" s="8">
+        <v>300014570</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B77" s="6" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C77" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E77" s="8">
+        <v>300014069</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B78" s="6" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="C78" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>1541</v>
+      </c>
+      <c r="E78" s="8">
+        <v>300011845</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" s="6" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="C79" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E79" s="8">
+        <v>300014069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" s="6" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="C80" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E80" s="8">
+        <v>300011022</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B81" s="6" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="C81" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E81" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B82" s="6" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="C82" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>1543</v>
+      </c>
+      <c r="E82" s="8">
+        <v>300011443</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B83" s="6" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="C83" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E83" s="8">
+        <v>300390932</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B84" s="6" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="C84" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E84" s="8">
+        <v>300010900</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B85" s="6" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="F85" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B86" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="F86" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B87" s="6" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="C87" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>1577</v>
+      </c>
+      <c r="E87" s="8">
+        <v>300014657</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>771</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B88" s="6" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="C88" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E88" s="8">
+        <v>300011851</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B89" s="6" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="C89" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E89" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>775</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B90" s="6" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="C90" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E90" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>777</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B91" s="6" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="C91" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E91" s="8">
+        <v>300011851</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B92" s="6" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="C92" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E92" s="8">
+        <v>300010662</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>781</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B93" s="6" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="C93" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E93" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B94" s="6" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="C94" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E94" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>785</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B95" s="6" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="C95" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E95" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>787</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B96" s="6" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="C96" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E96" s="8">
+        <v>300027354</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
         <v>789</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" s="6" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="F97" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>791</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" s="6" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="C98" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E98" s="8">
+        <v>300014206</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" s="6" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="C99" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E99" s="14">
+        <v>300011176</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>794</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" s="6" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="C100" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E100" s="8">
+        <v>300010900</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>796</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B101" s="6" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="C101" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E101" s="8">
+        <v>300014248</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B102" s="6" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="C102" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="E102" s="8">
+        <v>300012849</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>800</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B103" s="6" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="C103" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E103" s="8">
+        <v>300231565</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>802</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B104" s="6" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="C104" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>1582</v>
+      </c>
+      <c r="E104" s="8">
+        <v>300014203</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>804</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B105" s="6" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="F105" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
         <v>805</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B106" s="6" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="C106" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>1583</v>
+      </c>
+      <c r="E106" s="8">
+        <v>300014184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
         <v>807</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" s="6" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" s="6" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="C108" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>1585</v>
+      </c>
+      <c r="E108" s="8">
+        <v>300011037</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>809</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B109" s="6" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="C109" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D109" s="7" t="s">
+        <v>1563</v>
+      </c>
+      <c r="E109" s="8">
+        <v>300231565</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>810</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B110" s="6" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="C110" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E110" s="8">
+        <v>300243428</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>812</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B111" s="6" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="C111" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E111" s="8">
+        <v>300022453</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>814</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B112" s="6" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="C112" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D112" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E112" s="6">
+        <v>300138699</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>816</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B113" s="6" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="C113" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E113" s="8">
+        <v>300011729</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B114" s="6" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="C114" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E114" s="8">
+        <v>300179099</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>820</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B115" s="6" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="C115" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>1531</v>
+      </c>
+      <c r="E115" s="8">
+        <v>300012862</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>822</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" s="6" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="C116" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E116" s="8">
+        <v>300015012</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
         <v>824</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B117" s="6" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="C117" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E117" s="8">
+        <v>300022413</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>826</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B118" s="6" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="C118" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="E118" s="8">
+        <v>300022441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B119" s="6" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="C119" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E119" s="8">
+        <v>300022413</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
         <v>830</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B120" s="6" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="C120" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E120" s="6">
+        <v>300053277</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
         <v>832</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B121" s="6" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="C121" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D121" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E121" s="8">
+        <v>300022439</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B122" s="6" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="C122" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E122" s="8">
+        <v>300015018</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="6" t="s">
         <v>836</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B123" s="6" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="C123" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D123" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E123" s="8">
+        <v>300230810</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A124" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B124" s="6" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="C124" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E124" s="8">
+        <v>300015018</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B125" s="6" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="C125" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E125" s="8">
+        <v>300122621</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B126" s="6" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="C126" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D126" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E126" s="6">
+        <v>300022452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A127" s="6" t="s">
         <v>844</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B127" s="6" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="C127" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="E127" s="8">
+        <v>300022439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B128" s="6" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="C128" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D128" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E128" s="6">
+        <v>300022552</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="6" t="s">
         <v>848</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B129" s="6" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="C129" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D129" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E129" s="8">
+        <v>300015012</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="6" t="s">
         <v>850</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B130" s="6" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="C130" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E130" s="8">
+        <v>300080064</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A131" s="6" t="s">
         <v>851</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B131" s="6" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="C131" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E131" s="8">
+        <v>300417481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="6" t="s">
         <v>853</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B132" s="6" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="C132" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E132" s="8">
+        <v>300022458</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
         <v>855</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" s="6" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="C133" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>1562</v>
+      </c>
+      <c r="E133" s="8">
+        <v>300167812</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B134" s="6" t="s">
         <v>858</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="F134" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
         <v>859</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" s="6" t="s">
         <v>860</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="F135" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B136" s="6" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="C136" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D136" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E136" s="8">
+        <v>300053796</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
         <v>863</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B137" s="6" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="F137" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
         <v>865</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B138" s="6" t="s">
         <v>866</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="C138" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>1478</v>
+      </c>
+      <c r="E138" s="8">
+        <v>300311416</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
         <v>867</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B139" s="6" t="s">
         <v>868</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="C139" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E139" s="8">
+        <v>300054216</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
         <v>869</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" s="6" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="C140" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E140" s="8">
+        <v>300443550</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
         <v>871</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B141" s="6" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="C141" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E141" s="8">
+        <v>300443550</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
         <v>873</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B142" s="6" t="s">
         <v>874</v>
       </c>
+      <c r="C142" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E142" s="8">
+        <v>300053989</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F142"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1358</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>1330</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>1328</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1158</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1032</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E2" s="14">
+        <v>300015045</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>1160</v>
       </c>
+      <c r="C3" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E3" s="6">
+        <v>300411597</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>1162</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="F4" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>1164</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>1527</v>
+      </c>
+      <c r="E5" s="8">
+        <v>300070114</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>1166</v>
       </c>
+      <c r="C6" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E6" s="8">
+        <v>300053386</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="6" t="s">
         <v>1167</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>835</v>
       </c>
+      <c r="F7" s="6" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="10" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="10" t="s">
         <v>622</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="10" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="10" t="s">
         <v>626</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="10" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="10" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="10" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="10" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="10" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="10" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="10" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="10" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="10" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="10" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="10" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="10" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="10" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="10" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="10" t="s">
         <v>655</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="10" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="10" t="s">
         <v>657</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="10" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="10" t="s">
         <v>659</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="10" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="10" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="10" t="s">
         <v>663</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="10" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="10" t="s">
         <v>665</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="10" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="10" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="10" t="s">
         <v>671</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="10" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="10" t="s">
         <v>673</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="10" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="10" t="s">
         <v>675</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="10" t="s">
         <v>676</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="10" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="10" t="s">
         <v>678</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="10" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="10" t="s">
         <v>680</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="10" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="10" t="s">
         <v>682</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="10" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="10" t="s">
         <v>684</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="10" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="10" t="s">
         <v>686</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="10" t="s">
         <v>687</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="10" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="10" t="s">
         <v>689</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="10" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="10" t="s">
         <v>691</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="10" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>693</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="10" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
         <v>695</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="10" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>697</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="10" t="s">
         <v>698</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
         <v>699</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="10" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
         <v>701</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="10" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>1168</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="6" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C54" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="6" t="s">
         <v>903</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="F55" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
         <v>1171</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="6" t="s">
         <v>1172</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="F56" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
         <v>1173</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="6" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C57" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E57" s="6">
+        <v>300053242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
         <v>1175</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="6" t="s">
         <v>1176</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="C58" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E58" s="6">
+        <v>300155640</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
         <v>1177</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="6" t="s">
         <v>1178</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="C59" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E59" s="6">
+        <v>300263218</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="6" t="s">
         <v>1180</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
         <v>1181</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="6" t="s">
         <v>1182</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="C61" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>1470</v>
+      </c>
+      <c r="E61" s="8">
+        <v>300053220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
         <v>1183</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="6" t="s">
         <v>1184</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="C62" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E62" s="8">
+        <v>300053272</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
         <v>1185</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="6" t="s">
         <v>1186</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="F63" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
         <v>1187</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="6" t="s">
         <v>1188</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="C64" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>1467</v>
+      </c>
+      <c r="E64" s="8">
+        <v>300265178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="6" t="s">
         <v>1190</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="C65" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>1468</v>
+      </c>
+      <c r="E65" s="8">
+        <v>300265082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
         <v>1191</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="6" t="s">
         <v>1192</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="F66" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
         <v>1193</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="6" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="C67" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>1195</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="6" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="C68" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E68" s="8">
+        <v>300053241</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>1197</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="6" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="C69" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E69" s="8">
+        <v>300053241</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>1198</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="6" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="C70" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E70" s="8">
+        <v>300053207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>1200</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="6" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="C71" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E71" s="8">
+        <v>300053275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>1202</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="6" t="s">
         <v>1203</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="C72" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E72" s="8">
+        <v>300053303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>1204</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="6" t="s">
         <v>1205</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="C73" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E73" s="8">
+        <v>300053296</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>1206</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="6" t="s">
         <v>1207</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="C74" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E74" s="8">
+        <v>300053242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>1208</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="6" t="s">
         <v>1209</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="C75" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E75" s="8">
+        <v>300263381</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>1210</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>1211</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="C76" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>1488</v>
+      </c>
+      <c r="E76" s="8">
+        <v>300053303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>1212</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>1213</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="C77" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E77" s="8">
+        <v>300053296</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>1214</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>1215</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="C78" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E78" s="8">
+        <v>300154361</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
         <v>1216</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>1217</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="F79" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>1218</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="C80" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E80" s="8">
+        <v>300053271</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>1221</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="C81" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E81" s="8">
+        <v>300343476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>1222</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>1223</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="C82" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E82" s="8">
+        <v>300053239</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>1224</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="C83" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E83" s="8">
+        <v>300190531</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>1226</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>1227</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="C84" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>1490</v>
+      </c>
+      <c r="E84" s="8">
+        <v>300154361</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>1228</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>1229</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="C85" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E85" s="8">
+        <v>300053204</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>1230</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>1231</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="C86" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="E86" s="8">
+        <v>300053231</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
         <v>1232</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>1233</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="C87" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>1500</v>
+      </c>
+      <c r="E87" s="8">
+        <v>300060720</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>1234</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>1235</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="C88" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E88" s="8">
+        <v>300053271</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
         <v>1236</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="6" t="s">
         <v>1237</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="C89" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E89" s="8">
+        <v>300053285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>1238</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>1239</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="F90" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>1241</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>1242</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="C92" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E92" s="8">
+        <v>300053233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>1244</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>1245</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="C93" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E93" s="8">
+        <v>300053277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>1246</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>1247</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="F94" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>1248</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>1249</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="F95" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>1250</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="6" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="C96" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E96" s="9">
+        <v>300053279</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
         <v>1252</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="6" t="s">
         <v>1253</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="F97" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>1254</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="6" t="s">
         <v>1255</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="C98" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>1507</v>
+      </c>
+      <c r="E98" s="8">
+        <v>300190536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>1256</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="6" t="s">
         <v>1257</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="C99" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E99" s="8">
+        <v>300053285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
         <v>1258</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="6" t="s">
         <v>1259</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="C100" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>1492</v>
+      </c>
+      <c r="E100" s="8">
+        <v>300053239</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="6" t="s">
         <v>1261</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="F101" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="6" t="s">
         <v>1262</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>1263</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="F102" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="6" t="s">
         <v>1264</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="6" t="s">
         <v>1265</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="F103" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="6" t="s">
         <v>1266</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="6" t="s">
         <v>1267</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="C104" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E104" s="8">
+        <v>300053271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A105" s="6" t="s">
         <v>1268</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="6" t="s">
         <v>1269</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="C105" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>1474</v>
+      </c>
+      <c r="E105" s="8">
+        <v>300157897</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="C106" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E106" s="8">
+        <v>300053251</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="6" t="s">
         <v>1272</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="6" t="s">
         <v>1273</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="C107" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>1512</v>
+      </c>
+      <c r="E107" s="8">
+        <v>300157968</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A108" s="6" t="s">
         <v>1274</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
         <v>1275</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="C108" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E108" s="8">
+        <v>300053281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A109" s="6" t="s">
         <v>1276</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="6" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="C109" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>1514</v>
+      </c>
+      <c r="E109" s="14">
+        <v>300014426</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="6" t="s">
         <v>1278</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="6" t="s">
         <v>1279</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="C110" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E110" s="6">
+        <v>300053366</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="6" t="s">
         <v>1280</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="6" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="C111" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E111" s="14">
+        <v>300015050</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>1282</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>1283</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="C112" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E112" s="14">
+        <v>300015062</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>1284</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="6" t="s">
         <v>1285</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="C113" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E113" s="14">
+        <v>300015050</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
         <v>812</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="10" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="10" t="s">
         <v>814</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="10" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="C115" s="10"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="10"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="10" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="10" t="s">
         <v>818</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="10" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="10" t="s">
         <v>820</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="10" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="10" t="s">
         <v>822</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="10" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="10" t="s">
         <v>824</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="10" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="C120" s="10"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="10" t="s">
         <v>826</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="10" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="10" t="s">
         <v>828</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="10" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="10" t="s">
         <v>830</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="10" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="C123" s="10"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="10"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="10" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="10" t="s">
         <v>834</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="10" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="10" t="s">
         <v>836</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="10" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="10" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="10" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="10" t="s">
         <v>842</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="10" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+      <c r="C129" s="10"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="10"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="10" t="s">
         <v>844</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="10" t="s">
         <v>845</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+      <c r="C130" s="10"/>
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="10" t="s">
         <v>846</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="10" t="s">
         <v>847</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+      <c r="C131" s="10"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="10"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="10" t="s">
         <v>848</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="10" t="s">
         <v>849</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="C132" s="10"/>
+      <c r="D132" s="10"/>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="10" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+      <c r="C133" s="10"/>
+      <c r="D133" s="10"/>
+      <c r="E133" s="10"/>
+      <c r="F133" s="10"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
         <v>851</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="10" t="s">
         <v>852</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+      <c r="C134" s="10"/>
+      <c r="D134" s="10"/>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
         <v>853</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="10" t="s">
         <v>854</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+      <c r="C135" s="10"/>
+      <c r="D135" s="10"/>
+      <c r="E135" s="10"/>
+      <c r="F135" s="10"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
         <v>855</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="10" t="s">
         <v>856</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
         <v>1286</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="6" t="s">
         <v>1287</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+      <c r="C137" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>1479</v>
+      </c>
+      <c r="E137" s="8">
+        <v>300053781</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
         <v>1288</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="6" t="s">
         <v>1289</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+      <c r="C138" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>1480</v>
+      </c>
+      <c r="E138" s="8">
+        <v>300053104</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
         <v>1290</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="6" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+      <c r="C139" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D139" s="7" t="s">
+        <v>1481</v>
+      </c>
+      <c r="E139" s="8">
+        <v>300053225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
         <v>1292</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="6" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+      <c r="F140" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
         <v>1294</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="6" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+      <c r="C141" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D141" s="7" t="s">
+        <v>1482</v>
+      </c>
+      <c r="E141" s="8">
+        <v>300053796</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
         <v>1295</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="6" t="s">
         <v>1296</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+      <c r="C142" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E142" s="8">
+        <v>300010902</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
         <v>1297</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="6" t="s">
         <v>870</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+      <c r="C143" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E143" s="8">
+        <v>300443550</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
         <v>1298</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="6" t="s">
         <v>1299</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+      <c r="F144" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
         <v>1300</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="6" t="s">
         <v>874</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+      <c r="C145" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>1510</v>
+      </c>
+      <c r="E145" s="8">
+        <v>300053989</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A146" s="6" t="s">
         <v>1301</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="6" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+      <c r="C146" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E146" s="14">
+        <v>300015045</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="6" t="s">
         <v>1302</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="6" t="s">
         <v>1174</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+      <c r="C147" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D147" s="6" t="s">
+        <v>1462</v>
+      </c>
+      <c r="E147" s="6">
+        <v>300053242</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="6" t="s">
         <v>1303</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="6" t="s">
         <v>1304</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+      <c r="F148" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A149" s="6" t="s">
         <v>1305</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="6" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+      <c r="C149" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D149" s="7" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E149" s="8">
+        <v>300013351</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="6" t="s">
         <v>1307</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="6" t="s">
         <v>1194</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+      <c r="C150" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D150" s="7" t="s">
+        <v>1471</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
         <v>1308</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="6" t="s">
         <v>1309</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+      <c r="C151" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D151" s="7" t="s">
+        <v>1522</v>
+      </c>
+      <c r="E151" s="14">
+        <v>300015071</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="6" t="s">
         <v>1310</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="6" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+      <c r="F152" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A153" s="6" t="s">
         <v>1312</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="6" t="s">
         <v>1313</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+      <c r="C153" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D153" s="7" t="s">
+        <v>1477</v>
+      </c>
+      <c r="E153" s="8">
+        <v>300053363</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="6" t="s">
         <v>1314</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="6" t="s">
         <v>1315</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+      <c r="C154" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D154" s="7" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E154" s="8">
+        <v>300404638</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A155" s="6" t="s">
         <v>1316</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="6" t="s">
         <v>1225</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+      <c r="C155" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D155" s="7" t="s">
+        <v>1494</v>
+      </c>
+      <c r="E155" s="8">
+        <v>300190531</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
         <v>1317</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="6" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+      <c r="C156" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D156" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E156" s="8">
+        <v>300417481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
         <v>1319</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="6" t="s">
         <v>1243</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+      <c r="C157" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>1502</v>
+      </c>
+      <c r="E157" s="8">
+        <v>300053233</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
         <v>1320</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="6" t="s">
         <v>1281</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+      <c r="C158" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>1549</v>
+      </c>
+      <c r="E158" s="14">
+        <v>300015050</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
         <v>1321</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="6" t="s">
         <v>1322</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+      <c r="F159" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
         <v>1323</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="6" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+      <c r="C160" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E160" s="8">
+        <v>300404072</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
         <v>1325</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="6" t="s">
         <v>1271</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+      <c r="C161" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>1509</v>
+      </c>
+      <c r="E161" s="8">
+        <v>300053251</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
         <v>1326</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="6" t="s">
         <v>1327</v>
       </c>
+      <c r="C162" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E162" s="14">
+        <v>300015045</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F162"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -10490,6 +13453,9 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10542,8 +13508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11259,15 +14225,20 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D19" sqref="D19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.8984375" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11297,6 +14268,15 @@
       <c r="B2" t="s">
         <v>1031</v>
       </c>
+      <c r="C2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E2">
+        <v>300164785</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -11305,6 +14285,15 @@
       <c r="B3" t="s">
         <v>1033</v>
       </c>
+      <c r="C3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E3">
+        <v>300404216</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -11313,6 +14302,12 @@
       <c r="B4" t="s">
         <v>480</v>
       </c>
+      <c r="C4" t="s">
+        <v>1453</v>
+      </c>
+      <c r="E4">
+        <v>300028045</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -11321,6 +14316,15 @@
       <c r="B5" t="s">
         <v>1035</v>
       </c>
+      <c r="C5" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E5">
+        <v>300026879</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -11329,6 +14333,15 @@
       <c r="B6" t="s">
         <v>1037</v>
       </c>
+      <c r="C6" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1411</v>
+      </c>
+      <c r="E6">
+        <v>300026030</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -11337,6 +14350,15 @@
       <c r="B7" t="s">
         <v>1038</v>
       </c>
+      <c r="C7" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E7">
+        <v>300026942</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -11345,6 +14367,12 @@
       <c r="B8" t="s">
         <v>505</v>
       </c>
+      <c r="C8" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -11353,6 +14381,12 @@
       <c r="B9" t="s">
         <v>1040</v>
       </c>
+      <c r="E9">
+        <v>300234278</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -11361,6 +14395,15 @@
       <c r="B10" t="s">
         <v>256</v>
       </c>
+      <c r="C10" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E10">
+        <v>300028569</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -11369,6 +14412,15 @@
       <c r="B11" t="s">
         <v>1041</v>
       </c>
+      <c r="C11" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E11">
+        <v>300028569</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -11377,6 +14429,12 @@
       <c r="B12" t="s">
         <v>1042</v>
       </c>
+      <c r="E12">
+        <v>300435274</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -11385,6 +14443,15 @@
       <c r="B13" t="s">
         <v>1044</v>
       </c>
+      <c r="C13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="E13">
+        <v>300265421</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -11393,6 +14460,15 @@
       <c r="B14" t="s">
         <v>1046</v>
       </c>
+      <c r="C14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1415</v>
+      </c>
+      <c r="E14">
+        <v>300033618</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -11401,6 +14477,15 @@
       <c r="B15" t="s">
         <v>287</v>
       </c>
+      <c r="C15" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E15">
+        <v>300046300</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -11409,45 +14494,99 @@
       <c r="B16" t="s">
         <v>1047</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E16">
+        <v>300046300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1048</v>
       </c>
       <c r="B17" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E17">
+        <v>300041273</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1049</v>
       </c>
       <c r="B18" t="s">
         <v>1050</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E18">
+        <v>300027221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1051</v>
       </c>
       <c r="B19" t="s">
         <v>1052</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1459</v>
+      </c>
+      <c r="E19">
+        <v>300027488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1045</v>
       </c>
       <c r="B20" t="s">
         <v>1053</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1419</v>
+      </c>
+      <c r="E20">
+        <v>300047090</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>950</v>
       </c>
       <c r="B21" t="s">
         <v>1054</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E21">
+        <v>300033973</v>
       </c>
     </row>
   </sheetData>
@@ -11457,10 +14596,13 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11496,6 +14638,15 @@
       <c r="B2" t="s">
         <v>1056</v>
       </c>
+      <c r="C2" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E2">
+        <v>300022453</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -11504,6 +14655,15 @@
       <c r="B3" t="s">
         <v>854</v>
       </c>
+      <c r="C3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E3">
+        <v>300022458</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -11512,6 +14672,9 @@
       <c r="B4" t="s">
         <v>1059</v>
       </c>
+      <c r="F4" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -11520,6 +14683,15 @@
       <c r="B5" t="s">
         <v>823</v>
       </c>
+      <c r="C5" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E5">
+        <v>300015012</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -11527,6 +14699,15 @@
       </c>
       <c r="B6" t="s">
         <v>845</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E6">
+        <v>300022439</v>
       </c>
     </row>
   </sheetData>
@@ -11536,6 +14717,9 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11546,7 +14730,7 @@
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.296875" customWidth="1"/>
+    <col min="3" max="3" width="30.09765625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11850,17 +15034,20 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.69921875" customWidth="1"/>
+    <col min="3" max="3" width="27.296875" customWidth="1"/>
     <col min="4" max="4" width="15.296875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11999,10 +15186,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12049,10 +15239,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12404,10 +15597,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12476,6 +15672,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12911,6 +16110,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12972,6 +16174,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13044,6 +16249,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13127,6 +16335,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="20"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <sheet name="toegang_types.csv" sheetId="24" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">materiaal_types.csv!$A$1:$F$142</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">materiaal_types.csv!$A$1:$F$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">techniek_types.csv!$A$1:$F$162</definedName>
     <definedName name="annotatie_types" localSheetId="2">annotatie_types.csv!$A$1:$B$19</definedName>
     <definedName name="av_film_materiaal_types" localSheetId="3">av_film_materiaal_types.csv!$A$1:$B$4</definedName>
@@ -58,7 +58,7 @@
     <definedName name="genre_types" localSheetId="15">genre_types.csv!$A$1:$C$53</definedName>
     <definedName name="isaar_relatie_types" localSheetId="16">isaar_relatie_types.csv!$A$1:$B$39</definedName>
     <definedName name="kleur_types" localSheetId="17">kleur_types.csv!$A$1:$B$36</definedName>
-    <definedName name="materiaal_types" localSheetId="18">materiaal_types.csv!$A$1:$B$142</definedName>
+    <definedName name="materiaal_types" localSheetId="18">materiaal_types.csv!$A$1:$B$145</definedName>
     <definedName name="numberofpages_qualifier_types" localSheetId="19">numberofpages_qualifier_types.c!$A$1:$B$2</definedName>
     <definedName name="object_types" localSheetId="20">object_types.csv!$A$1:$B$86</definedName>
     <definedName name="record_types" localSheetId="21">'record_types.csv'!$A$1:$B$21</definedName>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="1587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="1591">
   <si>
     <t>code</t>
   </si>
@@ -5056,6 +5056,24 @@
   </si>
   <si>
     <t>pencils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kenmerken/lhmateriaalaanvob/lhmateriaalsoortob
+</t>
+  </si>
+  <si>
+    <t>kenmerken/lhdragerico/lhdragertypeico
+kenmerken/lhdragerps
+kenmerken/mpmdragerak
+kenmerken/mpmdragertk</t>
+  </si>
+  <si>
+    <t>kenmerken/lhdragerico/lhdragertypeico
+kenmerken/lhdragerps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kenmerken/lhmateriaalob/lhmateriaalsoortob
+</t>
   </si>
 </sst>
 </file>
@@ -7213,8 +7231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9034,18 +9052,22 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.5" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.19921875" style="6"/>
+    <col min="3" max="3" width="34.19921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="18.5" style="6" customWidth="1"/>
+    <col min="5" max="6" width="11.19921875" style="6"/>
+    <col min="7" max="7" width="49.19921875" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -10214,8 +10236,8 @@
         <v>300014109</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+    <row r="75" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
         <v>748</v>
       </c>
       <c r="B75" s="6" t="s">
@@ -10230,242 +10252,248 @@
       <c r="E75" s="8">
         <v>300014224</v>
       </c>
+      <c r="G75" s="12" t="s">
+        <v>1589</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
-        <v>750</v>
+      <c r="A76" s="13" t="s">
+        <v>748</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>654</v>
+        <v>749</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D76" s="7" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E76" s="8">
+        <v>300014224</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D77" s="7" t="s">
         <v>1540</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E77" s="8">
         <v>300014570</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+    <row r="78" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
         <v>751</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B78" s="6" t="s">
         <v>752</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>1569</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D78" s="7" t="s">
         <v>1568</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E78" s="8">
         <v>300014069</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B79" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>1564</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D79" s="7" t="s">
         <v>1541</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E79" s="8">
         <v>300011845</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A79" s="6" t="s">
+    <row r="80" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B80" s="6" t="s">
         <v>756</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>1569</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D80" s="7" t="s">
         <v>1568</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E80" s="8">
         <v>300014069</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="6" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
         <v>757</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B81" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>1564</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D81" s="7" t="s">
         <v>1542</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E81" s="8">
         <v>300011022</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="6" t="s">
+    <row r="82" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
         <v>759</v>
       </c>
-      <c r="B81" s="6" t="s">
+      <c r="B82" s="6" t="s">
         <v>760</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>1569</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D82" s="7" t="s">
         <v>1567</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E82" s="8">
         <v>300014109</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+    <row r="83" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
         <v>761</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B83" s="6" t="s">
         <v>660</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>1564</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>1543</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E83" s="8">
         <v>300011443</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="F83" s="11" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+    <row r="84" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
         <v>762</v>
       </c>
-      <c r="B83" s="6" t="s">
+      <c r="B84" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>1569</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D84" s="7" t="s">
         <v>1576</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E84" s="8">
         <v>300390932</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="6" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
         <v>764</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B85" s="6" t="s">
         <v>765</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>1564</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D85" s="7" t="s">
         <v>1544</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E85" s="8">
         <v>300010900</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="6" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B86" s="6" t="s">
         <v>767</v>
-      </c>
-      <c r="F85" s="6" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
         <v>769</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B88" s="6" t="s">
         <v>770</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>1577</v>
-      </c>
-      <c r="E87" s="8">
-        <v>300014657</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>772</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E88" s="8">
-        <v>300011851</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300014657</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1567</v>
+        <v>1578</v>
       </c>
       <c r="E89" s="8">
-        <v>300014109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300011851</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>1569</v>
@@ -10477,63 +10505,63 @@
         <v>300014109</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D91" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E91" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D92" s="7" t="s">
         <v>1578</v>
       </c>
-      <c r="E91" s="8">
+      <c r="E92" s="8">
         <v>300011851</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+    <row r="93" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>779</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B93" s="6" t="s">
         <v>780</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>1564</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D93" s="7" t="s">
         <v>1554</v>
       </c>
-      <c r="E92" s="8">
+      <c r="E93" s="8">
         <v>300010662</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+    <row r="94" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B94" s="6" t="s">
         <v>782</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>1569</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>1567</v>
-      </c>
-      <c r="E93" s="8">
-        <v>300014109</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>784</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>1569</v>
@@ -10544,16 +10572,19 @@
       <c r="E94" s="8">
         <v>300014109</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
-        <v>785</v>
+      <c r="G94" s="12" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>781</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>1567</v>
@@ -10561,769 +10592,829 @@
       <c r="E95" s="8">
         <v>300014109</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" s="12" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1579</v>
+        <v>1567</v>
       </c>
       <c r="E96" s="8">
-        <v>300027354</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>786</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>1567</v>
+      </c>
+      <c r="E97" s="8">
+        <v>300014109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D98" s="7" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E98" s="8">
+        <v>300027354</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>1580</v>
       </c>
-      <c r="E98" s="8">
+      <c r="E100" s="8">
         <v>300014206</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="101" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B101" s="6" t="s">
         <v>683</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E99" s="14">
-        <v>300011176</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E100" s="8">
-        <v>300010900</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>797</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E101" s="8">
-        <v>300014248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1517</v>
+      </c>
+      <c r="E101" s="14">
+        <v>300011176</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1569</v>
+        <v>1564</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1581</v>
+        <v>1544</v>
       </c>
       <c r="E102" s="8">
-        <v>300012849</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300010900</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1535</v>
+        <v>1559</v>
       </c>
       <c r="E103" s="8">
-        <v>300231565</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300014248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E104" s="8">
-        <v>300014203</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300012849</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>690</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>801</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>1535</v>
+      </c>
+      <c r="E105" s="8">
+        <v>300231565</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E106" s="8">
-        <v>300014184</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300014203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>690</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>700</v>
+        <v>806</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E108" s="8">
-        <v>300011037</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300014184</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D109" s="7" t="s">
-        <v>1563</v>
-      </c>
-      <c r="E109" s="8">
-        <v>300231565</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>1569</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="E110" s="8">
-        <v>300243428</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300011037</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>813</v>
+        <v>698</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1538</v>
+        <v>1563</v>
       </c>
       <c r="E111" s="8">
-        <v>300022453</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
-        <v>814</v>
+        <v>300231565</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" s="13" t="s">
+        <v>810</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E112" s="6">
-        <v>300138699</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
-        <v>816</v>
+        <v>1569</v>
+      </c>
+      <c r="D112" s="7" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E112" s="8">
+        <v>300243428</v>
+      </c>
+      <c r="G112" s="11" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A113" s="13" t="s">
+        <v>810</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1521</v>
+        <v>1584</v>
       </c>
       <c r="E113" s="8">
-        <v>300011729</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300243428</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="C114" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>1538</v>
+      </c>
+      <c r="E114" s="8">
+        <v>300022453</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>1460</v>
       </c>
-      <c r="D114" s="7" t="s">
-        <v>1483</v>
-      </c>
-      <c r="E114" s="8">
-        <v>300179099</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>1531</v>
-      </c>
-      <c r="E115" s="8">
-        <v>300012862</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D115" s="6" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E115" s="6">
+        <v>300138699</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>1533</v>
+        <v>1521</v>
       </c>
       <c r="E116" s="8">
-        <v>300015012</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300011729</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1564</v>
+        <v>1460</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1536</v>
+        <v>1483</v>
       </c>
       <c r="E117" s="8">
-        <v>300022413</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300179099</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1537</v>
+        <v>1531</v>
       </c>
       <c r="E118" s="8">
-        <v>300022441</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300012862</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D119" s="7" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E119" s="8">
+        <v>300015012</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D120" s="7" t="s">
         <v>1536</v>
       </c>
-      <c r="E119" s="8">
+      <c r="E120" s="8">
         <v>300022413</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
-        <v>830</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D120" s="6" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E120" s="6">
-        <v>300053277</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1547</v>
+        <v>1537</v>
       </c>
       <c r="E121" s="8">
-        <v>300022439</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300022441</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1550</v>
+        <v>1536</v>
       </c>
       <c r="E122" s="8">
-        <v>300015018</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300022413</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D123" s="7" t="s">
-        <v>1548</v>
-      </c>
-      <c r="E123" s="8">
-        <v>300230810</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+        <v>1460</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E123" s="6">
+        <v>300053277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1550</v>
+        <v>1547</v>
       </c>
       <c r="E124" s="8">
-        <v>300015018</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300022439</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E125" s="8">
-        <v>300122621</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300015018</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>1505</v>
-      </c>
-      <c r="E126" s="6">
-        <v>300022452</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" ht="62.4" x14ac:dyDescent="0.3">
+        <v>1564</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>1548</v>
+      </c>
+      <c r="E126" s="8">
+        <v>300230810</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="E127" s="8">
-        <v>300022439</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>300015018</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E128" s="6">
-        <v>300022552</v>
+        <v>1564</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>1551</v>
+      </c>
+      <c r="E128" s="8">
+        <v>300122621</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D129" s="7" t="s">
-        <v>1533</v>
-      </c>
-      <c r="E129" s="8">
-        <v>300015012</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1460</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>1505</v>
+      </c>
+      <c r="E129" s="6">
+        <v>300022452</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>600</v>
+        <v>845</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1555</v>
+        <v>1547</v>
       </c>
       <c r="E130" s="8">
-        <v>300080064</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300022439</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>1496</v>
-      </c>
-      <c r="E131" s="8">
-        <v>300417481</v>
+        <v>1460</v>
+      </c>
+      <c r="D131" s="6" t="s">
+        <v>1506</v>
+      </c>
+      <c r="E131" s="6">
+        <v>300022552</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1560</v>
+        <v>1533</v>
       </c>
       <c r="E132" s="8">
-        <v>300022458</v>
+        <v>300015012</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>856</v>
+        <v>600</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>1564</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1562</v>
+        <v>1555</v>
       </c>
       <c r="E133" s="8">
-        <v>300167812</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300080064</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="F134" s="6" t="s">
-        <v>1329</v>
+        <v>852</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>1496</v>
+      </c>
+      <c r="E134" s="8">
+        <v>300417481</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="F135" s="6" t="s">
-        <v>1329</v>
+        <v>854</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>1560</v>
+      </c>
+      <c r="E135" s="8">
+        <v>300022458</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1460</v>
+        <v>1564</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1482</v>
+        <v>1562</v>
       </c>
       <c r="E136" s="8">
-        <v>300053796</v>
+        <v>300167812</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>1478</v>
-      </c>
-      <c r="E138" s="8">
-        <v>300311416</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>1460</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1485</v>
+        <v>1482</v>
       </c>
       <c r="E139" s="8">
-        <v>300054216</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>300053796</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>1460</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E140" s="8">
-        <v>300443550</v>
+        <v>864</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>1460</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1484</v>
+        <v>1478</v>
       </c>
       <c r="E141" s="8">
-        <v>300443550</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+        <v>300311416</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>1460</v>
       </c>
       <c r="D142" s="7" t="s">
+        <v>1485</v>
+      </c>
+      <c r="E142" s="8">
+        <v>300054216</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E143" s="8">
+        <v>300443550</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A144" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="C144" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D144" s="7" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E144" s="8">
+        <v>300443550</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="6" t="s">
+        <v>873</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D145" s="7" t="s">
         <v>1510</v>
       </c>
-      <c r="E142" s="8">
+      <c r="E145" s="8">
         <v>300053989</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F142"/>
+  <autoFilter ref="A1:F145"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -11337,8 +11428,8 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13508,7 +13599,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <definedName name="conditie_types" localSheetId="8">'conditie_types.csv'!$A$1:$B$7</definedName>
     <definedName name="date_types" localSheetId="9">date_types.csv!$A$1:$B$10</definedName>
     <definedName name="datum_types" localSheetId="10">datum_types.csv!$A$1:$B$3</definedName>
-    <definedName name="document_types" localSheetId="11">document_types.csv!$A$1:$B$82</definedName>
+    <definedName name="document_types" localSheetId="11">document_types.csv!$A$1:$B$83</definedName>
     <definedName name="externe_relatie_types" localSheetId="12">externe_relatie_types.csv!$A$1:$B$24</definedName>
     <definedName name="formaat_types" localSheetId="13">formaat_types.csv!$A$1:$B$2</definedName>
     <definedName name="fotoformaat_types" localSheetId="14">fotoformaat_types.csv!$A$1:$B$11</definedName>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2549" uniqueCount="1591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1659">
   <si>
     <t>code</t>
   </si>
@@ -4446,9 +4446,6 @@
     <t>Low German (language)</t>
   </si>
   <si>
-    <t>undetermined (language)</t>
-  </si>
-  <si>
     <t>unidentified (information indicator)</t>
   </si>
   <si>
@@ -4492,9 +4489,6 @@
   </si>
   <si>
     <t>seated figures</t>
-  </si>
-  <si>
-    <t>Digipolis Thesauri\Object Types\sculpture (visual works)\</t>
   </si>
   <si>
     <t>Digipolis Thesauri\Annotatie Type\</t>
@@ -5074,6 +5068,216 @@
   <si>
     <t xml:space="preserve">kenmerken/lhmateriaalob/lhmateriaalsoortob
 </t>
+  </si>
+  <si>
+    <t>engravings (prints)</t>
+  </si>
+  <si>
+    <t>polishing</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\sculpture (visual works)\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Genre Type\</t>
+  </si>
+  <si>
+    <t>drama (literary genre)</t>
+  </si>
+  <si>
+    <t>beschouwend proza</t>
+  </si>
+  <si>
+    <t>verhalend proza</t>
+  </si>
+  <si>
+    <t>poetry</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\drawings (visual works)\</t>
+  </si>
+  <si>
+    <t>plans (maps)</t>
+  </si>
+  <si>
+    <t>plans (orthographic projections)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\cultural artifacts\</t>
+  </si>
+  <si>
+    <t>video cameras</t>
+  </si>
+  <si>
+    <t>eyeglasses</t>
+  </si>
+  <si>
+    <t>curios</t>
+  </si>
+  <si>
+    <t>objets d'art</t>
+  </si>
+  <si>
+    <t>medals</t>
+  </si>
+  <si>
+    <t>memorabilia</t>
+  </si>
+  <si>
+    <t>furniture</t>
+  </si>
+  <si>
+    <t>musical instruments</t>
+  </si>
+  <si>
+    <t>props (object genres)</t>
+  </si>
+  <si>
+    <t>smoking &amp; recreational drug equipment</t>
+  </si>
+  <si>
+    <t>artists' materials</t>
+  </si>
+  <si>
+    <t>writing instruments</t>
+  </si>
+  <si>
+    <t>jewelry</t>
+  </si>
+  <si>
+    <t>trophies (objects)</t>
+  </si>
+  <si>
+    <t>weapons</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\letters (correspondence)\</t>
+  </si>
+  <si>
+    <t>postcards</t>
+  </si>
+  <si>
+    <t>circular letters</t>
+  </si>
+  <si>
+    <t>dedications (documents)</t>
+  </si>
+  <si>
+    <t>electronic mail</t>
+  </si>
+  <si>
+    <t>faxes</t>
+  </si>
+  <si>
+    <t>greeting cards</t>
+  </si>
+  <si>
+    <t>picture postcards</t>
+  </si>
+  <si>
+    <t>telegrams</t>
+  </si>
+  <si>
+    <t>telex printouts</t>
+  </si>
+  <si>
+    <t>visiting cards</t>
+  </si>
+  <si>
+    <t>kenmerken/lhtypedc</t>
+  </si>
+  <si>
+    <t>kenmerken/rubtypedoc</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\documents (object genre)\</t>
+  </si>
+  <si>
+    <t>financial records</t>
+  </si>
+  <si>
+    <t>folders (printed matter)</t>
+  </si>
+  <si>
+    <t>testimonials</t>
+  </si>
+  <si>
+    <t>identity cards</t>
+  </si>
+  <si>
+    <t>cards (information artifacts)</t>
+  </si>
+  <si>
+    <t>clippings (information artifacts)</t>
+  </si>
+  <si>
+    <t>membership cards</t>
+  </si>
+  <si>
+    <t>librettos (documents for music)</t>
+  </si>
+  <si>
+    <t>menus</t>
+  </si>
+  <si>
+    <t>obituaries</t>
+  </si>
+  <si>
+    <t>offprints</t>
+  </si>
+  <si>
+    <t>programs (documents)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\notarial documents\</t>
+  </si>
+  <si>
+    <t>codicils</t>
+  </si>
+  <si>
+    <t>receipts (financial records)</t>
+  </si>
+  <si>
+    <t>charters</t>
+  </si>
+  <si>
+    <t>passports</t>
+  </si>
+  <si>
+    <t>insurance policies</t>
+  </si>
+  <si>
+    <t>schepenbrief</t>
+  </si>
+  <si>
+    <t>wills</t>
+  </si>
+  <si>
+    <t>decrees</t>
+  </si>
+  <si>
+    <t>waybills</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\blotters (bookkeeping records)\</t>
+  </si>
+  <si>
+    <t>letter books</t>
+  </si>
+  <si>
+    <t>daybooks</t>
+  </si>
+  <si>
+    <t>ledgers (account books)</t>
+  </si>
+  <si>
+    <t>inventories</t>
+  </si>
+  <si>
+    <t>klachtenboek</t>
   </si>
 </sst>
 </file>
@@ -5148,7 +5352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -5183,6 +5387,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -5600,7 +5805,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5885,7 +6090,7 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D3" t="s">
         <v>1334</v>
@@ -5902,7 +6107,7 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D4" t="s">
         <v>1334</v>
@@ -5919,7 +6124,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D5" t="s">
         <v>1335</v>
@@ -5936,7 +6141,7 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D6" t="s">
         <v>1336</v>
@@ -5950,10 +6155,10 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D7" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="E7">
         <v>300386154</v>
@@ -5967,7 +6172,7 @@
         <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D8" t="s">
         <v>1337</v>
@@ -5981,7 +6186,7 @@
         <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D9" t="s">
         <v>1338</v>
@@ -5995,7 +6200,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="D10" t="s">
         <v>1334</v>
@@ -6109,16 +6314,19 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.69921875" customWidth="1"/>
+    <col min="7" max="7" width="25.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -6148,6 +6356,15 @@
       <c r="B2" t="s">
         <v>163</v>
       </c>
+      <c r="C2" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E2">
+        <v>300164785</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -6156,6 +6373,15 @@
       <c r="B3" t="s">
         <v>165</v>
       </c>
+      <c r="C3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="E3">
+        <v>300250949</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -6172,6 +6398,15 @@
       <c r="B5" t="s">
         <v>169</v>
       </c>
+      <c r="C5" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E5">
+        <v>300026676</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -6180,6 +6415,15 @@
       <c r="B6" t="s">
         <v>171</v>
       </c>
+      <c r="C6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E6">
+        <v>300027573</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -6188,6 +6432,15 @@
       <c r="B7" t="s">
         <v>173</v>
       </c>
+      <c r="C7" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E7">
+        <v>300027621</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6196,6 +6449,15 @@
       <c r="B8" t="s">
         <v>175</v>
       </c>
+      <c r="C8" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E8">
+        <v>300027392</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -6204,6 +6466,15 @@
       <c r="B9" t="s">
         <v>177</v>
       </c>
+      <c r="C9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1648</v>
+      </c>
+      <c r="E9">
+        <v>300027527</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -6212,6 +6483,15 @@
       <c r="B10" t="s">
         <v>179</v>
       </c>
+      <c r="C10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E10">
+        <v>300027621</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -6220,6 +6500,12 @@
       <c r="B11" t="s">
         <v>181</v>
       </c>
+      <c r="C11" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1649</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -6228,6 +6514,15 @@
       <c r="B12" t="s">
         <v>183</v>
       </c>
+      <c r="C12" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1650</v>
+      </c>
+      <c r="E12">
+        <v>300027764</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -6236,6 +6531,15 @@
       <c r="B13" t="s">
         <v>185</v>
       </c>
+      <c r="C13" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="E13">
+        <v>300026925</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -6244,6 +6548,15 @@
       <c r="B14" t="s">
         <v>187</v>
       </c>
+      <c r="C14" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1652</v>
+      </c>
+      <c r="E14">
+        <v>300201447</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -6252,6 +6565,15 @@
       <c r="B15" t="s">
         <v>189</v>
       </c>
+      <c r="C15" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E15">
+        <v>300026879</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -6260,56 +6582,113 @@
       <c r="B16" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E16">
+        <v>300026816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>192</v>
       </c>
       <c r="B17" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E17">
+        <v>300026882</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>194</v>
       </c>
       <c r="B18" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E18">
+        <v>300026114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>196</v>
       </c>
       <c r="B19" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E19">
+        <v>300149026</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E20">
+        <v>300240262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>200</v>
       </c>
       <c r="B21" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E21">
+        <v>300026778</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>123</v>
       </c>
       <c r="B22" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>202</v>
       </c>
@@ -6317,47 +6696,92 @@
         <v>203</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>204</v>
       </c>
       <c r="B24" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E24">
+        <v>300026816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>206</v>
       </c>
       <c r="B25" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E25">
+        <v>300026819</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>208</v>
       </c>
       <c r="B26" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E26">
+        <v>300026909</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>210</v>
       </c>
       <c r="B27" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E27">
+        <v>300400813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>212</v>
       </c>
       <c r="B28" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E28">
+        <v>300026823</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>214</v>
       </c>
@@ -6365,7 +6789,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>216</v>
       </c>
@@ -6373,347 +6797,544 @@
         <v>217</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>218</v>
       </c>
       <c r="B31" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="F31" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
         <v>220</v>
       </c>
       <c r="B32" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="C32" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1409</v>
+      </c>
+      <c r="E32">
+        <v>300026030</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="B33" t="s">
+        <v>221</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1410</v>
+      </c>
+      <c r="E33">
+        <v>300026942</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>222</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E34">
+        <v>300027473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>224</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E35">
+        <v>300212274</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>226</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E36">
+        <v>300026676</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>228</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E37">
+        <v>300026799</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>230</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E38">
+        <v>300026756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>232</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E39">
+        <v>300026867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>234</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="F40" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>236</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="F41" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>238</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E42">
+        <v>300255378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>240</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E43">
+        <v>300026424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>242</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E44">
+        <v>300027191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>244</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E45">
+        <v>300026443</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>246</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1641</v>
+      </c>
+      <c r="E46">
+        <v>300262918</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>248</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="F47" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>250</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="F48" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>252</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1642</v>
+      </c>
+      <c r="E49">
+        <v>300027240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>254</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>256</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>258</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>260</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B53" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>262</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E54">
+        <v>300026693</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>264</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B55" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="C55" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1655</v>
+      </c>
+      <c r="E55">
+        <v>300027489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>266</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1656</v>
+      </c>
+      <c r="E56">
+        <v>300027496</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>268</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="C57" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E57">
+        <v>300027045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>270</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>272</v>
-      </c>
-      <c r="B58" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>274</v>
       </c>
       <c r="B59" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>275</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>277</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B62" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>279</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B63" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>281</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>282</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>283</v>
-      </c>
-      <c r="B64" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B65" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B66" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>287</v>
+      </c>
+      <c r="B67" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>289</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>291</v>
-      </c>
-      <c r="B69" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B70" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B71" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B72" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B73" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>299</v>
+      </c>
+      <c r="B74" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>301</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>302</v>
       </c>
     </row>
@@ -6730,7 +7351,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6769,10 +7390,10 @@
         <v>304</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D2" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6783,10 +7404,10 @@
         <v>306</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D3" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6797,10 +7418,10 @@
         <v>308</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D4" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -6811,10 +7432,10 @@
         <v>310</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D5" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -6825,10 +7446,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D6" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -6850,10 +7471,10 @@
         <v>315</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D8" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="E8">
         <v>300027388</v>
@@ -6911,10 +7532,10 @@
         <v>310</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D13" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -6925,10 +7546,10 @@
         <v>325</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D14" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="E14">
         <v>300026614</v>
@@ -7008,10 +7629,10 @@
         <v>339</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D21" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7044,10 +7665,10 @@
         <v>345</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="D24" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
     </row>
   </sheetData>
@@ -7231,8 +7852,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7240,6 +7861,7 @@
     <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.19921875" customWidth="1"/>
     <col min="3" max="3" width="28.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -7247,7 +7869,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7288,6 +7910,12 @@
       <c r="C4" t="s">
         <v>373</v>
       </c>
+      <c r="D4" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1594</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7296,6 +7924,15 @@
       <c r="C5" t="s">
         <v>375</v>
       </c>
+      <c r="D5" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F5">
+        <v>300417554</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7313,10 +7950,10 @@
         <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E7" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F7">
         <v>300138696</v>
@@ -7330,13 +7967,13 @@
         <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E8" t="s">
         <v>1387</v>
       </c>
       <c r="F8">
-        <v>300138696</v>
+        <v>300053623</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -7347,13 +7984,13 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E9" t="s">
         <v>1388</v>
       </c>
       <c r="F9">
-        <v>300053623</v>
+        <v>300047457</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
@@ -7364,13 +8001,13 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E10" t="s">
         <v>1389</v>
       </c>
       <c r="F10">
-        <v>300047457</v>
+        <v>300047724</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -7380,15 +8017,6 @@
       <c r="C11" t="s">
         <v>387</v>
       </c>
-      <c r="D11" t="s">
-        <v>1400</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1390</v>
-      </c>
-      <c r="F11">
-        <v>300047724</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -7398,10 +8026,10 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E12" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F12">
         <v>300047469</v>
@@ -7423,10 +8051,10 @@
         <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E14" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F14">
         <v>300047724</v>
@@ -7440,10 +8068,10 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E15" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F15">
         <v>300047896</v>
@@ -7457,10 +8085,10 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E16" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F16">
         <v>300262520</v>
@@ -7474,10 +8102,10 @@
         <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E17" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F17">
         <v>300077357</v>
@@ -7491,10 +8119,10 @@
         <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E18" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F18">
         <v>300138758</v>
@@ -7508,10 +8136,10 @@
         <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E19" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F19">
         <v>300047837</v>
@@ -7525,10 +8153,10 @@
         <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E20" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="F20">
         <v>300010262</v>
@@ -7553,10 +8181,10 @@
         <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E22" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="F22">
         <v>300343592</v>
@@ -7570,10 +8198,10 @@
         <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>1400</v>
+        <v>1591</v>
       </c>
       <c r="E23" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F23">
         <v>300404835</v>
@@ -7610,6 +8238,15 @@
       <c r="C27" t="s">
         <v>419</v>
       </c>
+      <c r="D27" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1596</v>
+      </c>
+      <c r="F27">
+        <v>300055931</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -7634,6 +8271,12 @@
       <c r="C30" t="s">
         <v>425</v>
       </c>
+      <c r="D30" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1595</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -7650,177 +8293,244 @@
       <c r="C32" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>430</v>
       </c>
       <c r="C33" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>432</v>
       </c>
       <c r="C34" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>434</v>
       </c>
       <c r="C35" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>436</v>
       </c>
       <c r="C36" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>438</v>
       </c>
       <c r="C37" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>440</v>
       </c>
       <c r="C38" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>442</v>
       </c>
       <c r="C39" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>444</v>
       </c>
       <c r="C40" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>446</v>
       </c>
       <c r="C41" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>448</v>
       </c>
       <c r="C42" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>450</v>
       </c>
       <c r="C43" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>452</v>
       </c>
       <c r="C44" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>454</v>
       </c>
       <c r="C45" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>456</v>
       </c>
       <c r="C46" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>458</v>
       </c>
       <c r="C47" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>460</v>
       </c>
       <c r="C48" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>462</v>
       </c>
       <c r="C49" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>464</v>
       </c>
       <c r="C50" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>466</v>
       </c>
       <c r="C51" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>468</v>
       </c>
       <c r="C52" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>470</v>
       </c>
       <c r="C53" t="s">
         <v>471</v>
       </c>
+      <c r="G53" t="s">
+        <v>1329</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7870,10 +8580,10 @@
         <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D2" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7884,10 +8594,10 @@
         <v>475</v>
       </c>
       <c r="C3" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D3" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="E3">
         <v>300025103</v>
@@ -7901,10 +8611,10 @@
         <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D4" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="E4">
         <v>300024987</v>
@@ -7918,10 +8628,10 @@
         <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D5" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E5">
         <v>300025492</v>
@@ -7935,10 +8645,10 @@
         <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D6" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="E6">
         <v>300386177</v>
@@ -7952,10 +8662,10 @@
         <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D7" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="E7">
         <v>300025704</v>
@@ -7969,10 +8679,10 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D8" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E8">
         <v>300443565</v>
@@ -7986,10 +8696,10 @@
         <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D9" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="E9">
         <v>300225705</v>
@@ -8003,10 +8713,10 @@
         <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D10" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="E10">
         <v>300025671</v>
@@ -8020,10 +8730,10 @@
         <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D11" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="E11">
         <v>300443565</v>
@@ -8048,10 +8758,10 @@
         <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D13" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="E13">
         <v>300132961</v>
@@ -8065,10 +8775,10 @@
         <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D14" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="E14">
         <v>300025732</v>
@@ -8082,10 +8792,10 @@
         <v>498</v>
       </c>
       <c r="C15" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D15" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="E15">
         <v>300025190</v>
@@ -8110,10 +8820,10 @@
         <v>502</v>
       </c>
       <c r="C17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D17" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="E17">
         <v>300025687</v>
@@ -8127,10 +8837,10 @@
         <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D18" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8141,10 +8851,10 @@
         <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D19" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="E19">
         <v>300025165</v>
@@ -8158,10 +8868,10 @@
         <v>508</v>
       </c>
       <c r="C20" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D20" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="E20">
         <v>300025257</v>
@@ -8186,10 +8896,10 @@
         <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D22" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="E22">
         <v>300025123</v>
@@ -8203,10 +8913,10 @@
         <v>514</v>
       </c>
       <c r="C23" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D23" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E23">
         <v>300311841</v>
@@ -8220,10 +8930,10 @@
         <v>516</v>
       </c>
       <c r="C24" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D24" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="E24">
         <v>300025175</v>
@@ -8237,10 +8947,10 @@
         <v>518</v>
       </c>
       <c r="C25" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D25" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="E25">
         <v>300251917</v>
@@ -8254,10 +8964,10 @@
         <v>520</v>
       </c>
       <c r="C26" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D26" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8268,10 +8978,10 @@
         <v>521</v>
       </c>
       <c r="C27" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D27" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="E27">
         <v>300121765</v>
@@ -8285,10 +8995,10 @@
         <v>523</v>
       </c>
       <c r="C28" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D28" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -8299,10 +9009,10 @@
         <v>525</v>
       </c>
       <c r="C29" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D29" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="E29">
         <v>300404126</v>
@@ -8327,10 +9037,10 @@
         <v>529</v>
       </c>
       <c r="C31" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D31" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="E31">
         <v>300025654</v>
@@ -8344,10 +9054,10 @@
         <v>531</v>
       </c>
       <c r="C32" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D32" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="E32">
         <v>300137375</v>
@@ -8361,10 +9071,10 @@
         <v>532</v>
       </c>
       <c r="C33" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D33" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="E33">
         <v>300025492</v>
@@ -8378,10 +9088,10 @@
         <v>534</v>
       </c>
       <c r="C34" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D34" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="E34">
         <v>300025574</v>
@@ -8395,10 +9105,10 @@
         <v>535</v>
       </c>
       <c r="C35" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D35" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -8409,10 +9119,10 @@
         <v>537</v>
       </c>
       <c r="C36" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D36" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="E36">
         <v>300311841</v>
@@ -8426,10 +9136,10 @@
         <v>539</v>
       </c>
       <c r="C37" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D37" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -8440,10 +9150,10 @@
         <v>540</v>
       </c>
       <c r="C38" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D38" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="E38">
         <v>300025601</v>
@@ -8457,10 +9167,10 @@
         <v>542</v>
       </c>
       <c r="C39" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="D39" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="E39">
         <v>300417530</v>
@@ -8479,7 +9189,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8518,7 +9228,7 @@
         <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D2" t="s">
         <v>1339</v>
@@ -8535,7 +9245,7 @@
         <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="F3" t="s">
         <v>1329</v>
@@ -8549,7 +9259,7 @@
         <v>548</v>
       </c>
       <c r="C4" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D4" t="s">
         <v>1340</v>
@@ -8566,7 +9276,7 @@
         <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D5" t="s">
         <v>1340</v>
@@ -8583,7 +9293,7 @@
         <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D6" t="s">
         <v>1341</v>
@@ -8600,7 +9310,7 @@
         <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D7" t="s">
         <v>1342</v>
@@ -8628,7 +9338,7 @@
         <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D9" t="s">
         <v>1340</v>
@@ -8645,7 +9355,7 @@
         <v>560</v>
       </c>
       <c r="C10" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D10" t="s">
         <v>1341</v>
@@ -8662,7 +9372,7 @@
         <v>562</v>
       </c>
       <c r="C11" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D11" t="s">
         <v>1343</v>
@@ -8690,7 +9400,7 @@
         <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D13" t="s">
         <v>1344</v>
@@ -8707,7 +9417,7 @@
         <v>568</v>
       </c>
       <c r="C14" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D14" t="s">
         <v>1345</v>
@@ -8724,7 +9434,7 @@
         <v>570</v>
       </c>
       <c r="C15" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D15" t="s">
         <v>1346</v>
@@ -8752,7 +9462,7 @@
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D17" t="s">
         <v>1347</v>
@@ -8769,7 +9479,7 @@
         <v>576</v>
       </c>
       <c r="C18" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D18" t="s">
         <v>1348</v>
@@ -8786,7 +9496,7 @@
         <v>578</v>
       </c>
       <c r="C19" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D19" t="s">
         <v>1340</v>
@@ -8803,7 +9513,7 @@
         <v>580</v>
       </c>
       <c r="C20" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D20" t="s">
         <v>1341</v>
@@ -8853,7 +9563,7 @@
         <v>588</v>
       </c>
       <c r="C24" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D24" t="s">
         <v>1349</v>
@@ -8881,7 +9591,7 @@
         <v>592</v>
       </c>
       <c r="C26" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D26" t="s">
         <v>1350</v>
@@ -8898,7 +9608,7 @@
         <v>594</v>
       </c>
       <c r="C27" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D27" t="s">
         <v>1351</v>
@@ -8915,7 +9625,7 @@
         <v>596</v>
       </c>
       <c r="C28" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D28" t="s">
         <v>1352</v>
@@ -8932,7 +9642,7 @@
         <v>598</v>
       </c>
       <c r="C29" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D29" t="s">
         <v>1353</v>
@@ -8960,7 +9670,7 @@
         <v>602</v>
       </c>
       <c r="C31" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D31" t="s">
         <v>1354</v>
@@ -8999,7 +9709,7 @@
         <v>608</v>
       </c>
       <c r="C34" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D34" t="s">
         <v>1355</v>
@@ -9016,7 +9726,7 @@
         <v>610</v>
       </c>
       <c r="C35" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D35" t="s">
         <v>1356</v>
@@ -9033,7 +9743,7 @@
         <v>612</v>
       </c>
       <c r="C36" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="D36" t="s">
         <v>1357</v>
@@ -9054,9 +9764,9 @@
   </sheetPr>
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9109,10 +9819,10 @@
         <v>616</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E3" s="8">
         <v>300011015</v>
@@ -9126,10 +9836,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E4" s="14">
         <v>300011176</v>
@@ -9143,10 +9853,10 @@
         <v>620</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E5" s="8">
         <v>300010957</v>
@@ -9182,10 +9892,10 @@
         <v>626</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E8" s="8">
         <v>300011914</v>
@@ -9221,10 +9931,10 @@
         <v>632</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E11" s="8">
         <v>300011099</v>
@@ -9250,10 +9960,10 @@
         <v>636</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E13" s="14">
         <v>300011176</v>
@@ -9267,10 +9977,10 @@
         <v>638</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E14" s="8">
         <v>300010797</v>
@@ -9306,10 +10016,10 @@
         <v>644</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E17" s="8">
         <v>300011914</v>
@@ -9323,10 +10033,10 @@
         <v>646</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E18" s="8">
         <v>300011002</v>
@@ -9340,10 +10050,10 @@
         <v>648</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E19" s="8">
         <v>300011857</v>
@@ -9357,10 +10067,10 @@
         <v>650</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E20" s="8">
         <v>300235507</v>
@@ -9374,10 +10084,10 @@
         <v>652</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E21" s="8">
         <v>300011020</v>
@@ -9391,10 +10101,10 @@
         <v>654</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E22" s="8">
         <v>300014570</v>
@@ -9419,10 +10129,10 @@
         <v>658</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E24" s="8">
         <v>300011914</v>
@@ -9436,10 +10146,10 @@
         <v>660</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E25" s="8">
         <v>300011443</v>
@@ -9453,10 +10163,10 @@
         <v>662</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E26" s="8">
         <v>300011443</v>
@@ -9481,10 +10191,10 @@
         <v>666</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E28" s="8">
         <v>300163347</v>
@@ -9498,10 +10208,10 @@
         <v>668</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E29" s="8">
         <v>300014741</v>
@@ -9515,10 +10225,10 @@
         <v>670</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E30" s="8">
         <v>300011914</v>
@@ -9532,10 +10242,10 @@
         <v>672</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E31" s="8">
         <v>300011914</v>
@@ -9549,10 +10259,10 @@
         <v>674</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E32" s="8">
         <v>300014436</v>
@@ -9566,10 +10276,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E33" s="8">
         <v>300014546</v>
@@ -9583,10 +10293,10 @@
         <v>677</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E34" s="8">
         <v>300010662</v>
@@ -9600,10 +10310,10 @@
         <v>679</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E35" s="14">
         <v>300011176</v>
@@ -9617,10 +10327,10 @@
         <v>681</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E36" s="8">
         <v>300010822</v>
@@ -9634,10 +10344,10 @@
         <v>683</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E37" s="14">
         <v>300011176</v>
@@ -9662,10 +10372,10 @@
         <v>604</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E39" s="8">
         <v>300010669</v>
@@ -9679,10 +10389,10 @@
         <v>688</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E40" s="8">
         <v>300011914</v>
@@ -9707,10 +10417,10 @@
         <v>692</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E42" s="8">
         <v>300014585</v>
@@ -9724,10 +10434,10 @@
         <v>694</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E43" s="14">
         <v>300011176</v>
@@ -9741,10 +10451,10 @@
         <v>696</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E44" s="14">
         <v>300011176</v>
@@ -9758,10 +10468,10 @@
         <v>698</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E45" s="8">
         <v>300231565</v>
@@ -9797,10 +10507,10 @@
         <v>704</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E48" s="8">
         <v>300235507</v>
@@ -9825,10 +10535,10 @@
         <v>708</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E50" s="8">
         <v>300011798</v>
@@ -9853,10 +10563,10 @@
         <v>620</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E52" s="8">
         <v>300010957</v>
@@ -9870,16 +10580,16 @@
         <v>652</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E53" s="8">
         <v>300011020</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -9890,10 +10600,10 @@
         <v>714</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E54" s="8">
         <v>300014078</v>
@@ -9907,10 +10617,10 @@
         <v>716</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E55" s="8">
         <v>300014078</v>
@@ -9924,13 +10634,13 @@
         <v>718</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>718</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -9941,10 +10651,10 @@
         <v>720</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E57" s="8">
         <v>300014910</v>
@@ -9958,10 +10668,10 @@
         <v>722</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E58" s="8">
         <v>300010367</v>
@@ -9986,10 +10696,10 @@
         <v>726</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E60" s="8">
         <v>300014069</v>
@@ -10003,10 +10713,10 @@
         <v>728</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E61" s="8">
         <v>300011021</v>
@@ -10020,10 +10730,10 @@
         <v>730</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E62" s="8">
         <v>300014109</v>
@@ -10037,16 +10747,16 @@
         <v>638</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E63" s="8">
         <v>300010797</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10057,16 +10767,16 @@
         <v>638</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E64" s="8">
         <v>300010797</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10077,10 +10787,10 @@
         <v>733</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E65" s="8">
         <v>300011914</v>
@@ -10094,16 +10804,16 @@
         <v>644</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E66" s="8">
         <v>300011914</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10114,16 +10824,16 @@
         <v>644</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E67" s="8">
         <v>300011914</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10134,10 +10844,10 @@
         <v>736</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>1569</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>1571</v>
       </c>
       <c r="E68" s="8">
         <v>300411543</v>
@@ -10159,10 +10869,10 @@
         <v>739</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="E70" s="8">
         <v>300014143</v>
@@ -10176,10 +10886,10 @@
         <v>741</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="E71" s="8">
         <v>300231565</v>
@@ -10193,10 +10903,10 @@
         <v>743</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E72" s="8">
         <v>300435274</v>
@@ -10210,10 +10920,10 @@
         <v>745</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E73" s="8">
         <v>300014161</v>
@@ -10227,10 +10937,10 @@
         <v>747</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E74" s="8">
         <v>300014109</v>
@@ -10244,16 +10954,16 @@
         <v>749</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E75" s="8">
         <v>300014224</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10264,16 +10974,16 @@
         <v>749</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E76" s="8">
         <v>300014224</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10284,10 +10994,10 @@
         <v>654</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E77" s="8">
         <v>300014570</v>
@@ -10301,10 +11011,10 @@
         <v>752</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E78" s="8">
         <v>300014069</v>
@@ -10318,10 +11028,10 @@
         <v>754</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E79" s="8">
         <v>300011845</v>
@@ -10335,10 +11045,10 @@
         <v>756</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E80" s="8">
         <v>300014069</v>
@@ -10352,10 +11062,10 @@
         <v>758</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E81" s="8">
         <v>300011022</v>
@@ -10369,10 +11079,10 @@
         <v>760</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E82" s="8">
         <v>300014109</v>
@@ -10386,10 +11096,10 @@
         <v>660</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E83" s="8">
         <v>300011443</v>
@@ -10406,10 +11116,10 @@
         <v>763</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="E84" s="8">
         <v>300390932</v>
@@ -10423,10 +11133,10 @@
         <v>765</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E85" s="8">
         <v>300010900</v>
@@ -10462,10 +11172,10 @@
         <v>770</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E88" s="8">
         <v>300014657</v>
@@ -10479,10 +11189,10 @@
         <v>772</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E89" s="8">
         <v>300011851</v>
@@ -10496,10 +11206,10 @@
         <v>774</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E90" s="8">
         <v>300014109</v>
@@ -10513,10 +11223,10 @@
         <v>776</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E91" s="8">
         <v>300014109</v>
@@ -10530,10 +11240,10 @@
         <v>778</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E92" s="8">
         <v>300011851</v>
@@ -10547,10 +11257,10 @@
         <v>780</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E93" s="8">
         <v>300010662</v>
@@ -10564,16 +11274,16 @@
         <v>782</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E94" s="8">
         <v>300014109</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10584,16 +11294,16 @@
         <v>782</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E95" s="8">
         <v>300014109</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10604,10 +11314,10 @@
         <v>784</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E96" s="8">
         <v>300014109</v>
@@ -10621,10 +11331,10 @@
         <v>786</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E97" s="8">
         <v>300014109</v>
@@ -10638,10 +11348,10 @@
         <v>788</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="E98" s="8">
         <v>300027354</v>
@@ -10666,10 +11376,10 @@
         <v>792</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E100" s="8">
         <v>300014206</v>
@@ -10683,10 +11393,10 @@
         <v>683</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E101" s="14">
         <v>300011176</v>
@@ -10700,10 +11410,10 @@
         <v>795</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E102" s="8">
         <v>300010900</v>
@@ -10717,10 +11427,10 @@
         <v>797</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E103" s="8">
         <v>300014248</v>
@@ -10734,10 +11444,10 @@
         <v>799</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="E104" s="8">
         <v>300012849</v>
@@ -10751,10 +11461,10 @@
         <v>801</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="E105" s="8">
         <v>300231565</v>
@@ -10768,10 +11478,10 @@
         <v>803</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E106" s="8">
         <v>300014203</v>
@@ -10796,10 +11506,10 @@
         <v>806</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="E108" s="8">
         <v>300014184</v>
@@ -10821,10 +11531,10 @@
         <v>700</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E110" s="8">
         <v>300011037</v>
@@ -10838,10 +11548,10 @@
         <v>698</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E111" s="8">
         <v>300231565</v>
@@ -10855,16 +11565,16 @@
         <v>811</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E112" s="8">
         <v>300243428</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10875,16 +11585,16 @@
         <v>811</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E113" s="8">
         <v>300243428</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -10895,10 +11605,10 @@
         <v>813</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E114" s="8">
         <v>300022453</v>
@@ -10912,10 +11622,10 @@
         <v>815</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E115" s="6">
         <v>300138699</v>
@@ -10929,10 +11639,10 @@
         <v>817</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E116" s="8">
         <v>300011729</v>
@@ -10946,10 +11656,10 @@
         <v>819</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E117" s="8">
         <v>300179099</v>
@@ -10963,10 +11673,10 @@
         <v>821</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E118" s="8">
         <v>300012862</v>
@@ -10980,10 +11690,10 @@
         <v>823</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E119" s="8">
         <v>300015012</v>
@@ -10997,10 +11707,10 @@
         <v>825</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E120" s="8">
         <v>300022413</v>
@@ -11014,10 +11724,10 @@
         <v>827</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E121" s="8">
         <v>300022441</v>
@@ -11031,10 +11741,10 @@
         <v>829</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E122" s="8">
         <v>300022413</v>
@@ -11048,10 +11758,10 @@
         <v>831</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E123" s="6">
         <v>300053277</v>
@@ -11065,10 +11775,10 @@
         <v>833</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E124" s="8">
         <v>300022439</v>
@@ -11082,10 +11792,10 @@
         <v>835</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E125" s="8">
         <v>300015018</v>
@@ -11099,10 +11809,10 @@
         <v>837</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="E126" s="8">
         <v>300230810</v>
@@ -11116,10 +11826,10 @@
         <v>839</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E127" s="8">
         <v>300015018</v>
@@ -11133,10 +11843,10 @@
         <v>841</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E128" s="8">
         <v>300122621</v>
@@ -11150,10 +11860,10 @@
         <v>843</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E129" s="6">
         <v>300022452</v>
@@ -11167,10 +11877,10 @@
         <v>845</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E130" s="8">
         <v>300022439</v>
@@ -11184,10 +11894,10 @@
         <v>847</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E131" s="6">
         <v>300022552</v>
@@ -11201,10 +11911,10 @@
         <v>849</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E132" s="8">
         <v>300015012</v>
@@ -11218,10 +11928,10 @@
         <v>600</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E133" s="8">
         <v>300080064</v>
@@ -11235,10 +11945,10 @@
         <v>852</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E134" s="8">
         <v>300417481</v>
@@ -11252,10 +11962,10 @@
         <v>854</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E135" s="8">
         <v>300022458</v>
@@ -11269,10 +11979,10 @@
         <v>856</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E136" s="8">
         <v>300167812</v>
@@ -11308,10 +12018,10 @@
         <v>862</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E139" s="8">
         <v>300053796</v>
@@ -11324,11 +12034,17 @@
       <c r="B140" s="6" t="s">
         <v>864</v>
       </c>
-      <c r="F140" s="6" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C140" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>1590</v>
+      </c>
+      <c r="E140" s="6">
+        <v>300053867</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>865</v>
       </c>
@@ -11336,10 +12052,10 @@
         <v>866</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E141" s="8">
         <v>300311416</v>
@@ -11353,10 +12069,10 @@
         <v>868</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E142" s="8">
         <v>300054216</v>
@@ -11370,10 +12086,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -11387,10 +12103,10 @@
         <v>872</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E144" s="8">
         <v>300443550</v>
@@ -11404,10 +12120,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -11428,15 +12144,16 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.19921875" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.19921875" style="6"/>
+    <col min="3" max="3" width="38.69921875" style="6" customWidth="1"/>
+    <col min="4" max="16384" width="11.19921875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -11467,10 +12184,10 @@
         <v>1032</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E2" s="14">
         <v>300015045</v>
@@ -11484,10 +12201,10 @@
         <v>1160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E3" s="6">
         <v>300411597</v>
@@ -11512,10 +12229,10 @@
         <v>1164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E5" s="8">
         <v>300070114</v>
@@ -11529,10 +12246,10 @@
         <v>1166</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E6" s="8">
         <v>300053386</v>
@@ -11925,13 +12642,13 @@
         <v>1169</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>1169</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -11964,10 +12681,10 @@
         <v>1174</v>
       </c>
       <c r="C57" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D57" s="6" t="s">
         <v>1460</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>1462</v>
       </c>
       <c r="E57" s="6">
         <v>300053242</v>
@@ -11981,10 +12698,10 @@
         <v>1176</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="E58" s="6">
         <v>300155640</v>
@@ -11998,10 +12715,10 @@
         <v>1178</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E59" s="6">
         <v>300263218</v>
@@ -12014,6 +12731,15 @@
       <c r="B60" s="6" t="s">
         <v>1180</v>
       </c>
+      <c r="C60" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E60" s="6">
+        <v>300041340</v>
+      </c>
     </row>
     <row r="61" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
@@ -12023,10 +12749,10 @@
         <v>1182</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E61" s="8">
         <v>300053220</v>
@@ -12040,10 +12766,10 @@
         <v>1184</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E62" s="8">
         <v>300053272</v>
@@ -12068,10 +12794,10 @@
         <v>1188</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E64" s="8">
         <v>300265178</v>
@@ -12085,10 +12811,10 @@
         <v>1190</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E65" s="8">
         <v>300265082</v>
@@ -12113,13 +12839,13 @@
         <v>1194</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
@@ -12130,10 +12856,10 @@
         <v>1196</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E68" s="8">
         <v>300053241</v>
@@ -12147,10 +12873,10 @@
         <v>1169</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E69" s="8">
         <v>300053241</v>
@@ -12164,10 +12890,10 @@
         <v>1199</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E70" s="8">
         <v>300053207</v>
@@ -12181,10 +12907,10 @@
         <v>1201</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E71" s="8">
         <v>300053275</v>
@@ -12198,10 +12924,10 @@
         <v>1203</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E72" s="8">
         <v>300053303</v>
@@ -12215,10 +12941,10 @@
         <v>1205</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E73" s="8">
         <v>300053296</v>
@@ -12232,10 +12958,10 @@
         <v>1207</v>
       </c>
       <c r="C74" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>1460</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>1462</v>
       </c>
       <c r="E74" s="8">
         <v>300053242</v>
@@ -12249,10 +12975,10 @@
         <v>1209</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E75" s="8">
         <v>300263381</v>
@@ -12266,10 +12992,10 @@
         <v>1211</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E76" s="8">
         <v>300053303</v>
@@ -12283,10 +13009,10 @@
         <v>1213</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E77" s="8">
         <v>300053296</v>
@@ -12300,10 +13026,10 @@
         <v>1215</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E78" s="8">
         <v>300154361</v>
@@ -12328,10 +13054,10 @@
         <v>1219</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E80" s="8">
         <v>300053271</v>
@@ -12345,10 +13071,10 @@
         <v>1221</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E81" s="8">
         <v>300343476</v>
@@ -12362,10 +13088,10 @@
         <v>1223</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E82" s="8">
         <v>300053239</v>
@@ -12379,10 +13105,10 @@
         <v>1225</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E83" s="8">
         <v>300190531</v>
@@ -12396,10 +13122,10 @@
         <v>1227</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E84" s="8">
         <v>300154361</v>
@@ -12413,10 +13139,10 @@
         <v>1229</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E85" s="8">
         <v>300053204</v>
@@ -12430,10 +13156,10 @@
         <v>1231</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E86" s="8">
         <v>300053231</v>
@@ -12447,10 +13173,10 @@
         <v>1233</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E87" s="8">
         <v>300060720</v>
@@ -12464,10 +13190,10 @@
         <v>1235</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E88" s="8">
         <v>300053271</v>
@@ -12481,10 +13207,10 @@
         <v>1237</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E89" s="8">
         <v>300053285</v>
@@ -12517,10 +13243,10 @@
         <v>1243</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E92" s="8">
         <v>300053233</v>
@@ -12534,10 +13260,10 @@
         <v>1245</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E93" s="8">
         <v>300053277</v>
@@ -12573,10 +13299,10 @@
         <v>1251</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E96" s="9">
         <v>300053279</v>
@@ -12601,10 +13327,10 @@
         <v>1255</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E98" s="8">
         <v>300190536</v>
@@ -12618,10 +13344,10 @@
         <v>1257</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E99" s="8">
         <v>300053285</v>
@@ -12635,10 +13361,10 @@
         <v>1259</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E100" s="8">
         <v>300053239</v>
@@ -12685,10 +13411,10 @@
         <v>1267</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E104" s="8">
         <v>300053271</v>
@@ -12702,10 +13428,10 @@
         <v>1269</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E105" s="8">
         <v>300157897</v>
@@ -12719,10 +13445,10 @@
         <v>1271</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E106" s="8">
         <v>300053251</v>
@@ -12736,10 +13462,10 @@
         <v>1273</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E107" s="8">
         <v>300157968</v>
@@ -12753,10 +13479,10 @@
         <v>1275</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E108" s="8">
         <v>300053281</v>
@@ -12770,10 +13496,10 @@
         <v>1277</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E109" s="14">
         <v>300014426</v>
@@ -12787,10 +13513,10 @@
         <v>1279</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="E110" s="6">
         <v>300053366</v>
@@ -12804,10 +13530,10 @@
         <v>1281</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E111" s="14">
         <v>300015050</v>
@@ -12821,10 +13547,10 @@
         <v>1283</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E112" s="14">
         <v>300015062</v>
@@ -12838,10 +13564,10 @@
         <v>1285</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E113" s="14">
         <v>300015050</v>
@@ -13131,10 +13857,10 @@
         <v>1287</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E137" s="8">
         <v>300053781</v>
@@ -13148,10 +13874,10 @@
         <v>1289</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E138" s="8">
         <v>300053104</v>
@@ -13165,10 +13891,10 @@
         <v>1291</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E139" s="8">
         <v>300053225</v>
@@ -13193,10 +13919,10 @@
         <v>862</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E141" s="8">
         <v>300053796</v>
@@ -13210,10 +13936,10 @@
         <v>1296</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1460</v>
+        <v>1562</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E142" s="8">
         <v>300010902</v>
@@ -13227,10 +13953,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -13255,10 +13981,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -13272,10 +13998,10 @@
         <v>1032</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E146" s="14">
         <v>300015045</v>
@@ -13289,10 +14015,10 @@
         <v>1174</v>
       </c>
       <c r="C147" s="6" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D147" s="6" t="s">
         <v>1460</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>1462</v>
       </c>
       <c r="E147" s="6">
         <v>300053242</v>
@@ -13317,10 +14043,10 @@
         <v>1306</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E149" s="8">
         <v>300013351</v>
@@ -13334,13 +14060,13 @@
         <v>1194</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -13351,10 +14077,10 @@
         <v>1309</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E151" s="14">
         <v>300015071</v>
@@ -13379,10 +14105,10 @@
         <v>1313</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E153" s="8">
         <v>300053363</v>
@@ -13396,10 +14122,10 @@
         <v>1315</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E154" s="8">
         <v>300404638</v>
@@ -13413,10 +14139,10 @@
         <v>1225</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E155" s="8">
         <v>300190531</v>
@@ -13430,10 +14156,10 @@
         <v>1318</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E156" s="8">
         <v>300417481</v>
@@ -13447,10 +14173,10 @@
         <v>1243</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E157" s="8">
         <v>300053233</v>
@@ -13464,10 +14190,10 @@
         <v>1281</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E158" s="14">
         <v>300015050</v>
@@ -13492,10 +14218,10 @@
         <v>1324</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E160" s="8">
         <v>300404072</v>
@@ -13509,10 +14235,10 @@
         <v>1271</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E161" s="8">
         <v>300053251</v>
@@ -13526,10 +14252,10 @@
         <v>1327</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E162" s="14">
         <v>300015045</v>
@@ -13599,14 +14325,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14005,7 +14733,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>961</v>
       </c>
@@ -14013,7 +14741,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>963</v>
       </c>
@@ -14021,7 +14749,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>965</v>
       </c>
@@ -14029,7 +14757,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>967</v>
       </c>
@@ -14037,7 +14765,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>969</v>
       </c>
@@ -14045,7 +14773,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>971</v>
       </c>
@@ -14053,7 +14781,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>973</v>
       </c>
@@ -14061,7 +14789,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>975</v>
       </c>
@@ -14069,7 +14797,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>977</v>
       </c>
@@ -14077,7 +14805,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>979</v>
       </c>
@@ -14085,7 +14813,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>980</v>
       </c>
@@ -14093,7 +14821,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>981</v>
       </c>
@@ -14101,7 +14829,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>982</v>
       </c>
@@ -14109,7 +14837,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>983</v>
       </c>
@@ -14117,47 +14845,92 @@
         <v>976</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>984</v>
       </c>
       <c r="B63" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E63">
+        <v>300263886</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>985</v>
       </c>
       <c r="B64" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1599</v>
+      </c>
+      <c r="E64">
+        <v>300034104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>987</v>
       </c>
       <c r="B65" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E65">
+        <v>300033973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>988</v>
       </c>
       <c r="B66" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E66">
+        <v>300263898</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>990</v>
       </c>
       <c r="B67" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E67">
+        <v>300266808</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>992</v>
       </c>
@@ -14165,15 +14938,24 @@
         <v>993</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>994</v>
       </c>
       <c r="B69" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E69">
+        <v>300343358</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>996</v>
       </c>
@@ -14181,47 +14963,92 @@
         <v>997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>998</v>
       </c>
       <c r="B71" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E71">
+        <v>300133005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>1000</v>
       </c>
       <c r="B72" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E72">
+        <v>300046025</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>1002</v>
       </c>
       <c r="B73" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E73">
+        <v>300028884</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>1004</v>
       </c>
       <c r="B74" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E74">
+        <v>300037680</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>1006</v>
       </c>
       <c r="B75" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E75">
+        <v>300041620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1008</v>
       </c>
@@ -14229,63 +15056,126 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>1010</v>
       </c>
       <c r="B77" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E77">
+        <v>300263853</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>1012</v>
       </c>
       <c r="B78" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E78">
+        <v>300433073</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>1014</v>
       </c>
       <c r="B79" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E79">
+        <v>300014842</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>1016</v>
       </c>
       <c r="B80" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E80">
+        <v>300168224</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>1018</v>
       </c>
       <c r="B81" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E81">
+        <v>300209286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>1020</v>
       </c>
       <c r="B82" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E82">
+        <v>300231565</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>1022</v>
       </c>
       <c r="B83" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E83">
+        <v>300233975</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>1024</v>
       </c>
@@ -14293,7 +15183,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>1026</v>
       </c>
@@ -14301,12 +15191,21 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>1028</v>
       </c>
       <c r="B86" t="s">
         <v>1029</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E86">
+        <v>300036926</v>
       </c>
     </row>
   </sheetData>
@@ -14360,10 +15259,10 @@
         <v>1031</v>
       </c>
       <c r="C2" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D2" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="E2">
         <v>300164785</v>
@@ -14377,10 +15276,10 @@
         <v>1033</v>
       </c>
       <c r="C3" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D3" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="E3">
         <v>300404216</v>
@@ -14394,7 +15293,7 @@
         <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="E4">
         <v>300028045</v>
@@ -14408,10 +15307,10 @@
         <v>1035</v>
       </c>
       <c r="C5" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D5" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="E5">
         <v>300026879</v>
@@ -14425,10 +15324,10 @@
         <v>1037</v>
       </c>
       <c r="C6" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D6" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="E6">
         <v>300026030</v>
@@ -14442,10 +15341,10 @@
         <v>1038</v>
       </c>
       <c r="C7" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D7" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="E7">
         <v>300026942</v>
@@ -14459,7 +15358,7 @@
         <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D8" t="s">
         <v>1039</v>
@@ -14487,10 +15386,10 @@
         <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D10" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E10">
         <v>300028569</v>
@@ -14504,10 +15403,10 @@
         <v>1041</v>
       </c>
       <c r="C11" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D11" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="E11">
         <v>300028569</v>
@@ -14535,10 +15434,10 @@
         <v>1044</v>
       </c>
       <c r="C13" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D13" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="E13">
         <v>300265421</v>
@@ -14552,10 +15451,10 @@
         <v>1046</v>
       </c>
       <c r="C14" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D14" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="E14">
         <v>300033618</v>
@@ -14569,10 +15468,10 @@
         <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D15" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E15">
         <v>300046300</v>
@@ -14586,10 +15485,10 @@
         <v>1047</v>
       </c>
       <c r="C16" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D16" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="E16">
         <v>300046300</v>
@@ -14603,10 +15502,10 @@
         <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D17" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="E17">
         <v>300041273</v>
@@ -14620,10 +15519,10 @@
         <v>1050</v>
       </c>
       <c r="C18" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D18" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="E18">
         <v>300027221</v>
@@ -14637,10 +15536,10 @@
         <v>1052</v>
       </c>
       <c r="C19" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D19" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="E19">
         <v>300027488</v>
@@ -14654,10 +15553,10 @@
         <v>1053</v>
       </c>
       <c r="C20" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D20" t="s">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="E20">
         <v>300047090</v>
@@ -14671,10 +15570,10 @@
         <v>1054</v>
       </c>
       <c r="C21" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="D21" t="s">
-        <v>1420</v>
+        <v>1418</v>
       </c>
       <c r="E21">
         <v>300033973</v>
@@ -14700,6 +15599,7 @@
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14730,10 +15630,10 @@
         <v>1056</v>
       </c>
       <c r="C2" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D2" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E2">
         <v>300022453</v>
@@ -14747,10 +15647,10 @@
         <v>854</v>
       </c>
       <c r="C3" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D3" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E3">
         <v>300022458</v>
@@ -14775,10 +15675,10 @@
         <v>823</v>
       </c>
       <c r="C5" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D5" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E5">
         <v>300015012</v>
@@ -14792,10 +15692,10 @@
         <v>845</v>
       </c>
       <c r="C6" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="D6" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E6">
         <v>300022439</v>
@@ -14814,7 +15714,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14853,7 +15753,7 @@
         <v>1063</v>
       </c>
       <c r="C2" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D2" t="s">
         <v>1366</v>
@@ -14870,7 +15770,7 @@
         <v>1065</v>
       </c>
       <c r="C3" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D3" t="s">
         <v>1367</v>
@@ -14887,7 +15787,7 @@
         <v>1067</v>
       </c>
       <c r="C4" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D4" t="s">
         <v>1368</v>
@@ -14904,7 +15804,7 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D5" t="s">
         <v>1369</v>
@@ -14921,7 +15821,7 @@
         <v>1070</v>
       </c>
       <c r="C6" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D6" t="s">
         <v>1370</v>
@@ -14938,7 +15838,7 @@
         <v>1070</v>
       </c>
       <c r="C7" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D7" t="s">
         <v>1371</v>
@@ -14955,7 +15855,7 @@
         <v>1073</v>
       </c>
       <c r="C8" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D8" t="s">
         <v>1372</v>
@@ -14972,7 +15872,7 @@
         <v>1075</v>
       </c>
       <c r="C9" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D9" t="s">
         <v>1373</v>
@@ -14989,7 +15889,7 @@
         <v>1077</v>
       </c>
       <c r="C10" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D10" t="s">
         <v>1374</v>
@@ -15006,7 +15906,7 @@
         <v>1079</v>
       </c>
       <c r="C11" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D11" t="s">
         <v>1375</v>
@@ -15023,7 +15923,7 @@
         <v>1081</v>
       </c>
       <c r="C12" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D12" t="s">
         <v>1376</v>
@@ -15040,7 +15940,7 @@
         <v>1083</v>
       </c>
       <c r="C13" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D13" t="s">
         <v>1377</v>
@@ -15057,7 +15957,7 @@
         <v>1085</v>
       </c>
       <c r="C14" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D14" t="s">
         <v>1378</v>
@@ -15074,7 +15974,7 @@
         <v>1087</v>
       </c>
       <c r="C15" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D15" t="s">
         <v>1383</v>
@@ -15091,7 +15991,7 @@
         <v>1089</v>
       </c>
       <c r="C16" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D16" t="s">
         <v>1366</v>
@@ -15108,13 +16008,13 @@
         <v>1091</v>
       </c>
       <c r="C17" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="D17" t="s">
-        <v>1384</v>
+        <v>1366</v>
       </c>
       <c r="E17">
-        <v>300389645</v>
+        <v>300388256</v>
       </c>
     </row>
   </sheetData>
@@ -15181,7 +16081,7 @@
         <v>1094</v>
       </c>
       <c r="C3" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D3" t="s">
         <v>1379</v>
@@ -15198,7 +16098,7 @@
         <v>1095</v>
       </c>
       <c r="C4" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D4" t="s">
         <v>1380</v>
@@ -15215,7 +16115,7 @@
         <v>1096</v>
       </c>
       <c r="C5" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D5" t="s">
         <v>1380</v>
@@ -15243,7 +16143,7 @@
         <v>1100</v>
       </c>
       <c r="C7" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D7" t="s">
         <v>1381</v>
@@ -15260,7 +16160,7 @@
         <v>1102</v>
       </c>
       <c r="C8" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="D8" t="s">
         <v>1382</v>
@@ -15336,7 +16236,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15375,7 +16275,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D2" t="s">
         <v>1359</v>
@@ -15392,7 +16292,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D3" t="s">
         <v>1360</v>
@@ -15409,7 +16309,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D4" t="s">
         <v>1361</v>
@@ -15426,7 +16326,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D5" t="s">
         <v>1362</v>
@@ -15443,7 +16343,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D6" t="s">
         <v>1363</v>
@@ -15460,7 +16360,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D7" t="s">
         <v>1331</v>
@@ -15477,7 +16377,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="D8" t="s">
         <v>1364</v>
@@ -15491,7 +16391,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D9" t="s">
         <v>1359</v>
@@ -15508,7 +16408,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D10" t="s">
         <v>1361</v>
@@ -15536,7 +16436,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D12" t="s">
         <v>1362</v>
@@ -15553,7 +16453,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D13" t="s">
         <v>1331</v>
@@ -15570,7 +16470,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D14" t="s">
         <v>1331</v>
@@ -15587,7 +16487,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D15" t="s">
         <v>1359</v>
@@ -15604,7 +16504,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D16" t="s">
         <v>1359</v>
@@ -15621,7 +16521,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="D17" t="s">
         <v>1362</v>
@@ -15649,7 +16549,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D19" t="s">
         <v>1359</v>
@@ -15663,7 +16563,7 @@
         <v>1332</v>
       </c>
       <c r="C20" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D20" t="s">
         <v>1332</v>
@@ -15674,7 +16574,7 @@
         <v>1333</v>
       </c>
       <c r="C21" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="D21" t="s">
         <v>1365</v>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="13" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2714" uniqueCount="1659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1725">
   <si>
     <t>code</t>
   </si>
@@ -4386,12 +4386,6 @@
     <t>provenance description</t>
   </si>
   <si>
-    <t>temporary location</t>
-  </si>
-  <si>
-    <t>related artwork</t>
-  </si>
-  <si>
     <t>Dutch (language)</t>
   </si>
   <si>
@@ -4497,9 +4491,6 @@
     <t>Digipolis Thesauri\Beschrijving Type\</t>
   </si>
   <si>
-    <t>Digipolis Thesaurus\Annotatie Type\</t>
-  </si>
-  <si>
     <t>Digipolis Thesauri\Datumbepaling Type\</t>
   </si>
   <si>
@@ -4515,9 +4506,6 @@
     <t>notarial documents</t>
   </si>
   <si>
-    <t>aquarelles (paintings)</t>
-  </si>
-  <si>
     <t>letters (correspondence)</t>
   </si>
   <si>
@@ -4530,24 +4518,9 @@
     <t>manuscripts (documents)</t>
   </si>
   <si>
-    <t>cultural artifacts</t>
-  </si>
-  <si>
-    <t>paintings (visual works)</t>
-  </si>
-  <si>
     <t>photographs</t>
   </si>
   <si>
-    <t>prints (visual works)</t>
-  </si>
-  <si>
-    <t>posters</t>
-  </si>
-  <si>
-    <t>sculpture (visual works)</t>
-  </si>
-  <si>
     <t>drawings (visual works)</t>
   </si>
   <si>
@@ -4611,15 +4584,9 @@
     <t>makers</t>
   </si>
   <si>
-    <t>ondertekenaar</t>
-  </si>
-  <si>
     <t>dedicatees</t>
   </si>
   <si>
-    <t>opsteller</t>
-  </si>
-  <si>
     <t>subjects (content of works)</t>
   </si>
   <si>
@@ -4632,9 +4599,6 @@
     <t>publishers</t>
   </si>
   <si>
-    <t>begunstigde</t>
-  </si>
-  <si>
     <t>begunstiger</t>
   </si>
   <si>
@@ -4663,9 +4627,6 @@
   </si>
   <si>
     <t>Digipolis Thesauri\Externe Relatie Type\</t>
-  </si>
-  <si>
-    <t>blotters (bookkeeping records)</t>
   </si>
   <si>
     <t>Digipolis Thesauri\Techniek Type\</t>
@@ -5115,9 +5076,15 @@
     <t>eyeglasses</t>
   </si>
   <si>
+    <t>ceremonial objects</t>
+  </si>
+  <si>
     <t>curios</t>
   </si>
   <si>
+    <t>costumes (character dress)</t>
+  </si>
+  <si>
     <t>objets d'art</t>
   </si>
   <si>
@@ -5151,6 +5118,9 @@
     <t>trophies (objects)</t>
   </si>
   <si>
+    <t>flags</t>
+  </si>
+  <si>
     <t>weapons</t>
   </si>
   <si>
@@ -5175,6 +5145,9 @@
     <t>greeting cards</t>
   </si>
   <si>
+    <t>drafts (documents)</t>
+  </si>
+  <si>
     <t>picture postcards</t>
   </si>
   <si>
@@ -5214,6 +5187,12 @@
     <t>clippings (information artifacts)</t>
   </si>
   <si>
+    <t>songbooks</t>
+  </si>
+  <si>
+    <t>scores (documents for music)</t>
+  </si>
+  <si>
     <t>membership cards</t>
   </si>
   <si>
@@ -5238,6 +5217,9 @@
     <t>codicils</t>
   </si>
   <si>
+    <t>extracts (partial documents)</t>
+  </si>
+  <si>
     <t>receipts (financial records)</t>
   </si>
   <si>
@@ -5278,6 +5260,222 @@
   </si>
   <si>
     <t>klachtenboek</t>
+  </si>
+  <si>
+    <t>Affiches</t>
+  </si>
+  <si>
+    <t>Aquarellen</t>
+  </si>
+  <si>
+    <t>Audiovisuele materialen</t>
+  </si>
+  <si>
+    <t>Beeldhouwwerken</t>
+  </si>
+  <si>
+    <t>Brieven</t>
+  </si>
+  <si>
+    <t>Documenten</t>
+  </si>
+  <si>
+    <t>Documentatiemappen</t>
+  </si>
+  <si>
+    <t>Objecten archief Grossmann</t>
+  </si>
+  <si>
+    <t>Handschriften</t>
+  </si>
+  <si>
+    <t>Schilderijen</t>
+  </si>
+  <si>
+    <t>Prenten</t>
+  </si>
+  <si>
+    <t>Tekeningen</t>
+  </si>
+  <si>
+    <t>Voorwerpen</t>
+  </si>
+  <si>
+    <t>Foto's</t>
+  </si>
+  <si>
+    <t>Houtblokken</t>
+  </si>
+  <si>
+    <t>Koperplaten</t>
+  </si>
+  <si>
+    <t>books</t>
+  </si>
+  <si>
+    <t>commentaar gebruiker</t>
+  </si>
+  <si>
+    <t>production date note</t>
+  </si>
+  <si>
+    <t>voorlopige standplaats</t>
+  </si>
+  <si>
+    <t>scripts (documents)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\manuscripts (documents)\</t>
+  </si>
+  <si>
+    <t>traveling bags</t>
+  </si>
+  <si>
+    <t>Portefeuilles</t>
+  </si>
+  <si>
+    <t>wallets</t>
+  </si>
+  <si>
+    <t>canes (walking sticks)</t>
+  </si>
+  <si>
+    <t>Paraplu's</t>
+  </si>
+  <si>
+    <t>umbrellas</t>
+  </si>
+  <si>
+    <t>Audio-apparatuur</t>
+  </si>
+  <si>
+    <t>audio equipment</t>
+  </si>
+  <si>
+    <t>audiovisual equipment</t>
+  </si>
+  <si>
+    <t>Audiovisuele apparatuur</t>
+  </si>
+  <si>
+    <t>forms (documents)</t>
+  </si>
+  <si>
+    <t>articles</t>
+  </si>
+  <si>
+    <t>notebooks</t>
+  </si>
+  <si>
+    <t>notes (documents)</t>
+  </si>
+  <si>
+    <t>prospectuses</t>
+  </si>
+  <si>
+    <t>references</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>exhibition catalogs</t>
+  </si>
+  <si>
+    <t>periodicals</t>
+  </si>
+  <si>
+    <t>auction catalogs</t>
+  </si>
+  <si>
+    <t>invitations</t>
+  </si>
+  <si>
+    <t>sales catalogs</t>
+  </si>
+  <si>
+    <t>advertisements</t>
+  </si>
+  <si>
+    <t>reclame</t>
+  </si>
+  <si>
+    <t>reports</t>
+  </si>
+  <si>
+    <t>appointment books</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Documentstatus Type\</t>
+  </si>
+  <si>
+    <t>carbon copies</t>
+  </si>
+  <si>
+    <t>photocopies</t>
+  </si>
+  <si>
+    <t>printouts</t>
+  </si>
+  <si>
+    <t>transcriptions (documents)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Schrijfstadium Type\</t>
+  </si>
+  <si>
+    <t>handwriting</t>
+  </si>
+  <si>
+    <t>typewriting</t>
+  </si>
+  <si>
+    <t>exercise books</t>
+  </si>
+  <si>
+    <t>writers (clerical workers)</t>
+  </si>
+  <si>
+    <t>verbeterd</t>
+  </si>
+  <si>
+    <t>printing (process)</t>
+  </si>
+  <si>
+    <t>born digital</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Object Type\photographs\</t>
+  </si>
+  <si>
+    <t>color slides</t>
+  </si>
+  <si>
+    <t>color negatives</t>
+  </si>
+  <si>
+    <t>color photographs</t>
+  </si>
+  <si>
+    <t>daguerreotypes (photographs)</t>
+  </si>
+  <si>
+    <t>glasplaatnegatief</t>
+  </si>
+  <si>
+    <t>sepia prints</t>
+  </si>
+  <si>
+    <t>black-and-white slides</t>
+  </si>
+  <si>
+    <t>black-and-white negatives</t>
+  </si>
+  <si>
+    <t>black-and-white photographs</t>
+  </si>
+  <si>
+    <t>photograph albums (albums (books)</t>
   </si>
 </sst>
 </file>
@@ -5805,7 +6003,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6090,7 +6288,7 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D3" t="s">
         <v>1334</v>
@@ -6107,7 +6305,7 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D4" t="s">
         <v>1334</v>
@@ -6124,7 +6322,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D5" t="s">
         <v>1335</v>
@@ -6141,7 +6339,7 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D6" t="s">
         <v>1336</v>
@@ -6155,10 +6353,10 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D7" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="E7">
         <v>300386154</v>
@@ -6172,7 +6370,7 @@
         <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D8" t="s">
         <v>1337</v>
@@ -6186,7 +6384,7 @@
         <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D9" t="s">
         <v>1338</v>
@@ -6200,7 +6398,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="D10" t="s">
         <v>1334</v>
@@ -6316,9 +6514,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53:E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6357,10 +6555,10 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="D2" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="E2">
         <v>300164785</v>
@@ -6374,10 +6572,10 @@
         <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D3" t="s">
-        <v>1644</v>
+        <v>1637</v>
       </c>
       <c r="E3">
         <v>300250949</v>
@@ -6390,6 +6588,15 @@
       <c r="B4" t="s">
         <v>167</v>
       </c>
+      <c r="C4" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E4">
+        <v>300312154</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6399,10 +6606,10 @@
         <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D5" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="E5">
         <v>300026676</v>
@@ -6416,10 +6623,10 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D6" t="s">
-        <v>1645</v>
+        <v>1639</v>
       </c>
       <c r="E6">
         <v>300027573</v>
@@ -6433,10 +6640,10 @@
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D7" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="E7">
         <v>300027621</v>
@@ -6450,10 +6657,10 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D8" t="s">
-        <v>1647</v>
+        <v>1641</v>
       </c>
       <c r="E8">
         <v>300027392</v>
@@ -6467,10 +6674,10 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D9" t="s">
-        <v>1648</v>
+        <v>1642</v>
       </c>
       <c r="E9">
         <v>300027527</v>
@@ -6484,10 +6691,10 @@
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D10" t="s">
-        <v>1646</v>
+        <v>1640</v>
       </c>
       <c r="E10">
         <v>300027621</v>
@@ -6501,10 +6708,10 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D11" t="s">
         <v>1643</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1649</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6515,10 +6722,10 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D12" t="s">
-        <v>1650</v>
+        <v>1644</v>
       </c>
       <c r="E12">
         <v>300027764</v>
@@ -6532,10 +6739,10 @@
         <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D13" t="s">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="E13">
         <v>300026925</v>
@@ -6549,10 +6756,10 @@
         <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>1643</v>
+        <v>1636</v>
       </c>
       <c r="D14" t="s">
-        <v>1652</v>
+        <v>1646</v>
       </c>
       <c r="E14">
         <v>300201447</v>
@@ -6566,10 +6773,10 @@
         <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="D15" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="E15">
         <v>300026879</v>
@@ -6583,10 +6790,10 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D16" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="E16">
         <v>300026816</v>
@@ -6600,10 +6807,10 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D17" t="s">
-        <v>1619</v>
+        <v>1609</v>
       </c>
       <c r="E17">
         <v>300026882</v>
@@ -6617,10 +6824,10 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D18" t="s">
-        <v>1620</v>
+        <v>1610</v>
       </c>
       <c r="E18">
         <v>300026114</v>
@@ -6634,10 +6841,10 @@
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D19" t="s">
-        <v>1621</v>
+        <v>1611</v>
       </c>
       <c r="E19">
         <v>300149026</v>
@@ -6651,10 +6858,10 @@
         <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D20" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="E20">
         <v>300240262</v>
@@ -6668,10 +6875,10 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D21" t="s">
-        <v>1623</v>
+        <v>1613</v>
       </c>
       <c r="E21">
         <v>300026778</v>
@@ -6695,6 +6902,15 @@
       <c r="B23" t="s">
         <v>203</v>
       </c>
+      <c r="C23" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E23">
+        <v>300026879</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -6704,10 +6920,10 @@
         <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D24" t="s">
-        <v>1618</v>
+        <v>1608</v>
       </c>
       <c r="E24">
         <v>300026816</v>
@@ -6721,10 +6937,10 @@
         <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D25" t="s">
-        <v>1624</v>
+        <v>1615</v>
       </c>
       <c r="E25">
         <v>300026819</v>
@@ -6738,10 +6954,10 @@
         <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D26" t="s">
-        <v>1625</v>
+        <v>1616</v>
       </c>
       <c r="E26">
         <v>300026909</v>
@@ -6755,10 +6971,10 @@
         <v>211</v>
       </c>
       <c r="C27" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D27" t="s">
         <v>1617</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1626</v>
       </c>
       <c r="E27">
         <v>300400813</v>
@@ -6772,10 +6988,10 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>1617</v>
+        <v>1607</v>
       </c>
       <c r="D28" t="s">
-        <v>1627</v>
+        <v>1618</v>
       </c>
       <c r="E28">
         <v>300026823</v>
@@ -6788,6 +7004,15 @@
       <c r="B29" t="s">
         <v>215</v>
       </c>
+      <c r="C29" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E29">
+        <v>300026931</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -6796,6 +7021,15 @@
       <c r="B30" t="s">
         <v>217</v>
       </c>
+      <c r="C30" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E30">
+        <v>300026487</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
@@ -6816,16 +7050,16 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="D32" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="E32">
         <v>300026030</v>
       </c>
       <c r="G32" t="s">
-        <v>1628</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -6836,16 +7070,16 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D33" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="E33">
         <v>300026942</v>
       </c>
       <c r="G33" t="s">
-        <v>1629</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -6856,10 +7090,10 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D34" t="s">
-        <v>1631</v>
+        <v>1622</v>
       </c>
       <c r="E34">
         <v>300027473</v>
@@ -6873,10 +7107,10 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D35" t="s">
-        <v>1632</v>
+        <v>1623</v>
       </c>
       <c r="E35">
         <v>300212274</v>
@@ -6890,10 +7124,10 @@
         <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D36" t="s">
-        <v>1633</v>
+        <v>1624</v>
       </c>
       <c r="E36">
         <v>300026676</v>
@@ -6907,10 +7141,10 @@
         <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D37" t="s">
-        <v>1634</v>
+        <v>1625</v>
       </c>
       <c r="E37">
         <v>300026799</v>
@@ -6924,10 +7158,10 @@
         <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D38" t="s">
-        <v>1635</v>
+        <v>1626</v>
       </c>
       <c r="E38">
         <v>300026756</v>
@@ -6941,10 +7175,10 @@
         <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D39" t="s">
-        <v>1636</v>
+        <v>1627</v>
       </c>
       <c r="E39">
         <v>300026867</v>
@@ -6957,8 +7191,14 @@
       <c r="B40" t="s">
         <v>235</v>
       </c>
-      <c r="F40" t="s">
-        <v>1329</v>
+      <c r="C40" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E40">
+        <v>300212274</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
@@ -6968,8 +7208,14 @@
       <c r="B41" t="s">
         <v>237</v>
       </c>
-      <c r="F41" t="s">
-        <v>1329</v>
+      <c r="C41" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E41">
+        <v>300026432</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -6980,10 +7226,10 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D42" t="s">
         <v>1630</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1637</v>
       </c>
       <c r="E42">
         <v>300255378</v>
@@ -6997,10 +7243,10 @@
         <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D43" t="s">
-        <v>1638</v>
+        <v>1631</v>
       </c>
       <c r="E43">
         <v>300026424</v>
@@ -7014,10 +7260,10 @@
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D44" t="s">
-        <v>1639</v>
+        <v>1632</v>
       </c>
       <c r="E44">
         <v>300027191</v>
@@ -7031,10 +7277,10 @@
         <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D45" t="s">
-        <v>1640</v>
+        <v>1633</v>
       </c>
       <c r="E45">
         <v>300026443</v>
@@ -7048,10 +7294,10 @@
         <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D46" t="s">
-        <v>1641</v>
+        <v>1634</v>
       </c>
       <c r="E46">
         <v>300262918</v>
@@ -7087,10 +7333,10 @@
         <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>1630</v>
+        <v>1621</v>
       </c>
       <c r="D49" t="s">
-        <v>1642</v>
+        <v>1635</v>
       </c>
       <c r="E49">
         <v>300027240</v>
@@ -7103,6 +7349,15 @@
       <c r="B50" t="s">
         <v>255</v>
       </c>
+      <c r="C50" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E50">
+        <v>300049060</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -7111,6 +7366,15 @@
       <c r="B51" t="s">
         <v>257</v>
       </c>
+      <c r="C51" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E51">
+        <v>300252927</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
@@ -7119,6 +7383,15 @@
       <c r="B52" t="s">
         <v>259</v>
       </c>
+      <c r="C52" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E52">
+        <v>300247929</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -7127,6 +7400,15 @@
       <c r="B53" t="s">
         <v>261</v>
       </c>
+      <c r="C53" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E53">
+        <v>300053319</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -7136,10 +7418,10 @@
         <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="D54" t="s">
-        <v>1654</v>
+        <v>1648</v>
       </c>
       <c r="E54">
         <v>300026693</v>
@@ -7153,10 +7435,10 @@
         <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="D55" t="s">
-        <v>1655</v>
+        <v>1649</v>
       </c>
       <c r="E55">
         <v>300027489</v>
@@ -7170,10 +7452,10 @@
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="D56" t="s">
-        <v>1656</v>
+        <v>1650</v>
       </c>
       <c r="E56">
         <v>300027496</v>
@@ -7187,10 +7469,10 @@
         <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="D57" t="s">
-        <v>1657</v>
+        <v>1651</v>
       </c>
       <c r="E57">
         <v>300027045</v>
@@ -7204,10 +7486,10 @@
         <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>1653</v>
+        <v>1647</v>
       </c>
       <c r="D58" t="s">
-        <v>1658</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7217,6 +7499,15 @@
       <c r="B59" t="s">
         <v>273</v>
       </c>
+      <c r="C59" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E59">
+        <v>300404333</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -7225,6 +7516,15 @@
       <c r="B60" t="s">
         <v>273</v>
       </c>
+      <c r="C60" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E60">
+        <v>300404333</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -7233,6 +7533,15 @@
       <c r="B61" t="s">
         <v>276</v>
       </c>
+      <c r="C61" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E61">
+        <v>300247929</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -7241,6 +7550,12 @@
       <c r="B62" t="s">
         <v>278</v>
       </c>
+      <c r="C62" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1711</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -7249,6 +7564,12 @@
       <c r="B63" t="s">
         <v>280</v>
       </c>
+      <c r="C63" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1711</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
@@ -7257,64 +7578,127 @@
       <c r="B64" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>283</v>
       </c>
       <c r="B65" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C65" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E65">
+        <v>300266791</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>285</v>
       </c>
       <c r="B66" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E66">
+        <v>300136847</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>287</v>
       </c>
       <c r="B67" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E67">
+        <v>300046300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>289</v>
       </c>
       <c r="B68" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>1701</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E68">
+        <v>300028467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>291</v>
       </c>
       <c r="B70" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E70">
+        <v>300053319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>293</v>
       </c>
       <c r="B71" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E71">
+        <v>300374824</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>295</v>
       </c>
       <c r="B72" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>297</v>
       </c>
@@ -7322,7 +7706,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>299</v>
       </c>
@@ -7330,7 +7714,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>301</v>
       </c>
@@ -7351,7 +7735,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7390,10 +7774,10 @@
         <v>304</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D2" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7404,10 +7788,10 @@
         <v>306</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D3" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7418,10 +7802,10 @@
         <v>308</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D4" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7432,10 +7816,10 @@
         <v>310</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D5" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7446,10 +7830,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D6" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7471,10 +7855,10 @@
         <v>315</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D8" t="s">
-        <v>1454</v>
+        <v>1442</v>
       </c>
       <c r="E8">
         <v>300027388</v>
@@ -7532,10 +7916,10 @@
         <v>310</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D13" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7546,10 +7930,10 @@
         <v>325</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D14" t="s">
-        <v>1455</v>
+        <v>1443</v>
       </c>
       <c r="E14">
         <v>300026614</v>
@@ -7629,10 +8013,10 @@
         <v>339</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D21" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -7665,10 +8049,10 @@
         <v>345</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1456</v>
+        <v>1444</v>
       </c>
       <c r="D24" t="s">
-        <v>1453</v>
+        <v>1441</v>
       </c>
     </row>
   </sheetData>
@@ -7731,10 +8115,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7770,6 +8157,15 @@
       <c r="B2" t="s">
         <v>349</v>
       </c>
+      <c r="C2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E2">
+        <v>300128366</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7778,6 +8174,15 @@
       <c r="B3" t="s">
         <v>351</v>
       </c>
+      <c r="C3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E3">
+        <v>300128357</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7786,6 +8191,15 @@
       <c r="B4" t="s">
         <v>353</v>
       </c>
+      <c r="C4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E4">
+        <v>300128359</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -7794,6 +8208,15 @@
       <c r="B5" t="s">
         <v>355</v>
       </c>
+      <c r="C5" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E5">
+        <v>300127181</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -7802,6 +8225,9 @@
       <c r="B6" t="s">
         <v>357</v>
       </c>
+      <c r="C6" t="s">
+        <v>1714</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7810,6 +8236,15 @@
       <c r="B7" t="s">
         <v>359</v>
       </c>
+      <c r="C7" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E7">
+        <v>300265083</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -7818,6 +8253,15 @@
       <c r="B8" t="s">
         <v>361</v>
       </c>
+      <c r="C8" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E8">
+        <v>300115233</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -7826,6 +8270,15 @@
       <c r="B9" t="s">
         <v>363</v>
       </c>
+      <c r="C9" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E9">
+        <v>300128374</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -7834,6 +8287,15 @@
       <c r="B10" t="s">
         <v>365</v>
       </c>
+      <c r="C10" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E10">
+        <v>300128343</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -7841,6 +8303,26 @@
       </c>
       <c r="B11" t="s">
         <v>367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E11">
+        <v>300128347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E12">
+        <v>300026695</v>
       </c>
     </row>
   </sheetData>
@@ -7852,8 +8334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7869,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -7894,6 +8376,15 @@
       <c r="C2" t="s">
         <v>369</v>
       </c>
+      <c r="D2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1700</v>
+      </c>
+      <c r="F2">
+        <v>300026710</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -7902,6 +8393,15 @@
       <c r="C3" t="s">
         <v>371</v>
       </c>
+      <c r="D3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="F3">
+        <v>300027473</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -7911,10 +8411,10 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="E4" t="s">
-        <v>1594</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -7925,10 +8425,10 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="E5" t="s">
-        <v>1593</v>
+        <v>1580</v>
       </c>
       <c r="F5">
         <v>300417554</v>
@@ -7941,6 +8441,15 @@
       <c r="C6" t="s">
         <v>377</v>
       </c>
+      <c r="D6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F6">
+        <v>300138696</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -7950,10 +8459,10 @@
         <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E7" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="F7">
         <v>300138696</v>
@@ -7967,10 +8476,10 @@
         <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E8" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="F8">
         <v>300053623</v>
@@ -7984,10 +8493,10 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E9" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="F9">
         <v>300047457</v>
@@ -8001,10 +8510,10 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E10" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F10">
         <v>300047724</v>
@@ -8017,6 +8526,15 @@
       <c r="C11" t="s">
         <v>387</v>
       </c>
+      <c r="D11" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F11">
+        <v>300028569</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -8026,10 +8544,10 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E12" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="F12">
         <v>300047469</v>
@@ -8042,6 +8560,15 @@
       <c r="C13" t="s">
         <v>391</v>
       </c>
+      <c r="D13" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F13">
+        <v>300028569</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -8051,10 +8578,10 @@
         <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E14" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="F14">
         <v>300047724</v>
@@ -8068,10 +8595,10 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E15" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="F15">
         <v>300047896</v>
@@ -8085,10 +8612,10 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E16" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="F16">
         <v>300262520</v>
@@ -8102,10 +8629,10 @@
         <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E17" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="F17">
         <v>300077357</v>
@@ -8119,10 +8646,10 @@
         <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E18" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="F18">
         <v>300138758</v>
@@ -8136,10 +8663,10 @@
         <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E19" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="F19">
         <v>300047837</v>
@@ -8153,10 +8680,10 @@
         <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E20" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="F20">
         <v>300010262</v>
@@ -8181,10 +8708,10 @@
         <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E22" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="F22">
         <v>300343592</v>
@@ -8198,10 +8725,10 @@
         <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>1591</v>
+        <v>1578</v>
       </c>
       <c r="E23" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="F23">
         <v>300404835</v>
@@ -8214,6 +8741,15 @@
       <c r="C24" t="s">
         <v>413</v>
       </c>
+      <c r="D24" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F24">
+        <v>300027200</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -8222,6 +8758,15 @@
       <c r="C25" t="s">
         <v>415</v>
       </c>
+      <c r="D25" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F25">
+        <v>300026427</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -8230,6 +8775,15 @@
       <c r="C26" t="s">
         <v>417</v>
       </c>
+      <c r="D26" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F26">
+        <v>300264354</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -8239,10 +8793,10 @@
         <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="E27" t="s">
-        <v>1596</v>
+        <v>1583</v>
       </c>
       <c r="F27">
         <v>300055931</v>
@@ -8255,6 +8809,15 @@
       <c r="C28" t="s">
         <v>421</v>
       </c>
+      <c r="D28" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1709</v>
+      </c>
+      <c r="F28">
+        <v>300264330</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
@@ -8263,6 +8826,15 @@
       <c r="C29" t="s">
         <v>423</v>
       </c>
+      <c r="D29" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F29">
+        <v>300028569</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -8272,10 +8844,10 @@
         <v>425</v>
       </c>
       <c r="D30" t="s">
-        <v>1592</v>
+        <v>1579</v>
       </c>
       <c r="E30" t="s">
-        <v>1595</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8284,6 +8856,15 @@
       </c>
       <c r="C31" t="s">
         <v>427</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1674</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1699</v>
+      </c>
+      <c r="F31">
+        <v>300027267</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -8541,8 +9122,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8580,10 +9161,10 @@
         <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D2" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8594,10 +9175,10 @@
         <v>475</v>
       </c>
       <c r="C3" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D3" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
       <c r="E3">
         <v>300025103</v>
@@ -8611,10 +9192,10 @@
         <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D4" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
       <c r="E4">
         <v>300024987</v>
@@ -8628,10 +9209,10 @@
         <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D5" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="E5">
         <v>300025492</v>
@@ -8645,10 +9226,10 @@
         <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D6" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="E6">
         <v>300386177</v>
@@ -8662,10 +9243,10 @@
         <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D7" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="E7">
         <v>300025704</v>
@@ -8679,10 +9260,10 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D8" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="E8">
         <v>300443565</v>
@@ -8696,10 +9277,10 @@
         <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D9" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
       <c r="E9">
         <v>300225705</v>
@@ -8713,10 +9294,10 @@
         <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D10" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="E10">
         <v>300025671</v>
@@ -8730,10 +9311,10 @@
         <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D11" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="E11">
         <v>300443565</v>
@@ -8758,10 +9339,10 @@
         <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D13" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="E13">
         <v>300132961</v>
@@ -8775,10 +9356,10 @@
         <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D14" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
       <c r="E14">
         <v>300025732</v>
@@ -8792,10 +9373,10 @@
         <v>498</v>
       </c>
       <c r="C15" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D15" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
       <c r="E15">
         <v>300025190</v>
@@ -8820,10 +9401,10 @@
         <v>502</v>
       </c>
       <c r="C17" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D17" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
       <c r="E17">
         <v>300025687</v>
@@ -8837,10 +9418,10 @@
         <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D18" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -8851,10 +9432,10 @@
         <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D19" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
       <c r="E19">
         <v>300025165</v>
@@ -8868,10 +9449,10 @@
         <v>508</v>
       </c>
       <c r="C20" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D20" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
       <c r="E20">
         <v>300025257</v>
@@ -8896,10 +9477,10 @@
         <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D22" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="E22">
         <v>300025123</v>
@@ -8913,10 +9494,10 @@
         <v>514</v>
       </c>
       <c r="C23" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D23" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="E23">
         <v>300311841</v>
@@ -8930,10 +9511,10 @@
         <v>516</v>
       </c>
       <c r="C24" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D24" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
       <c r="E24">
         <v>300025175</v>
@@ -8947,10 +9528,10 @@
         <v>518</v>
       </c>
       <c r="C25" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D25" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="E25">
         <v>300251917</v>
@@ -8964,10 +9545,13 @@
         <v>520</v>
       </c>
       <c r="C26" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D26" t="s">
-        <v>1439</v>
+        <v>1433</v>
+      </c>
+      <c r="E26">
+        <v>300137375</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
@@ -8978,10 +9562,10 @@
         <v>521</v>
       </c>
       <c r="C27" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D27" t="s">
-        <v>1440</v>
+        <v>1430</v>
       </c>
       <c r="E27">
         <v>300121765</v>
@@ -8995,10 +9579,13 @@
         <v>523</v>
       </c>
       <c r="C28" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D28" t="s">
-        <v>1441</v>
+        <v>1710</v>
+      </c>
+      <c r="E28">
+        <v>300386629</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -9009,10 +9596,10 @@
         <v>525</v>
       </c>
       <c r="C29" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D29" t="s">
-        <v>1442</v>
+        <v>1431</v>
       </c>
       <c r="E29">
         <v>300404126</v>
@@ -9037,10 +9624,10 @@
         <v>529</v>
       </c>
       <c r="C31" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D31" t="s">
-        <v>1443</v>
+        <v>1432</v>
       </c>
       <c r="E31">
         <v>300025654</v>
@@ -9054,10 +9641,10 @@
         <v>531</v>
       </c>
       <c r="C32" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D32" t="s">
-        <v>1444</v>
+        <v>1433</v>
       </c>
       <c r="E32">
         <v>300137375</v>
@@ -9071,10 +9658,10 @@
         <v>532</v>
       </c>
       <c r="C33" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D33" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="E33">
         <v>300025492</v>
@@ -9088,10 +9675,10 @@
         <v>534</v>
       </c>
       <c r="C34" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D34" t="s">
-        <v>1445</v>
+        <v>1434</v>
       </c>
       <c r="E34">
         <v>300025574</v>
@@ -9105,10 +9692,13 @@
         <v>535</v>
       </c>
       <c r="C35" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D35" t="s">
-        <v>1446</v>
+        <v>1416</v>
+      </c>
+      <c r="E35">
+        <v>300443565</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -9119,10 +9709,10 @@
         <v>537</v>
       </c>
       <c r="C36" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D36" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="E36">
         <v>300311841</v>
@@ -9136,10 +9726,10 @@
         <v>539</v>
       </c>
       <c r="C37" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D37" t="s">
-        <v>1447</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -9150,10 +9740,10 @@
         <v>540</v>
       </c>
       <c r="C38" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D38" t="s">
-        <v>1448</v>
+        <v>1436</v>
       </c>
       <c r="E38">
         <v>300025601</v>
@@ -9167,10 +9757,10 @@
         <v>542</v>
       </c>
       <c r="C39" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D39" t="s">
-        <v>1449</v>
+        <v>1437</v>
       </c>
       <c r="E39">
         <v>300417530</v>
@@ -9228,7 +9818,7 @@
         <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D2" t="s">
         <v>1339</v>
@@ -9245,7 +9835,7 @@
         <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="F3" t="s">
         <v>1329</v>
@@ -9259,7 +9849,7 @@
         <v>548</v>
       </c>
       <c r="C4" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D4" t="s">
         <v>1340</v>
@@ -9276,7 +9866,7 @@
         <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D5" t="s">
         <v>1340</v>
@@ -9293,7 +9883,7 @@
         <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D6" t="s">
         <v>1341</v>
@@ -9310,7 +9900,7 @@
         <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D7" t="s">
         <v>1342</v>
@@ -9338,7 +9928,7 @@
         <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D9" t="s">
         <v>1340</v>
@@ -9355,7 +9945,7 @@
         <v>560</v>
       </c>
       <c r="C10" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D10" t="s">
         <v>1341</v>
@@ -9372,7 +9962,7 @@
         <v>562</v>
       </c>
       <c r="C11" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D11" t="s">
         <v>1343</v>
@@ -9400,7 +9990,7 @@
         <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D13" t="s">
         <v>1344</v>
@@ -9417,7 +10007,7 @@
         <v>568</v>
       </c>
       <c r="C14" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D14" t="s">
         <v>1345</v>
@@ -9434,7 +10024,7 @@
         <v>570</v>
       </c>
       <c r="C15" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D15" t="s">
         <v>1346</v>
@@ -9462,7 +10052,7 @@
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D17" t="s">
         <v>1347</v>
@@ -9479,7 +10069,7 @@
         <v>576</v>
       </c>
       <c r="C18" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D18" t="s">
         <v>1348</v>
@@ -9496,7 +10086,7 @@
         <v>578</v>
       </c>
       <c r="C19" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D19" t="s">
         <v>1340</v>
@@ -9513,7 +10103,7 @@
         <v>580</v>
       </c>
       <c r="C20" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D20" t="s">
         <v>1341</v>
@@ -9563,7 +10153,7 @@
         <v>588</v>
       </c>
       <c r="C24" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D24" t="s">
         <v>1349</v>
@@ -9591,7 +10181,7 @@
         <v>592</v>
       </c>
       <c r="C26" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D26" t="s">
         <v>1350</v>
@@ -9608,7 +10198,7 @@
         <v>594</v>
       </c>
       <c r="C27" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D27" t="s">
         <v>1351</v>
@@ -9625,7 +10215,7 @@
         <v>596</v>
       </c>
       <c r="C28" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D28" t="s">
         <v>1352</v>
@@ -9642,7 +10232,7 @@
         <v>598</v>
       </c>
       <c r="C29" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D29" t="s">
         <v>1353</v>
@@ -9670,7 +10260,7 @@
         <v>602</v>
       </c>
       <c r="C31" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D31" t="s">
         <v>1354</v>
@@ -9709,7 +10299,7 @@
         <v>608</v>
       </c>
       <c r="C34" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D34" t="s">
         <v>1355</v>
@@ -9726,7 +10316,7 @@
         <v>610</v>
       </c>
       <c r="C35" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D35" t="s">
         <v>1356</v>
@@ -9743,7 +10333,7 @@
         <v>612</v>
       </c>
       <c r="C36" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="D36" t="s">
         <v>1357</v>
@@ -9765,8 +10355,8 @@
   <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="A34"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9819,10 +10409,10 @@
         <v>616</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1513</v>
+        <v>1500</v>
       </c>
       <c r="E3" s="8">
         <v>300011015</v>
@@ -9836,10 +10426,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="E4" s="14">
         <v>300011176</v>
@@ -9853,10 +10443,10 @@
         <v>620</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="E5" s="8">
         <v>300010957</v>
@@ -9892,10 +10482,10 @@
         <v>626</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E8" s="8">
         <v>300011914</v>
@@ -9931,10 +10521,10 @@
         <v>632</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1522</v>
+        <v>1509</v>
       </c>
       <c r="E11" s="8">
         <v>300011099</v>
@@ -9960,10 +10550,10 @@
         <v>636</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="E13" s="14">
         <v>300011176</v>
@@ -9977,10 +10567,10 @@
         <v>638</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="E14" s="8">
         <v>300010797</v>
@@ -10016,10 +10606,10 @@
         <v>644</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E17" s="8">
         <v>300011914</v>
@@ -10033,10 +10623,10 @@
         <v>646</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1530</v>
+        <v>1517</v>
       </c>
       <c r="E18" s="8">
         <v>300011002</v>
@@ -10050,10 +10640,10 @@
         <v>648</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1532</v>
+        <v>1519</v>
       </c>
       <c r="E19" s="8">
         <v>300011857</v>
@@ -10067,10 +10657,10 @@
         <v>650</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="E20" s="8">
         <v>300235507</v>
@@ -10084,10 +10674,10 @@
         <v>652</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="E21" s="8">
         <v>300011020</v>
@@ -10101,10 +10691,10 @@
         <v>654</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="E22" s="8">
         <v>300014570</v>
@@ -10129,10 +10719,10 @@
         <v>658</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E24" s="8">
         <v>300011914</v>
@@ -10146,10 +10736,10 @@
         <v>660</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="E25" s="8">
         <v>300011443</v>
@@ -10163,10 +10753,10 @@
         <v>662</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="E26" s="8">
         <v>300011443</v>
@@ -10191,10 +10781,10 @@
         <v>666</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1543</v>
+        <v>1530</v>
       </c>
       <c r="E28" s="8">
         <v>300163347</v>
@@ -10208,10 +10798,10 @@
         <v>668</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1544</v>
+        <v>1531</v>
       </c>
       <c r="E29" s="8">
         <v>300014741</v>
@@ -10225,10 +10815,10 @@
         <v>670</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E30" s="8">
         <v>300011914</v>
@@ -10242,10 +10832,10 @@
         <v>672</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E31" s="8">
         <v>300011914</v>
@@ -10259,10 +10849,10 @@
         <v>674</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1550</v>
+        <v>1537</v>
       </c>
       <c r="E32" s="8">
         <v>300014436</v>
@@ -10276,10 +10866,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1551</v>
+        <v>1538</v>
       </c>
       <c r="E33" s="8">
         <v>300014546</v>
@@ -10293,10 +10883,10 @@
         <v>677</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="E34" s="8">
         <v>300010662</v>
@@ -10310,10 +10900,10 @@
         <v>679</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="E35" s="14">
         <v>300011176</v>
@@ -10327,10 +10917,10 @@
         <v>681</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1554</v>
+        <v>1541</v>
       </c>
       <c r="E36" s="8">
         <v>300010822</v>
@@ -10344,10 +10934,10 @@
         <v>683</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="E37" s="14">
         <v>300011176</v>
@@ -10372,10 +10962,10 @@
         <v>604</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1556</v>
+        <v>1543</v>
       </c>
       <c r="E39" s="8">
         <v>300010669</v>
@@ -10389,10 +10979,10 @@
         <v>688</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E40" s="8">
         <v>300011914</v>
@@ -10417,10 +11007,10 @@
         <v>692</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1559</v>
+        <v>1546</v>
       </c>
       <c r="E42" s="8">
         <v>300014585</v>
@@ -10434,10 +11024,10 @@
         <v>694</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="E43" s="14">
         <v>300011176</v>
@@ -10451,10 +11041,10 @@
         <v>696</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="E44" s="14">
         <v>300011176</v>
@@ -10468,10 +11058,10 @@
         <v>698</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="E45" s="8">
         <v>300231565</v>
@@ -10507,10 +11097,10 @@
         <v>704</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1511</v>
+        <v>1498</v>
       </c>
       <c r="E48" s="8">
         <v>300235507</v>
@@ -10535,10 +11125,10 @@
         <v>708</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1516</v>
+        <v>1503</v>
       </c>
       <c r="E50" s="8">
         <v>300011798</v>
@@ -10563,10 +11153,10 @@
         <v>620</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1518</v>
+        <v>1505</v>
       </c>
       <c r="E52" s="8">
         <v>300010957</v>
@@ -10580,16 +11170,16 @@
         <v>652</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1537</v>
+        <v>1524</v>
       </c>
       <c r="E53" s="8">
         <v>300011020</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -10600,10 +11190,10 @@
         <v>714</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
       <c r="E54" s="8">
         <v>300014078</v>
@@ -10617,10 +11207,10 @@
         <v>716</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
       <c r="E55" s="8">
         <v>300014078</v>
@@ -10634,13 +11224,13 @@
         <v>718</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D56" s="7" t="s">
         <v>718</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>1563</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
@@ -10651,10 +11241,10 @@
         <v>720</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1521</v>
+        <v>1508</v>
       </c>
       <c r="E57" s="8">
         <v>300014910</v>
@@ -10668,10 +11258,10 @@
         <v>722</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1564</v>
+        <v>1551</v>
       </c>
       <c r="E58" s="8">
         <v>300010367</v>
@@ -10696,10 +11286,10 @@
         <v>726</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="E60" s="8">
         <v>300014069</v>
@@ -10713,10 +11303,10 @@
         <v>728</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1526</v>
+        <v>1513</v>
       </c>
       <c r="E61" s="8">
         <v>300011021</v>
@@ -10730,10 +11320,10 @@
         <v>730</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E62" s="8">
         <v>300014109</v>
@@ -10747,16 +11337,16 @@
         <v>638</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="E63" s="8">
         <v>300010797</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>1524</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10767,16 +11357,16 @@
         <v>638</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1523</v>
+        <v>1510</v>
       </c>
       <c r="E64" s="8">
         <v>300010797</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10787,10 +11377,10 @@
         <v>733</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E65" s="8">
         <v>300011914</v>
@@ -10804,16 +11394,16 @@
         <v>644</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E66" s="8">
         <v>300011914</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10824,16 +11414,16 @@
         <v>644</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1527</v>
+        <v>1514</v>
       </c>
       <c r="E67" s="8">
         <v>300011914</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10844,10 +11434,10 @@
         <v>736</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1569</v>
+        <v>1556</v>
       </c>
       <c r="E68" s="8">
         <v>300411543</v>
@@ -10869,10 +11459,10 @@
         <v>739</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1570</v>
+        <v>1557</v>
       </c>
       <c r="E70" s="8">
         <v>300014143</v>
@@ -10886,10 +11476,10 @@
         <v>741</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="E71" s="8">
         <v>300231565</v>
@@ -10903,10 +11493,10 @@
         <v>743</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1573</v>
+        <v>1560</v>
       </c>
       <c r="E72" s="8">
         <v>300435274</v>
@@ -10920,10 +11510,10 @@
         <v>745</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1571</v>
+        <v>1558</v>
       </c>
       <c r="E73" s="8">
         <v>300014161</v>
@@ -10937,10 +11527,10 @@
         <v>747</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E74" s="8">
         <v>300014109</v>
@@ -10954,16 +11544,16 @@
         <v>749</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
       <c r="E75" s="8">
         <v>300014224</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>1587</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -10974,16 +11564,16 @@
         <v>749</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1572</v>
+        <v>1559</v>
       </c>
       <c r="E76" s="8">
         <v>300014224</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>1588</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -10994,10 +11584,10 @@
         <v>654</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1538</v>
+        <v>1525</v>
       </c>
       <c r="E77" s="8">
         <v>300014570</v>
@@ -11011,10 +11601,10 @@
         <v>752</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="E78" s="8">
         <v>300014069</v>
@@ -11028,10 +11618,10 @@
         <v>754</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1539</v>
+        <v>1526</v>
       </c>
       <c r="E79" s="8">
         <v>300011845</v>
@@ -11045,10 +11635,10 @@
         <v>756</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1566</v>
+        <v>1553</v>
       </c>
       <c r="E80" s="8">
         <v>300014069</v>
@@ -11062,10 +11652,10 @@
         <v>758</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1540</v>
+        <v>1527</v>
       </c>
       <c r="E81" s="8">
         <v>300011022</v>
@@ -11079,10 +11669,10 @@
         <v>760</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E82" s="8">
         <v>300014109</v>
@@ -11096,10 +11686,10 @@
         <v>660</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1541</v>
+        <v>1528</v>
       </c>
       <c r="E83" s="8">
         <v>300011443</v>
@@ -11116,10 +11706,10 @@
         <v>763</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1574</v>
+        <v>1561</v>
       </c>
       <c r="E84" s="8">
         <v>300390932</v>
@@ -11133,10 +11723,10 @@
         <v>765</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="E85" s="8">
         <v>300010900</v>
@@ -11172,10 +11762,10 @@
         <v>770</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1575</v>
+        <v>1562</v>
       </c>
       <c r="E88" s="8">
         <v>300014657</v>
@@ -11189,10 +11779,10 @@
         <v>772</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="E89" s="8">
         <v>300011851</v>
@@ -11206,10 +11796,10 @@
         <v>774</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E90" s="8">
         <v>300014109</v>
@@ -11223,10 +11813,10 @@
         <v>776</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E91" s="8">
         <v>300014109</v>
@@ -11240,10 +11830,10 @@
         <v>778</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1576</v>
+        <v>1563</v>
       </c>
       <c r="E92" s="8">
         <v>300011851</v>
@@ -11257,10 +11847,10 @@
         <v>780</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1552</v>
+        <v>1539</v>
       </c>
       <c r="E93" s="8">
         <v>300010662</v>
@@ -11274,16 +11864,16 @@
         <v>782</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E94" s="8">
         <v>300014109</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>1586</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11294,16 +11884,16 @@
         <v>782</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E95" s="8">
         <v>300014109</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>1585</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11314,10 +11904,10 @@
         <v>784</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E96" s="8">
         <v>300014109</v>
@@ -11331,10 +11921,10 @@
         <v>786</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1565</v>
+        <v>1552</v>
       </c>
       <c r="E97" s="8">
         <v>300014109</v>
@@ -11348,10 +11938,10 @@
         <v>788</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1577</v>
+        <v>1564</v>
       </c>
       <c r="E98" s="8">
         <v>300027354</v>
@@ -11376,10 +11966,10 @@
         <v>792</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1578</v>
+        <v>1565</v>
       </c>
       <c r="E100" s="8">
         <v>300014206</v>
@@ -11393,10 +11983,10 @@
         <v>683</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1515</v>
+        <v>1502</v>
       </c>
       <c r="E101" s="14">
         <v>300011176</v>
@@ -11410,10 +12000,10 @@
         <v>795</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1542</v>
+        <v>1529</v>
       </c>
       <c r="E102" s="8">
         <v>300010900</v>
@@ -11427,10 +12017,10 @@
         <v>797</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1557</v>
+        <v>1544</v>
       </c>
       <c r="E103" s="8">
         <v>300014248</v>
@@ -11444,10 +12034,10 @@
         <v>799</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
       <c r="E104" s="8">
         <v>300012849</v>
@@ -11461,10 +12051,10 @@
         <v>801</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="E105" s="8">
         <v>300231565</v>
@@ -11478,10 +12068,10 @@
         <v>803</v>
       </c>
       <c r="C106" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D106" s="7" t="s">
         <v>1567</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>1580</v>
       </c>
       <c r="E106" s="8">
         <v>300014203</v>
@@ -11506,10 +12096,10 @@
         <v>806</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1581</v>
+        <v>1568</v>
       </c>
       <c r="E108" s="8">
         <v>300014184</v>
@@ -11531,10 +12121,10 @@
         <v>700</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1583</v>
+        <v>1570</v>
       </c>
       <c r="E110" s="8">
         <v>300011037</v>
@@ -11548,10 +12138,10 @@
         <v>698</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1561</v>
+        <v>1548</v>
       </c>
       <c r="E111" s="8">
         <v>300231565</v>
@@ -11565,16 +12155,16 @@
         <v>811</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1567</v>
+        <v>1554</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
       <c r="E112" s="8">
         <v>300243428</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>1568</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11585,16 +12175,16 @@
         <v>811</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1582</v>
+        <v>1569</v>
       </c>
       <c r="E113" s="8">
         <v>300243428</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>1528</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -11605,10 +12195,10 @@
         <v>813</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="E114" s="8">
         <v>300022453</v>
@@ -11622,10 +12212,10 @@
         <v>815</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1467</v>
+        <v>1454</v>
       </c>
       <c r="E115" s="6">
         <v>300138699</v>
@@ -11639,10 +12229,10 @@
         <v>817</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="E116" s="8">
         <v>300011729</v>
@@ -11656,10 +12246,10 @@
         <v>819</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1481</v>
+        <v>1468</v>
       </c>
       <c r="E117" s="8">
         <v>300179099</v>
@@ -11673,10 +12263,10 @@
         <v>821</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1529</v>
+        <v>1516</v>
       </c>
       <c r="E118" s="8">
         <v>300012862</v>
@@ -11690,10 +12280,10 @@
         <v>823</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="E119" s="8">
         <v>300015012</v>
@@ -11707,10 +12297,10 @@
         <v>825</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="E120" s="8">
         <v>300022413</v>
@@ -11724,10 +12314,10 @@
         <v>827</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1535</v>
+        <v>1522</v>
       </c>
       <c r="E121" s="8">
         <v>300022441</v>
@@ -11741,10 +12331,10 @@
         <v>829</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1534</v>
+        <v>1521</v>
       </c>
       <c r="E122" s="8">
         <v>300022413</v>
@@ -11758,10 +12348,10 @@
         <v>831</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="E123" s="6">
         <v>300053277</v>
@@ -11775,10 +12365,10 @@
         <v>833</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="E124" s="8">
         <v>300022439</v>
@@ -11792,10 +12382,10 @@
         <v>835</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="E125" s="8">
         <v>300015018</v>
@@ -11809,10 +12399,10 @@
         <v>837</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1546</v>
+        <v>1533</v>
       </c>
       <c r="E126" s="8">
         <v>300230810</v>
@@ -11826,10 +12416,10 @@
         <v>839</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1548</v>
+        <v>1535</v>
       </c>
       <c r="E127" s="8">
         <v>300015018</v>
@@ -11843,10 +12433,10 @@
         <v>841</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>1549</v>
+        <v>1536</v>
       </c>
       <c r="E128" s="8">
         <v>300122621</v>
@@ -11860,10 +12450,10 @@
         <v>843</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1503</v>
+        <v>1490</v>
       </c>
       <c r="E129" s="6">
         <v>300022452</v>
@@ -11877,10 +12467,10 @@
         <v>845</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1545</v>
+        <v>1532</v>
       </c>
       <c r="E130" s="8">
         <v>300022439</v>
@@ -11894,10 +12484,10 @@
         <v>847</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1504</v>
+        <v>1491</v>
       </c>
       <c r="E131" s="6">
         <v>300022552</v>
@@ -11911,10 +12501,10 @@
         <v>849</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="E132" s="8">
         <v>300015012</v>
@@ -11928,10 +12518,10 @@
         <v>600</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1553</v>
+        <v>1540</v>
       </c>
       <c r="E133" s="8">
         <v>300080064</v>
@@ -11945,10 +12535,10 @@
         <v>852</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="E134" s="8">
         <v>300417481</v>
@@ -11962,10 +12552,10 @@
         <v>854</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
       <c r="E135" s="8">
         <v>300022458</v>
@@ -11979,10 +12569,10 @@
         <v>856</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1560</v>
+        <v>1547</v>
       </c>
       <c r="E136" s="8">
         <v>300167812</v>
@@ -12018,10 +12608,10 @@
         <v>862</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="E139" s="8">
         <v>300053796</v>
@@ -12035,10 +12625,10 @@
         <v>864</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1590</v>
+        <v>1577</v>
       </c>
       <c r="E140" s="6">
         <v>300053867</v>
@@ -12052,10 +12642,10 @@
         <v>866</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1476</v>
+        <v>1463</v>
       </c>
       <c r="E141" s="8">
         <v>300311416</v>
@@ -12069,10 +12659,10 @@
         <v>868</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1483</v>
+        <v>1470</v>
       </c>
       <c r="E142" s="8">
         <v>300054216</v>
@@ -12086,10 +12676,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -12103,10 +12693,10 @@
         <v>872</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="E144" s="8">
         <v>300443550</v>
@@ -12120,10 +12710,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -12144,8 +12734,8 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A40" sqref="A40"/>
+      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12184,10 +12774,10 @@
         <v>1032</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="E2" s="14">
         <v>300015045</v>
@@ -12201,10 +12791,10 @@
         <v>1160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1463</v>
+        <v>1450</v>
       </c>
       <c r="E3" s="6">
         <v>300411597</v>
@@ -12229,10 +12819,10 @@
         <v>1164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1525</v>
+        <v>1512</v>
       </c>
       <c r="E5" s="8">
         <v>300070114</v>
@@ -12246,10 +12836,10 @@
         <v>1166</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1485</v>
+        <v>1472</v>
       </c>
       <c r="E6" s="8">
         <v>300053386</v>
@@ -12642,13 +13232,13 @@
         <v>1169</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D54" s="7" t="s">
         <v>1169</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>1471</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
@@ -12681,10 +13271,10 @@
         <v>1174</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="E57" s="6">
         <v>300053242</v>
@@ -12698,10 +13288,10 @@
         <v>1176</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1461</v>
+        <v>1448</v>
       </c>
       <c r="E58" s="6">
         <v>300155640</v>
@@ -12715,10 +13305,10 @@
         <v>1178</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1462</v>
+        <v>1449</v>
       </c>
       <c r="E59" s="6">
         <v>300263218</v>
@@ -12732,10 +13322,10 @@
         <v>1180</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1589</v>
+        <v>1576</v>
       </c>
       <c r="E60" s="6">
         <v>300041340</v>
@@ -12749,10 +13339,10 @@
         <v>1182</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1468</v>
+        <v>1455</v>
       </c>
       <c r="E61" s="8">
         <v>300053220</v>
@@ -12766,10 +13356,10 @@
         <v>1184</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1464</v>
+        <v>1451</v>
       </c>
       <c r="E62" s="8">
         <v>300053272</v>
@@ -12794,10 +13384,10 @@
         <v>1188</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1465</v>
+        <v>1452</v>
       </c>
       <c r="E64" s="8">
         <v>300265178</v>
@@ -12811,10 +13401,10 @@
         <v>1190</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1466</v>
+        <v>1453</v>
       </c>
       <c r="E65" s="8">
         <v>300265082</v>
@@ -12839,13 +13429,13 @@
         <v>1194</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
@@ -12856,10 +13446,10 @@
         <v>1196</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>1458</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>1471</v>
       </c>
       <c r="E68" s="8">
         <v>300053241</v>
@@ -12873,10 +13463,10 @@
         <v>1169</v>
       </c>
       <c r="C69" s="6" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>1458</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>1471</v>
       </c>
       <c r="E69" s="8">
         <v>300053241</v>
@@ -12890,10 +13480,10 @@
         <v>1199</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1473</v>
+        <v>1460</v>
       </c>
       <c r="E70" s="8">
         <v>300053207</v>
@@ -12907,10 +13497,10 @@
         <v>1201</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1474</v>
+        <v>1461</v>
       </c>
       <c r="E71" s="8">
         <v>300053275</v>
@@ -12924,10 +13514,10 @@
         <v>1203</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="E72" s="8">
         <v>300053303</v>
@@ -12941,10 +13531,10 @@
         <v>1205</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="E73" s="8">
         <v>300053296</v>
@@ -12958,10 +13548,10 @@
         <v>1207</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="E74" s="8">
         <v>300053242</v>
@@ -12975,10 +13565,10 @@
         <v>1209</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1491</v>
+        <v>1478</v>
       </c>
       <c r="E75" s="8">
         <v>300263381</v>
@@ -12992,10 +13582,10 @@
         <v>1211</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1486</v>
+        <v>1473</v>
       </c>
       <c r="E76" s="8">
         <v>300053303</v>
@@ -13009,10 +13599,10 @@
         <v>1213</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1487</v>
+        <v>1474</v>
       </c>
       <c r="E77" s="8">
         <v>300053296</v>
@@ -13026,10 +13616,10 @@
         <v>1215</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="E78" s="8">
         <v>300154361</v>
@@ -13054,10 +13644,10 @@
         <v>1219</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="E80" s="8">
         <v>300053271</v>
@@ -13071,10 +13661,10 @@
         <v>1221</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1493</v>
+        <v>1480</v>
       </c>
       <c r="E81" s="8">
         <v>300343476</v>
@@ -13088,10 +13678,10 @@
         <v>1223</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="E82" s="8">
         <v>300053239</v>
@@ -13105,10 +13695,10 @@
         <v>1225</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="E83" s="8">
         <v>300190531</v>
@@ -13122,10 +13712,10 @@
         <v>1227</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1488</v>
+        <v>1475</v>
       </c>
       <c r="E84" s="8">
         <v>300154361</v>
@@ -13139,10 +13729,10 @@
         <v>1229</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1496</v>
+        <v>1483</v>
       </c>
       <c r="E85" s="8">
         <v>300053204</v>
@@ -13156,10 +13746,10 @@
         <v>1231</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1497</v>
+        <v>1484</v>
       </c>
       <c r="E86" s="8">
         <v>300053231</v>
@@ -13173,10 +13763,10 @@
         <v>1233</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1498</v>
+        <v>1485</v>
       </c>
       <c r="E87" s="8">
         <v>300060720</v>
@@ -13190,10 +13780,10 @@
         <v>1235</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="E88" s="8">
         <v>300053271</v>
@@ -13207,10 +13797,10 @@
         <v>1237</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="E89" s="8">
         <v>300053285</v>
@@ -13243,10 +13833,10 @@
         <v>1243</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="E92" s="8">
         <v>300053233</v>
@@ -13260,10 +13850,10 @@
         <v>1245</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1501</v>
+        <v>1488</v>
       </c>
       <c r="E93" s="8">
         <v>300053277</v>
@@ -13299,10 +13889,10 @@
         <v>1251</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1502</v>
+        <v>1489</v>
       </c>
       <c r="E96" s="9">
         <v>300053279</v>
@@ -13327,10 +13917,10 @@
         <v>1255</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1505</v>
+        <v>1492</v>
       </c>
       <c r="E98" s="8">
         <v>300190536</v>
@@ -13344,10 +13934,10 @@
         <v>1257</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1499</v>
+        <v>1486</v>
       </c>
       <c r="E99" s="8">
         <v>300053285</v>
@@ -13361,10 +13951,10 @@
         <v>1259</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1490</v>
+        <v>1477</v>
       </c>
       <c r="E100" s="8">
         <v>300053239</v>
@@ -13411,10 +14001,10 @@
         <v>1267</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1489</v>
+        <v>1476</v>
       </c>
       <c r="E104" s="8">
         <v>300053271</v>
@@ -13428,10 +14018,10 @@
         <v>1269</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1472</v>
+        <v>1459</v>
       </c>
       <c r="E105" s="8">
         <v>300157897</v>
@@ -13445,10 +14035,10 @@
         <v>1271</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="E106" s="8">
         <v>300053251</v>
@@ -13462,10 +14052,10 @@
         <v>1273</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1510</v>
+        <v>1497</v>
       </c>
       <c r="E107" s="8">
         <v>300157968</v>
@@ -13479,10 +14069,10 @@
         <v>1275</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1509</v>
+        <v>1496</v>
       </c>
       <c r="E108" s="8">
         <v>300053281</v>
@@ -13496,10 +14086,10 @@
         <v>1277</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1512</v>
+        <v>1499</v>
       </c>
       <c r="E109" s="14">
         <v>300014426</v>
@@ -13513,10 +14103,10 @@
         <v>1279</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>1459</v>
+        <v>1446</v>
       </c>
       <c r="E110" s="6">
         <v>300053366</v>
@@ -13530,10 +14120,10 @@
         <v>1281</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="E111" s="14">
         <v>300015050</v>
@@ -13547,10 +14137,10 @@
         <v>1283</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1555</v>
+        <v>1542</v>
       </c>
       <c r="E112" s="14">
         <v>300015062</v>
@@ -13564,10 +14154,10 @@
         <v>1285</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="E113" s="14">
         <v>300015050</v>
@@ -13857,10 +14447,10 @@
         <v>1287</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1477</v>
+        <v>1464</v>
       </c>
       <c r="E137" s="8">
         <v>300053781</v>
@@ -13874,10 +14464,10 @@
         <v>1289</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1478</v>
+        <v>1465</v>
       </c>
       <c r="E138" s="8">
         <v>300053104</v>
@@ -13891,10 +14481,10 @@
         <v>1291</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1479</v>
+        <v>1466</v>
       </c>
       <c r="E139" s="8">
         <v>300053225</v>
@@ -13919,10 +14509,10 @@
         <v>862</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1480</v>
+        <v>1467</v>
       </c>
       <c r="E141" s="8">
         <v>300053796</v>
@@ -13936,10 +14526,10 @@
         <v>1296</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1495</v>
+        <v>1482</v>
       </c>
       <c r="E142" s="8">
         <v>300010902</v>
@@ -13953,10 +14543,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1482</v>
+        <v>1469</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -13981,10 +14571,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1508</v>
+        <v>1495</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -13998,10 +14588,10 @@
         <v>1032</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="E146" s="14">
         <v>300015045</v>
@@ -14015,10 +14605,10 @@
         <v>1174</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="E147" s="6">
         <v>300053242</v>
@@ -14043,10 +14633,10 @@
         <v>1306</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1517</v>
+        <v>1504</v>
       </c>
       <c r="E149" s="8">
         <v>300013351</v>
@@ -14060,13 +14650,13 @@
         <v>1194</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>1470</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -14077,10 +14667,10 @@
         <v>1309</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1520</v>
+        <v>1507</v>
       </c>
       <c r="E151" s="14">
         <v>300015071</v>
@@ -14105,10 +14695,10 @@
         <v>1313</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1475</v>
+        <v>1462</v>
       </c>
       <c r="E153" s="8">
         <v>300053363</v>
@@ -14122,10 +14712,10 @@
         <v>1315</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1484</v>
+        <v>1471</v>
       </c>
       <c r="E154" s="8">
         <v>300404638</v>
@@ -14139,10 +14729,10 @@
         <v>1225</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="E155" s="8">
         <v>300190531</v>
@@ -14156,10 +14746,10 @@
         <v>1318</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1494</v>
+        <v>1481</v>
       </c>
       <c r="E156" s="8">
         <v>300417481</v>
@@ -14173,10 +14763,10 @@
         <v>1243</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1500</v>
+        <v>1487</v>
       </c>
       <c r="E157" s="8">
         <v>300053233</v>
@@ -14190,10 +14780,10 @@
         <v>1281</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1547</v>
+        <v>1534</v>
       </c>
       <c r="E158" s="14">
         <v>300015050</v>
@@ -14218,10 +14808,10 @@
         <v>1324</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1506</v>
+        <v>1493</v>
       </c>
       <c r="E160" s="8">
         <v>300404072</v>
@@ -14235,10 +14825,10 @@
         <v>1271</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1458</v>
+        <v>1445</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>1507</v>
+        <v>1494</v>
       </c>
       <c r="E161" s="8">
         <v>300053251</v>
@@ -14252,10 +14842,10 @@
         <v>1327</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1514</v>
+        <v>1501</v>
       </c>
       <c r="E162" s="14">
         <v>300015045</v>
@@ -14323,11 +14913,11 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14335,6 +14925,7 @@
     <col min="1" max="1" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.69921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="52.09765625" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -14364,6 +14955,15 @@
       <c r="B2" t="s">
         <v>877</v>
       </c>
+      <c r="C2" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E2">
+        <v>300026823</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -14372,6 +14972,15 @@
       <c r="B3" t="s">
         <v>879</v>
       </c>
+      <c r="C3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E3">
+        <v>300026867</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -14388,6 +14997,15 @@
       <c r="B5" t="s">
         <v>191</v>
       </c>
+      <c r="C5" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E5">
+        <v>300026816</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -14396,6 +15014,15 @@
       <c r="B6" t="s">
         <v>884</v>
       </c>
+      <c r="C6" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E6">
+        <v>300026030</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -14404,6 +15031,15 @@
       <c r="B7" t="s">
         <v>886</v>
       </c>
+      <c r="C7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1669</v>
+      </c>
+      <c r="E7">
+        <v>300028051</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -14412,6 +15048,15 @@
       <c r="B8" t="s">
         <v>189</v>
       </c>
+      <c r="C8" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E8">
+        <v>300026879</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -14420,6 +15065,15 @@
       <c r="B9" t="s">
         <v>889</v>
       </c>
+      <c r="C9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E9">
+        <v>300026942</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -14428,6 +15082,9 @@
       <c r="B10" t="s">
         <v>891</v>
       </c>
+      <c r="F10" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -14436,6 +15093,15 @@
       <c r="B11" t="s">
         <v>893</v>
       </c>
+      <c r="C11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E11">
+        <v>300026942</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -14444,6 +15110,15 @@
       <c r="B12" t="s">
         <v>895</v>
       </c>
+      <c r="C12" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E12">
+        <v>300028569</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -14452,6 +15127,15 @@
       <c r="B13" t="s">
         <v>897</v>
       </c>
+      <c r="C13" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E13">
+        <v>300212274</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -14460,6 +15144,15 @@
       <c r="B14" t="s">
         <v>286</v>
       </c>
+      <c r="C14" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1405</v>
+      </c>
+      <c r="E14">
+        <v>300026030</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -14468,6 +15161,15 @@
       <c r="B15" t="s">
         <v>288</v>
       </c>
+      <c r="C15" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1408</v>
+      </c>
+      <c r="E15">
+        <v>300046300</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -14476,8 +15178,17 @@
       <c r="B16" t="s">
         <v>901</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E16">
+        <v>300049060</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>902</v>
       </c>
@@ -14485,15 +15196,24 @@
         <v>903</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>904</v>
       </c>
       <c r="B18" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E18">
+        <v>300028569</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>905</v>
       </c>
@@ -14501,127 +15221,232 @@
         <v>906</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>907</v>
       </c>
       <c r="B20" t="s">
         <v>908</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E20">
+        <v>300048715</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>909</v>
       </c>
       <c r="B21" t="s">
         <v>910</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E21">
+        <v>300026879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>911</v>
       </c>
       <c r="B22" t="s">
         <v>912</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E22">
+        <v>300026867</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>913</v>
       </c>
       <c r="B23" t="s">
         <v>914</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>915</v>
       </c>
       <c r="B24" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>917</v>
       </c>
       <c r="B25" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E25">
+        <v>300264354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>918</v>
       </c>
       <c r="B26" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E26">
+        <v>300027200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>920</v>
       </c>
       <c r="B27" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E27">
+        <v>300262918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>922</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>923</v>
       </c>
       <c r="B29" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1407</v>
+      </c>
+      <c r="E29">
+        <v>300028569</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>925</v>
       </c>
       <c r="B30" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>927</v>
       </c>
       <c r="B31" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>929</v>
       </c>
       <c r="B32" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E32">
+        <v>300026819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>930</v>
       </c>
       <c r="B33" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E33">
+        <v>300027264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>932</v>
       </c>
       <c r="B34" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E34">
+        <v>300311954</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>934</v>
       </c>
@@ -14629,71 +15454,119 @@
         <v>935</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>936</v>
       </c>
       <c r="B36" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1691</v>
+      </c>
+      <c r="E36">
+        <v>300145802</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>938</v>
       </c>
       <c r="B37" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>940</v>
       </c>
       <c r="B38" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1688</v>
+      </c>
+      <c r="E38">
+        <v>300027200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>942</v>
       </c>
       <c r="B39" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>944</v>
       </c>
       <c r="B40" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>946</v>
       </c>
       <c r="B41" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1692</v>
+      </c>
+      <c r="E41">
+        <v>300026096</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>948</v>
       </c>
       <c r="B42" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E42">
+        <v>300026909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>949</v>
       </c>
       <c r="B43" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>951</v>
       </c>
@@ -14701,63 +15574,120 @@
         <v>952</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>953</v>
       </c>
       <c r="B45" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E45">
+        <v>300026657</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>955</v>
       </c>
       <c r="B46" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E46">
+        <v>300026068</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>957</v>
       </c>
       <c r="B47" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1695</v>
+      </c>
+      <c r="E47">
+        <v>300027083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>959</v>
       </c>
       <c r="B48" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E48">
+        <v>300026068</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>961</v>
       </c>
       <c r="B49" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>963</v>
       </c>
       <c r="B50" t="s">
         <v>964</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E50">
+        <v>300026823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>965</v>
       </c>
       <c r="B51" t="s">
         <v>966</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1696</v>
+      </c>
+      <c r="E51">
+        <v>300026074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>967</v>
       </c>
@@ -14765,7 +15695,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>969</v>
       </c>
@@ -14773,7 +15703,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>971</v>
       </c>
@@ -14781,7 +15711,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>973</v>
       </c>
@@ -14789,7 +15719,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>975</v>
       </c>
@@ -14797,7 +15727,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>977</v>
       </c>
@@ -14805,7 +15735,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>979</v>
       </c>
@@ -14813,7 +15743,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>980</v>
       </c>
@@ -14821,7 +15751,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>981</v>
       </c>
@@ -14829,7 +15759,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>982</v>
       </c>
@@ -14837,7 +15767,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>983</v>
       </c>
@@ -14845,7 +15775,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>984</v>
       </c>
@@ -14853,16 +15783,16 @@
         <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="D63" t="s">
-        <v>1598</v>
+        <v>1585</v>
       </c>
       <c r="E63">
         <v>300263886</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>985</v>
       </c>
@@ -14870,10 +15800,10 @@
         <v>986</v>
       </c>
       <c r="C64" t="s">
-        <v>1597</v>
+        <v>1584</v>
       </c>
       <c r="D64" t="s">
-        <v>1599</v>
+        <v>1586</v>
       </c>
       <c r="E64">
         <v>300034104</v>
@@ -14887,10 +15817,10 @@
         <v>950</v>
       </c>
       <c r="C65" t="s">
-        <v>1600</v>
+        <v>1587</v>
       </c>
       <c r="D65" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="E65">
         <v>300033973</v>
@@ -14904,10 +15834,10 @@
         <v>989</v>
       </c>
       <c r="C66" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D66" t="s">
-        <v>1602</v>
+        <v>1589</v>
       </c>
       <c r="E66">
         <v>300263898</v>
@@ -14921,10 +15851,10 @@
         <v>991</v>
       </c>
       <c r="C67" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D67" t="s">
-        <v>1603</v>
+        <v>1590</v>
       </c>
       <c r="E67">
         <v>300266808</v>
@@ -14937,6 +15867,15 @@
       <c r="B68" t="s">
         <v>993</v>
       </c>
+      <c r="C68" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E68">
+        <v>300234117</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
@@ -14946,10 +15885,10 @@
         <v>995</v>
       </c>
       <c r="C69" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D69" t="s">
-        <v>1604</v>
+        <v>1592</v>
       </c>
       <c r="E69">
         <v>300343358</v>
@@ -14962,6 +15901,15 @@
       <c r="B70" t="s">
         <v>997</v>
       </c>
+      <c r="C70" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1593</v>
+      </c>
+      <c r="E70">
+        <v>300266810</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
@@ -14971,10 +15919,10 @@
         <v>999</v>
       </c>
       <c r="C71" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D71" t="s">
-        <v>1605</v>
+        <v>1594</v>
       </c>
       <c r="E71">
         <v>300133005</v>
@@ -14988,10 +15936,10 @@
         <v>1001</v>
       </c>
       <c r="C72" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D72" t="s">
-        <v>1606</v>
+        <v>1595</v>
       </c>
       <c r="E72">
         <v>300046025</v>
@@ -15005,10 +15953,10 @@
         <v>1003</v>
       </c>
       <c r="C73" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D73" t="s">
-        <v>1607</v>
+        <v>1596</v>
       </c>
       <c r="E73">
         <v>300028884</v>
@@ -15022,10 +15970,10 @@
         <v>1005</v>
       </c>
       <c r="C74" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D74" t="s">
-        <v>1608</v>
+        <v>1597</v>
       </c>
       <c r="E74">
         <v>300037680</v>
@@ -15039,10 +15987,10 @@
         <v>1007</v>
       </c>
       <c r="C75" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D75" t="s">
-        <v>1609</v>
+        <v>1598</v>
       </c>
       <c r="E75">
         <v>300041620</v>
@@ -15055,6 +16003,15 @@
       <c r="B76" t="s">
         <v>1009</v>
       </c>
+      <c r="C76" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1675</v>
+      </c>
+      <c r="E76">
+        <v>300215545</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
@@ -15064,10 +16021,10 @@
         <v>1011</v>
       </c>
       <c r="C77" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D77" t="s">
-        <v>1610</v>
+        <v>1599</v>
       </c>
       <c r="E77">
         <v>300263853</v>
@@ -15081,10 +16038,10 @@
         <v>1013</v>
       </c>
       <c r="C78" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D78" t="s">
-        <v>1611</v>
+        <v>1600</v>
       </c>
       <c r="E78">
         <v>300433073</v>
@@ -15098,10 +16055,10 @@
         <v>1015</v>
       </c>
       <c r="C79" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D79" t="s">
         <v>1601</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1612</v>
       </c>
       <c r="E79">
         <v>300014842</v>
@@ -15115,10 +16072,10 @@
         <v>1017</v>
       </c>
       <c r="C80" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D80" t="s">
-        <v>1613</v>
+        <v>1602</v>
       </c>
       <c r="E80">
         <v>300168224</v>
@@ -15132,10 +16089,10 @@
         <v>1019</v>
       </c>
       <c r="C81" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D81" t="s">
-        <v>1614</v>
+        <v>1603</v>
       </c>
       <c r="E81">
         <v>300209286</v>
@@ -15149,10 +16106,10 @@
         <v>1021</v>
       </c>
       <c r="C82" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D82" t="s">
-        <v>1533</v>
+        <v>1520</v>
       </c>
       <c r="E82">
         <v>300231565</v>
@@ -15166,10 +16123,10 @@
         <v>1023</v>
       </c>
       <c r="C83" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D83" t="s">
-        <v>1615</v>
+        <v>1604</v>
       </c>
       <c r="E83">
         <v>300233975</v>
@@ -15182,6 +16139,15 @@
       <c r="B84" t="s">
         <v>1025</v>
       </c>
+      <c r="C84" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E84">
+        <v>300195678</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
@@ -15190,6 +16156,15 @@
       <c r="B85" t="s">
         <v>1027</v>
       </c>
+      <c r="C85" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E85">
+        <v>300224230</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
@@ -15199,17 +16174,88 @@
         <v>1029</v>
       </c>
       <c r="C86" t="s">
-        <v>1601</v>
+        <v>1588</v>
       </c>
       <c r="D86" t="s">
-        <v>1616</v>
+        <v>1606</v>
       </c>
       <c r="E86">
         <v>300036926</v>
       </c>
     </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E87">
+        <v>300046230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E88">
+        <v>300046227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1682</v>
+      </c>
+      <c r="E89">
+        <v>300257199</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1683</v>
+      </c>
+      <c r="E90">
+        <v>300262254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E91">
+        <v>300193993</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15221,12 +16267,12 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:E19"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.59765625" customWidth="1"/>
     <col min="3" max="3" width="28.8984375" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" customWidth="1"/>
   </cols>
@@ -15259,13 +16305,10 @@
         <v>1031</v>
       </c>
       <c r="C2" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D2" t="s">
-        <v>1406</v>
-      </c>
-      <c r="E2">
-        <v>300164785</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -15276,13 +16319,10 @@
         <v>1033</v>
       </c>
       <c r="C3" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D3" t="s">
-        <v>1407</v>
-      </c>
-      <c r="E3">
-        <v>300404216</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -15293,10 +16333,10 @@
         <v>480</v>
       </c>
       <c r="C4" t="s">
-        <v>1451</v>
-      </c>
-      <c r="E4">
-        <v>300028045</v>
+        <v>1439</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1655</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -15307,13 +16347,10 @@
         <v>1035</v>
       </c>
       <c r="C5" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D5" t="s">
-        <v>1408</v>
-      </c>
-      <c r="E5">
-        <v>300026879</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -15324,13 +16361,10 @@
         <v>1037</v>
       </c>
       <c r="C6" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D6" t="s">
-        <v>1409</v>
-      </c>
-      <c r="E6">
-        <v>300026030</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -15341,13 +16375,10 @@
         <v>1038</v>
       </c>
       <c r="C7" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D7" t="s">
-        <v>1410</v>
-      </c>
-      <c r="E7">
-        <v>300026942</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -15358,10 +16389,10 @@
         <v>505</v>
       </c>
       <c r="C8" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D8" t="s">
-        <v>1039</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -15371,11 +16402,8 @@
       <c r="B9" t="s">
         <v>1040</v>
       </c>
-      <c r="E9">
-        <v>300234278</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1329</v>
+      <c r="D9" t="s">
+        <v>1667</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -15386,13 +16414,10 @@
         <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D10" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E10">
-        <v>300028569</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -15403,13 +16428,10 @@
         <v>1041</v>
       </c>
       <c r="C11" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D11" t="s">
-        <v>1411</v>
-      </c>
-      <c r="E11">
-        <v>300028569</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -15419,11 +16441,8 @@
       <c r="B12" t="s">
         <v>1042</v>
       </c>
-      <c r="E12">
-        <v>300435274</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1329</v>
+      <c r="D12" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -15434,13 +16453,10 @@
         <v>1044</v>
       </c>
       <c r="C13" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D13" t="s">
-        <v>1412</v>
-      </c>
-      <c r="E13">
-        <v>300265421</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -15451,13 +16467,10 @@
         <v>1046</v>
       </c>
       <c r="C14" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D14" t="s">
-        <v>1413</v>
-      </c>
-      <c r="E14">
-        <v>300033618</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -15468,13 +16481,10 @@
         <v>287</v>
       </c>
       <c r="C15" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D15" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E15">
-        <v>300046300</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -15485,16 +16495,13 @@
         <v>1047</v>
       </c>
       <c r="C16" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D16" t="s">
-        <v>1414</v>
-      </c>
-      <c r="E16">
-        <v>300046300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1048</v>
       </c>
@@ -15502,16 +16509,13 @@
         <v>260</v>
       </c>
       <c r="C17" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D17" t="s">
-        <v>1415</v>
-      </c>
-      <c r="E17">
-        <v>300041273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>1049</v>
       </c>
@@ -15519,16 +16523,13 @@
         <v>1050</v>
       </c>
       <c r="C18" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D18" t="s">
-        <v>1416</v>
-      </c>
-      <c r="E18">
-        <v>300027221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>1051</v>
       </c>
@@ -15536,16 +16537,13 @@
         <v>1052</v>
       </c>
       <c r="C19" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D19" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E19">
-        <v>300027488</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1045</v>
       </c>
@@ -15553,16 +16551,13 @@
         <v>1053</v>
       </c>
       <c r="C20" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D20" t="s">
-        <v>1417</v>
-      </c>
-      <c r="E20">
-        <v>300047090</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>950</v>
       </c>
@@ -15570,17 +16565,15 @@
         <v>1054</v>
       </c>
       <c r="C21" t="s">
-        <v>1451</v>
+        <v>1439</v>
       </c>
       <c r="D21" t="s">
-        <v>1418</v>
-      </c>
-      <c r="E21">
-        <v>300033973</v>
+        <v>1664</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15630,10 +16623,10 @@
         <v>1056</v>
       </c>
       <c r="C2" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D2" t="s">
-        <v>1536</v>
+        <v>1523</v>
       </c>
       <c r="E2">
         <v>300022453</v>
@@ -15647,10 +16640,10 @@
         <v>854</v>
       </c>
       <c r="C3" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D3" t="s">
-        <v>1558</v>
+        <v>1545</v>
       </c>
       <c r="E3">
         <v>300022458</v>
@@ -15675,10 +16668,10 @@
         <v>823</v>
       </c>
       <c r="C5" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D5" t="s">
-        <v>1531</v>
+        <v>1518</v>
       </c>
       <c r="E5">
         <v>300015012</v>
@@ -15692,10 +16685,10 @@
         <v>845</v>
       </c>
       <c r="C6" t="s">
-        <v>1562</v>
+        <v>1549</v>
       </c>
       <c r="D6" t="s">
-        <v>1584</v>
+        <v>1571</v>
       </c>
       <c r="E6">
         <v>300022439</v>
@@ -15753,10 +16746,10 @@
         <v>1063</v>
       </c>
       <c r="C2" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D2" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E2">
         <v>300388256</v>
@@ -15770,10 +16763,10 @@
         <v>1065</v>
       </c>
       <c r="C3" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D3" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="E3">
         <v>300388277</v>
@@ -15787,10 +16780,10 @@
         <v>1067</v>
       </c>
       <c r="C4" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D4" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="E4">
         <v>300388306</v>
@@ -15804,10 +16797,10 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D5" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="E5">
         <v>300388344</v>
@@ -15821,10 +16814,10 @@
         <v>1070</v>
       </c>
       <c r="C6" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D6" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="E6">
         <v>300387827</v>
@@ -15838,10 +16831,10 @@
         <v>1070</v>
       </c>
       <c r="C7" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D7" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="E7">
         <v>300389734</v>
@@ -15855,10 +16848,10 @@
         <v>1073</v>
       </c>
       <c r="C8" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D8" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="E8">
         <v>300388401</v>
@@ -15872,10 +16865,10 @@
         <v>1075</v>
       </c>
       <c r="C9" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D9" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="E9">
         <v>300388474</v>
@@ -15889,10 +16882,10 @@
         <v>1077</v>
       </c>
       <c r="C10" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D10" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="E10">
         <v>300388693</v>
@@ -15906,10 +16899,10 @@
         <v>1079</v>
       </c>
       <c r="C11" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D11" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="E11">
         <v>300443706</v>
@@ -15923,10 +16916,10 @@
         <v>1081</v>
       </c>
       <c r="C12" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D12" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="E12">
         <v>300389115</v>
@@ -15940,10 +16933,10 @@
         <v>1083</v>
       </c>
       <c r="C13" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D13" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="E13">
         <v>300389311</v>
@@ -15957,10 +16950,10 @@
         <v>1085</v>
       </c>
       <c r="C14" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D14" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="E14">
         <v>300389336</v>
@@ -15974,10 +16967,10 @@
         <v>1087</v>
       </c>
       <c r="C15" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D15" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="E15">
         <v>300388737</v>
@@ -15991,10 +16984,10 @@
         <v>1089</v>
       </c>
       <c r="C16" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D16" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E16">
         <v>300388256</v>
@@ -16008,10 +17001,10 @@
         <v>1091</v>
       </c>
       <c r="C17" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="D17" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="E17">
         <v>300388256</v>
@@ -16031,7 +17024,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16081,10 +17074,10 @@
         <v>1094</v>
       </c>
       <c r="C3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D3" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="E3">
         <v>300417206</v>
@@ -16098,10 +17091,10 @@
         <v>1095</v>
       </c>
       <c r="C4" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D4" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E4">
         <v>300055029</v>
@@ -16115,10 +17108,10 @@
         <v>1096</v>
       </c>
       <c r="C5" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D5" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="E5">
         <v>300055029</v>
@@ -16143,10 +17136,10 @@
         <v>1100</v>
       </c>
       <c r="C7" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D7" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="E7">
         <v>300417198</v>
@@ -16160,10 +17153,10 @@
         <v>1102</v>
       </c>
       <c r="C8" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="D8" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="E8">
         <v>300417196</v>
@@ -16233,10 +17226,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16275,7 +17268,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D2" t="s">
         <v>1359</v>
@@ -16292,7 +17285,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D3" t="s">
         <v>1360</v>
@@ -16309,7 +17302,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D4" t="s">
         <v>1361</v>
@@ -16326,7 +17319,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D5" t="s">
         <v>1362</v>
@@ -16343,7 +17336,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D6" t="s">
         <v>1363</v>
@@ -16360,7 +17353,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D7" t="s">
         <v>1331</v>
@@ -16377,10 +17370,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="D8" t="s">
-        <v>1364</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16391,7 +17384,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D9" t="s">
         <v>1359</v>
@@ -16408,7 +17401,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D10" t="s">
         <v>1361</v>
@@ -16436,7 +17429,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D12" t="s">
         <v>1362</v>
@@ -16453,7 +17446,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D13" t="s">
         <v>1331</v>
@@ -16470,7 +17463,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D14" t="s">
         <v>1331</v>
@@ -16487,7 +17480,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D15" t="s">
         <v>1359</v>
@@ -16504,7 +17497,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D16" t="s">
         <v>1359</v>
@@ -16521,7 +17514,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="D17" t="s">
         <v>1362</v>
@@ -16549,7 +17542,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D19" t="s">
         <v>1359</v>
@@ -16563,7 +17556,7 @@
         <v>1332</v>
       </c>
       <c r="C20" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D20" t="s">
         <v>1332</v>
@@ -16574,10 +17567,32 @@
         <v>1333</v>
       </c>
       <c r="C21" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="D21" t="s">
-        <v>1365</v>
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1671</v>
       </c>
     </row>
   </sheetData>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="13" activeTab="15"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -69,18 +69,10 @@
     <definedName name="toegang_types" localSheetId="25">toegang_types.csv!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5421,9 +5413,6 @@
     <t>transcriptions (documents)</t>
   </si>
   <si>
-    <t>Digipolis Thesauri\Schrijfstadium Type\</t>
-  </si>
-  <si>
     <t>handwriting</t>
   </si>
   <si>
@@ -5476,6 +5465,9 @@
   </si>
   <si>
     <t>photograph albums (albums (books)</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Productiestadium Type\</t>
   </si>
 </sst>
 </file>
@@ -6514,9 +6506,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53:E53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7005,7 +6997,7 @@
         <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>1706</v>
+        <v>1724</v>
       </c>
       <c r="D29" t="s">
         <v>1614</v>
@@ -7370,7 +7362,7 @@
         <v>1445</v>
       </c>
       <c r="D51" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E51">
         <v>300252927</v>
@@ -7387,7 +7379,7 @@
         <v>1445</v>
       </c>
       <c r="D52" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E52">
         <v>300247929</v>
@@ -7404,7 +7396,7 @@
         <v>1445</v>
       </c>
       <c r="D53" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E53">
         <v>300053319</v>
@@ -7537,7 +7529,7 @@
         <v>1445</v>
       </c>
       <c r="D61" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E61">
         <v>300247929</v>
@@ -7554,7 +7546,7 @@
         <v>1701</v>
       </c>
       <c r="D62" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7568,7 +7560,7 @@
         <v>1701</v>
       </c>
       <c r="D63" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7582,7 +7574,7 @@
         <v>1701</v>
       </c>
       <c r="D64" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7664,7 +7656,7 @@
         <v>1445</v>
       </c>
       <c r="D70" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E70">
         <v>300053319</v>
@@ -7681,7 +7673,7 @@
         <v>1445</v>
       </c>
       <c r="D71" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E71">
         <v>300374824</v>
@@ -8158,10 +8150,10 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
+        <v>1713</v>
+      </c>
+      <c r="D2" t="s">
         <v>1714</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1715</v>
       </c>
       <c r="E2">
         <v>300128366</v>
@@ -8175,10 +8167,10 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D3" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E3">
         <v>300128357</v>
@@ -8192,10 +8184,10 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="E4">
         <v>300128359</v>
@@ -8209,10 +8201,10 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D5" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="E5">
         <v>300127181</v>
@@ -8226,7 +8218,7 @@
         <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8237,10 +8229,10 @@
         <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D7" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="E7">
         <v>300265083</v>
@@ -8254,10 +8246,10 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E8">
         <v>300115233</v>
@@ -8271,10 +8263,10 @@
         <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D9" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E9">
         <v>300128374</v>
@@ -8288,10 +8280,10 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D10" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E10">
         <v>300128343</v>
@@ -8305,10 +8297,10 @@
         <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D11" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E11">
         <v>300128347</v>
@@ -8316,10 +8308,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D12" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E12">
         <v>300026695</v>
@@ -8334,7 +8326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -8813,7 +8805,7 @@
         <v>1674</v>
       </c>
       <c r="E28" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="F28">
         <v>300264330</v>
@@ -9582,7 +9574,7 @@
         <v>1438</v>
       </c>
       <c r="D28" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E28">
         <v>300386629</v>
@@ -10401,7 +10393,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>615</v>
       </c>
@@ -10418,7 +10410,7 @@
         <v>300011015</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>617</v>
       </c>
@@ -10435,7 +10427,7 @@
         <v>300011176</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>619</v>
       </c>
@@ -10542,7 +10534,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>635</v>
       </c>
@@ -10559,7 +10551,7 @@
         <v>300011176</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>637</v>
       </c>
@@ -10632,7 +10624,7 @@
         <v>300011002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>647</v>
       </c>
@@ -10649,7 +10641,7 @@
         <v>300011857</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>649</v>
       </c>
@@ -10666,7 +10658,7 @@
         <v>300235507</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>651</v>
       </c>
@@ -10683,7 +10675,7 @@
         <v>300011020</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>653</v>
       </c>
@@ -10728,7 +10720,7 @@
         <v>300011914</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>659</v>
       </c>
@@ -10745,7 +10737,7 @@
         <v>300011443</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>661</v>
       </c>
@@ -10773,7 +10765,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>665</v>
       </c>
@@ -10790,7 +10782,7 @@
         <v>300163347</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>667</v>
       </c>
@@ -10841,7 +10833,7 @@
         <v>300011914</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>673</v>
       </c>
@@ -10858,7 +10850,7 @@
         <v>300014436</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>675</v>
       </c>
@@ -10875,7 +10867,7 @@
         <v>300014546</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>676</v>
       </c>
@@ -10892,7 +10884,7 @@
         <v>300010662</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>678</v>
       </c>
@@ -10926,7 +10918,7 @@
         <v>300010822</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>682</v>
       </c>
@@ -10954,7 +10946,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>686</v>
       </c>
@@ -11016,7 +11008,7 @@
         <v>300014585</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>693</v>
       </c>
@@ -11033,7 +11025,7 @@
         <v>300011176</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>695</v>
       </c>
@@ -11050,7 +11042,7 @@
         <v>300011176</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>697</v>
       </c>
@@ -11089,7 +11081,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>703</v>
       </c>
@@ -11117,7 +11109,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>707</v>
       </c>
@@ -11145,7 +11137,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>711</v>
       </c>
@@ -11162,7 +11154,7 @@
         <v>300010957</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>712</v>
       </c>
@@ -11182,7 +11174,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>713</v>
       </c>
@@ -11199,7 +11191,7 @@
         <v>300014078</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>715</v>
       </c>
@@ -11233,7 +11225,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>719</v>
       </c>
@@ -11250,7 +11242,7 @@
         <v>300014910</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>721</v>
       </c>
@@ -11278,7 +11270,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>725</v>
       </c>
@@ -11329,7 +11321,7 @@
         <v>300014109</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="156" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
         <v>731</v>
       </c>
@@ -11349,7 +11341,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>731</v>
       </c>
@@ -11386,7 +11378,7 @@
         <v>300011914</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
         <v>734</v>
       </c>
@@ -11426,7 +11418,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>735</v>
       </c>
@@ -11451,7 +11443,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>738</v>
       </c>
@@ -11468,7 +11460,7 @@
         <v>300014143</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>740</v>
       </c>
@@ -11485,7 +11477,7 @@
         <v>300231565</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>742</v>
       </c>
@@ -11502,7 +11494,7 @@
         <v>300435274</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>744</v>
       </c>
@@ -11593,7 +11585,7 @@
         <v>300014570</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>751</v>
       </c>
@@ -11627,7 +11619,7 @@
         <v>300011845</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>755</v>
       </c>
@@ -11678,7 +11670,7 @@
         <v>300014109</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>761</v>
       </c>
@@ -11698,7 +11690,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>762</v>
       </c>
@@ -11754,7 +11746,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>769</v>
       </c>
@@ -11771,7 +11763,7 @@
         <v>300014657</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>771</v>
       </c>
@@ -11822,7 +11814,7 @@
         <v>300014109</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>777</v>
       </c>
@@ -11839,7 +11831,7 @@
         <v>300011851</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>779</v>
       </c>
@@ -11958,7 +11950,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>791</v>
       </c>
@@ -11975,7 +11967,7 @@
         <v>300014206</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>793</v>
       </c>
@@ -12043,7 +12035,7 @@
         <v>300012849</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>800</v>
       </c>
@@ -12130,7 +12122,7 @@
         <v>300011037</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>809</v>
       </c>
@@ -12221,7 +12213,7 @@
         <v>300138699</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>816</v>
       </c>
@@ -12238,7 +12230,7 @@
         <v>300011729</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>818</v>
       </c>
@@ -12255,7 +12247,7 @@
         <v>300179099</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>820</v>
       </c>
@@ -12306,7 +12298,7 @@
         <v>300022413</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>826</v>
       </c>
@@ -12357,7 +12349,7 @@
         <v>300053277</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>832</v>
       </c>
@@ -12374,7 +12366,7 @@
         <v>300022439</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>834</v>
       </c>
@@ -12408,7 +12400,7 @@
         <v>300230810</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>838</v>
       </c>
@@ -12425,7 +12417,7 @@
         <v>300015018</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>840</v>
       </c>
@@ -12459,7 +12451,7 @@
         <v>300022452</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>844</v>
       </c>
@@ -12527,7 +12519,7 @@
         <v>300080064</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>851</v>
       </c>
@@ -12651,7 +12643,7 @@
         <v>300311416</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>867</v>
       </c>
@@ -12668,7 +12660,7 @@
         <v>300054216</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>869</v>
       </c>
@@ -12685,7 +12677,7 @@
         <v>300443550</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>871</v>
       </c>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="17" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -40,6 +40,7 @@
     <sheet name="toegang_types.csv" sheetId="24" r:id="rId26"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">document_types.csv!$A$1:$G$75</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">materiaal_types.csv!$A$1:$F$145</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">techniek_types.csv!$A$1:$F$162</definedName>
     <definedName name="annotatie_types" localSheetId="2">annotatie_types.csv!$A$1:$B$19</definedName>
@@ -284,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2911" uniqueCount="1725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="1729">
   <si>
     <t>code</t>
   </si>
@@ -5468,15 +5469,34 @@
   </si>
   <si>
     <t>Digipolis Thesauri\Productiestadium Type\</t>
+  </si>
+  <si>
+    <t>Digipolis Thesauri\Merkteken Type\</t>
+  </si>
+  <si>
+    <t>seals (marks)</t>
+  </si>
+  <si>
+    <t>gedrukt merk</t>
+  </si>
+  <si>
+    <t>signatures (names)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5530,7 +5550,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -5538,19 +5558,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5570,7 +5605,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5578,6 +5613,12 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -6504,11 +6545,14 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7697,6 +7741,15 @@
       <c r="B73" t="s">
         <v>298</v>
       </c>
+      <c r="C73" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E73">
+        <v>300417667</v>
+      </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -7705,6 +7758,12 @@
       <c r="B74" t="s">
         <v>300</v>
       </c>
+      <c r="C74" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1727</v>
+      </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
@@ -7712,6 +7771,15 @@
       </c>
       <c r="B75" t="s">
         <v>302</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1725</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E75">
+        <v>300028705</v>
       </c>
     </row>
   </sheetData>
@@ -9114,8 +9182,8 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10346,9 +10414,9 @@
   </sheetPr>
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C109" sqref="C109:E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11442,6 +11510,15 @@
       <c r="B69" s="6" t="s">
         <v>648</v>
       </c>
+      <c r="C69" s="6" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>1519</v>
+      </c>
+      <c r="E69" s="6">
+        <v>300011857</v>
+      </c>
     </row>
     <row r="70" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
@@ -11686,9 +11763,7 @@
       <c r="E83" s="8">
         <v>300011443</v>
       </c>
-      <c r="F83" s="11" t="s">
-        <v>1329</v>
-      </c>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
@@ -12080,7 +12155,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>805</v>
       </c>
@@ -12097,12 +12172,21 @@
         <v>300014184</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>807</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>646</v>
+      </c>
+      <c r="C109" s="19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E109" s="20">
+        <v>300011002</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
@@ -12726,8 +12810,8 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13227,10 +13311,10 @@
         <v>1445</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E54" s="7" t="s">
         <v>1458</v>
+      </c>
+      <c r="E54" s="6">
+        <v>300053241</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="17" activeTab="18"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="17" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -62,7 +62,7 @@
     <definedName name="materiaal_types" localSheetId="18">materiaal_types.csv!$A$1:$B$145</definedName>
     <definedName name="numberofpages_qualifier_types" localSheetId="19">numberofpages_qualifier_types.c!$A$1:$B$2</definedName>
     <definedName name="object_types" localSheetId="20">object_types.csv!$A$1:$B$86</definedName>
-    <definedName name="record_types" localSheetId="21">'record_types.csv'!$A$1:$B$21</definedName>
+    <definedName name="record_types" localSheetId="21">'record_types.csv'!$A$1:$A$21</definedName>
     <definedName name="schrijftechniek_types" localSheetId="22">schrijftechniek_types.csv!$A$1:$B$6</definedName>
     <definedName name="taal_types" localSheetId="23">taal_types.csv!$A$1:$B$17</definedName>
     <definedName name="techniek_types" localSheetId="1">techniek_types.csv!$A$1:$B$162</definedName>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2919" uniqueCount="1729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="1736">
   <si>
     <t>code</t>
   </si>
@@ -5261,9 +5261,6 @@
     <t>Aquarellen</t>
   </si>
   <si>
-    <t>Audiovisuele materialen</t>
-  </si>
-  <si>
     <t>Beeldhouwwerken</t>
   </si>
   <si>
@@ -5297,12 +5294,6 @@
     <t>Foto's</t>
   </si>
   <si>
-    <t>Houtblokken</t>
-  </si>
-  <si>
-    <t>Koperplaten</t>
-  </si>
-  <si>
     <t>books</t>
   </si>
   <si>
@@ -5481,22 +5472,45 @@
   </si>
   <si>
     <t>signatures (names)</t>
+  </si>
+  <si>
+    <t>transparencies</t>
+  </si>
+  <si>
+    <t>infrared photography</t>
+  </si>
+  <si>
+    <t>proofs (printed matter)</t>
+  </si>
+  <si>
+    <t>radiographs</t>
+  </si>
+  <si>
+    <t>beschrijving</t>
+  </si>
+  <si>
+    <t>foto-album</t>
+  </si>
+  <si>
+    <t>xs</t>
+  </si>
+  <si>
+    <t>Schenker</t>
+  </si>
+  <si>
+    <t>doorslagpapier</t>
+  </si>
+  <si>
+    <t>carbon paper</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5550,27 +5564,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -5579,13 +5578,13 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5605,7 +5604,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5613,10 +5612,10 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6036,7 +6035,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6271,7 +6270,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6550,9 +6549,9 @@
   </sheetPr>
   <dimension ref="A1:G75"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6625,7 +6624,7 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D4" t="s">
         <v>1638</v>
@@ -6939,13 +6938,13 @@
         <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>1587</v>
+        <v>1721</v>
       </c>
       <c r="D23" t="s">
-        <v>1404</v>
+        <v>1614</v>
       </c>
       <c r="E23">
-        <v>300026879</v>
+        <v>300026931</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -7041,7 +7040,7 @@
         <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>1724</v>
+        <v>1721</v>
       </c>
       <c r="D29" t="s">
         <v>1614</v>
@@ -7058,10 +7057,10 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D30" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="E30">
         <v>300026487</v>
@@ -7386,10 +7385,10 @@
         <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D50" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="E50">
         <v>300049060</v>
@@ -7406,7 +7405,7 @@
         <v>1445</v>
       </c>
       <c r="D51" t="s">
-        <v>1706</v>
+        <v>1703</v>
       </c>
       <c r="E51">
         <v>300252927</v>
@@ -7423,7 +7422,7 @@
         <v>1445</v>
       </c>
       <c r="D52" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="E52">
         <v>300247929</v>
@@ -7440,7 +7439,7 @@
         <v>1445</v>
       </c>
       <c r="D53" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="E53">
         <v>300053319</v>
@@ -7536,10 +7535,10 @@
         <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D59" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E59">
         <v>300404333</v>
@@ -7553,10 +7552,10 @@
         <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D60" t="s">
-        <v>1705</v>
+        <v>1702</v>
       </c>
       <c r="E60">
         <v>300404333</v>
@@ -7573,7 +7572,7 @@
         <v>1445</v>
       </c>
       <c r="D61" t="s">
-        <v>1707</v>
+        <v>1704</v>
       </c>
       <c r="E61">
         <v>300247929</v>
@@ -7587,10 +7586,10 @@
         <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D62" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7601,10 +7600,10 @@
         <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D63" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7615,10 +7614,10 @@
         <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D64" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7629,10 +7628,10 @@
         <v>284</v>
       </c>
       <c r="C65" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D65" t="s">
-        <v>1702</v>
+        <v>1699</v>
       </c>
       <c r="E65">
         <v>300266791</v>
@@ -7646,10 +7645,10 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D66" t="s">
-        <v>1703</v>
+        <v>1700</v>
       </c>
       <c r="E66">
         <v>300136847</v>
@@ -7663,7 +7662,7 @@
         <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="D67" t="s">
         <v>1408</v>
@@ -7680,10 +7679,10 @@
         <v>290</v>
       </c>
       <c r="C68" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D68" t="s">
         <v>1701</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1704</v>
       </c>
       <c r="E68">
         <v>300028467</v>
@@ -7700,7 +7699,7 @@
         <v>1445</v>
       </c>
       <c r="D70" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="E70">
         <v>300053319</v>
@@ -7717,7 +7716,7 @@
         <v>1445</v>
       </c>
       <c r="D71" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="E71">
         <v>300374824</v>
@@ -7742,10 +7741,10 @@
         <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="D73" t="s">
-        <v>1726</v>
+        <v>1723</v>
       </c>
       <c r="E73">
         <v>300417667</v>
@@ -7759,10 +7758,10 @@
         <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="D74" t="s">
-        <v>1727</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7773,10 +7772,10 @@
         <v>302</v>
       </c>
       <c r="C75" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D75" t="s">
         <v>1725</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1728</v>
       </c>
       <c r="E75">
         <v>300028705</v>
@@ -7784,6 +7783,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7795,7 +7795,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8117,6 +8117,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8181,7 +8182,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8218,10 +8219,10 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D2" t="s">
-        <v>1714</v>
+        <v>1711</v>
       </c>
       <c r="E2">
         <v>300128366</v>
@@ -8235,10 +8236,10 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D3" t="s">
-        <v>1715</v>
+        <v>1712</v>
       </c>
       <c r="E3">
         <v>300128357</v>
@@ -8252,10 +8253,10 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D4" t="s">
         <v>1713</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1716</v>
       </c>
       <c r="E4">
         <v>300128359</v>
@@ -8269,10 +8270,10 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D5" t="s">
-        <v>1717</v>
+        <v>1714</v>
       </c>
       <c r="E5">
         <v>300127181</v>
@@ -8286,7 +8287,7 @@
         <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8297,10 +8298,10 @@
         <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D7" t="s">
-        <v>1718</v>
+        <v>1715</v>
       </c>
       <c r="E7">
         <v>300265083</v>
@@ -8314,10 +8315,10 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D8" t="s">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="E8">
         <v>300115233</v>
@@ -8331,10 +8332,10 @@
         <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D9" t="s">
-        <v>1720</v>
+        <v>1717</v>
       </c>
       <c r="E9">
         <v>300128374</v>
@@ -8348,10 +8349,10 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D10" t="s">
-        <v>1721</v>
+        <v>1718</v>
       </c>
       <c r="E10">
         <v>300128343</v>
@@ -8365,21 +8366,24 @@
         <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D11" t="s">
-        <v>1722</v>
+        <v>1719</v>
       </c>
       <c r="E11">
         <v>300128347</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>1731</v>
+      </c>
       <c r="C12" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="D12" t="s">
-        <v>1723</v>
+        <v>1720</v>
       </c>
       <c r="E12">
         <v>300026695</v>
@@ -8387,6 +8391,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8395,7 +8400,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8437,10 +8442,10 @@
         <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E2" t="s">
-        <v>1700</v>
+        <v>1697</v>
       </c>
       <c r="F2">
         <v>300026710</v>
@@ -8454,7 +8459,7 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E3" t="s">
         <v>1622</v>
@@ -8802,10 +8807,10 @@
         <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E24" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="F24">
         <v>300027200</v>
@@ -8819,7 +8824,7 @@
         <v>415</v>
       </c>
       <c r="D25" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E25" t="s">
         <v>1629</v>
@@ -8836,10 +8841,10 @@
         <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E26" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="F26">
         <v>300264354</v>
@@ -8870,10 +8875,10 @@
         <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E28" t="s">
-        <v>1708</v>
+        <v>1705</v>
       </c>
       <c r="F28">
         <v>300264330</v>
@@ -8918,10 +8923,10 @@
         <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="E31" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="F31">
         <v>300027267</v>
@@ -9180,10 +9185,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:E9"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9642,7 +9647,7 @@
         <v>1438</v>
       </c>
       <c r="D28" t="s">
-        <v>1709</v>
+        <v>1706</v>
       </c>
       <c r="E28">
         <v>300386629</v>
@@ -9710,7 +9715,7 @@
         <v>300137375</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>275</v>
       </c>
@@ -9727,7 +9732,7 @@
         <v>300025492</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>533</v>
       </c>
@@ -9744,7 +9749,7 @@
         <v>300025574</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>422</v>
       </c>
@@ -9761,7 +9766,7 @@
         <v>300443565</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>536</v>
       </c>
@@ -9778,7 +9783,7 @@
         <v>300311841</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>538</v>
       </c>
@@ -9792,7 +9797,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>281</v>
       </c>
@@ -9809,7 +9814,7 @@
         <v>300025601</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>541</v>
       </c>
@@ -9826,8 +9831,20 @@
         <v>300417530</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1329</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9839,7 +9856,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10404,6 +10421,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10412,11 +10430,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G145"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C109" sqref="C109:E109"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B146" sqref="B146:E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12155,7 +12173,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>805</v>
       </c>
@@ -12172,20 +12190,20 @@
         <v>300014184</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>807</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>646</v>
       </c>
-      <c r="C109" s="19" t="s">
+      <c r="C109" s="7" t="s">
         <v>1549</v>
       </c>
-      <c r="D109" s="19" t="s">
+      <c r="D109" s="7" t="s">
         <v>1517</v>
       </c>
-      <c r="E109" s="20">
+      <c r="E109" s="8">
         <v>300011002</v>
       </c>
     </row>
@@ -12793,6 +12811,20 @@
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B146" s="11" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D146" s="19" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E146" s="20">
+        <v>300014156</v>
       </c>
     </row>
   </sheetData>
@@ -12810,8 +12842,8 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A135" sqref="A135"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14992,8 +15024,8 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15065,6 +15097,15 @@
       <c r="B4" t="s">
         <v>881</v>
       </c>
+      <c r="C4" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1404</v>
+      </c>
+      <c r="E4">
+        <v>300026879</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -15111,7 +15152,7 @@
         <v>1621</v>
       </c>
       <c r="D7" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E7">
         <v>300028051</v>
@@ -15187,13 +15228,13 @@
         <v>895</v>
       </c>
       <c r="C12" t="s">
-        <v>1587</v>
+        <v>1721</v>
       </c>
       <c r="D12" t="s">
-        <v>1407</v>
+        <v>1728</v>
       </c>
       <c r="E12">
-        <v>300028569</v>
+        <v>300264639</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -15221,13 +15262,13 @@
         <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>1587</v>
+        <v>1698</v>
       </c>
       <c r="D14" t="s">
-        <v>1405</v>
+        <v>1700</v>
       </c>
       <c r="E14">
-        <v>300026030</v>
+        <v>300136847</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -15255,10 +15296,10 @@
         <v>901</v>
       </c>
       <c r="C16" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D16" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="E16">
         <v>300049060</v>
@@ -15271,6 +15312,15 @@
       <c r="B17" t="s">
         <v>903</v>
       </c>
+      <c r="C17" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1466</v>
+      </c>
+      <c r="E17">
+        <v>300053225</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -15296,6 +15346,15 @@
       <c r="B19" t="s">
         <v>906</v>
       </c>
+      <c r="C19" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E19">
+        <v>300053463</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -15308,7 +15367,7 @@
         <v>1621</v>
       </c>
       <c r="D20" t="s">
-        <v>1686</v>
+        <v>1683</v>
       </c>
       <c r="E20">
         <v>300048715</v>
@@ -15322,13 +15381,13 @@
         <v>910</v>
       </c>
       <c r="C21" t="s">
-        <v>1587</v>
+        <v>1721</v>
       </c>
       <c r="D21" t="s">
-        <v>1404</v>
+        <v>1614</v>
       </c>
       <c r="E21">
-        <v>300026879</v>
+        <v>300026931</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -15378,10 +15437,10 @@
         <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D25" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E25">
         <v>300264354</v>
@@ -15395,10 +15454,10 @@
         <v>919</v>
       </c>
       <c r="C26" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D26" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E26">
         <v>300027200</v>
@@ -15440,13 +15499,13 @@
         <v>924</v>
       </c>
       <c r="C29" t="s">
-        <v>1587</v>
+        <v>1721</v>
       </c>
       <c r="D29" t="s">
-        <v>1407</v>
+        <v>1728</v>
       </c>
       <c r="E29">
-        <v>300028569</v>
+        <v>300264639</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
@@ -15499,7 +15558,7 @@
         <v>1621</v>
       </c>
       <c r="D33" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E33">
         <v>300027264</v>
@@ -15513,10 +15572,10 @@
         <v>933</v>
       </c>
       <c r="C34" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D34" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E34">
         <v>300311954</v>
@@ -15529,6 +15588,15 @@
       <c r="B35" t="s">
         <v>935</v>
       </c>
+      <c r="C35" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E35">
+        <v>300134722</v>
+      </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -15541,7 +15609,7 @@
         <v>1621</v>
       </c>
       <c r="D36" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="E36">
         <v>300145802</v>
@@ -15566,10 +15634,10 @@
         <v>941</v>
       </c>
       <c r="C38" t="s">
-        <v>1674</v>
+        <v>1671</v>
       </c>
       <c r="D38" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E38">
         <v>300027200</v>
@@ -15608,7 +15676,7 @@
         <v>1621</v>
       </c>
       <c r="D41" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E41">
         <v>300026096</v>
@@ -15649,6 +15717,15 @@
       <c r="B44" t="s">
         <v>952</v>
       </c>
+      <c r="C44" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E44">
+        <v>300127478</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
@@ -15661,7 +15738,7 @@
         <v>1621</v>
       </c>
       <c r="D45" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E45">
         <v>300026657</v>
@@ -15675,13 +15752,13 @@
         <v>956</v>
       </c>
       <c r="C46" t="s">
-        <v>1621</v>
+        <v>1445</v>
       </c>
       <c r="D46" t="s">
-        <v>1694</v>
+        <v>1704</v>
       </c>
       <c r="E46">
-        <v>300026068</v>
+        <v>300247929</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -15695,7 +15772,7 @@
         <v>1607</v>
       </c>
       <c r="D47" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="E47">
         <v>300027083</v>
@@ -15712,7 +15789,7 @@
         <v>1621</v>
       </c>
       <c r="D48" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="E48">
         <v>300026068</v>
@@ -15757,7 +15834,7 @@
         <v>1621</v>
       </c>
       <c r="D51" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E51">
         <v>300026074</v>
@@ -15770,6 +15847,9 @@
       <c r="B52" t="s">
         <v>968</v>
       </c>
+      <c r="F52" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
@@ -15778,6 +15858,9 @@
       <c r="B53" t="s">
         <v>970</v>
       </c>
+      <c r="F53" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
@@ -15786,6 +15869,9 @@
       <c r="B54" t="s">
         <v>972</v>
       </c>
+      <c r="F54" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
@@ -15794,6 +15880,9 @@
       <c r="B55" t="s">
         <v>974</v>
       </c>
+      <c r="F55" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
@@ -15802,6 +15891,9 @@
       <c r="B56" t="s">
         <v>976</v>
       </c>
+      <c r="F56" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
@@ -15810,6 +15902,9 @@
       <c r="B57" t="s">
         <v>978</v>
       </c>
+      <c r="F57" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
@@ -15818,6 +15913,9 @@
       <c r="B58" t="s">
         <v>972</v>
       </c>
+      <c r="F58" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
@@ -15826,6 +15924,9 @@
       <c r="B59" t="s">
         <v>976</v>
       </c>
+      <c r="F59" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
@@ -15834,6 +15935,15 @@
       <c r="B60" t="s">
         <v>978</v>
       </c>
+      <c r="C60" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E60">
+        <v>300027388</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
@@ -15842,6 +15952,9 @@
       <c r="B61" t="s">
         <v>972</v>
       </c>
+      <c r="F61" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -15850,6 +15963,9 @@
       <c r="B62" t="s">
         <v>976</v>
       </c>
+      <c r="F62" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -16083,7 +16199,7 @@
         <v>1588</v>
       </c>
       <c r="D76" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="E76">
         <v>300215545</v>
@@ -16236,7 +16352,7 @@
         <v>1588</v>
       </c>
       <c r="D85" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="E85">
         <v>300224230</v>
@@ -16261,21 +16377,21 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="C87" t="s">
         <v>1588</v>
       </c>
       <c r="D87" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="E87">
-        <v>300046230</v>
+        <v>300257199</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="C88" t="s">
         <v>1588</v>
@@ -16284,46 +16400,46 @@
         <v>1680</v>
       </c>
       <c r="E88">
-        <v>300046227</v>
+        <v>300262254</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>1681</v>
+        <v>1673</v>
       </c>
       <c r="C89" t="s">
         <v>1588</v>
       </c>
       <c r="D89" t="s">
-        <v>1682</v>
+        <v>1674</v>
       </c>
       <c r="E89">
-        <v>300257199</v>
+        <v>300046230</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>1684</v>
+        <v>1676</v>
       </c>
       <c r="C90" t="s">
         <v>1588</v>
       </c>
       <c r="D90" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
       <c r="E90">
-        <v>300262254</v>
+        <v>300046227</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="C91" t="s">
         <v>1621</v>
       </c>
       <c r="D91" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E91">
         <v>300193993</v>
@@ -16342,13 +16458,13 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="10.59765625" customWidth="1"/>
     <col min="3" max="3" width="28.8984375" customWidth="1"/>
     <col min="4" max="4" width="11.19921875" customWidth="1"/>
   </cols>
@@ -16375,10 +16491,10 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B2" t="s">
         <v>1030</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1031</v>
       </c>
       <c r="C2" t="s">
         <v>1439</v>
@@ -16389,10 +16505,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B3" t="s">
         <v>1032</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1033</v>
       </c>
       <c r="C3" t="s">
         <v>1439</v>
@@ -16403,200 +16519,197 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>480</v>
+      </c>
+      <c r="B4" t="s">
         <v>1034</v>
       </c>
-      <c r="B4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1439</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1655</v>
+      <c r="F4" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B5" t="s">
         <v>189</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1035</v>
       </c>
       <c r="C5" t="s">
         <v>1439</v>
       </c>
       <c r="D5" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B6" t="s">
         <v>1036</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1037</v>
       </c>
       <c r="C6" t="s">
         <v>1439</v>
       </c>
       <c r="D6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B7" t="s">
         <v>1036</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1038</v>
       </c>
       <c r="C7" t="s">
         <v>1439</v>
       </c>
       <c r="D7" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8" t="s">
         <v>1039</v>
-      </c>
-      <c r="B8" t="s">
-        <v>505</v>
       </c>
       <c r="C8" t="s">
         <v>1439</v>
       </c>
       <c r="D8" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B9" t="s">
         <v>733</v>
       </c>
-      <c r="B9" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1667</v>
+      <c r="F9" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>256</v>
+      </c>
+      <c r="B10" t="s">
         <v>296</v>
-      </c>
-      <c r="B10" t="s">
-        <v>256</v>
       </c>
       <c r="C10" t="s">
         <v>1439</v>
       </c>
       <c r="D10" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B11" t="s">
         <v>296</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1041</v>
       </c>
       <c r="C11" t="s">
         <v>1439</v>
       </c>
       <c r="D11" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B12" t="s">
         <v>743</v>
       </c>
-      <c r="B12" t="s">
-        <v>1042</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1668</v>
+      <c r="F12" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B13" t="s">
         <v>1043</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1044</v>
       </c>
       <c r="C13" t="s">
         <v>1439</v>
       </c>
       <c r="D13" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B14" t="s">
         <v>1045</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1046</v>
       </c>
       <c r="C14" t="s">
         <v>1439</v>
       </c>
       <c r="D14" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" t="s">
         <v>288</v>
-      </c>
-      <c r="B15" t="s">
-        <v>287</v>
       </c>
       <c r="C15" t="s">
         <v>1439</v>
       </c>
       <c r="D15" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B16" t="s">
         <v>288</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1047</v>
       </c>
       <c r="C16" t="s">
         <v>1439</v>
       </c>
       <c r="D16" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>260</v>
+      </c>
+      <c r="B17" t="s">
         <v>1048</v>
-      </c>
-      <c r="B17" t="s">
-        <v>260</v>
       </c>
       <c r="C17" t="s">
         <v>1439</v>
       </c>
       <c r="D17" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B18" t="s">
         <v>1049</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1050</v>
       </c>
       <c r="C18" t="s">
         <v>1439</v>
@@ -16607,10 +16720,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B19" t="s">
         <v>1051</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1052</v>
       </c>
       <c r="C19" t="s">
         <v>1439</v>
@@ -16621,30 +16734,30 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B20" t="s">
         <v>1045</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1053</v>
       </c>
       <c r="C20" t="s">
         <v>1439</v>
       </c>
       <c r="D20" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B21" t="s">
         <v>950</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1054</v>
       </c>
       <c r="C21" t="s">
         <v>1439</v>
       </c>
       <c r="D21" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
   </sheetData>
@@ -17305,7 +17418,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17449,7 +17562,7 @@
         <v>1397</v>
       </c>
       <c r="D8" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -17651,24 +17764,24 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="C22" t="s">
         <v>1397</v>
       </c>
       <c r="D22" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
       <c r="C23" t="s">
         <v>1397</v>
       </c>
       <c r="D23" t="s">
-        <v>1671</v>
+        <v>1668</v>
       </c>
     </row>
   </sheetData>
@@ -18334,10 +18447,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B6" sqref="B6:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18408,6 +18521,25 @@
       </c>
       <c r="F5" t="s">
         <v>1329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D6">
+        <v>300435416</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1362</v>
       </c>
     </row>
   </sheetData>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="17" activeTab="21"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="14" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1737">
   <si>
     <t>code</t>
   </si>
@@ -4653,9 +4653,6 @@
   </si>
   <si>
     <t>collagraph printing</t>
-  </si>
-  <si>
-    <t>Droge naald</t>
   </si>
   <si>
     <t>drypoint (printing process)</t>
@@ -5417,9 +5414,6 @@
     <t>writers (clerical workers)</t>
   </si>
   <si>
-    <t>verbeterd</t>
-  </si>
-  <si>
     <t>printing (process)</t>
   </si>
   <si>
@@ -5502,6 +5496,15 @@
   </si>
   <si>
     <t>carbon paper</t>
+  </si>
+  <si>
+    <t>verbeterde drukproef</t>
+  </si>
+  <si>
+    <t>verbeterde druk</t>
+  </si>
+  <si>
+    <t>verbeterd typoscript</t>
   </si>
 </sst>
 </file>
@@ -6270,7 +6273,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6550,8 +6553,8 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6590,7 +6593,7 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D2" t="s">
         <v>1403</v>
@@ -6607,10 +6610,10 @@
         <v>165</v>
       </c>
       <c r="C3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D3" t="s">
         <v>1636</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1637</v>
       </c>
       <c r="E3">
         <v>300250949</v>
@@ -6624,10 +6627,10 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D4" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E4">
         <v>300312154</v>
@@ -6641,10 +6644,10 @@
         <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D5" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E5">
         <v>300026676</v>
@@ -6658,10 +6661,10 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D6" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E6">
         <v>300027573</v>
@@ -6675,10 +6678,10 @@
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D7" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E7">
         <v>300027621</v>
@@ -6692,10 +6695,10 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D8" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E8">
         <v>300027392</v>
@@ -6709,10 +6712,10 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D9" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E9">
         <v>300027527</v>
@@ -6726,10 +6729,10 @@
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D10" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E10">
         <v>300027621</v>
@@ -6743,10 +6746,10 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D11" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6757,10 +6760,10 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D12" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="E12">
         <v>300027764</v>
@@ -6774,10 +6777,10 @@
         <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D13" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E13">
         <v>300026925</v>
@@ -6791,10 +6794,10 @@
         <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="D14" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E14">
         <v>300201447</v>
@@ -6808,7 +6811,7 @@
         <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D15" t="s">
         <v>1404</v>
@@ -6825,10 +6828,10 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D16" t="s">
         <v>1607</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1608</v>
       </c>
       <c r="E16">
         <v>300026816</v>
@@ -6842,10 +6845,10 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D17" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E17">
         <v>300026882</v>
@@ -6859,10 +6862,10 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D18" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E18">
         <v>300026114</v>
@@ -6876,10 +6879,10 @@
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D19" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E19">
         <v>300149026</v>
@@ -6893,10 +6896,10 @@
         <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D20" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E20">
         <v>300240262</v>
@@ -6910,10 +6913,10 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D21" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E21">
         <v>300026778</v>
@@ -6938,10 +6941,10 @@
         <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D23" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E23">
         <v>300026931</v>
@@ -6955,10 +6958,10 @@
         <v>205</v>
       </c>
       <c r="C24" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D24" t="s">
         <v>1607</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1608</v>
       </c>
       <c r="E24">
         <v>300026816</v>
@@ -6972,10 +6975,10 @@
         <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D25" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E25">
         <v>300026819</v>
@@ -6989,10 +6992,10 @@
         <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D26" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E26">
         <v>300026909</v>
@@ -7006,10 +7009,10 @@
         <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D27" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E27">
         <v>300400813</v>
@@ -7023,10 +7026,10 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D28" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E28">
         <v>300026823</v>
@@ -7040,10 +7043,10 @@
         <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D29" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E29">
         <v>300026931</v>
@@ -7057,10 +7060,10 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D30" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E30">
         <v>300026487</v>
@@ -7085,7 +7088,7 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D32" t="s">
         <v>1405</v>
@@ -7094,7 +7097,7 @@
         <v>300026030</v>
       </c>
       <c r="G32" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -7105,7 +7108,7 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D33" t="s">
         <v>1406</v>
@@ -7114,7 +7117,7 @@
         <v>300026942</v>
       </c>
       <c r="G33" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -7125,10 +7128,10 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D34" t="s">
         <v>1621</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1622</v>
       </c>
       <c r="E34">
         <v>300027473</v>
@@ -7142,10 +7145,10 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D35" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E35">
         <v>300212274</v>
@@ -7159,10 +7162,10 @@
         <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D36" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E36">
         <v>300026676</v>
@@ -7176,10 +7179,10 @@
         <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D37" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E37">
         <v>300026799</v>
@@ -7193,10 +7196,10 @@
         <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D38" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E38">
         <v>300026756</v>
@@ -7210,10 +7213,10 @@
         <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D39" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E39">
         <v>300026867</v>
@@ -7227,10 +7230,10 @@
         <v>235</v>
       </c>
       <c r="C40" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D40" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E40">
         <v>300212274</v>
@@ -7244,10 +7247,10 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D41" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E41">
         <v>300026432</v>
@@ -7261,10 +7264,10 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D42" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E42">
         <v>300255378</v>
@@ -7278,10 +7281,10 @@
         <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D43" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E43">
         <v>300026424</v>
@@ -7295,10 +7298,10 @@
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D44" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E44">
         <v>300027191</v>
@@ -7312,10 +7315,10 @@
         <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D45" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="E45">
         <v>300026443</v>
@@ -7329,10 +7332,10 @@
         <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D46" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E46">
         <v>300262918</v>
@@ -7368,10 +7371,10 @@
         <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D49" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E49">
         <v>300027240</v>
@@ -7385,10 +7388,10 @@
         <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D50" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E50">
         <v>300049060</v>
@@ -7405,7 +7408,7 @@
         <v>1445</v>
       </c>
       <c r="D51" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E51">
         <v>300252927</v>
@@ -7422,7 +7425,7 @@
         <v>1445</v>
       </c>
       <c r="D52" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E52">
         <v>300247929</v>
@@ -7439,7 +7442,7 @@
         <v>1445</v>
       </c>
       <c r="D53" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E53">
         <v>300053319</v>
@@ -7453,10 +7456,10 @@
         <v>263</v>
       </c>
       <c r="C54" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D54" t="s">
         <v>1647</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1648</v>
       </c>
       <c r="E54">
         <v>300026693</v>
@@ -7470,10 +7473,10 @@
         <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D55" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="E55">
         <v>300027489</v>
@@ -7487,10 +7490,10 @@
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D56" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="E56">
         <v>300027496</v>
@@ -7504,10 +7507,10 @@
         <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D57" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="E57">
         <v>300027045</v>
@@ -7521,10 +7524,10 @@
         <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D58" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7535,10 +7538,10 @@
         <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D59" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E59">
         <v>300404333</v>
@@ -7552,10 +7555,10 @@
         <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D60" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E60">
         <v>300404333</v>
@@ -7572,7 +7575,7 @@
         <v>1445</v>
       </c>
       <c r="D61" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E61">
         <v>300247929</v>
@@ -7586,10 +7589,10 @@
         <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D62" t="s">
-        <v>1707</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7600,10 +7603,10 @@
         <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D63" t="s">
-        <v>1707</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7614,10 +7617,10 @@
         <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D64" t="s">
-        <v>1707</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7628,10 +7631,10 @@
         <v>284</v>
       </c>
       <c r="C65" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D65" t="s">
         <v>1698</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1699</v>
       </c>
       <c r="E65">
         <v>300266791</v>
@@ -7645,10 +7648,10 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D66" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E66">
         <v>300136847</v>
@@ -7662,7 +7665,7 @@
         <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D67" t="s">
         <v>1408</v>
@@ -7679,10 +7682,10 @@
         <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D68" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E68">
         <v>300028467</v>
@@ -7699,7 +7702,7 @@
         <v>1445</v>
       </c>
       <c r="D70" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E70">
         <v>300053319</v>
@@ -7716,7 +7719,7 @@
         <v>1445</v>
       </c>
       <c r="D71" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="E71">
         <v>300374824</v>
@@ -7741,10 +7744,10 @@
         <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D73" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E73">
         <v>300417667</v>
@@ -7758,10 +7761,10 @@
         <v>300</v>
       </c>
       <c r="C74" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D74" t="s">
         <v>1722</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7772,10 +7775,10 @@
         <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="D75" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E75">
         <v>300028705</v>
@@ -8219,10 +8222,10 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D2" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="E2">
         <v>300128366</v>
@@ -8236,10 +8239,10 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D3" t="s">
         <v>1710</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1712</v>
       </c>
       <c r="E3">
         <v>300128357</v>
@@ -8253,10 +8256,10 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D4" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E4">
         <v>300128359</v>
@@ -8270,10 +8273,10 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D5" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="E5">
         <v>300127181</v>
@@ -8287,7 +8290,7 @@
         <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8298,10 +8301,10 @@
         <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D7" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E7">
         <v>300265083</v>
@@ -8315,10 +8318,10 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D8" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="E8">
         <v>300115233</v>
@@ -8332,10 +8335,10 @@
         <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D9" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="E9">
         <v>300128374</v>
@@ -8349,10 +8352,10 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D10" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="E10">
         <v>300128343</v>
@@ -8366,10 +8369,10 @@
         <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D11" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="E11">
         <v>300128347</v>
@@ -8377,13 +8380,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="C12" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D12" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="E12">
         <v>300026695</v>
@@ -8442,10 +8445,10 @@
         <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E2" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F2">
         <v>300026710</v>
@@ -8459,10 +8462,10 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F3">
         <v>300027473</v>
@@ -8476,10 +8479,10 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E4" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8490,10 +8493,10 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E5" t="s">
         <v>1579</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1580</v>
       </c>
       <c r="F5">
         <v>300417554</v>
@@ -8507,7 +8510,7 @@
         <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E6" t="s">
         <v>1384</v>
@@ -8524,7 +8527,7 @@
         <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E7" t="s">
         <v>1384</v>
@@ -8541,7 +8544,7 @@
         <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E8" t="s">
         <v>1385</v>
@@ -8558,7 +8561,7 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E9" t="s">
         <v>1386</v>
@@ -8575,7 +8578,7 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E10" t="s">
         <v>1387</v>
@@ -8592,7 +8595,7 @@
         <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E11" t="s">
         <v>1407</v>
@@ -8609,7 +8612,7 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E12" t="s">
         <v>1388</v>
@@ -8626,7 +8629,7 @@
         <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E13" t="s">
         <v>1407</v>
@@ -8643,7 +8646,7 @@
         <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E14" t="s">
         <v>1387</v>
@@ -8660,7 +8663,7 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E15" t="s">
         <v>1389</v>
@@ -8677,7 +8680,7 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E16" t="s">
         <v>1390</v>
@@ -8694,7 +8697,7 @@
         <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E17" t="s">
         <v>1391</v>
@@ -8711,7 +8714,7 @@
         <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E18" t="s">
         <v>1392</v>
@@ -8728,7 +8731,7 @@
         <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E19" t="s">
         <v>1393</v>
@@ -8745,7 +8748,7 @@
         <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E20" t="s">
         <v>1394</v>
@@ -8773,7 +8776,7 @@
         <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E22" t="s">
         <v>1395</v>
@@ -8790,7 +8793,7 @@
         <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="E23" t="s">
         <v>1396</v>
@@ -8807,10 +8810,10 @@
         <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E24" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="F24">
         <v>300027200</v>
@@ -8824,10 +8827,10 @@
         <v>415</v>
       </c>
       <c r="D25" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E25" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="F25">
         <v>300026427</v>
@@ -8841,10 +8844,10 @@
         <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E26" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F26">
         <v>300264354</v>
@@ -8858,10 +8861,10 @@
         <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E27" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="F27">
         <v>300055931</v>
@@ -8875,10 +8878,10 @@
         <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E28" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="F28">
         <v>300264330</v>
@@ -8892,7 +8895,7 @@
         <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E29" t="s">
         <v>1407</v>
@@ -8909,10 +8912,10 @@
         <v>425</v>
       </c>
       <c r="D30" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="E30" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8923,10 +8926,10 @@
         <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E31" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F31">
         <v>300027267</v>
@@ -9647,7 +9650,7 @@
         <v>1438</v>
       </c>
       <c r="D28" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="E28">
         <v>300386629</v>
@@ -9833,10 +9836,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="B40" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="F40" t="s">
         <v>1329</v>
@@ -10432,9 +10435,9 @@
   </sheetPr>
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B146" sqref="B146:E146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10487,10 +10490,10 @@
         <v>616</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E3" s="8">
         <v>300011015</v>
@@ -10504,10 +10507,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E4" s="14">
         <v>300011176</v>
@@ -10521,10 +10524,10 @@
         <v>620</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E5" s="8">
         <v>300010957</v>
@@ -10560,10 +10563,10 @@
         <v>626</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E8" s="8">
         <v>300011914</v>
@@ -10599,10 +10602,10 @@
         <v>632</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E11" s="8">
         <v>300011099</v>
@@ -10628,10 +10631,10 @@
         <v>636</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E13" s="14">
         <v>300011176</v>
@@ -10645,10 +10648,10 @@
         <v>638</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E14" s="8">
         <v>300010797</v>
@@ -10684,10 +10687,10 @@
         <v>644</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E17" s="8">
         <v>300011914</v>
@@ -10701,10 +10704,10 @@
         <v>646</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E18" s="8">
         <v>300011002</v>
@@ -10718,10 +10721,10 @@
         <v>648</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E19" s="8">
         <v>300011857</v>
@@ -10735,10 +10738,10 @@
         <v>650</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E20" s="8">
         <v>300235507</v>
@@ -10752,10 +10755,10 @@
         <v>652</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E21" s="8">
         <v>300011020</v>
@@ -10769,10 +10772,10 @@
         <v>654</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E22" s="8">
         <v>300014570</v>
@@ -10797,10 +10800,10 @@
         <v>658</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E24" s="8">
         <v>300011914</v>
@@ -10814,10 +10817,10 @@
         <v>660</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E25" s="8">
         <v>300011443</v>
@@ -10831,10 +10834,10 @@
         <v>662</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E26" s="8">
         <v>300011443</v>
@@ -10859,10 +10862,10 @@
         <v>666</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E28" s="8">
         <v>300163347</v>
@@ -10876,10 +10879,10 @@
         <v>668</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E29" s="8">
         <v>300014741</v>
@@ -10893,10 +10896,10 @@
         <v>670</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E30" s="8">
         <v>300011914</v>
@@ -10910,10 +10913,10 @@
         <v>672</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E31" s="8">
         <v>300011914</v>
@@ -10927,10 +10930,10 @@
         <v>674</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E32" s="8">
         <v>300014436</v>
@@ -10944,10 +10947,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E33" s="8">
         <v>300014546</v>
@@ -10961,10 +10964,10 @@
         <v>677</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E34" s="8">
         <v>300010662</v>
@@ -10978,10 +10981,10 @@
         <v>679</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E35" s="14">
         <v>300011176</v>
@@ -10995,10 +10998,10 @@
         <v>681</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E36" s="8">
         <v>300010822</v>
@@ -11012,10 +11015,10 @@
         <v>683</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E37" s="14">
         <v>300011176</v>
@@ -11040,10 +11043,10 @@
         <v>604</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E39" s="8">
         <v>300010669</v>
@@ -11057,10 +11060,10 @@
         <v>688</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E40" s="8">
         <v>300011914</v>
@@ -11085,10 +11088,10 @@
         <v>692</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E42" s="8">
         <v>300014585</v>
@@ -11102,10 +11105,10 @@
         <v>694</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E43" s="14">
         <v>300011176</v>
@@ -11119,10 +11122,10 @@
         <v>696</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E44" s="14">
         <v>300011176</v>
@@ -11136,10 +11139,10 @@
         <v>698</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E45" s="8">
         <v>300231565</v>
@@ -11175,10 +11178,10 @@
         <v>704</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E48" s="8">
         <v>300235507</v>
@@ -11203,10 +11206,10 @@
         <v>708</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E50" s="8">
         <v>300011798</v>
@@ -11231,10 +11234,10 @@
         <v>620</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E52" s="8">
         <v>300010957</v>
@@ -11248,16 +11251,16 @@
         <v>652</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E53" s="8">
         <v>300011020</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11268,10 +11271,10 @@
         <v>714</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E54" s="8">
         <v>300014078</v>
@@ -11285,16 +11288,16 @@
         <v>716</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E55" s="8">
         <v>300014078</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>717</v>
       </c>
@@ -11302,13 +11305,13 @@
         <v>718</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>718</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>1550</v>
+        <v>1549</v>
+      </c>
+      <c r="E56" s="8">
+        <v>300014078</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11319,10 +11322,10 @@
         <v>720</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E57" s="8">
         <v>300014910</v>
@@ -11336,10 +11339,10 @@
         <v>722</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="E58" s="8">
         <v>300010367</v>
@@ -11364,10 +11367,10 @@
         <v>726</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E60" s="8">
         <v>300014069</v>
@@ -11381,10 +11384,10 @@
         <v>728</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E61" s="8">
         <v>300011021</v>
@@ -11398,10 +11401,10 @@
         <v>730</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E62" s="8">
         <v>300014109</v>
@@ -11415,16 +11418,16 @@
         <v>638</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E63" s="8">
         <v>300010797</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -11435,16 +11438,16 @@
         <v>638</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E64" s="8">
         <v>300010797</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11455,10 +11458,10 @@
         <v>733</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E65" s="8">
         <v>300011914</v>
@@ -11472,16 +11475,16 @@
         <v>644</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E66" s="8">
         <v>300011914</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11492,16 +11495,16 @@
         <v>644</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E67" s="8">
         <v>300011914</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -11512,10 +11515,10 @@
         <v>736</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E68" s="8">
         <v>300411543</v>
@@ -11529,10 +11532,10 @@
         <v>648</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E69" s="6">
         <v>300011857</v>
@@ -11546,10 +11549,10 @@
         <v>739</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E70" s="8">
         <v>300014143</v>
@@ -11563,10 +11566,10 @@
         <v>741</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E71" s="8">
         <v>300231565</v>
@@ -11580,10 +11583,10 @@
         <v>743</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E72" s="8">
         <v>300435274</v>
@@ -11597,10 +11600,10 @@
         <v>745</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E73" s="8">
         <v>300014161</v>
@@ -11614,10 +11617,10 @@
         <v>747</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E74" s="8">
         <v>300014109</v>
@@ -11631,16 +11634,16 @@
         <v>749</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E75" s="8">
         <v>300014224</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11651,16 +11654,16 @@
         <v>749</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E76" s="8">
         <v>300014224</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -11671,10 +11674,10 @@
         <v>654</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E77" s="8">
         <v>300014570</v>
@@ -11688,10 +11691,10 @@
         <v>752</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E78" s="8">
         <v>300014069</v>
@@ -11705,10 +11708,10 @@
         <v>754</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E79" s="8">
         <v>300011845</v>
@@ -11722,10 +11725,10 @@
         <v>756</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E80" s="8">
         <v>300014069</v>
@@ -11739,10 +11742,10 @@
         <v>758</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E81" s="8">
         <v>300011022</v>
@@ -11756,10 +11759,10 @@
         <v>760</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E82" s="8">
         <v>300014109</v>
@@ -11773,10 +11776,10 @@
         <v>660</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E83" s="8">
         <v>300011443</v>
@@ -11791,10 +11794,10 @@
         <v>763</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E84" s="8">
         <v>300390932</v>
@@ -11808,10 +11811,10 @@
         <v>765</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E85" s="8">
         <v>300010900</v>
@@ -11847,10 +11850,10 @@
         <v>770</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E88" s="8">
         <v>300014657</v>
@@ -11864,10 +11867,10 @@
         <v>772</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E89" s="8">
         <v>300011851</v>
@@ -11881,10 +11884,10 @@
         <v>774</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E90" s="8">
         <v>300014109</v>
@@ -11898,10 +11901,10 @@
         <v>776</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E91" s="8">
         <v>300014109</v>
@@ -11915,10 +11918,10 @@
         <v>778</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E92" s="8">
         <v>300011851</v>
@@ -11932,10 +11935,10 @@
         <v>780</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E93" s="8">
         <v>300010662</v>
@@ -11949,16 +11952,16 @@
         <v>782</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E94" s="8">
         <v>300014109</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11969,16 +11972,16 @@
         <v>782</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E95" s="8">
         <v>300014109</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11989,10 +11992,10 @@
         <v>784</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E96" s="8">
         <v>300014109</v>
@@ -12006,10 +12009,10 @@
         <v>786</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E97" s="8">
         <v>300014109</v>
@@ -12023,10 +12026,10 @@
         <v>788</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E98" s="8">
         <v>300027354</v>
@@ -12051,10 +12054,10 @@
         <v>792</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E100" s="8">
         <v>300014206</v>
@@ -12068,10 +12071,10 @@
         <v>683</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E101" s="14">
         <v>300011176</v>
@@ -12085,10 +12088,10 @@
         <v>795</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E102" s="8">
         <v>300010900</v>
@@ -12102,10 +12105,10 @@
         <v>797</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E103" s="8">
         <v>300014248</v>
@@ -12119,10 +12122,10 @@
         <v>799</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E104" s="8">
         <v>300012849</v>
@@ -12136,10 +12139,10 @@
         <v>801</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E105" s="8">
         <v>300231565</v>
@@ -12153,10 +12156,10 @@
         <v>803</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E106" s="8">
         <v>300014203</v>
@@ -12181,10 +12184,10 @@
         <v>806</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E108" s="8">
         <v>300014184</v>
@@ -12198,10 +12201,10 @@
         <v>646</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E109" s="8">
         <v>300011002</v>
@@ -12215,10 +12218,10 @@
         <v>700</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="E110" s="8">
         <v>300011037</v>
@@ -12232,10 +12235,10 @@
         <v>698</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E111" s="8">
         <v>300231565</v>
@@ -12249,16 +12252,16 @@
         <v>811</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E112" s="8">
         <v>300243428</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -12269,16 +12272,16 @@
         <v>811</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="E113" s="8">
         <v>300243428</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -12289,10 +12292,10 @@
         <v>813</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E114" s="8">
         <v>300022453</v>
@@ -12323,10 +12326,10 @@
         <v>817</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E116" s="8">
         <v>300011729</v>
@@ -12343,7 +12346,7 @@
         <v>1445</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E117" s="8">
         <v>300179099</v>
@@ -12357,10 +12360,10 @@
         <v>821</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E118" s="8">
         <v>300012862</v>
@@ -12374,10 +12377,10 @@
         <v>823</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E119" s="8">
         <v>300015012</v>
@@ -12391,10 +12394,10 @@
         <v>825</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E120" s="8">
         <v>300022413</v>
@@ -12408,10 +12411,10 @@
         <v>827</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E121" s="8">
         <v>300022441</v>
@@ -12425,10 +12428,10 @@
         <v>829</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E122" s="8">
         <v>300022413</v>
@@ -12445,7 +12448,7 @@
         <v>1445</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E123" s="6">
         <v>300053277</v>
@@ -12459,10 +12462,10 @@
         <v>833</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E124" s="8">
         <v>300022439</v>
@@ -12476,10 +12479,10 @@
         <v>835</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E125" s="8">
         <v>300015018</v>
@@ -12493,10 +12496,10 @@
         <v>837</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E126" s="8">
         <v>300230810</v>
@@ -12510,10 +12513,10 @@
         <v>839</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E127" s="8">
         <v>300015018</v>
@@ -12527,10 +12530,10 @@
         <v>841</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E128" s="8">
         <v>300122621</v>
@@ -12547,7 +12550,7 @@
         <v>1445</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E129" s="6">
         <v>300022452</v>
@@ -12561,10 +12564,10 @@
         <v>845</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E130" s="8">
         <v>300022439</v>
@@ -12581,7 +12584,7 @@
         <v>1445</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E131" s="6">
         <v>300022552</v>
@@ -12595,10 +12598,10 @@
         <v>849</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E132" s="8">
         <v>300015012</v>
@@ -12612,10 +12615,10 @@
         <v>600</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E133" s="8">
         <v>300080064</v>
@@ -12629,10 +12632,10 @@
         <v>852</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E134" s="8">
         <v>300417481</v>
@@ -12646,10 +12649,10 @@
         <v>854</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E135" s="8">
         <v>300022458</v>
@@ -12663,10 +12666,10 @@
         <v>856</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E136" s="8">
         <v>300167812</v>
@@ -12705,7 +12708,7 @@
         <v>1445</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E139" s="8">
         <v>300053796</v>
@@ -12722,7 +12725,7 @@
         <v>1445</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="E140" s="6">
         <v>300053867</v>
@@ -12739,7 +12742,7 @@
         <v>1445</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E141" s="8">
         <v>300311416</v>
@@ -12756,7 +12759,7 @@
         <v>1445</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E142" s="8">
         <v>300054216</v>
@@ -12773,7 +12776,7 @@
         <v>1445</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -12790,7 +12793,7 @@
         <v>1445</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E144" s="8">
         <v>300443550</v>
@@ -12807,7 +12810,7 @@
         <v>1445</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -12815,13 +12818,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B146" s="11" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="E146" s="20">
         <v>300014156</v>
@@ -12842,8 +12845,8 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12882,10 +12885,10 @@
         <v>1032</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E2" s="14">
         <v>300015045</v>
@@ -12927,10 +12930,10 @@
         <v>1164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E5" s="8">
         <v>300070114</v>
@@ -12947,7 +12950,7 @@
         <v>1445</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E6" s="8">
         <v>300053386</v>
@@ -13343,7 +13346,7 @@
         <v>1445</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E54" s="6">
         <v>300053241</v>
@@ -13433,7 +13436,7 @@
         <v>1445</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E60" s="6">
         <v>300041340</v>
@@ -13542,8 +13545,8 @@
       <c r="D67" s="7" t="s">
         <v>1456</v>
       </c>
-      <c r="E67" s="7" t="s">
-        <v>1457</v>
+      <c r="E67" s="6">
+        <v>300053228</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
@@ -13557,7 +13560,7 @@
         <v>1445</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E68" s="8">
         <v>300053241</v>
@@ -13574,7 +13577,7 @@
         <v>1445</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E69" s="8">
         <v>300053241</v>
@@ -13591,7 +13594,7 @@
         <v>1445</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E70" s="8">
         <v>300053207</v>
@@ -13608,7 +13611,7 @@
         <v>1445</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E71" s="8">
         <v>300053275</v>
@@ -13625,7 +13628,7 @@
         <v>1445</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E72" s="8">
         <v>300053303</v>
@@ -13642,7 +13645,7 @@
         <v>1445</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E73" s="8">
         <v>300053296</v>
@@ -13676,7 +13679,7 @@
         <v>1445</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E75" s="8">
         <v>300263381</v>
@@ -13693,7 +13696,7 @@
         <v>1445</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E76" s="8">
         <v>300053303</v>
@@ -13710,7 +13713,7 @@
         <v>1445</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E77" s="8">
         <v>300053296</v>
@@ -13727,7 +13730,7 @@
         <v>1445</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E78" s="8">
         <v>300154361</v>
@@ -13755,7 +13758,7 @@
         <v>1445</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E80" s="8">
         <v>300053271</v>
@@ -13772,7 +13775,7 @@
         <v>1445</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E81" s="8">
         <v>300343476</v>
@@ -13789,7 +13792,7 @@
         <v>1445</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E82" s="8">
         <v>300053239</v>
@@ -13806,7 +13809,7 @@
         <v>1445</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E83" s="8">
         <v>300190531</v>
@@ -13823,7 +13826,7 @@
         <v>1445</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E84" s="8">
         <v>300154361</v>
@@ -13840,7 +13843,7 @@
         <v>1445</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E85" s="8">
         <v>300053204</v>
@@ -13857,7 +13860,7 @@
         <v>1445</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E86" s="8">
         <v>300053231</v>
@@ -13874,7 +13877,7 @@
         <v>1445</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E87" s="8">
         <v>300060720</v>
@@ -13891,7 +13894,7 @@
         <v>1445</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E88" s="8">
         <v>300053271</v>
@@ -13908,7 +13911,7 @@
         <v>1445</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E89" s="8">
         <v>300053285</v>
@@ -13944,7 +13947,7 @@
         <v>1445</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E92" s="8">
         <v>300053233</v>
@@ -13961,7 +13964,7 @@
         <v>1445</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E93" s="8">
         <v>300053277</v>
@@ -14000,7 +14003,7 @@
         <v>1445</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E96" s="9">
         <v>300053279</v>
@@ -14028,7 +14031,7 @@
         <v>1445</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E98" s="8">
         <v>300190536</v>
@@ -14045,7 +14048,7 @@
         <v>1445</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E99" s="8">
         <v>300053285</v>
@@ -14062,7 +14065,7 @@
         <v>1445</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E100" s="8">
         <v>300053239</v>
@@ -14112,7 +14115,7 @@
         <v>1445</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E104" s="8">
         <v>300053271</v>
@@ -14129,7 +14132,7 @@
         <v>1445</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E105" s="8">
         <v>300157897</v>
@@ -14146,7 +14149,7 @@
         <v>1445</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E106" s="8">
         <v>300053251</v>
@@ -14163,7 +14166,7 @@
         <v>1445</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E107" s="8">
         <v>300157968</v>
@@ -14180,7 +14183,7 @@
         <v>1445</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E108" s="8">
         <v>300053281</v>
@@ -14194,10 +14197,10 @@
         <v>1277</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E109" s="14">
         <v>300014426</v>
@@ -14228,10 +14231,10 @@
         <v>1281</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E111" s="14">
         <v>300015050</v>
@@ -14245,10 +14248,10 @@
         <v>1283</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E112" s="14">
         <v>300015062</v>
@@ -14262,10 +14265,10 @@
         <v>1285</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E113" s="14">
         <v>300015050</v>
@@ -14558,7 +14561,7 @@
         <v>1445</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E137" s="8">
         <v>300053781</v>
@@ -14575,7 +14578,7 @@
         <v>1445</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E138" s="8">
         <v>300053104</v>
@@ -14592,7 +14595,7 @@
         <v>1445</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E139" s="8">
         <v>300053225</v>
@@ -14620,7 +14623,7 @@
         <v>1445</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E141" s="8">
         <v>300053796</v>
@@ -14634,10 +14637,10 @@
         <v>1296</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E142" s="8">
         <v>300010902</v>
@@ -14654,7 +14657,7 @@
         <v>1445</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -14682,7 +14685,7 @@
         <v>1445</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -14696,10 +14699,10 @@
         <v>1032</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E146" s="14">
         <v>300015045</v>
@@ -14741,10 +14744,10 @@
         <v>1306</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E149" s="8">
         <v>300013351</v>
@@ -14763,8 +14766,8 @@
       <c r="D150" s="7" t="s">
         <v>1456</v>
       </c>
-      <c r="E150" s="7" t="s">
-        <v>1457</v>
+      <c r="E150" s="6">
+        <v>300053228</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
@@ -14775,10 +14778,10 @@
         <v>1309</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E151" s="14">
         <v>300015071</v>
@@ -14806,7 +14809,7 @@
         <v>1445</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E153" s="8">
         <v>300053363</v>
@@ -14823,7 +14826,7 @@
         <v>1445</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E154" s="8">
         <v>300404638</v>
@@ -14840,7 +14843,7 @@
         <v>1445</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E155" s="8">
         <v>300190531</v>
@@ -14857,7 +14860,7 @@
         <v>1445</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E156" s="8">
         <v>300417481</v>
@@ -14874,7 +14877,7 @@
         <v>1445</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E157" s="8">
         <v>300053233</v>
@@ -14888,10 +14891,10 @@
         <v>1281</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E158" s="14">
         <v>300015050</v>
@@ -14919,7 +14922,7 @@
         <v>1445</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E160" s="8">
         <v>300404072</v>
@@ -14936,7 +14939,7 @@
         <v>1445</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E161" s="8">
         <v>300053251</v>
@@ -14950,10 +14953,10 @@
         <v>1327</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E162" s="14">
         <v>300015045</v>
@@ -14974,7 +14977,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15024,8 +15027,8 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:F1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15064,10 +15067,10 @@
         <v>877</v>
       </c>
       <c r="C2" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D2" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E2">
         <v>300026823</v>
@@ -15081,10 +15084,10 @@
         <v>879</v>
       </c>
       <c r="C3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D3" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E3">
         <v>300026867</v>
@@ -15098,7 +15101,7 @@
         <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D4" t="s">
         <v>1404</v>
@@ -15115,10 +15118,10 @@
         <v>191</v>
       </c>
       <c r="C5" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D5" t="s">
         <v>1607</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1608</v>
       </c>
       <c r="E5">
         <v>300026816</v>
@@ -15132,7 +15135,7 @@
         <v>884</v>
       </c>
       <c r="C6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D6" t="s">
         <v>1405</v>
@@ -15149,10 +15152,10 @@
         <v>886</v>
       </c>
       <c r="C7" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D7" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E7">
         <v>300028051</v>
@@ -15166,7 +15169,7 @@
         <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D8" t="s">
         <v>1404</v>
@@ -15183,7 +15186,7 @@
         <v>889</v>
       </c>
       <c r="C9" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D9" t="s">
         <v>1406</v>
@@ -15211,7 +15214,7 @@
         <v>893</v>
       </c>
       <c r="C11" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D11" t="s">
         <v>1406</v>
@@ -15228,10 +15231,10 @@
         <v>895</v>
       </c>
       <c r="C12" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D12" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="E12">
         <v>300264639</v>
@@ -15245,10 +15248,10 @@
         <v>897</v>
       </c>
       <c r="C13" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D13" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E13">
         <v>300212274</v>
@@ -15262,10 +15265,10 @@
         <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="D14" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E14">
         <v>300136847</v>
@@ -15279,7 +15282,7 @@
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D15" t="s">
         <v>1408</v>
@@ -15296,10 +15299,10 @@
         <v>901</v>
       </c>
       <c r="C16" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D16" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E16">
         <v>300049060</v>
@@ -15316,7 +15319,7 @@
         <v>1445</v>
       </c>
       <c r="D17" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E17">
         <v>300053225</v>
@@ -15330,7 +15333,7 @@
         <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D18" t="s">
         <v>1407</v>
@@ -15350,7 +15353,7 @@
         <v>1445</v>
       </c>
       <c r="D19" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="E19">
         <v>300053463</v>
@@ -15364,10 +15367,10 @@
         <v>908</v>
       </c>
       <c r="C20" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D20" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E20">
         <v>300048715</v>
@@ -15381,10 +15384,10 @@
         <v>910</v>
       </c>
       <c r="C21" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D21" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E21">
         <v>300026931</v>
@@ -15398,10 +15401,10 @@
         <v>912</v>
       </c>
       <c r="C22" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D22" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E22">
         <v>300026867</v>
@@ -15437,10 +15440,10 @@
         <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D25" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E25">
         <v>300264354</v>
@@ -15454,10 +15457,10 @@
         <v>919</v>
       </c>
       <c r="C26" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D26" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E26">
         <v>300027200</v>
@@ -15471,10 +15474,10 @@
         <v>921</v>
       </c>
       <c r="C27" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D27" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E27">
         <v>300262918</v>
@@ -15499,10 +15502,10 @@
         <v>924</v>
       </c>
       <c r="C29" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="D29" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="E29">
         <v>300264639</v>
@@ -15538,10 +15541,10 @@
         <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D32" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E32">
         <v>300026819</v>
@@ -15555,10 +15558,10 @@
         <v>931</v>
       </c>
       <c r="C33" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D33" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E33">
         <v>300027264</v>
@@ -15572,10 +15575,10 @@
         <v>933</v>
       </c>
       <c r="C34" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D34" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E34">
         <v>300311954</v>
@@ -15589,10 +15592,10 @@
         <v>935</v>
       </c>
       <c r="C35" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D35" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="E35">
         <v>300134722</v>
@@ -15606,10 +15609,10 @@
         <v>937</v>
       </c>
       <c r="C36" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D36" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E36">
         <v>300145802</v>
@@ -15634,10 +15637,10 @@
         <v>941</v>
       </c>
       <c r="C38" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="D38" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E38">
         <v>300027200</v>
@@ -15673,10 +15676,10 @@
         <v>947</v>
       </c>
       <c r="C41" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D41" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E41">
         <v>300026096</v>
@@ -15690,10 +15693,10 @@
         <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D42" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="E42">
         <v>300026909</v>
@@ -15718,10 +15721,10 @@
         <v>952</v>
       </c>
       <c r="C44" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D44" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E44">
         <v>300127478</v>
@@ -15735,10 +15738,10 @@
         <v>954</v>
       </c>
       <c r="C45" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D45" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E45">
         <v>300026657</v>
@@ -15755,7 +15758,7 @@
         <v>1445</v>
       </c>
       <c r="D46" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E46">
         <v>300247929</v>
@@ -15769,10 +15772,10 @@
         <v>958</v>
       </c>
       <c r="C47" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D47" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="E47">
         <v>300027083</v>
@@ -15786,10 +15789,10 @@
         <v>960</v>
       </c>
       <c r="C48" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D48" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E48">
         <v>300026068</v>
@@ -15814,10 +15817,10 @@
         <v>964</v>
       </c>
       <c r="C50" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D50" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="E50">
         <v>300026823</v>
@@ -15831,10 +15834,10 @@
         <v>966</v>
       </c>
       <c r="C51" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D51" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="E51">
         <v>300026074</v>
@@ -15975,10 +15978,10 @@
         <v>205</v>
       </c>
       <c r="C63" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D63" t="s">
         <v>1584</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1585</v>
       </c>
       <c r="E63">
         <v>300263886</v>
@@ -15992,10 +15995,10 @@
         <v>986</v>
       </c>
       <c r="C64" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D64" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E64">
         <v>300034104</v>
@@ -16009,7 +16012,7 @@
         <v>950</v>
       </c>
       <c r="C65" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D65" t="s">
         <v>1409</v>
@@ -16026,10 +16029,10 @@
         <v>989</v>
       </c>
       <c r="C66" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D66" t="s">
         <v>1588</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1589</v>
       </c>
       <c r="E66">
         <v>300263898</v>
@@ -16043,10 +16046,10 @@
         <v>991</v>
       </c>
       <c r="C67" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D67" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E67">
         <v>300266808</v>
@@ -16060,10 +16063,10 @@
         <v>993</v>
       </c>
       <c r="C68" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D68" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E68">
         <v>300234117</v>
@@ -16077,10 +16080,10 @@
         <v>995</v>
       </c>
       <c r="C69" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D69" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E69">
         <v>300343358</v>
@@ -16094,10 +16097,10 @@
         <v>997</v>
       </c>
       <c r="C70" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D70" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E70">
         <v>300266810</v>
@@ -16111,10 +16114,10 @@
         <v>999</v>
       </c>
       <c r="C71" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D71" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E71">
         <v>300133005</v>
@@ -16128,10 +16131,10 @@
         <v>1001</v>
       </c>
       <c r="C72" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D72" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E72">
         <v>300046025</v>
@@ -16145,10 +16148,10 @@
         <v>1003</v>
       </c>
       <c r="C73" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D73" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E73">
         <v>300028884</v>
@@ -16162,10 +16165,10 @@
         <v>1005</v>
       </c>
       <c r="C74" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D74" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E74">
         <v>300037680</v>
@@ -16179,10 +16182,10 @@
         <v>1007</v>
       </c>
       <c r="C75" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D75" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E75">
         <v>300041620</v>
@@ -16196,10 +16199,10 @@
         <v>1009</v>
       </c>
       <c r="C76" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D76" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E76">
         <v>300215545</v>
@@ -16213,10 +16216,10 @@
         <v>1011</v>
       </c>
       <c r="C77" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D77" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E77">
         <v>300263853</v>
@@ -16230,10 +16233,10 @@
         <v>1013</v>
       </c>
       <c r="C78" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D78" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E78">
         <v>300433073</v>
@@ -16247,10 +16250,10 @@
         <v>1015</v>
       </c>
       <c r="C79" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D79" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E79">
         <v>300014842</v>
@@ -16264,10 +16267,10 @@
         <v>1017</v>
       </c>
       <c r="C80" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D80" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E80">
         <v>300168224</v>
@@ -16281,10 +16284,10 @@
         <v>1019</v>
       </c>
       <c r="C81" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D81" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E81">
         <v>300209286</v>
@@ -16298,10 +16301,10 @@
         <v>1021</v>
       </c>
       <c r="C82" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D82" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E82">
         <v>300231565</v>
@@ -16315,10 +16318,10 @@
         <v>1023</v>
       </c>
       <c r="C83" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D83" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="E83">
         <v>300233975</v>
@@ -16332,10 +16335,10 @@
         <v>1025</v>
       </c>
       <c r="C84" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D84" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E84">
         <v>300195678</v>
@@ -16349,10 +16352,10 @@
         <v>1027</v>
       </c>
       <c r="C85" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D85" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E85">
         <v>300224230</v>
@@ -16366,10 +16369,10 @@
         <v>1029</v>
       </c>
       <c r="C86" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D86" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E86">
         <v>300036926</v>
@@ -16377,13 +16380,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D87" t="s">
         <v>1678</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1679</v>
       </c>
       <c r="E87">
         <v>300257199</v>
@@ -16391,13 +16394,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C88" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D88" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E88">
         <v>300262254</v>
@@ -16405,13 +16408,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D89" t="s">
         <v>1673</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1674</v>
       </c>
       <c r="E89">
         <v>300046230</v>
@@ -16419,13 +16422,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D90" t="s">
         <v>1676</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1588</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1677</v>
       </c>
       <c r="E90">
         <v>300046227</v>
@@ -16433,13 +16436,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C91" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="D91" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E91">
         <v>300193993</v>
@@ -16458,7 +16461,7 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -16514,7 +16517,7 @@
         <v>1439</v>
       </c>
       <c r="D3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16539,7 +16542,7 @@
         <v>1439</v>
       </c>
       <c r="D5" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -16553,7 +16556,7 @@
         <v>1439</v>
       </c>
       <c r="D6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16567,7 +16570,7 @@
         <v>1439</v>
       </c>
       <c r="D7" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16581,7 +16584,7 @@
         <v>1439</v>
       </c>
       <c r="D8" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16606,7 +16609,7 @@
         <v>1439</v>
       </c>
       <c r="D10" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -16620,7 +16623,7 @@
         <v>1439</v>
       </c>
       <c r="D11" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -16645,7 +16648,7 @@
         <v>1439</v>
       </c>
       <c r="D13" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -16659,7 +16662,7 @@
         <v>1439</v>
       </c>
       <c r="D14" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16673,7 +16676,7 @@
         <v>1439</v>
       </c>
       <c r="D15" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16687,7 +16690,7 @@
         <v>1439</v>
       </c>
       <c r="D16" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -16701,7 +16704,7 @@
         <v>1439</v>
       </c>
       <c r="D17" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -16715,7 +16718,7 @@
         <v>1439</v>
       </c>
       <c r="D18" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -16743,7 +16746,7 @@
         <v>1439</v>
       </c>
       <c r="D20" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -16757,7 +16760,7 @@
         <v>1439</v>
       </c>
       <c r="D21" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
   </sheetData>
@@ -16774,7 +16777,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+      <selection activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16812,10 +16815,10 @@
         <v>1056</v>
       </c>
       <c r="C2" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D2" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E2">
         <v>300022453</v>
@@ -16829,10 +16832,10 @@
         <v>854</v>
       </c>
       <c r="C3" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E3">
         <v>300022458</v>
@@ -16857,10 +16860,10 @@
         <v>823</v>
       </c>
       <c r="C5" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D5" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E5">
         <v>300015012</v>
@@ -16874,10 +16877,10 @@
         <v>845</v>
       </c>
       <c r="C6" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="D6" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
       <c r="E6">
         <v>300022439</v>
@@ -16885,6 +16888,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16896,7 +16900,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:E17"/>
+      <selection activeCell="F23" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17213,7 +17217,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17562,7 +17566,7 @@
         <v>1397</v>
       </c>
       <c r="D8" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -17764,24 +17768,24 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="C22" t="s">
         <v>1397</v>
       </c>
       <c r="D22" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C23" t="s">
         <v>1397</v>
       </c>
       <c r="D23" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
   </sheetData>
@@ -18450,13 +18454,14 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:D7"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.09765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -18525,12 +18530,15 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C6" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D6" t="s">
         <v>1361</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>300435416</v>
       </c>
     </row>
@@ -18539,11 +18547,15 @@
         <v>1362</v>
       </c>
       <c r="C7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="D7" t="s">
         <v>1362</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18555,7 +18567,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="14" activeTab="18"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="9" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1736">
   <si>
     <t>code</t>
   </si>
@@ -4295,9 +4295,6 @@
     <t>centuries</t>
   </si>
   <si>
-    <t>onzeker</t>
-  </si>
-  <si>
     <t>datum voor</t>
   </si>
   <si>
@@ -4686,9 +4683,6 @@
   </si>
   <si>
     <t>lacquering</t>
-  </si>
-  <si>
-    <t>mixed technique</t>
   </si>
   <si>
     <t>artificial patina</t>
@@ -5505,6 +5499,9 @@
   </si>
   <si>
     <t>verbeterd typoscript</t>
+  </si>
+  <si>
+    <t>reconstructie</t>
   </si>
 </sst>
 </file>
@@ -6272,8 +6269,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6292,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -6323,13 +6320,10 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D3" t="s">
-        <v>1334</v>
-      </c>
-      <c r="E3">
-        <v>300435723</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6340,7 +6334,7 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D4" t="s">
         <v>1334</v>
@@ -6357,7 +6351,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D5" t="s">
         <v>1335</v>
@@ -6374,10 +6368,13 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D6" t="s">
-        <v>1336</v>
+        <v>1334</v>
+      </c>
+      <c r="E6">
+        <v>300435723</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -6388,10 +6385,10 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D7" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="E7">
         <v>300386154</v>
@@ -6405,10 +6402,10 @@
         <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D8" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6419,10 +6416,10 @@
         <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D9" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6433,7 +6430,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D10" t="s">
         <v>1334</v>
@@ -6512,7 +6509,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -6554,7 +6551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6573,7 +6570,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -6593,10 +6590,10 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D2" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E2">
         <v>300164785</v>
@@ -6610,10 +6607,10 @@
         <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D3" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E3">
         <v>300250949</v>
@@ -6627,10 +6624,10 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D4" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E4">
         <v>300312154</v>
@@ -6644,10 +6641,10 @@
         <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D5" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E5">
         <v>300026676</v>
@@ -6661,10 +6658,10 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D6" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="E6">
         <v>300027573</v>
@@ -6678,10 +6675,10 @@
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D7" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="E7">
         <v>300027621</v>
@@ -6695,10 +6692,10 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D8" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="E8">
         <v>300027392</v>
@@ -6712,10 +6709,10 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D9" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E9">
         <v>300027527</v>
@@ -6729,10 +6726,10 @@
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D10" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="E10">
         <v>300027621</v>
@@ -6746,10 +6743,10 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D11" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6760,10 +6757,10 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D12" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E12">
         <v>300027764</v>
@@ -6777,10 +6774,10 @@
         <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D13" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="E13">
         <v>300026925</v>
@@ -6794,10 +6791,10 @@
         <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="D14" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="E14">
         <v>300201447</v>
@@ -6811,10 +6808,10 @@
         <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D15" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E15">
         <v>300026879</v>
@@ -6828,10 +6825,10 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D16" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E16">
         <v>300026816</v>
@@ -6845,10 +6842,10 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D17" t="s">
         <v>1606</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1608</v>
       </c>
       <c r="E17">
         <v>300026882</v>
@@ -6862,10 +6859,10 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D18" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E18">
         <v>300026114</v>
@@ -6879,10 +6876,10 @@
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D19" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E19">
         <v>300149026</v>
@@ -6896,10 +6893,10 @@
         <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D20" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E20">
         <v>300240262</v>
@@ -6913,10 +6910,10 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D21" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E21">
         <v>300026778</v>
@@ -6941,10 +6938,10 @@
         <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D23" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E23">
         <v>300026931</v>
@@ -6958,10 +6955,10 @@
         <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D24" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E24">
         <v>300026816</v>
@@ -6975,10 +6972,10 @@
         <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D25" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E25">
         <v>300026819</v>
@@ -6992,10 +6989,10 @@
         <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D26" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E26">
         <v>300026909</v>
@@ -7009,10 +7006,10 @@
         <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D27" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E27">
         <v>300400813</v>
@@ -7026,10 +7023,10 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D28" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E28">
         <v>300026823</v>
@@ -7043,10 +7040,10 @@
         <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D29" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E29">
         <v>300026931</v>
@@ -7060,10 +7057,10 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D30" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="E30">
         <v>300026487</v>
@@ -7088,16 +7085,16 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D32" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E32">
         <v>300026030</v>
       </c>
       <c r="G32" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -7108,16 +7105,16 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D33" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E33">
         <v>300026942</v>
       </c>
       <c r="G33" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -7128,10 +7125,10 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D34" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E34">
         <v>300027473</v>
@@ -7145,10 +7142,10 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D35" t="s">
         <v>1620</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1622</v>
       </c>
       <c r="E35">
         <v>300212274</v>
@@ -7162,10 +7159,10 @@
         <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D36" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E36">
         <v>300026676</v>
@@ -7179,10 +7176,10 @@
         <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D37" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="E37">
         <v>300026799</v>
@@ -7196,10 +7193,10 @@
         <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D38" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E38">
         <v>300026756</v>
@@ -7213,10 +7210,10 @@
         <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D39" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E39">
         <v>300026867</v>
@@ -7230,10 +7227,10 @@
         <v>235</v>
       </c>
       <c r="C40" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D40" t="s">
         <v>1620</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1622</v>
       </c>
       <c r="E40">
         <v>300212274</v>
@@ -7247,10 +7244,10 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D41" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="E41">
         <v>300026432</v>
@@ -7264,10 +7261,10 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D42" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E42">
         <v>300255378</v>
@@ -7281,10 +7278,10 @@
         <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D43" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E43">
         <v>300026424</v>
@@ -7298,10 +7295,10 @@
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D44" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E44">
         <v>300027191</v>
@@ -7315,10 +7312,10 @@
         <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D45" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E45">
         <v>300026443</v>
@@ -7332,10 +7329,10 @@
         <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D46" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E46">
         <v>300262918</v>
@@ -7371,10 +7368,10 @@
         <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D49" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="E49">
         <v>300027240</v>
@@ -7388,10 +7385,10 @@
         <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D50" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E50">
         <v>300049060</v>
@@ -7405,10 +7402,10 @@
         <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D51" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E51">
         <v>300252927</v>
@@ -7422,10 +7419,10 @@
         <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D52" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E52">
         <v>300247929</v>
@@ -7439,10 +7436,10 @@
         <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D53" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="E53">
         <v>300053319</v>
@@ -7456,10 +7453,10 @@
         <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D54" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E54">
         <v>300026693</v>
@@ -7473,10 +7470,10 @@
         <v>265</v>
       </c>
       <c r="C55" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D55" t="s">
         <v>1646</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1648</v>
       </c>
       <c r="E55">
         <v>300027489</v>
@@ -7490,10 +7487,10 @@
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D56" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="E56">
         <v>300027496</v>
@@ -7507,10 +7504,10 @@
         <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D57" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E57">
         <v>300027045</v>
@@ -7524,10 +7521,10 @@
         <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="D58" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7538,10 +7535,10 @@
         <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D59" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E59">
         <v>300404333</v>
@@ -7555,10 +7552,10 @@
         <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D60" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E60">
         <v>300404333</v>
@@ -7572,10 +7569,10 @@
         <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D61" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E61">
         <v>300247929</v>
@@ -7589,10 +7586,10 @@
         <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D62" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7603,10 +7600,10 @@
         <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D63" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7617,10 +7614,10 @@
         <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D64" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7631,10 +7628,10 @@
         <v>284</v>
       </c>
       <c r="C65" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D65" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E65">
         <v>300266791</v>
@@ -7648,10 +7645,10 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D66" t="s">
         <v>1697</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1699</v>
       </c>
       <c r="E66">
         <v>300136847</v>
@@ -7665,10 +7662,10 @@
         <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D67" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E67">
         <v>300046300</v>
@@ -7682,10 +7679,10 @@
         <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="D68" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="E68">
         <v>300028467</v>
@@ -7699,10 +7696,10 @@
         <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D70" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="E70">
         <v>300053319</v>
@@ -7716,10 +7713,10 @@
         <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D71" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E71">
         <v>300374824</v>
@@ -7744,10 +7741,10 @@
         <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D73" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="E73">
         <v>300417667</v>
@@ -7761,10 +7758,10 @@
         <v>300</v>
       </c>
       <c r="C74" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D74" t="s">
         <v>1720</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7775,10 +7772,10 @@
         <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="D75" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E75">
         <v>300028705</v>
@@ -7817,7 +7814,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -7837,10 +7834,10 @@
         <v>304</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D2" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7851,10 +7848,10 @@
         <v>306</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D3" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7865,10 +7862,10 @@
         <v>308</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7879,10 +7876,10 @@
         <v>310</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D5" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7893,10 +7890,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D6" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7918,10 +7915,10 @@
         <v>315</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D8" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E8">
         <v>300027388</v>
@@ -7979,10 +7976,10 @@
         <v>310</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D13" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7993,10 +7990,10 @@
         <v>325</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D14" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="E14">
         <v>300026614</v>
@@ -8076,10 +8073,10 @@
         <v>339</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D21" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -8112,10 +8109,10 @@
         <v>345</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D24" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
   </sheetData>
@@ -8149,7 +8146,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -8202,7 +8199,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -8222,10 +8219,10 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D2" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="E2">
         <v>300128366</v>
@@ -8239,10 +8236,10 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D3" t="s">
         <v>1708</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1710</v>
       </c>
       <c r="E3">
         <v>300128357</v>
@@ -8256,10 +8253,10 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D4" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="E4">
         <v>300128359</v>
@@ -8273,10 +8270,10 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D5" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="E5">
         <v>300127181</v>
@@ -8290,7 +8287,7 @@
         <v>357</v>
       </c>
       <c r="C6" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8301,10 +8298,10 @@
         <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D7" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E7">
         <v>300265083</v>
@@ -8318,10 +8315,10 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D8" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="E8">
         <v>300115233</v>
@@ -8335,10 +8332,10 @@
         <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D9" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E9">
         <v>300128374</v>
@@ -8352,10 +8349,10 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D10" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="E10">
         <v>300128343</v>
@@ -8369,10 +8366,10 @@
         <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D11" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="E11">
         <v>300128347</v>
@@ -8380,13 +8377,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="C12" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D12" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="E12">
         <v>300026695</v>
@@ -8419,13 +8416,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1157</v>
@@ -8445,10 +8442,10 @@
         <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E2" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F2">
         <v>300026710</v>
@@ -8462,10 +8459,10 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E3" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="F3">
         <v>300027473</v>
@@ -8479,10 +8476,10 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E4" t="s">
         <v>1578</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1580</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8493,10 +8490,10 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E5" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="F5">
         <v>300417554</v>
@@ -8510,10 +8507,10 @@
         <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F6">
         <v>300138696</v>
@@ -8527,10 +8524,10 @@
         <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E7" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F7">
         <v>300138696</v>
@@ -8544,10 +8541,10 @@
         <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E8" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F8">
         <v>300053623</v>
@@ -8561,10 +8558,10 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E9" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F9">
         <v>300047457</v>
@@ -8578,10 +8575,10 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E10" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F10">
         <v>300047724</v>
@@ -8595,10 +8592,10 @@
         <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E11" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F11">
         <v>300028569</v>
@@ -8612,10 +8609,10 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E12" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F12">
         <v>300047469</v>
@@ -8629,10 +8626,10 @@
         <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E13" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F13">
         <v>300028569</v>
@@ -8646,10 +8643,10 @@
         <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E14" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F14">
         <v>300047724</v>
@@ -8663,10 +8660,10 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E15" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F15">
         <v>300047896</v>
@@ -8680,10 +8677,10 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E16" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F16">
         <v>300262520</v>
@@ -8697,10 +8694,10 @@
         <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E17" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F17">
         <v>300077357</v>
@@ -8714,10 +8711,10 @@
         <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E18" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F18">
         <v>300138758</v>
@@ -8731,10 +8728,10 @@
         <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E19" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F19">
         <v>300047837</v>
@@ -8748,10 +8745,10 @@
         <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E20" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F20">
         <v>300010262</v>
@@ -8776,10 +8773,10 @@
         <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E22" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F22">
         <v>300343592</v>
@@ -8793,10 +8790,10 @@
         <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="E23" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="F23">
         <v>300404835</v>
@@ -8810,10 +8807,10 @@
         <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E24" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F24">
         <v>300027200</v>
@@ -8827,10 +8824,10 @@
         <v>415</v>
       </c>
       <c r="D25" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E25" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="F25">
         <v>300026427</v>
@@ -8844,10 +8841,10 @@
         <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E26" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="F26">
         <v>300264354</v>
@@ -8861,10 +8858,10 @@
         <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E27" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="F27">
         <v>300055931</v>
@@ -8878,10 +8875,10 @@
         <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E28" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="F28">
         <v>300264330</v>
@@ -8895,10 +8892,10 @@
         <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E29" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="F29">
         <v>300028569</v>
@@ -8912,10 +8909,10 @@
         <v>425</v>
       </c>
       <c r="D30" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E30" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8926,10 +8923,10 @@
         <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E31" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="F31">
         <v>300027267</v>
@@ -9209,7 +9206,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -9229,10 +9226,10 @@
         <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D2" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9243,10 +9240,10 @@
         <v>475</v>
       </c>
       <c r="C3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D3" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E3">
         <v>300025103</v>
@@ -9260,10 +9257,10 @@
         <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E4">
         <v>300024987</v>
@@ -9277,10 +9274,10 @@
         <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D5" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E5">
         <v>300025492</v>
@@ -9294,10 +9291,10 @@
         <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E6">
         <v>300386177</v>
@@ -9311,10 +9308,10 @@
         <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D7" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E7">
         <v>300025704</v>
@@ -9328,10 +9325,10 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D8" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E8">
         <v>300443565</v>
@@ -9345,10 +9342,10 @@
         <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D9" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E9">
         <v>300225705</v>
@@ -9362,10 +9359,10 @@
         <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D10" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E10">
         <v>300025671</v>
@@ -9379,10 +9376,10 @@
         <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D11" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E11">
         <v>300443565</v>
@@ -9407,10 +9404,10 @@
         <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D13" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E13">
         <v>300132961</v>
@@ -9424,10 +9421,10 @@
         <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D14" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E14">
         <v>300025732</v>
@@ -9441,10 +9438,10 @@
         <v>498</v>
       </c>
       <c r="C15" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D15" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E15">
         <v>300025190</v>
@@ -9469,10 +9466,10 @@
         <v>502</v>
       </c>
       <c r="C17" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D17" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E17">
         <v>300025687</v>
@@ -9486,10 +9483,10 @@
         <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D18" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9500,10 +9497,10 @@
         <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D19" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E19">
         <v>300025165</v>
@@ -9517,10 +9514,10 @@
         <v>508</v>
       </c>
       <c r="C20" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D20" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E20">
         <v>300025257</v>
@@ -9545,10 +9542,10 @@
         <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D22" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E22">
         <v>300025123</v>
@@ -9562,10 +9559,10 @@
         <v>514</v>
       </c>
       <c r="C23" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D23" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E23">
         <v>300311841</v>
@@ -9579,10 +9576,10 @@
         <v>516</v>
       </c>
       <c r="C24" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D24" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E24">
         <v>300025175</v>
@@ -9596,10 +9593,10 @@
         <v>518</v>
       </c>
       <c r="C25" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D25" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E25">
         <v>300251917</v>
@@ -9613,10 +9610,10 @@
         <v>520</v>
       </c>
       <c r="C26" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D26" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E26">
         <v>300137375</v>
@@ -9630,10 +9627,10 @@
         <v>521</v>
       </c>
       <c r="C27" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D27" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E27">
         <v>300121765</v>
@@ -9647,10 +9644,10 @@
         <v>523</v>
       </c>
       <c r="C28" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D28" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="E28">
         <v>300386629</v>
@@ -9664,10 +9661,10 @@
         <v>525</v>
       </c>
       <c r="C29" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D29" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E29">
         <v>300404126</v>
@@ -9692,10 +9689,10 @@
         <v>529</v>
       </c>
       <c r="C31" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D31" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E31">
         <v>300025654</v>
@@ -9709,10 +9706,10 @@
         <v>531</v>
       </c>
       <c r="C32" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D32" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E32">
         <v>300137375</v>
@@ -9726,10 +9723,10 @@
         <v>532</v>
       </c>
       <c r="C33" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D33" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E33">
         <v>300025492</v>
@@ -9743,10 +9740,10 @@
         <v>534</v>
       </c>
       <c r="C34" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D34" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E34">
         <v>300025574</v>
@@ -9760,10 +9757,10 @@
         <v>535</v>
       </c>
       <c r="C35" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D35" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E35">
         <v>300443565</v>
@@ -9777,10 +9774,10 @@
         <v>537</v>
       </c>
       <c r="C36" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D36" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E36">
         <v>300311841</v>
@@ -9794,10 +9791,10 @@
         <v>539</v>
       </c>
       <c r="C37" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D37" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9808,10 +9805,10 @@
         <v>540</v>
       </c>
       <c r="C38" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D38" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E38">
         <v>300025601</v>
@@ -9825,10 +9822,10 @@
         <v>542</v>
       </c>
       <c r="C39" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D39" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E39">
         <v>300417530</v>
@@ -9836,10 +9833,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="B40" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="F40" t="s">
         <v>1329</v>
@@ -9878,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -9898,10 +9895,10 @@
         <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D2" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E2">
         <v>300266234</v>
@@ -9915,7 +9912,7 @@
         <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="F3" t="s">
         <v>1329</v>
@@ -9929,10 +9926,10 @@
         <v>548</v>
       </c>
       <c r="C4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D4" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E4">
         <v>300129361</v>
@@ -9946,10 +9943,10 @@
         <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D5" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E5">
         <v>300129361</v>
@@ -9963,10 +9960,10 @@
         <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D6" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E6">
         <v>300127490</v>
@@ -9980,10 +9977,10 @@
         <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D7" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E7">
         <v>300311355</v>
@@ -10008,10 +10005,10 @@
         <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D9" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E9">
         <v>300129361</v>
@@ -10025,10 +10022,10 @@
         <v>560</v>
       </c>
       <c r="C10" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D10" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E10">
         <v>300127490</v>
@@ -10042,10 +10039,10 @@
         <v>562</v>
       </c>
       <c r="C11" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D11" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E11">
         <v>300127794</v>
@@ -10070,10 +10067,10 @@
         <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D13" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E13">
         <v>300128438</v>
@@ -10087,10 +10084,10 @@
         <v>568</v>
       </c>
       <c r="C14" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D14" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E14">
         <v>300266242</v>
@@ -10104,10 +10101,10 @@
         <v>570</v>
       </c>
       <c r="C15" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D15" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E15">
         <v>300266252</v>
@@ -10132,10 +10129,10 @@
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D17" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E17">
         <v>300130811</v>
@@ -10149,10 +10146,10 @@
         <v>576</v>
       </c>
       <c r="C18" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D18" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E18">
         <v>300266267</v>
@@ -10166,10 +10163,10 @@
         <v>578</v>
       </c>
       <c r="C19" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D19" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E19">
         <v>300129361</v>
@@ -10183,10 +10180,10 @@
         <v>580</v>
       </c>
       <c r="C20" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D20" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E20">
         <v>300127490</v>
@@ -10233,10 +10230,10 @@
         <v>588</v>
       </c>
       <c r="C24" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D24" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E24">
         <v>300126734</v>
@@ -10261,10 +10258,10 @@
         <v>592</v>
       </c>
       <c r="C26" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D26" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E26">
         <v>300311191</v>
@@ -10278,10 +10275,10 @@
         <v>594</v>
       </c>
       <c r="C27" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D27" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E27">
         <v>300130257</v>
@@ -10295,10 +10292,10 @@
         <v>596</v>
       </c>
       <c r="C28" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D28" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E28">
         <v>300126225</v>
@@ -10312,10 +10309,10 @@
         <v>598</v>
       </c>
       <c r="C29" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D29" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E29">
         <v>300124707</v>
@@ -10340,10 +10337,10 @@
         <v>602</v>
       </c>
       <c r="C31" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D31" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E31">
         <v>300266260</v>
@@ -10379,10 +10376,10 @@
         <v>608</v>
       </c>
       <c r="C34" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D34" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E34">
         <v>300129784</v>
@@ -10396,10 +10393,10 @@
         <v>610</v>
       </c>
       <c r="C35" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D35" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E35">
         <v>300311368</v>
@@ -10413,10 +10410,10 @@
         <v>612</v>
       </c>
       <c r="C36" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D36" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E36">
         <v>300130920</v>
@@ -10435,9 +10432,9 @@
   </sheetPr>
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A56" sqref="A56"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10459,7 +10456,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1157</v>
@@ -10490,10 +10487,10 @@
         <v>616</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E3" s="8">
         <v>300011015</v>
@@ -10507,10 +10504,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E4" s="14">
         <v>300011176</v>
@@ -10524,10 +10521,10 @@
         <v>620</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E5" s="8">
         <v>300010957</v>
@@ -10563,10 +10560,10 @@
         <v>626</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E8" s="8">
         <v>300011914</v>
@@ -10602,10 +10599,10 @@
         <v>632</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="E11" s="8">
         <v>300011099</v>
@@ -10631,10 +10628,10 @@
         <v>636</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E13" s="14">
         <v>300011176</v>
@@ -10648,10 +10645,10 @@
         <v>638</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E14" s="8">
         <v>300010797</v>
@@ -10687,10 +10684,10 @@
         <v>644</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E17" s="8">
         <v>300011914</v>
@@ -10704,10 +10701,10 @@
         <v>646</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E18" s="8">
         <v>300011002</v>
@@ -10721,10 +10718,10 @@
         <v>648</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E19" s="8">
         <v>300011857</v>
@@ -10738,10 +10735,10 @@
         <v>650</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E20" s="8">
         <v>300235507</v>
@@ -10755,10 +10752,10 @@
         <v>652</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E21" s="8">
         <v>300011020</v>
@@ -10772,10 +10769,10 @@
         <v>654</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E22" s="8">
         <v>300014570</v>
@@ -10800,10 +10797,10 @@
         <v>658</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E24" s="8">
         <v>300011914</v>
@@ -10817,10 +10814,10 @@
         <v>660</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E25" s="8">
         <v>300011443</v>
@@ -10834,10 +10831,10 @@
         <v>662</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E26" s="8">
         <v>300011443</v>
@@ -10862,10 +10859,10 @@
         <v>666</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E28" s="8">
         <v>300163347</v>
@@ -10879,10 +10876,10 @@
         <v>668</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E29" s="8">
         <v>300014741</v>
@@ -10896,10 +10893,10 @@
         <v>670</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E30" s="8">
         <v>300011914</v>
@@ -10913,10 +10910,10 @@
         <v>672</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E31" s="8">
         <v>300011914</v>
@@ -10930,10 +10927,10 @@
         <v>674</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E32" s="8">
         <v>300014436</v>
@@ -10947,10 +10944,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E33" s="8">
         <v>300014546</v>
@@ -10964,10 +10961,10 @@
         <v>677</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E34" s="8">
         <v>300010662</v>
@@ -10981,10 +10978,10 @@
         <v>679</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E35" s="14">
         <v>300011176</v>
@@ -10998,10 +10995,10 @@
         <v>681</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E36" s="8">
         <v>300010822</v>
@@ -11015,10 +11012,10 @@
         <v>683</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E37" s="14">
         <v>300011176</v>
@@ -11043,10 +11040,10 @@
         <v>604</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="E39" s="8">
         <v>300010669</v>
@@ -11060,10 +11057,10 @@
         <v>688</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E40" s="8">
         <v>300011914</v>
@@ -11088,10 +11085,10 @@
         <v>692</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E42" s="8">
         <v>300014585</v>
@@ -11105,10 +11102,10 @@
         <v>694</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E43" s="14">
         <v>300011176</v>
@@ -11122,10 +11119,10 @@
         <v>696</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E44" s="14">
         <v>300011176</v>
@@ -11139,10 +11136,10 @@
         <v>698</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E45" s="8">
         <v>300231565</v>
@@ -11178,10 +11175,10 @@
         <v>704</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E48" s="8">
         <v>300235507</v>
@@ -11206,10 +11203,10 @@
         <v>708</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E50" s="8">
         <v>300011798</v>
@@ -11234,10 +11231,10 @@
         <v>620</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E52" s="8">
         <v>300010957</v>
@@ -11251,16 +11248,16 @@
         <v>652</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E53" s="8">
         <v>300011020</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11271,10 +11268,10 @@
         <v>714</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E54" s="8">
         <v>300014078</v>
@@ -11288,10 +11285,10 @@
         <v>716</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E55" s="8">
         <v>300014078</v>
@@ -11305,10 +11302,10 @@
         <v>718</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="E56" s="8">
         <v>300014078</v>
@@ -11322,10 +11319,10 @@
         <v>720</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E57" s="8">
         <v>300014910</v>
@@ -11339,10 +11336,10 @@
         <v>722</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E58" s="8">
         <v>300010367</v>
@@ -11367,10 +11364,10 @@
         <v>726</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E60" s="8">
         <v>300014069</v>
@@ -11384,10 +11381,10 @@
         <v>728</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E61" s="8">
         <v>300011021</v>
@@ -11401,10 +11398,10 @@
         <v>730</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E62" s="8">
         <v>300014109</v>
@@ -11418,16 +11415,16 @@
         <v>638</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E63" s="8">
         <v>300010797</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -11438,16 +11435,16 @@
         <v>638</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E64" s="8">
         <v>300010797</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11458,10 +11455,10 @@
         <v>733</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E65" s="8">
         <v>300011914</v>
@@ -11475,16 +11472,16 @@
         <v>644</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E66" s="8">
         <v>300011914</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11495,16 +11492,16 @@
         <v>644</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E67" s="8">
         <v>300011914</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -11515,10 +11512,10 @@
         <v>736</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>1553</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>1555</v>
       </c>
       <c r="E68" s="8">
         <v>300411543</v>
@@ -11532,10 +11529,10 @@
         <v>648</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E69" s="6">
         <v>300011857</v>
@@ -11549,10 +11546,10 @@
         <v>739</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E70" s="8">
         <v>300014143</v>
@@ -11566,10 +11563,10 @@
         <v>741</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E71" s="8">
         <v>300231565</v>
@@ -11583,10 +11580,10 @@
         <v>743</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E72" s="8">
         <v>300435274</v>
@@ -11600,10 +11597,10 @@
         <v>745</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E73" s="8">
         <v>300014161</v>
@@ -11617,10 +11614,10 @@
         <v>747</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E74" s="8">
         <v>300014109</v>
@@ -11634,16 +11631,16 @@
         <v>749</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E75" s="8">
         <v>300014224</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11654,16 +11651,16 @@
         <v>749</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E76" s="8">
         <v>300014224</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -11674,10 +11671,10 @@
         <v>654</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E77" s="8">
         <v>300014570</v>
@@ -11691,10 +11688,10 @@
         <v>752</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E78" s="8">
         <v>300014069</v>
@@ -11708,10 +11705,10 @@
         <v>754</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E79" s="8">
         <v>300011845</v>
@@ -11725,10 +11722,10 @@
         <v>756</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E80" s="8">
         <v>300014069</v>
@@ -11742,10 +11739,10 @@
         <v>758</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="E81" s="8">
         <v>300011022</v>
@@ -11759,10 +11756,10 @@
         <v>760</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E82" s="8">
         <v>300014109</v>
@@ -11776,10 +11773,10 @@
         <v>660</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E83" s="8">
         <v>300011443</v>
@@ -11794,10 +11791,10 @@
         <v>763</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E84" s="8">
         <v>300390932</v>
@@ -11811,10 +11808,10 @@
         <v>765</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E85" s="8">
         <v>300010900</v>
@@ -11850,10 +11847,10 @@
         <v>770</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E88" s="8">
         <v>300014657</v>
@@ -11867,10 +11864,10 @@
         <v>772</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E89" s="8">
         <v>300011851</v>
@@ -11884,10 +11881,10 @@
         <v>774</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E90" s="8">
         <v>300014109</v>
@@ -11901,10 +11898,10 @@
         <v>776</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E91" s="8">
         <v>300014109</v>
@@ -11918,10 +11915,10 @@
         <v>778</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E92" s="8">
         <v>300011851</v>
@@ -11935,10 +11932,10 @@
         <v>780</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E93" s="8">
         <v>300010662</v>
@@ -11952,16 +11949,16 @@
         <v>782</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E94" s="8">
         <v>300014109</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11972,16 +11969,16 @@
         <v>782</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E95" s="8">
         <v>300014109</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11992,10 +11989,10 @@
         <v>784</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E96" s="8">
         <v>300014109</v>
@@ -12009,10 +12006,10 @@
         <v>786</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E97" s="8">
         <v>300014109</v>
@@ -12026,10 +12023,10 @@
         <v>788</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E98" s="8">
         <v>300027354</v>
@@ -12054,10 +12051,10 @@
         <v>792</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="E100" s="8">
         <v>300014206</v>
@@ -12071,10 +12068,10 @@
         <v>683</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E101" s="14">
         <v>300011176</v>
@@ -12088,10 +12085,10 @@
         <v>795</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E102" s="8">
         <v>300010900</v>
@@ -12105,10 +12102,10 @@
         <v>797</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E103" s="8">
         <v>300014248</v>
@@ -12122,10 +12119,10 @@
         <v>799</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="E104" s="8">
         <v>300012849</v>
@@ -12139,10 +12136,10 @@
         <v>801</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E105" s="8">
         <v>300231565</v>
@@ -12156,10 +12153,10 @@
         <v>803</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="E106" s="8">
         <v>300014203</v>
@@ -12184,10 +12181,10 @@
         <v>806</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="E108" s="8">
         <v>300014184</v>
@@ -12201,10 +12198,10 @@
         <v>646</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E109" s="8">
         <v>300011002</v>
@@ -12218,10 +12215,10 @@
         <v>700</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E110" s="8">
         <v>300011037</v>
@@ -12235,10 +12232,10 @@
         <v>698</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="E111" s="8">
         <v>300231565</v>
@@ -12252,16 +12249,16 @@
         <v>811</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E112" s="8">
         <v>300243428</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -12272,16 +12269,16 @@
         <v>811</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E113" s="8">
         <v>300243428</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -12292,10 +12289,10 @@
         <v>813</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E114" s="8">
         <v>300022453</v>
@@ -12309,10 +12306,10 @@
         <v>815</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E115" s="6">
         <v>300138699</v>
@@ -12326,10 +12323,10 @@
         <v>817</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E116" s="8">
         <v>300011729</v>
@@ -12343,13 +12340,13 @@
         <v>819</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1467</v>
+        <v>1527</v>
       </c>
       <c r="E117" s="8">
-        <v>300179099</v>
+        <v>300163347</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
@@ -12360,10 +12357,10 @@
         <v>821</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E118" s="8">
         <v>300012862</v>
@@ -12377,10 +12374,10 @@
         <v>823</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E119" s="8">
         <v>300015012</v>
@@ -12394,10 +12391,10 @@
         <v>825</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E120" s="8">
         <v>300022413</v>
@@ -12411,10 +12408,10 @@
         <v>827</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E121" s="8">
         <v>300022441</v>
@@ -12428,10 +12425,10 @@
         <v>829</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E122" s="8">
         <v>300022413</v>
@@ -12445,10 +12442,10 @@
         <v>831</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E123" s="6">
         <v>300053277</v>
@@ -12462,10 +12459,10 @@
         <v>833</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E124" s="8">
         <v>300022439</v>
@@ -12479,10 +12476,10 @@
         <v>835</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E125" s="8">
         <v>300015018</v>
@@ -12496,10 +12493,10 @@
         <v>837</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E126" s="8">
         <v>300230810</v>
@@ -12513,10 +12510,10 @@
         <v>839</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E127" s="8">
         <v>300015018</v>
@@ -12530,10 +12527,10 @@
         <v>841</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="E128" s="8">
         <v>300122621</v>
@@ -12547,10 +12544,10 @@
         <v>843</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E129" s="6">
         <v>300022452</v>
@@ -12564,10 +12561,10 @@
         <v>845</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E130" s="8">
         <v>300022439</v>
@@ -12581,10 +12578,10 @@
         <v>847</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E131" s="6">
         <v>300022552</v>
@@ -12598,10 +12595,10 @@
         <v>849</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E132" s="8">
         <v>300015012</v>
@@ -12615,10 +12612,10 @@
         <v>600</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E133" s="8">
         <v>300080064</v>
@@ -12632,10 +12629,10 @@
         <v>852</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E134" s="8">
         <v>300417481</v>
@@ -12649,10 +12646,10 @@
         <v>854</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E135" s="8">
         <v>300022458</v>
@@ -12666,10 +12663,10 @@
         <v>856</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E136" s="8">
         <v>300167812</v>
@@ -12705,10 +12702,10 @@
         <v>862</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E139" s="8">
         <v>300053796</v>
@@ -12722,10 +12719,10 @@
         <v>864</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="E140" s="6">
         <v>300053867</v>
@@ -12739,10 +12736,10 @@
         <v>866</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E141" s="8">
         <v>300311416</v>
@@ -12756,10 +12753,10 @@
         <v>868</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E142" s="8">
         <v>300054216</v>
@@ -12773,10 +12770,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -12790,10 +12787,10 @@
         <v>872</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E144" s="8">
         <v>300443550</v>
@@ -12807,10 +12804,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -12818,13 +12815,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B146" s="11" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="E146" s="20">
         <v>300014156</v>
@@ -12845,8 +12842,8 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12865,7 +12862,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1157</v>
@@ -12885,10 +12882,10 @@
         <v>1032</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E2" s="14">
         <v>300015045</v>
@@ -12902,10 +12899,10 @@
         <v>1160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E3" s="6">
         <v>300411597</v>
@@ -12930,10 +12927,10 @@
         <v>1164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E5" s="8">
         <v>300070114</v>
@@ -12947,10 +12944,10 @@
         <v>1166</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E6" s="8">
         <v>300053386</v>
@@ -13343,10 +13340,10 @@
         <v>1169</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E54" s="6">
         <v>300053241</v>
@@ -13382,10 +13379,10 @@
         <v>1174</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E57" s="6">
         <v>300053242</v>
@@ -13399,10 +13396,10 @@
         <v>1176</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E58" s="6">
         <v>300155640</v>
@@ -13416,10 +13413,10 @@
         <v>1178</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E59" s="6">
         <v>300263218</v>
@@ -13433,10 +13430,10 @@
         <v>1180</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="E60" s="6">
         <v>300041340</v>
@@ -13450,10 +13447,10 @@
         <v>1182</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E61" s="8">
         <v>300053220</v>
@@ -13467,10 +13464,10 @@
         <v>1184</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E62" s="8">
         <v>300053272</v>
@@ -13495,10 +13492,10 @@
         <v>1188</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E64" s="8">
         <v>300265178</v>
@@ -13512,10 +13509,10 @@
         <v>1190</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E65" s="8">
         <v>300265082</v>
@@ -13540,10 +13537,10 @@
         <v>1194</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E67" s="6">
         <v>300053228</v>
@@ -13557,10 +13554,10 @@
         <v>1196</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E68" s="8">
         <v>300053241</v>
@@ -13574,10 +13571,10 @@
         <v>1169</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E69" s="8">
         <v>300053241</v>
@@ -13591,10 +13588,10 @@
         <v>1199</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E70" s="8">
         <v>300053207</v>
@@ -13608,10 +13605,10 @@
         <v>1201</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E71" s="8">
         <v>300053275</v>
@@ -13625,10 +13622,10 @@
         <v>1203</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E72" s="8">
         <v>300053303</v>
@@ -13642,10 +13639,10 @@
         <v>1205</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E73" s="8">
         <v>300053296</v>
@@ -13659,10 +13656,10 @@
         <v>1207</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E74" s="8">
         <v>300053242</v>
@@ -13676,10 +13673,10 @@
         <v>1209</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E75" s="8">
         <v>300263381</v>
@@ -13693,10 +13690,10 @@
         <v>1211</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E76" s="8">
         <v>300053303</v>
@@ -13710,10 +13707,10 @@
         <v>1213</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E77" s="8">
         <v>300053296</v>
@@ -13727,10 +13724,10 @@
         <v>1215</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E78" s="8">
         <v>300154361</v>
@@ -13755,10 +13752,10 @@
         <v>1219</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E80" s="8">
         <v>300053271</v>
@@ -13772,10 +13769,10 @@
         <v>1221</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E81" s="8">
         <v>300343476</v>
@@ -13789,10 +13786,10 @@
         <v>1223</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E82" s="8">
         <v>300053239</v>
@@ -13806,10 +13803,10 @@
         <v>1225</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E83" s="8">
         <v>300190531</v>
@@ -13823,10 +13820,10 @@
         <v>1227</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E84" s="8">
         <v>300154361</v>
@@ -13840,10 +13837,10 @@
         <v>1229</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E85" s="8">
         <v>300053204</v>
@@ -13857,10 +13854,10 @@
         <v>1231</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E86" s="8">
         <v>300053231</v>
@@ -13874,10 +13871,10 @@
         <v>1233</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E87" s="8">
         <v>300060720</v>
@@ -13891,10 +13888,10 @@
         <v>1235</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E88" s="8">
         <v>300053271</v>
@@ -13908,10 +13905,10 @@
         <v>1237</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E89" s="8">
         <v>300053285</v>
@@ -13944,10 +13941,10 @@
         <v>1243</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E92" s="8">
         <v>300053233</v>
@@ -13961,10 +13958,10 @@
         <v>1245</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E93" s="8">
         <v>300053277</v>
@@ -14000,10 +13997,10 @@
         <v>1251</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E96" s="9">
         <v>300053279</v>
@@ -14028,10 +14025,10 @@
         <v>1255</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E98" s="8">
         <v>300190536</v>
@@ -14045,10 +14042,10 @@
         <v>1257</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E99" s="8">
         <v>300053285</v>
@@ -14062,10 +14059,10 @@
         <v>1259</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E100" s="8">
         <v>300053239</v>
@@ -14112,10 +14109,10 @@
         <v>1267</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E104" s="8">
         <v>300053271</v>
@@ -14129,10 +14126,10 @@
         <v>1269</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E105" s="8">
         <v>300157897</v>
@@ -14146,10 +14143,10 @@
         <v>1271</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E106" s="8">
         <v>300053251</v>
@@ -14163,10 +14160,10 @@
         <v>1273</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E107" s="8">
         <v>300157968</v>
@@ -14180,10 +14177,10 @@
         <v>1275</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E108" s="8">
         <v>300053281</v>
@@ -14197,10 +14194,10 @@
         <v>1277</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E109" s="14">
         <v>300014426</v>
@@ -14214,10 +14211,10 @@
         <v>1279</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1445</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1446</v>
       </c>
       <c r="E110" s="6">
         <v>300053366</v>
@@ -14231,10 +14228,10 @@
         <v>1281</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E111" s="14">
         <v>300015050</v>
@@ -14248,10 +14245,10 @@
         <v>1283</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E112" s="14">
         <v>300015062</v>
@@ -14265,10 +14262,10 @@
         <v>1285</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E113" s="14">
         <v>300015050</v>
@@ -14558,10 +14555,10 @@
         <v>1287</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E137" s="8">
         <v>300053781</v>
@@ -14575,10 +14572,10 @@
         <v>1289</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E138" s="8">
         <v>300053104</v>
@@ -14592,10 +14589,10 @@
         <v>1291</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E139" s="8">
         <v>300053225</v>
@@ -14620,10 +14617,10 @@
         <v>862</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E141" s="8">
         <v>300053796</v>
@@ -14637,10 +14634,10 @@
         <v>1296</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E142" s="8">
         <v>300010902</v>
@@ -14654,10 +14651,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -14682,10 +14679,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -14699,10 +14696,10 @@
         <v>1032</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E146" s="14">
         <v>300015045</v>
@@ -14716,10 +14713,10 @@
         <v>1174</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E147" s="6">
         <v>300053242</v>
@@ -14744,10 +14741,10 @@
         <v>1306</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E149" s="8">
         <v>300013351</v>
@@ -14761,10 +14758,10 @@
         <v>1194</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E150" s="6">
         <v>300053228</v>
@@ -14778,10 +14775,10 @@
         <v>1309</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E151" s="14">
         <v>300015071</v>
@@ -14806,10 +14803,10 @@
         <v>1313</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E153" s="8">
         <v>300053363</v>
@@ -14823,10 +14820,10 @@
         <v>1315</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E154" s="8">
         <v>300404638</v>
@@ -14840,10 +14837,10 @@
         <v>1225</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E155" s="8">
         <v>300190531</v>
@@ -14857,10 +14854,10 @@
         <v>1318</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E156" s="8">
         <v>300417481</v>
@@ -14874,10 +14871,10 @@
         <v>1243</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E157" s="8">
         <v>300053233</v>
@@ -14891,10 +14888,10 @@
         <v>1281</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E158" s="14">
         <v>300015050</v>
@@ -14919,10 +14916,10 @@
         <v>1324</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E160" s="8">
         <v>300404072</v>
@@ -14936,10 +14933,10 @@
         <v>1271</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E161" s="8">
         <v>300053251</v>
@@ -14953,10 +14950,10 @@
         <v>1327</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E162" s="14">
         <v>300015045</v>
@@ -14994,7 +14991,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -15047,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -15067,10 +15064,10 @@
         <v>877</v>
       </c>
       <c r="C2" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D2" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E2">
         <v>300026823</v>
@@ -15084,10 +15081,10 @@
         <v>879</v>
       </c>
       <c r="C3" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D3" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E3">
         <v>300026867</v>
@@ -15101,10 +15098,10 @@
         <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E4">
         <v>300026879</v>
@@ -15118,10 +15115,10 @@
         <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D5" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E5">
         <v>300026816</v>
@@ -15135,10 +15132,10 @@
         <v>884</v>
       </c>
       <c r="C6" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D6" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E6">
         <v>300026030</v>
@@ -15152,10 +15149,10 @@
         <v>886</v>
       </c>
       <c r="C7" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D7" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="E7">
         <v>300028051</v>
@@ -15169,10 +15166,10 @@
         <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D8" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E8">
         <v>300026879</v>
@@ -15186,10 +15183,10 @@
         <v>889</v>
       </c>
       <c r="C9" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D9" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E9">
         <v>300026942</v>
@@ -15214,10 +15211,10 @@
         <v>893</v>
       </c>
       <c r="C11" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D11" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E11">
         <v>300026942</v>
@@ -15231,10 +15228,10 @@
         <v>895</v>
       </c>
       <c r="C12" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D12" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E12">
         <v>300264639</v>
@@ -15248,10 +15245,10 @@
         <v>897</v>
       </c>
       <c r="C13" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D13" t="s">
         <v>1620</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1622</v>
       </c>
       <c r="E13">
         <v>300212274</v>
@@ -15265,10 +15262,10 @@
         <v>286</v>
       </c>
       <c r="C14" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D14" t="s">
         <v>1697</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1699</v>
       </c>
       <c r="E14">
         <v>300136847</v>
@@ -15282,10 +15279,10 @@
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D15" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E15">
         <v>300046300</v>
@@ -15299,10 +15296,10 @@
         <v>901</v>
       </c>
       <c r="C16" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D16" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E16">
         <v>300049060</v>
@@ -15316,10 +15313,10 @@
         <v>903</v>
       </c>
       <c r="C17" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D17" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E17">
         <v>300053225</v>
@@ -15333,10 +15330,10 @@
         <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D18" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E18">
         <v>300028569</v>
@@ -15350,10 +15347,10 @@
         <v>906</v>
       </c>
       <c r="C19" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D19" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E19">
         <v>300053463</v>
@@ -15367,10 +15364,10 @@
         <v>908</v>
       </c>
       <c r="C20" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D20" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E20">
         <v>300048715</v>
@@ -15384,10 +15381,10 @@
         <v>910</v>
       </c>
       <c r="C21" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D21" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E21">
         <v>300026931</v>
@@ -15401,10 +15398,10 @@
         <v>912</v>
       </c>
       <c r="C22" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D22" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E22">
         <v>300026867</v>
@@ -15440,10 +15437,10 @@
         <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D25" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E25">
         <v>300264354</v>
@@ -15457,10 +15454,10 @@
         <v>919</v>
       </c>
       <c r="C26" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D26" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E26">
         <v>300027200</v>
@@ -15474,10 +15471,10 @@
         <v>921</v>
       </c>
       <c r="C27" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D27" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E27">
         <v>300262918</v>
@@ -15502,10 +15499,10 @@
         <v>924</v>
       </c>
       <c r="C29" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="D29" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E29">
         <v>300264639</v>
@@ -15541,10 +15538,10 @@
         <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D32" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="E32">
         <v>300026819</v>
@@ -15558,10 +15555,10 @@
         <v>931</v>
       </c>
       <c r="C33" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D33" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="E33">
         <v>300027264</v>
@@ -15575,10 +15572,10 @@
         <v>933</v>
       </c>
       <c r="C34" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D34" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="E34">
         <v>300311954</v>
@@ -15592,10 +15589,10 @@
         <v>935</v>
       </c>
       <c r="C35" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D35" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="E35">
         <v>300134722</v>
@@ -15609,10 +15606,10 @@
         <v>937</v>
       </c>
       <c r="C36" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D36" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E36">
         <v>300145802</v>
@@ -15637,10 +15634,10 @@
         <v>941</v>
       </c>
       <c r="C38" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="D38" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E38">
         <v>300027200</v>
@@ -15676,10 +15673,10 @@
         <v>947</v>
       </c>
       <c r="C41" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D41" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="E41">
         <v>300026096</v>
@@ -15693,10 +15690,10 @@
         <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D42" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E42">
         <v>300026909</v>
@@ -15721,10 +15718,10 @@
         <v>952</v>
       </c>
       <c r="C44" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="D44" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="E44">
         <v>300127478</v>
@@ -15738,10 +15735,10 @@
         <v>954</v>
       </c>
       <c r="C45" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D45" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E45">
         <v>300026657</v>
@@ -15755,10 +15752,10 @@
         <v>956</v>
       </c>
       <c r="C46" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D46" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E46">
         <v>300247929</v>
@@ -15772,10 +15769,10 @@
         <v>958</v>
       </c>
       <c r="C47" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D47" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="E47">
         <v>300027083</v>
@@ -15789,10 +15786,10 @@
         <v>960</v>
       </c>
       <c r="C48" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D48" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E48">
         <v>300026068</v>
@@ -15817,10 +15814,10 @@
         <v>964</v>
       </c>
       <c r="C50" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="D50" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E50">
         <v>300026823</v>
@@ -15834,10 +15831,10 @@
         <v>966</v>
       </c>
       <c r="C51" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D51" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="E51">
         <v>300026074</v>
@@ -15939,10 +15936,10 @@
         <v>978</v>
       </c>
       <c r="C60" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D60" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E60">
         <v>300027388</v>
@@ -15978,10 +15975,10 @@
         <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D63" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E63">
         <v>300263886</v>
@@ -15995,10 +15992,10 @@
         <v>986</v>
       </c>
       <c r="C64" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D64" t="s">
         <v>1583</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1585</v>
       </c>
       <c r="E64">
         <v>300034104</v>
@@ -16012,10 +16009,10 @@
         <v>950</v>
       </c>
       <c r="C65" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D65" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E65">
         <v>300033973</v>
@@ -16029,10 +16026,10 @@
         <v>989</v>
       </c>
       <c r="C66" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D66" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E66">
         <v>300263898</v>
@@ -16046,10 +16043,10 @@
         <v>991</v>
       </c>
       <c r="C67" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D67" t="s">
         <v>1587</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1589</v>
       </c>
       <c r="E67">
         <v>300266808</v>
@@ -16063,10 +16060,10 @@
         <v>993</v>
       </c>
       <c r="C68" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D68" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E68">
         <v>300234117</v>
@@ -16080,10 +16077,10 @@
         <v>995</v>
       </c>
       <c r="C69" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D69" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E69">
         <v>300343358</v>
@@ -16097,10 +16094,10 @@
         <v>997</v>
       </c>
       <c r="C70" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D70" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E70">
         <v>300266810</v>
@@ -16114,10 +16111,10 @@
         <v>999</v>
       </c>
       <c r="C71" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D71" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="E71">
         <v>300133005</v>
@@ -16131,10 +16128,10 @@
         <v>1001</v>
       </c>
       <c r="C72" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D72" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E72">
         <v>300046025</v>
@@ -16148,10 +16145,10 @@
         <v>1003</v>
       </c>
       <c r="C73" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D73" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="E73">
         <v>300028884</v>
@@ -16165,10 +16162,10 @@
         <v>1005</v>
       </c>
       <c r="C74" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D74" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E74">
         <v>300037680</v>
@@ -16182,10 +16179,10 @@
         <v>1007</v>
       </c>
       <c r="C75" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D75" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="E75">
         <v>300041620</v>
@@ -16199,10 +16196,10 @@
         <v>1009</v>
       </c>
       <c r="C76" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D76" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E76">
         <v>300215545</v>
@@ -16216,10 +16213,10 @@
         <v>1011</v>
       </c>
       <c r="C77" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D77" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E77">
         <v>300263853</v>
@@ -16233,10 +16230,10 @@
         <v>1013</v>
       </c>
       <c r="C78" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D78" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E78">
         <v>300433073</v>
@@ -16250,10 +16247,10 @@
         <v>1015</v>
       </c>
       <c r="C79" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D79" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E79">
         <v>300014842</v>
@@ -16267,10 +16264,10 @@
         <v>1017</v>
       </c>
       <c r="C80" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D80" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E80">
         <v>300168224</v>
@@ -16284,10 +16281,10 @@
         <v>1019</v>
       </c>
       <c r="C81" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D81" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E81">
         <v>300209286</v>
@@ -16301,10 +16298,10 @@
         <v>1021</v>
       </c>
       <c r="C82" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D82" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E82">
         <v>300231565</v>
@@ -16318,10 +16315,10 @@
         <v>1023</v>
       </c>
       <c r="C83" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D83" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E83">
         <v>300233975</v>
@@ -16335,10 +16332,10 @@
         <v>1025</v>
       </c>
       <c r="C84" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D84" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E84">
         <v>300195678</v>
@@ -16352,10 +16349,10 @@
         <v>1027</v>
       </c>
       <c r="C85" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D85" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="E85">
         <v>300224230</v>
@@ -16369,10 +16366,10 @@
         <v>1029</v>
       </c>
       <c r="C86" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D86" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E86">
         <v>300036926</v>
@@ -16380,13 +16377,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="C87" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D87" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E87">
         <v>300257199</v>
@@ -16394,13 +16391,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C88" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D88" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="E88">
         <v>300262254</v>
@@ -16408,13 +16405,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C89" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D89" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="E89">
         <v>300046230</v>
@@ -16422,13 +16419,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C90" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D90" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E90">
         <v>300046227</v>
@@ -16436,13 +16433,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="C91" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="D91" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E91">
         <v>300193993</v>
@@ -16480,7 +16477,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -16500,7 +16497,7 @@
         <v>1030</v>
       </c>
       <c r="C2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D2" t="s">
         <v>1030</v>
@@ -16514,10 +16511,10 @@
         <v>1032</v>
       </c>
       <c r="C3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D3" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16539,10 +16536,10 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D5" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -16553,10 +16550,10 @@
         <v>1036</v>
       </c>
       <c r="C6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D6" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16567,10 +16564,10 @@
         <v>1036</v>
       </c>
       <c r="C7" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D7" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16581,10 +16578,10 @@
         <v>1039</v>
       </c>
       <c r="C8" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D8" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16606,10 +16603,10 @@
         <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D10" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -16620,10 +16617,10 @@
         <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D11" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -16645,10 +16642,10 @@
         <v>1043</v>
       </c>
       <c r="C13" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D13" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -16659,10 +16656,10 @@
         <v>1045</v>
       </c>
       <c r="C14" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D14" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16673,10 +16670,10 @@
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D15" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16687,10 +16684,10 @@
         <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D16" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -16701,10 +16698,10 @@
         <v>1048</v>
       </c>
       <c r="C17" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D17" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -16715,10 +16712,10 @@
         <v>1049</v>
       </c>
       <c r="C18" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D18" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -16729,7 +16726,7 @@
         <v>1051</v>
       </c>
       <c r="C19" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D19" t="s">
         <v>1051</v>
@@ -16743,10 +16740,10 @@
         <v>1045</v>
       </c>
       <c r="C20" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D20" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -16757,10 +16754,10 @@
         <v>950</v>
       </c>
       <c r="C21" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D21" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
   </sheetData>
@@ -16795,7 +16792,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -16815,10 +16812,10 @@
         <v>1056</v>
       </c>
       <c r="C2" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D2" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E2">
         <v>300022453</v>
@@ -16832,10 +16829,10 @@
         <v>854</v>
       </c>
       <c r="C3" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D3" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E3">
         <v>300022458</v>
@@ -16860,10 +16857,10 @@
         <v>823</v>
       </c>
       <c r="C5" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D5" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E5">
         <v>300015012</v>
@@ -16877,10 +16874,10 @@
         <v>845</v>
       </c>
       <c r="C6" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="D6" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E6">
         <v>300022439</v>
@@ -16919,7 +16916,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -16939,10 +16936,10 @@
         <v>1063</v>
       </c>
       <c r="C2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D2" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E2">
         <v>300388256</v>
@@ -16956,10 +16953,10 @@
         <v>1065</v>
       </c>
       <c r="C3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D3" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E3">
         <v>300388277</v>
@@ -16973,10 +16970,10 @@
         <v>1067</v>
       </c>
       <c r="C4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E4">
         <v>300388306</v>
@@ -16990,10 +16987,10 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D5" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E5">
         <v>300388344</v>
@@ -17007,10 +17004,10 @@
         <v>1070</v>
       </c>
       <c r="C6" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D6" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E6">
         <v>300387827</v>
@@ -17024,10 +17021,10 @@
         <v>1070</v>
       </c>
       <c r="C7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D7" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E7">
         <v>300389734</v>
@@ -17041,10 +17038,10 @@
         <v>1073</v>
       </c>
       <c r="C8" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D8" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E8">
         <v>300388401</v>
@@ -17058,10 +17055,10 @@
         <v>1075</v>
       </c>
       <c r="C9" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D9" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E9">
         <v>300388474</v>
@@ -17075,10 +17072,10 @@
         <v>1077</v>
       </c>
       <c r="C10" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D10" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E10">
         <v>300388693</v>
@@ -17092,10 +17089,10 @@
         <v>1079</v>
       </c>
       <c r="C11" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D11" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E11">
         <v>300443706</v>
@@ -17109,10 +17106,10 @@
         <v>1081</v>
       </c>
       <c r="C12" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D12" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E12">
         <v>300389115</v>
@@ -17126,10 +17123,10 @@
         <v>1083</v>
       </c>
       <c r="C13" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D13" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E13">
         <v>300389311</v>
@@ -17143,10 +17140,10 @@
         <v>1085</v>
       </c>
       <c r="C14" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D14" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E14">
         <v>300389336</v>
@@ -17160,10 +17157,10 @@
         <v>1087</v>
       </c>
       <c r="C15" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D15" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="E15">
         <v>300388737</v>
@@ -17177,10 +17174,10 @@
         <v>1089</v>
       </c>
       <c r="C16" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D16" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E16">
         <v>300388256</v>
@@ -17194,10 +17191,10 @@
         <v>1091</v>
       </c>
       <c r="C17" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D17" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E17">
         <v>300388256</v>
@@ -17236,7 +17233,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -17267,10 +17264,10 @@
         <v>1094</v>
       </c>
       <c r="C3" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D3" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E3">
         <v>300417206</v>
@@ -17284,10 +17281,10 @@
         <v>1095</v>
       </c>
       <c r="C4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D4" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E4">
         <v>300055029</v>
@@ -17301,10 +17298,10 @@
         <v>1096</v>
       </c>
       <c r="C5" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D5" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E5">
         <v>300055029</v>
@@ -17329,10 +17326,10 @@
         <v>1100</v>
       </c>
       <c r="C7" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D7" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E7">
         <v>300417198</v>
@@ -17346,10 +17343,10 @@
         <v>1102</v>
       </c>
       <c r="C8" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="D8" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E8">
         <v>300417196</v>
@@ -17386,7 +17383,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -17441,7 +17438,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -17461,10 +17458,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D2" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E2">
         <v>300435415</v>
@@ -17478,10 +17475,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D3" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E3">
         <v>300435425</v>
@@ -17495,10 +17492,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D4" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E4">
         <v>300435416</v>
@@ -17512,10 +17509,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D5" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E5">
         <v>300435416</v>
@@ -17529,10 +17526,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D6" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E6">
         <v>300435438</v>
@@ -17546,7 +17543,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D7" t="s">
         <v>1331</v>
@@ -17563,10 +17560,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D8" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -17577,10 +17574,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D9" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E9">
         <v>300435415</v>
@@ -17594,10 +17591,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D10" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E10">
         <v>300435416</v>
@@ -17622,10 +17619,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D12" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E12">
         <v>300435416</v>
@@ -17639,7 +17636,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D13" t="s">
         <v>1331</v>
@@ -17656,7 +17653,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D14" t="s">
         <v>1331</v>
@@ -17673,10 +17670,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D15" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E15">
         <v>300435415</v>
@@ -17690,10 +17687,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D16" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E16">
         <v>300435415</v>
@@ -17707,10 +17704,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D17" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E17">
         <v>300435416</v>
@@ -17735,10 +17732,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D19" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E19">
         <v>300435415</v>
@@ -17749,7 +17746,7 @@
         <v>1332</v>
       </c>
       <c r="C20" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D20" t="s">
         <v>1332</v>
@@ -17760,7 +17757,7 @@
         <v>1333</v>
       </c>
       <c r="C21" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D21" t="s">
         <v>1333</v>
@@ -17768,24 +17765,24 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C22" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D22" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C23" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D23" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -17819,7 +17816,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -17894,7 +17891,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -18332,7 +18329,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -18396,7 +18393,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -18454,7 +18451,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18472,7 +18469,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -18530,13 +18527,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D6" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E6">
         <v>300435416</v>
@@ -18544,13 +18541,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="C7" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D7" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
   </sheetData>
@@ -18584,7 +18581,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="9" activeTab="9"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -6269,7 +6269,7 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3:E10"/>
     </sheetView>
   </sheetViews>
@@ -6491,8 +6491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8397,6 +8397,9 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15021,6 +15024,9 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="10"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1735">
   <si>
     <t>code</t>
   </si>
@@ -5013,9 +5013,6 @@
   <si>
     <t xml:space="preserve">kenmerken/lhmateriaalob/lhmateriaalsoortob
 </t>
-  </si>
-  <si>
-    <t>engravings (prints)</t>
   </si>
   <si>
     <t>polishing</t>
@@ -6323,7 +6320,7 @@
         <v>1398</v>
       </c>
       <c r="D3" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6491,7 +6488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -6590,7 +6587,7 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D2" t="s">
         <v>1402</v>
@@ -6607,10 +6604,10 @@
         <v>165</v>
       </c>
       <c r="C3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D3" t="s">
         <v>1633</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1634</v>
       </c>
       <c r="E3">
         <v>300250949</v>
@@ -6624,10 +6621,10 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D4" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E4">
         <v>300312154</v>
@@ -6641,10 +6638,10 @@
         <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D5" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E5">
         <v>300026676</v>
@@ -6658,10 +6655,10 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D6" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E6">
         <v>300027573</v>
@@ -6675,10 +6672,10 @@
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D7" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E7">
         <v>300027621</v>
@@ -6692,10 +6689,10 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D8" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E8">
         <v>300027392</v>
@@ -6709,10 +6706,10 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D9" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="E9">
         <v>300027527</v>
@@ -6726,10 +6723,10 @@
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D10" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E10">
         <v>300027621</v>
@@ -6743,10 +6740,10 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D11" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6757,10 +6754,10 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D12" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E12">
         <v>300027764</v>
@@ -6774,10 +6771,10 @@
         <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D13" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E13">
         <v>300026925</v>
@@ -6791,10 +6788,10 @@
         <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="D14" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="E14">
         <v>300201447</v>
@@ -6808,7 +6805,7 @@
         <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D15" t="s">
         <v>1403</v>
@@ -6825,10 +6822,10 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D16" t="s">
         <v>1604</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1605</v>
       </c>
       <c r="E16">
         <v>300026816</v>
@@ -6842,10 +6839,10 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D17" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E17">
         <v>300026882</v>
@@ -6859,10 +6856,10 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D18" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E18">
         <v>300026114</v>
@@ -6876,10 +6873,10 @@
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D19" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E19">
         <v>300149026</v>
@@ -6893,10 +6890,10 @@
         <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D20" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E20">
         <v>300240262</v>
@@ -6910,10 +6907,10 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D21" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E21">
         <v>300026778</v>
@@ -6938,10 +6935,10 @@
         <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D23" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E23">
         <v>300026931</v>
@@ -6955,10 +6952,10 @@
         <v>205</v>
       </c>
       <c r="C24" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D24" t="s">
         <v>1604</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1605</v>
       </c>
       <c r="E24">
         <v>300026816</v>
@@ -6972,10 +6969,10 @@
         <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D25" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E25">
         <v>300026819</v>
@@ -6989,10 +6986,10 @@
         <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D26" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E26">
         <v>300026909</v>
@@ -7006,10 +7003,10 @@
         <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D27" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E27">
         <v>300400813</v>
@@ -7023,10 +7020,10 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D28" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E28">
         <v>300026823</v>
@@ -7040,10 +7037,10 @@
         <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D29" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E29">
         <v>300026931</v>
@@ -7057,10 +7054,10 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D30" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E30">
         <v>300026487</v>
@@ -7085,7 +7082,7 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D32" t="s">
         <v>1404</v>
@@ -7094,7 +7091,7 @@
         <v>300026030</v>
       </c>
       <c r="G32" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -7105,7 +7102,7 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D33" t="s">
         <v>1405</v>
@@ -7114,7 +7111,7 @@
         <v>300026942</v>
       </c>
       <c r="G33" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -7125,10 +7122,10 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D34" t="s">
         <v>1618</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1619</v>
       </c>
       <c r="E34">
         <v>300027473</v>
@@ -7142,10 +7139,10 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D35" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E35">
         <v>300212274</v>
@@ -7159,10 +7156,10 @@
         <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D36" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E36">
         <v>300026676</v>
@@ -7176,10 +7173,10 @@
         <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D37" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E37">
         <v>300026799</v>
@@ -7193,10 +7190,10 @@
         <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D38" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E38">
         <v>300026756</v>
@@ -7210,10 +7207,10 @@
         <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D39" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E39">
         <v>300026867</v>
@@ -7227,10 +7224,10 @@
         <v>235</v>
       </c>
       <c r="C40" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D40" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E40">
         <v>300212274</v>
@@ -7244,10 +7241,10 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D41" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="E41">
         <v>300026432</v>
@@ -7261,10 +7258,10 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D42" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E42">
         <v>300255378</v>
@@ -7278,10 +7275,10 @@
         <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D43" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E43">
         <v>300026424</v>
@@ -7295,10 +7292,10 @@
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D44" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E44">
         <v>300027191</v>
@@ -7312,10 +7309,10 @@
         <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D45" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E45">
         <v>300026443</v>
@@ -7329,10 +7326,10 @@
         <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D46" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E46">
         <v>300262918</v>
@@ -7368,10 +7365,10 @@
         <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D49" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="E49">
         <v>300027240</v>
@@ -7385,10 +7382,10 @@
         <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D50" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E50">
         <v>300049060</v>
@@ -7405,7 +7402,7 @@
         <v>1444</v>
       </c>
       <c r="D51" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E51">
         <v>300252927</v>
@@ -7422,7 +7419,7 @@
         <v>1444</v>
       </c>
       <c r="D52" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E52">
         <v>300247929</v>
@@ -7439,7 +7436,7 @@
         <v>1444</v>
       </c>
       <c r="D53" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E53">
         <v>300053319</v>
@@ -7453,10 +7450,10 @@
         <v>263</v>
       </c>
       <c r="C54" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D54" t="s">
         <v>1644</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1645</v>
       </c>
       <c r="E54">
         <v>300026693</v>
@@ -7470,10 +7467,10 @@
         <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D55" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E55">
         <v>300027489</v>
@@ -7487,10 +7484,10 @@
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D56" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E56">
         <v>300027496</v>
@@ -7504,10 +7501,10 @@
         <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D57" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="E57">
         <v>300027045</v>
@@ -7521,10 +7518,10 @@
         <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D58" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7535,10 +7532,10 @@
         <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D59" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E59">
         <v>300404333</v>
@@ -7552,10 +7549,10 @@
         <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D60" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E60">
         <v>300404333</v>
@@ -7572,7 +7569,7 @@
         <v>1444</v>
       </c>
       <c r="D61" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E61">
         <v>300247929</v>
@@ -7586,10 +7583,10 @@
         <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D62" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7600,10 +7597,10 @@
         <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D63" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7614,10 +7611,10 @@
         <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D64" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7628,10 +7625,10 @@
         <v>284</v>
       </c>
       <c r="C65" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D65" t="s">
         <v>1695</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1696</v>
       </c>
       <c r="E65">
         <v>300266791</v>
@@ -7645,10 +7642,10 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D66" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E66">
         <v>300136847</v>
@@ -7662,7 +7659,7 @@
         <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D67" t="s">
         <v>1407</v>
@@ -7679,10 +7676,10 @@
         <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D68" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E68">
         <v>300028467</v>
@@ -7699,7 +7696,7 @@
         <v>1444</v>
       </c>
       <c r="D70" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E70">
         <v>300053319</v>
@@ -7716,7 +7713,7 @@
         <v>1444</v>
       </c>
       <c r="D71" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="E71">
         <v>300374824</v>
@@ -7741,10 +7738,10 @@
         <v>298</v>
       </c>
       <c r="C73" t="s">
+        <v>1717</v>
+      </c>
+      <c r="D73" t="s">
         <v>1718</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1719</v>
       </c>
       <c r="E73">
         <v>300417667</v>
@@ -7758,10 +7755,10 @@
         <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D74" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7772,10 +7769,10 @@
         <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D75" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E75">
         <v>300028705</v>
@@ -8182,7 +8179,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8219,10 +8216,10 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="D2" t="s">
         <v>1706</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1707</v>
       </c>
       <c r="E2">
         <v>300128366</v>
@@ -8236,10 +8233,10 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D3" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E3">
         <v>300128357</v>
@@ -8253,10 +8250,10 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D4" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E4">
         <v>300128359</v>
@@ -8270,10 +8267,10 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D5" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E5">
         <v>300127181</v>
@@ -8286,8 +8283,8 @@
       <c r="B6" t="s">
         <v>357</v>
       </c>
-      <c r="C6" t="s">
-        <v>1706</v>
+      <c r="F6" t="s">
+        <v>1329</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -8298,10 +8295,10 @@
         <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D7" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E7">
         <v>300265083</v>
@@ -8315,10 +8312,10 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E8">
         <v>300115233</v>
@@ -8332,10 +8329,10 @@
         <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D9" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E9">
         <v>300128374</v>
@@ -8349,10 +8346,10 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D10" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E10">
         <v>300128343</v>
@@ -8366,10 +8363,10 @@
         <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D11" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E11">
         <v>300128347</v>
@@ -8377,13 +8374,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C12" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D12" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="E12">
         <v>300026695</v>
@@ -8445,10 +8442,10 @@
         <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E2" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F2">
         <v>300026710</v>
@@ -8462,10 +8459,10 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E3" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="F3">
         <v>300027473</v>
@@ -8479,10 +8476,10 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E4" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8493,10 +8490,10 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E5" t="s">
         <v>1576</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1577</v>
       </c>
       <c r="F5">
         <v>300417554</v>
@@ -8510,7 +8507,7 @@
         <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E6" t="s">
         <v>1383</v>
@@ -8527,7 +8524,7 @@
         <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E7" t="s">
         <v>1383</v>
@@ -8544,7 +8541,7 @@
         <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E8" t="s">
         <v>1384</v>
@@ -8561,7 +8558,7 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E9" t="s">
         <v>1385</v>
@@ -8578,7 +8575,7 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E10" t="s">
         <v>1386</v>
@@ -8595,7 +8592,7 @@
         <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E11" t="s">
         <v>1406</v>
@@ -8612,7 +8609,7 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E12" t="s">
         <v>1387</v>
@@ -8629,7 +8626,7 @@
         <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E13" t="s">
         <v>1406</v>
@@ -8646,7 +8643,7 @@
         <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E14" t="s">
         <v>1386</v>
@@ -8663,7 +8660,7 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E15" t="s">
         <v>1388</v>
@@ -8680,7 +8677,7 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E16" t="s">
         <v>1389</v>
@@ -8697,7 +8694,7 @@
         <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E17" t="s">
         <v>1390</v>
@@ -8714,7 +8711,7 @@
         <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E18" t="s">
         <v>1391</v>
@@ -8731,7 +8728,7 @@
         <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E19" t="s">
         <v>1392</v>
@@ -8748,7 +8745,7 @@
         <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E20" t="s">
         <v>1393</v>
@@ -8776,7 +8773,7 @@
         <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E22" t="s">
         <v>1394</v>
@@ -8793,7 +8790,7 @@
         <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E23" t="s">
         <v>1395</v>
@@ -8810,10 +8807,10 @@
         <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E24" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="F24">
         <v>300027200</v>
@@ -8827,10 +8824,10 @@
         <v>415</v>
       </c>
       <c r="D25" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E25" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="F25">
         <v>300026427</v>
@@ -8844,10 +8841,10 @@
         <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E26" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F26">
         <v>300264354</v>
@@ -8861,10 +8858,10 @@
         <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E27" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="F27">
         <v>300055931</v>
@@ -8878,10 +8875,10 @@
         <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E28" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="F28">
         <v>300264330</v>
@@ -8895,7 +8892,7 @@
         <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="E29" t="s">
         <v>1406</v>
@@ -8912,10 +8909,10 @@
         <v>425</v>
       </c>
       <c r="D30" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="E30" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8926,10 +8923,10 @@
         <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E31" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F31">
         <v>300027267</v>
@@ -9650,7 +9647,7 @@
         <v>1437</v>
       </c>
       <c r="D28" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E28">
         <v>300386629</v>
@@ -9836,10 +9833,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B40" t="s">
         <v>1728</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1729</v>
       </c>
       <c r="F40" t="s">
         <v>1329</v>
@@ -12725,7 +12722,7 @@
         <v>1444</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E140" s="6">
         <v>300053867</v>
@@ -12818,13 +12815,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B146" s="11" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>1551</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="E146" s="20">
         <v>300014156</v>
@@ -12844,9 +12841,9 @@
   </sheetPr>
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13436,10 +13433,10 @@
         <v>1444</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1573</v>
+        <v>1464</v>
       </c>
       <c r="E60" s="6">
-        <v>300041340</v>
+        <v>300053225</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -15070,10 +15067,10 @@
         <v>877</v>
       </c>
       <c r="C2" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D2" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E2">
         <v>300026823</v>
@@ -15087,10 +15084,10 @@
         <v>879</v>
       </c>
       <c r="C3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D3" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E3">
         <v>300026867</v>
@@ -15104,7 +15101,7 @@
         <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D4" t="s">
         <v>1403</v>
@@ -15121,10 +15118,10 @@
         <v>191</v>
       </c>
       <c r="C5" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D5" t="s">
         <v>1604</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1605</v>
       </c>
       <c r="E5">
         <v>300026816</v>
@@ -15138,7 +15135,7 @@
         <v>884</v>
       </c>
       <c r="C6" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D6" t="s">
         <v>1404</v>
@@ -15155,10 +15152,10 @@
         <v>886</v>
       </c>
       <c r="C7" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D7" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="E7">
         <v>300028051</v>
@@ -15172,7 +15169,7 @@
         <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D8" t="s">
         <v>1403</v>
@@ -15189,7 +15186,7 @@
         <v>889</v>
       </c>
       <c r="C9" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D9" t="s">
         <v>1405</v>
@@ -15217,7 +15214,7 @@
         <v>893</v>
       </c>
       <c r="C11" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D11" t="s">
         <v>1405</v>
@@ -15234,10 +15231,10 @@
         <v>895</v>
       </c>
       <c r="C12" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D12" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E12">
         <v>300264639</v>
@@ -15251,10 +15248,10 @@
         <v>897</v>
       </c>
       <c r="C13" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D13" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E13">
         <v>300212274</v>
@@ -15268,10 +15265,10 @@
         <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D14" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E14">
         <v>300136847</v>
@@ -15285,7 +15282,7 @@
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D15" t="s">
         <v>1407</v>
@@ -15302,10 +15299,10 @@
         <v>901</v>
       </c>
       <c r="C16" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D16" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E16">
         <v>300049060</v>
@@ -15336,7 +15333,7 @@
         <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D18" t="s">
         <v>1406</v>
@@ -15356,7 +15353,7 @@
         <v>1444</v>
       </c>
       <c r="D19" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E19">
         <v>300053463</v>
@@ -15370,10 +15367,10 @@
         <v>908</v>
       </c>
       <c r="C20" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D20" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E20">
         <v>300048715</v>
@@ -15387,10 +15384,10 @@
         <v>910</v>
       </c>
       <c r="C21" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D21" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E21">
         <v>300026931</v>
@@ -15404,10 +15401,10 @@
         <v>912</v>
       </c>
       <c r="C22" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D22" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E22">
         <v>300026867</v>
@@ -15443,10 +15440,10 @@
         <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D25" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E25">
         <v>300264354</v>
@@ -15460,10 +15457,10 @@
         <v>919</v>
       </c>
       <c r="C26" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D26" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E26">
         <v>300027200</v>
@@ -15477,10 +15474,10 @@
         <v>921</v>
       </c>
       <c r="C27" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D27" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E27">
         <v>300262918</v>
@@ -15505,10 +15502,10 @@
         <v>924</v>
       </c>
       <c r="C29" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D29" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E29">
         <v>300264639</v>
@@ -15544,10 +15541,10 @@
         <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D32" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E32">
         <v>300026819</v>
@@ -15561,10 +15558,10 @@
         <v>931</v>
       </c>
       <c r="C33" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D33" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E33">
         <v>300027264</v>
@@ -15578,10 +15575,10 @@
         <v>933</v>
       </c>
       <c r="C34" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D34" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E34">
         <v>300311954</v>
@@ -15595,10 +15592,10 @@
         <v>935</v>
       </c>
       <c r="C35" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D35" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="E35">
         <v>300134722</v>
@@ -15612,10 +15609,10 @@
         <v>937</v>
       </c>
       <c r="C36" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D36" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E36">
         <v>300145802</v>
@@ -15640,10 +15637,10 @@
         <v>941</v>
       </c>
       <c r="C38" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="D38" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E38">
         <v>300027200</v>
@@ -15679,10 +15676,10 @@
         <v>947</v>
       </c>
       <c r="C41" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D41" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E41">
         <v>300026096</v>
@@ -15696,10 +15693,10 @@
         <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D42" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E42">
         <v>300026909</v>
@@ -15724,10 +15721,10 @@
         <v>952</v>
       </c>
       <c r="C44" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D44" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E44">
         <v>300127478</v>
@@ -15741,10 +15738,10 @@
         <v>954</v>
       </c>
       <c r="C45" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D45" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E45">
         <v>300026657</v>
@@ -15761,7 +15758,7 @@
         <v>1444</v>
       </c>
       <c r="D46" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="E46">
         <v>300247929</v>
@@ -15775,10 +15772,10 @@
         <v>958</v>
       </c>
       <c r="C47" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D47" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E47">
         <v>300027083</v>
@@ -15792,10 +15789,10 @@
         <v>960</v>
       </c>
       <c r="C48" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D48" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E48">
         <v>300026068</v>
@@ -15820,10 +15817,10 @@
         <v>964</v>
       </c>
       <c r="C50" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D50" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="E50">
         <v>300026823</v>
@@ -15837,10 +15834,10 @@
         <v>966</v>
       </c>
       <c r="C51" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D51" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E51">
         <v>300026074</v>
@@ -15981,10 +15978,10 @@
         <v>205</v>
       </c>
       <c r="C63" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D63" t="s">
         <v>1581</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1582</v>
       </c>
       <c r="E63">
         <v>300263886</v>
@@ -15998,10 +15995,10 @@
         <v>986</v>
       </c>
       <c r="C64" t="s">
-        <v>1581</v>
+        <v>1580</v>
       </c>
       <c r="D64" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E64">
         <v>300034104</v>
@@ -16015,7 +16012,7 @@
         <v>950</v>
       </c>
       <c r="C65" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D65" t="s">
         <v>1408</v>
@@ -16032,10 +16029,10 @@
         <v>989</v>
       </c>
       <c r="C66" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D66" t="s">
         <v>1585</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1586</v>
       </c>
       <c r="E66">
         <v>300263898</v>
@@ -16049,10 +16046,10 @@
         <v>991</v>
       </c>
       <c r="C67" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D67" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E67">
         <v>300266808</v>
@@ -16066,10 +16063,10 @@
         <v>993</v>
       </c>
       <c r="C68" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D68" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E68">
         <v>300234117</v>
@@ -16083,10 +16080,10 @@
         <v>995</v>
       </c>
       <c r="C69" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D69" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E69">
         <v>300343358</v>
@@ -16100,10 +16097,10 @@
         <v>997</v>
       </c>
       <c r="C70" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D70" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E70">
         <v>300266810</v>
@@ -16117,10 +16114,10 @@
         <v>999</v>
       </c>
       <c r="C71" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D71" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E71">
         <v>300133005</v>
@@ -16134,10 +16131,10 @@
         <v>1001</v>
       </c>
       <c r="C72" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D72" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E72">
         <v>300046025</v>
@@ -16151,10 +16148,10 @@
         <v>1003</v>
       </c>
       <c r="C73" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D73" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E73">
         <v>300028884</v>
@@ -16168,10 +16165,10 @@
         <v>1005</v>
       </c>
       <c r="C74" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D74" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E74">
         <v>300037680</v>
@@ -16185,10 +16182,10 @@
         <v>1007</v>
       </c>
       <c r="C75" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D75" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E75">
         <v>300041620</v>
@@ -16202,10 +16199,10 @@
         <v>1009</v>
       </c>
       <c r="C76" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D76" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E76">
         <v>300215545</v>
@@ -16219,10 +16216,10 @@
         <v>1011</v>
       </c>
       <c r="C77" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D77" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E77">
         <v>300263853</v>
@@ -16236,10 +16233,10 @@
         <v>1013</v>
       </c>
       <c r="C78" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D78" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E78">
         <v>300433073</v>
@@ -16253,10 +16250,10 @@
         <v>1015</v>
       </c>
       <c r="C79" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D79" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E79">
         <v>300014842</v>
@@ -16270,10 +16267,10 @@
         <v>1017</v>
       </c>
       <c r="C80" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D80" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E80">
         <v>300168224</v>
@@ -16287,10 +16284,10 @@
         <v>1019</v>
       </c>
       <c r="C81" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D81" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E81">
         <v>300209286</v>
@@ -16304,7 +16301,7 @@
         <v>1021</v>
       </c>
       <c r="C82" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D82" t="s">
         <v>1517</v>
@@ -16321,10 +16318,10 @@
         <v>1023</v>
       </c>
       <c r="C83" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D83" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E83">
         <v>300233975</v>
@@ -16338,10 +16335,10 @@
         <v>1025</v>
       </c>
       <c r="C84" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D84" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E84">
         <v>300195678</v>
@@ -16355,10 +16352,10 @@
         <v>1027</v>
       </c>
       <c r="C85" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D85" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E85">
         <v>300224230</v>
@@ -16372,10 +16369,10 @@
         <v>1029</v>
       </c>
       <c r="C86" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D86" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="E86">
         <v>300036926</v>
@@ -16383,13 +16380,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D87" t="s">
         <v>1675</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1676</v>
       </c>
       <c r="E87">
         <v>300257199</v>
@@ -16397,13 +16394,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="C88" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="D88" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="E88">
         <v>300262254</v>
@@ -16411,13 +16408,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D89" t="s">
         <v>1670</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1671</v>
       </c>
       <c r="E89">
         <v>300046230</v>
@@ -16425,13 +16422,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D90" t="s">
         <v>1673</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1585</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1674</v>
       </c>
       <c r="E90">
         <v>300046227</v>
@@ -16439,13 +16436,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C91" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D91" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="E91">
         <v>300193993</v>
@@ -16520,7 +16517,7 @@
         <v>1438</v>
       </c>
       <c r="D3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16545,7 +16542,7 @@
         <v>1438</v>
       </c>
       <c r="D5" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -16559,7 +16556,7 @@
         <v>1438</v>
       </c>
       <c r="D6" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16573,7 +16570,7 @@
         <v>1438</v>
       </c>
       <c r="D7" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16587,7 +16584,7 @@
         <v>1438</v>
       </c>
       <c r="D8" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16612,7 +16609,7 @@
         <v>1438</v>
       </c>
       <c r="D10" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -16626,7 +16623,7 @@
         <v>1438</v>
       </c>
       <c r="D11" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -16651,7 +16648,7 @@
         <v>1438</v>
       </c>
       <c r="D13" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -16665,7 +16662,7 @@
         <v>1438</v>
       </c>
       <c r="D14" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16679,7 +16676,7 @@
         <v>1438</v>
       </c>
       <c r="D15" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16693,7 +16690,7 @@
         <v>1438</v>
       </c>
       <c r="D16" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -16707,7 +16704,7 @@
         <v>1438</v>
       </c>
       <c r="D17" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -16721,7 +16718,7 @@
         <v>1438</v>
       </c>
       <c r="D18" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -16749,7 +16746,7 @@
         <v>1438</v>
       </c>
       <c r="D20" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -16763,7 +16760,7 @@
         <v>1438</v>
       </c>
       <c r="D21" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
   </sheetData>
@@ -17569,7 +17566,7 @@
         <v>1396</v>
       </c>
       <c r="D8" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -17771,24 +17768,24 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C22" t="s">
         <v>1396</v>
       </c>
       <c r="D22" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C23" t="s">
         <v>1396</v>
       </c>
       <c r="D23" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
   </sheetData>
@@ -18533,7 +18530,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C6" t="s">
         <v>1397</v>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -4430,9 +4430,6 @@
     <t>Low German (language)</t>
   </si>
   <si>
-    <t>unidentified (information indicator)</t>
-  </si>
-  <si>
     <t>filter</t>
   </si>
   <si>
@@ -5499,6 +5496,9 @@
   </si>
   <si>
     <t>reconstructie</t>
+  </si>
+  <si>
+    <t>zonder datum</t>
   </si>
 </sst>
 </file>
@@ -6266,8 +6266,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6317,10 +6317,10 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D3" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6331,7 +6331,7 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D4" t="s">
         <v>1334</v>
@@ -6348,7 +6348,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D5" t="s">
         <v>1335</v>
@@ -6365,7 +6365,7 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D6" t="s">
         <v>1334</v>
@@ -6382,13 +6382,10 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D7" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E7">
-        <v>300386154</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6399,7 +6396,7 @@
         <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D8" t="s">
         <v>1336</v>
@@ -6413,7 +6410,7 @@
         <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D9" t="s">
         <v>1337</v>
@@ -6427,7 +6424,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D10" t="s">
         <v>1334</v>
@@ -6587,10 +6584,10 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D2" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E2">
         <v>300164785</v>
@@ -6604,10 +6601,10 @@
         <v>165</v>
       </c>
       <c r="C3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D3" t="s">
         <v>1632</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1633</v>
       </c>
       <c r="E3">
         <v>300250949</v>
@@ -6621,10 +6618,10 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D4" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="E4">
         <v>300312154</v>
@@ -6638,10 +6635,10 @@
         <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D5" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E5">
         <v>300026676</v>
@@ -6655,10 +6652,10 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D6" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="E6">
         <v>300027573</v>
@@ -6672,10 +6669,10 @@
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D7" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E7">
         <v>300027621</v>
@@ -6689,10 +6686,10 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D8" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="E8">
         <v>300027392</v>
@@ -6706,10 +6703,10 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D9" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E9">
         <v>300027527</v>
@@ -6723,10 +6720,10 @@
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D10" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="E10">
         <v>300027621</v>
@@ -6740,10 +6737,10 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D11" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6754,10 +6751,10 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D12" t="s">
-        <v>1640</v>
+        <v>1639</v>
       </c>
       <c r="E12">
         <v>300027764</v>
@@ -6771,10 +6768,10 @@
         <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D13" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="E13">
         <v>300026925</v>
@@ -6788,10 +6785,10 @@
         <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="D14" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="E14">
         <v>300201447</v>
@@ -6805,10 +6802,10 @@
         <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D15" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E15">
         <v>300026879</v>
@@ -6822,10 +6819,10 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D16" t="s">
         <v>1603</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1604</v>
       </c>
       <c r="E16">
         <v>300026816</v>
@@ -6839,10 +6836,10 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D17" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="E17">
         <v>300026882</v>
@@ -6856,10 +6853,10 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D18" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="E18">
         <v>300026114</v>
@@ -6873,10 +6870,10 @@
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D19" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="E19">
         <v>300149026</v>
@@ -6890,10 +6887,10 @@
         <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D20" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="E20">
         <v>300240262</v>
@@ -6907,10 +6904,10 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D21" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="E21">
         <v>300026778</v>
@@ -6935,10 +6932,10 @@
         <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D23" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E23">
         <v>300026931</v>
@@ -6952,10 +6949,10 @@
         <v>205</v>
       </c>
       <c r="C24" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D24" t="s">
         <v>1603</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1604</v>
       </c>
       <c r="E24">
         <v>300026816</v>
@@ -6969,10 +6966,10 @@
         <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D25" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E25">
         <v>300026819</v>
@@ -6986,10 +6983,10 @@
         <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D26" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E26">
         <v>300026909</v>
@@ -7003,10 +7000,10 @@
         <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D27" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="E27">
         <v>300400813</v>
@@ -7020,10 +7017,10 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D28" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E28">
         <v>300026823</v>
@@ -7037,10 +7034,10 @@
         <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D29" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E29">
         <v>300026931</v>
@@ -7054,10 +7051,10 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D30" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E30">
         <v>300026487</v>
@@ -7082,16 +7079,16 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D32" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E32">
         <v>300026030</v>
       </c>
       <c r="G32" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -7102,16 +7099,16 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D33" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E33">
         <v>300026942</v>
       </c>
       <c r="G33" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -7122,10 +7119,10 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D34" t="s">
         <v>1617</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1618</v>
       </c>
       <c r="E34">
         <v>300027473</v>
@@ -7139,10 +7136,10 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D35" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E35">
         <v>300212274</v>
@@ -7156,10 +7153,10 @@
         <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D36" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="E36">
         <v>300026676</v>
@@ -7173,10 +7170,10 @@
         <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D37" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="E37">
         <v>300026799</v>
@@ -7190,10 +7187,10 @@
         <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D38" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="E38">
         <v>300026756</v>
@@ -7207,10 +7204,10 @@
         <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D39" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E39">
         <v>300026867</v>
@@ -7224,10 +7221,10 @@
         <v>235</v>
       </c>
       <c r="C40" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D40" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E40">
         <v>300212274</v>
@@ -7241,10 +7238,10 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D41" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
       <c r="E41">
         <v>300026432</v>
@@ -7258,10 +7255,10 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D42" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="E42">
         <v>300255378</v>
@@ -7275,10 +7272,10 @@
         <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D43" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="E43">
         <v>300026424</v>
@@ -7292,10 +7289,10 @@
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D44" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="E44">
         <v>300027191</v>
@@ -7309,10 +7306,10 @@
         <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D45" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="E45">
         <v>300026443</v>
@@ -7326,10 +7323,10 @@
         <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D46" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E46">
         <v>300262918</v>
@@ -7365,10 +7362,10 @@
         <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D49" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="E49">
         <v>300027240</v>
@@ -7382,10 +7379,10 @@
         <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D50" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E50">
         <v>300049060</v>
@@ -7399,10 +7396,10 @@
         <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D51" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="E51">
         <v>300252927</v>
@@ -7416,10 +7413,10 @@
         <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D52" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E52">
         <v>300247929</v>
@@ -7433,10 +7430,10 @@
         <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D53" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E53">
         <v>300053319</v>
@@ -7450,10 +7447,10 @@
         <v>263</v>
       </c>
       <c r="C54" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D54" t="s">
         <v>1643</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1644</v>
       </c>
       <c r="E54">
         <v>300026693</v>
@@ -7467,10 +7464,10 @@
         <v>265</v>
       </c>
       <c r="C55" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D55" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="E55">
         <v>300027489</v>
@@ -7484,10 +7481,10 @@
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D56" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="E56">
         <v>300027496</v>
@@ -7501,10 +7498,10 @@
         <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D57" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="E57">
         <v>300027045</v>
@@ -7518,10 +7515,10 @@
         <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="D58" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7532,10 +7529,10 @@
         <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D59" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E59">
         <v>300404333</v>
@@ -7549,10 +7546,10 @@
         <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D60" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="E60">
         <v>300404333</v>
@@ -7566,10 +7563,10 @@
         <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D61" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E61">
         <v>300247929</v>
@@ -7583,10 +7580,10 @@
         <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D62" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7597,10 +7594,10 @@
         <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D63" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7611,10 +7608,10 @@
         <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D64" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7625,10 +7622,10 @@
         <v>284</v>
       </c>
       <c r="C65" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D65" t="s">
         <v>1694</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1695</v>
       </c>
       <c r="E65">
         <v>300266791</v>
@@ -7642,10 +7639,10 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D66" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E66">
         <v>300136847</v>
@@ -7659,10 +7656,10 @@
         <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D67" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E67">
         <v>300046300</v>
@@ -7676,10 +7673,10 @@
         <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D68" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="E68">
         <v>300028467</v>
@@ -7693,10 +7690,10 @@
         <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D70" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="E70">
         <v>300053319</v>
@@ -7710,10 +7707,10 @@
         <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D71" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="E71">
         <v>300374824</v>
@@ -7738,10 +7735,10 @@
         <v>298</v>
       </c>
       <c r="C73" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D73" t="s">
         <v>1717</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1718</v>
       </c>
       <c r="E73">
         <v>300417667</v>
@@ -7755,10 +7752,10 @@
         <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D74" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7769,10 +7766,10 @@
         <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="D75" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="E75">
         <v>300028705</v>
@@ -7831,10 +7828,10 @@
         <v>304</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D2" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7845,10 +7842,10 @@
         <v>306</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D3" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7859,10 +7856,10 @@
         <v>308</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D4" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7873,10 +7870,10 @@
         <v>310</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D5" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7887,10 +7884,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D6" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7912,10 +7909,10 @@
         <v>315</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D8" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E8">
         <v>300027388</v>
@@ -7973,10 +7970,10 @@
         <v>310</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D13" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7987,10 +7984,10 @@
         <v>325</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D14" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="E14">
         <v>300026614</v>
@@ -8070,10 +8067,10 @@
         <v>339</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D21" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -8106,10 +8103,10 @@
         <v>345</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D24" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -8216,10 +8213,10 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D2" t="s">
         <v>1705</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1706</v>
       </c>
       <c r="E2">
         <v>300128366</v>
@@ -8233,10 +8230,10 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D3" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="E3">
         <v>300128357</v>
@@ -8250,10 +8247,10 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D4" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="E4">
         <v>300128359</v>
@@ -8267,10 +8264,10 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D5" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="E5">
         <v>300127181</v>
@@ -8295,10 +8292,10 @@
         <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D7" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="E7">
         <v>300265083</v>
@@ -8312,10 +8309,10 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="E8">
         <v>300115233</v>
@@ -8329,10 +8326,10 @@
         <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D9" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="E9">
         <v>300128374</v>
@@ -8346,10 +8343,10 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D10" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="E10">
         <v>300128343</v>
@@ -8363,10 +8360,10 @@
         <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D11" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="E11">
         <v>300128347</v>
@@ -8374,13 +8371,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C12" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D12" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="E12">
         <v>300026695</v>
@@ -8416,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -8442,10 +8439,10 @@
         <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E2" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="F2">
         <v>300026710</v>
@@ -8459,10 +8456,10 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E3" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="F3">
         <v>300027473</v>
@@ -8476,10 +8473,10 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E4" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8490,10 +8487,10 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E5" t="s">
         <v>1575</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1576</v>
       </c>
       <c r="F5">
         <v>300417554</v>
@@ -8507,10 +8504,10 @@
         <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F6">
         <v>300138696</v>
@@ -8524,10 +8521,10 @@
         <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E7" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F7">
         <v>300138696</v>
@@ -8541,10 +8538,10 @@
         <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E8" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F8">
         <v>300053623</v>
@@ -8558,10 +8555,10 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E9" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F9">
         <v>300047457</v>
@@ -8575,10 +8572,10 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E10" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F10">
         <v>300047724</v>
@@ -8592,10 +8589,10 @@
         <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E11" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F11">
         <v>300028569</v>
@@ -8609,10 +8606,10 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E12" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F12">
         <v>300047469</v>
@@ -8626,10 +8623,10 @@
         <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E13" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F13">
         <v>300028569</v>
@@ -8643,10 +8640,10 @@
         <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E14" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F14">
         <v>300047724</v>
@@ -8660,10 +8657,10 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E15" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F15">
         <v>300047896</v>
@@ -8677,10 +8674,10 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E16" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F16">
         <v>300262520</v>
@@ -8694,10 +8691,10 @@
         <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E17" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F17">
         <v>300077357</v>
@@ -8711,10 +8708,10 @@
         <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E18" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F18">
         <v>300138758</v>
@@ -8728,10 +8725,10 @@
         <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E19" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F19">
         <v>300047837</v>
@@ -8745,10 +8742,10 @@
         <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F20">
         <v>300010262</v>
@@ -8773,10 +8770,10 @@
         <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E22" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F22">
         <v>300343592</v>
@@ -8790,10 +8787,10 @@
         <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="E23" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="F23">
         <v>300404835</v>
@@ -8807,10 +8804,10 @@
         <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E24" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="F24">
         <v>300027200</v>
@@ -8824,10 +8821,10 @@
         <v>415</v>
       </c>
       <c r="D25" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E25" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="F25">
         <v>300026427</v>
@@ -8841,10 +8838,10 @@
         <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E26" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F26">
         <v>300264354</v>
@@ -8858,10 +8855,10 @@
         <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E27" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="F27">
         <v>300055931</v>
@@ -8875,10 +8872,10 @@
         <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E28" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F28">
         <v>300264330</v>
@@ -8892,10 +8889,10 @@
         <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="E29" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="F29">
         <v>300028569</v>
@@ -8909,10 +8906,10 @@
         <v>425</v>
       </c>
       <c r="D30" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="E30" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8923,10 +8920,10 @@
         <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="E31" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F31">
         <v>300027267</v>
@@ -9226,10 +9223,10 @@
         <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D2" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9240,10 +9237,10 @@
         <v>475</v>
       </c>
       <c r="C3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D3" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E3">
         <v>300025103</v>
@@ -9257,10 +9254,10 @@
         <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D4" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E4">
         <v>300024987</v>
@@ -9274,10 +9271,10 @@
         <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D5" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E5">
         <v>300025492</v>
@@ -9291,10 +9288,10 @@
         <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D6" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E6">
         <v>300386177</v>
@@ -9308,10 +9305,10 @@
         <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D7" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E7">
         <v>300025704</v>
@@ -9325,10 +9322,10 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D8" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E8">
         <v>300443565</v>
@@ -9342,10 +9339,10 @@
         <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D9" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E9">
         <v>300225705</v>
@@ -9359,10 +9356,10 @@
         <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D10" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E10">
         <v>300025671</v>
@@ -9376,10 +9373,10 @@
         <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D11" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E11">
         <v>300443565</v>
@@ -9404,10 +9401,10 @@
         <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D13" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E13">
         <v>300132961</v>
@@ -9421,10 +9418,10 @@
         <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D14" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E14">
         <v>300025732</v>
@@ -9438,10 +9435,10 @@
         <v>498</v>
       </c>
       <c r="C15" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D15" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E15">
         <v>300025190</v>
@@ -9466,10 +9463,10 @@
         <v>502</v>
       </c>
       <c r="C17" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D17" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="E17">
         <v>300025687</v>
@@ -9483,10 +9480,10 @@
         <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D18" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9497,10 +9494,10 @@
         <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D19" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E19">
         <v>300025165</v>
@@ -9514,10 +9511,10 @@
         <v>508</v>
       </c>
       <c r="C20" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D20" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E20">
         <v>300025257</v>
@@ -9542,10 +9539,10 @@
         <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D22" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E22">
         <v>300025123</v>
@@ -9559,10 +9556,10 @@
         <v>514</v>
       </c>
       <c r="C23" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D23" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E23">
         <v>300311841</v>
@@ -9576,10 +9573,10 @@
         <v>516</v>
       </c>
       <c r="C24" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D24" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E24">
         <v>300025175</v>
@@ -9593,10 +9590,10 @@
         <v>518</v>
       </c>
       <c r="C25" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D25" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E25">
         <v>300251917</v>
@@ -9610,10 +9607,10 @@
         <v>520</v>
       </c>
       <c r="C26" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D26" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E26">
         <v>300137375</v>
@@ -9627,10 +9624,10 @@
         <v>521</v>
       </c>
       <c r="C27" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D27" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E27">
         <v>300121765</v>
@@ -9644,10 +9641,10 @@
         <v>523</v>
       </c>
       <c r="C28" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D28" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="E28">
         <v>300386629</v>
@@ -9661,10 +9658,10 @@
         <v>525</v>
       </c>
       <c r="C29" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D29" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E29">
         <v>300404126</v>
@@ -9689,10 +9686,10 @@
         <v>529</v>
       </c>
       <c r="C31" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D31" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E31">
         <v>300025654</v>
@@ -9706,10 +9703,10 @@
         <v>531</v>
       </c>
       <c r="C32" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D32" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E32">
         <v>300137375</v>
@@ -9723,10 +9720,10 @@
         <v>532</v>
       </c>
       <c r="C33" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D33" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E33">
         <v>300025492</v>
@@ -9740,10 +9737,10 @@
         <v>534</v>
       </c>
       <c r="C34" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D34" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="E34">
         <v>300025574</v>
@@ -9757,10 +9754,10 @@
         <v>535</v>
       </c>
       <c r="C35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D35" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E35">
         <v>300443565</v>
@@ -9774,10 +9771,10 @@
         <v>537</v>
       </c>
       <c r="C36" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D36" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E36">
         <v>300311841</v>
@@ -9791,10 +9788,10 @@
         <v>539</v>
       </c>
       <c r="C37" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D37" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9805,10 +9802,10 @@
         <v>540</v>
       </c>
       <c r="C38" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D38" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E38">
         <v>300025601</v>
@@ -9822,10 +9819,10 @@
         <v>542</v>
       </c>
       <c r="C39" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D39" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E39">
         <v>300417530</v>
@@ -9833,10 +9830,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B40" t="s">
         <v>1727</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1728</v>
       </c>
       <c r="F40" t="s">
         <v>1329</v>
@@ -9895,7 +9892,7 @@
         <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D2" t="s">
         <v>1338</v>
@@ -9912,7 +9909,7 @@
         <v>546</v>
       </c>
       <c r="C3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="F3" t="s">
         <v>1329</v>
@@ -9926,7 +9923,7 @@
         <v>548</v>
       </c>
       <c r="C4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D4" t="s">
         <v>1339</v>
@@ -9943,7 +9940,7 @@
         <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D5" t="s">
         <v>1339</v>
@@ -9960,7 +9957,7 @@
         <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D6" t="s">
         <v>1340</v>
@@ -9977,7 +9974,7 @@
         <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D7" t="s">
         <v>1341</v>
@@ -10005,7 +10002,7 @@
         <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D9" t="s">
         <v>1339</v>
@@ -10022,7 +10019,7 @@
         <v>560</v>
       </c>
       <c r="C10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D10" t="s">
         <v>1340</v>
@@ -10039,7 +10036,7 @@
         <v>562</v>
       </c>
       <c r="C11" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D11" t="s">
         <v>1342</v>
@@ -10067,7 +10064,7 @@
         <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D13" t="s">
         <v>1343</v>
@@ -10084,7 +10081,7 @@
         <v>568</v>
       </c>
       <c r="C14" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D14" t="s">
         <v>1344</v>
@@ -10101,7 +10098,7 @@
         <v>570</v>
       </c>
       <c r="C15" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D15" t="s">
         <v>1345</v>
@@ -10129,7 +10126,7 @@
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D17" t="s">
         <v>1346</v>
@@ -10146,7 +10143,7 @@
         <v>576</v>
       </c>
       <c r="C18" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D18" t="s">
         <v>1347</v>
@@ -10163,7 +10160,7 @@
         <v>578</v>
       </c>
       <c r="C19" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D19" t="s">
         <v>1339</v>
@@ -10180,7 +10177,7 @@
         <v>580</v>
       </c>
       <c r="C20" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D20" t="s">
         <v>1340</v>
@@ -10230,7 +10227,7 @@
         <v>588</v>
       </c>
       <c r="C24" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D24" t="s">
         <v>1348</v>
@@ -10258,7 +10255,7 @@
         <v>592</v>
       </c>
       <c r="C26" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D26" t="s">
         <v>1349</v>
@@ -10275,7 +10272,7 @@
         <v>594</v>
       </c>
       <c r="C27" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D27" t="s">
         <v>1350</v>
@@ -10292,7 +10289,7 @@
         <v>596</v>
       </c>
       <c r="C28" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D28" t="s">
         <v>1351</v>
@@ -10309,7 +10306,7 @@
         <v>598</v>
       </c>
       <c r="C29" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D29" t="s">
         <v>1352</v>
@@ -10337,7 +10334,7 @@
         <v>602</v>
       </c>
       <c r="C31" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D31" t="s">
         <v>1353</v>
@@ -10376,7 +10373,7 @@
         <v>608</v>
       </c>
       <c r="C34" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D34" t="s">
         <v>1354</v>
@@ -10393,7 +10390,7 @@
         <v>610</v>
       </c>
       <c r="C35" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D35" t="s">
         <v>1355</v>
@@ -10410,7 +10407,7 @@
         <v>612</v>
       </c>
       <c r="C36" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D36" t="s">
         <v>1356</v>
@@ -10487,10 +10484,10 @@
         <v>616</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E3" s="8">
         <v>300011015</v>
@@ -10504,10 +10501,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E4" s="14">
         <v>300011176</v>
@@ -10521,10 +10518,10 @@
         <v>620</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E5" s="8">
         <v>300010957</v>
@@ -10560,10 +10557,10 @@
         <v>626</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E8" s="8">
         <v>300011914</v>
@@ -10599,10 +10596,10 @@
         <v>632</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E11" s="8">
         <v>300011099</v>
@@ -10628,10 +10625,10 @@
         <v>636</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E13" s="14">
         <v>300011176</v>
@@ -10645,10 +10642,10 @@
         <v>638</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E14" s="8">
         <v>300010797</v>
@@ -10684,10 +10681,10 @@
         <v>644</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E17" s="8">
         <v>300011914</v>
@@ -10701,10 +10698,10 @@
         <v>646</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E18" s="8">
         <v>300011002</v>
@@ -10718,10 +10715,10 @@
         <v>648</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E19" s="8">
         <v>300011857</v>
@@ -10735,10 +10732,10 @@
         <v>650</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E20" s="8">
         <v>300235507</v>
@@ -10752,10 +10749,10 @@
         <v>652</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E21" s="8">
         <v>300011020</v>
@@ -10769,10 +10766,10 @@
         <v>654</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E22" s="8">
         <v>300014570</v>
@@ -10797,10 +10794,10 @@
         <v>658</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E24" s="8">
         <v>300011914</v>
@@ -10814,10 +10811,10 @@
         <v>660</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E25" s="8">
         <v>300011443</v>
@@ -10831,10 +10828,10 @@
         <v>662</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E26" s="8">
         <v>300011443</v>
@@ -10859,10 +10856,10 @@
         <v>666</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E28" s="8">
         <v>300163347</v>
@@ -10876,10 +10873,10 @@
         <v>668</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E29" s="8">
         <v>300014741</v>
@@ -10893,10 +10890,10 @@
         <v>670</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E30" s="8">
         <v>300011914</v>
@@ -10910,10 +10907,10 @@
         <v>672</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E31" s="8">
         <v>300011914</v>
@@ -10927,10 +10924,10 @@
         <v>674</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E32" s="8">
         <v>300014436</v>
@@ -10944,10 +10941,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E33" s="8">
         <v>300014546</v>
@@ -10961,10 +10958,10 @@
         <v>677</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E34" s="8">
         <v>300010662</v>
@@ -10978,10 +10975,10 @@
         <v>679</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E35" s="14">
         <v>300011176</v>
@@ -10995,10 +10992,10 @@
         <v>681</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E36" s="8">
         <v>300010822</v>
@@ -11012,10 +11009,10 @@
         <v>683</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E37" s="14">
         <v>300011176</v>
@@ -11040,10 +11037,10 @@
         <v>604</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E39" s="8">
         <v>300010669</v>
@@ -11057,10 +11054,10 @@
         <v>688</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E40" s="8">
         <v>300011914</v>
@@ -11085,10 +11082,10 @@
         <v>692</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E42" s="8">
         <v>300014585</v>
@@ -11102,10 +11099,10 @@
         <v>694</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E43" s="14">
         <v>300011176</v>
@@ -11119,10 +11116,10 @@
         <v>696</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E44" s="14">
         <v>300011176</v>
@@ -11136,10 +11133,10 @@
         <v>698</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E45" s="8">
         <v>300231565</v>
@@ -11175,10 +11172,10 @@
         <v>704</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E48" s="8">
         <v>300235507</v>
@@ -11203,10 +11200,10 @@
         <v>708</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E50" s="8">
         <v>300011798</v>
@@ -11231,10 +11228,10 @@
         <v>620</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E52" s="8">
         <v>300010957</v>
@@ -11248,16 +11245,16 @@
         <v>652</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E53" s="8">
         <v>300011020</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11268,10 +11265,10 @@
         <v>714</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E54" s="8">
         <v>300014078</v>
@@ -11285,10 +11282,10 @@
         <v>716</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E55" s="8">
         <v>300014078</v>
@@ -11302,10 +11299,10 @@
         <v>718</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E56" s="8">
         <v>300014078</v>
@@ -11319,10 +11316,10 @@
         <v>720</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E57" s="8">
         <v>300014910</v>
@@ -11336,10 +11333,10 @@
         <v>722</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E58" s="8">
         <v>300010367</v>
@@ -11364,10 +11361,10 @@
         <v>726</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E60" s="8">
         <v>300014069</v>
@@ -11381,10 +11378,10 @@
         <v>728</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E61" s="8">
         <v>300011021</v>
@@ -11398,10 +11395,10 @@
         <v>730</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E62" s="8">
         <v>300014109</v>
@@ -11415,16 +11412,16 @@
         <v>638</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E63" s="8">
         <v>300010797</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -11435,16 +11432,16 @@
         <v>638</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="E64" s="8">
         <v>300010797</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11455,10 +11452,10 @@
         <v>733</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E65" s="8">
         <v>300011914</v>
@@ -11472,16 +11469,16 @@
         <v>644</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E66" s="8">
         <v>300011914</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11492,16 +11489,16 @@
         <v>644</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="E67" s="8">
         <v>300011914</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -11512,10 +11509,10 @@
         <v>736</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E68" s="8">
         <v>300411543</v>
@@ -11529,10 +11526,10 @@
         <v>648</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E69" s="6">
         <v>300011857</v>
@@ -11546,10 +11543,10 @@
         <v>739</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E70" s="8">
         <v>300014143</v>
@@ -11563,10 +11560,10 @@
         <v>741</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E71" s="8">
         <v>300231565</v>
@@ -11580,10 +11577,10 @@
         <v>743</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E72" s="8">
         <v>300435274</v>
@@ -11597,10 +11594,10 @@
         <v>745</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E73" s="8">
         <v>300014161</v>
@@ -11614,10 +11611,10 @@
         <v>747</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E74" s="8">
         <v>300014109</v>
@@ -11631,16 +11628,16 @@
         <v>749</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E75" s="8">
         <v>300014224</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>1571</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11651,16 +11648,16 @@
         <v>749</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E76" s="8">
         <v>300014224</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -11671,10 +11668,10 @@
         <v>654</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E77" s="8">
         <v>300014570</v>
@@ -11688,10 +11685,10 @@
         <v>752</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E78" s="8">
         <v>300014069</v>
@@ -11705,10 +11702,10 @@
         <v>754</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E79" s="8">
         <v>300011845</v>
@@ -11722,10 +11719,10 @@
         <v>756</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="E80" s="8">
         <v>300014069</v>
@@ -11739,10 +11736,10 @@
         <v>758</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E81" s="8">
         <v>300011022</v>
@@ -11756,10 +11753,10 @@
         <v>760</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E82" s="8">
         <v>300014109</v>
@@ -11773,10 +11770,10 @@
         <v>660</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E83" s="8">
         <v>300011443</v>
@@ -11791,10 +11788,10 @@
         <v>763</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E84" s="8">
         <v>300390932</v>
@@ -11808,10 +11805,10 @@
         <v>765</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E85" s="8">
         <v>300010900</v>
@@ -11847,10 +11844,10 @@
         <v>770</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E88" s="8">
         <v>300014657</v>
@@ -11864,10 +11861,10 @@
         <v>772</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E89" s="8">
         <v>300011851</v>
@@ -11881,10 +11878,10 @@
         <v>774</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E90" s="8">
         <v>300014109</v>
@@ -11898,10 +11895,10 @@
         <v>776</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E91" s="8">
         <v>300014109</v>
@@ -11915,10 +11912,10 @@
         <v>778</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E92" s="8">
         <v>300011851</v>
@@ -11932,10 +11929,10 @@
         <v>780</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E93" s="8">
         <v>300010662</v>
@@ -11949,16 +11946,16 @@
         <v>782</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E94" s="8">
         <v>300014109</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11969,16 +11966,16 @@
         <v>782</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E95" s="8">
         <v>300014109</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11989,10 +11986,10 @@
         <v>784</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E96" s="8">
         <v>300014109</v>
@@ -12006,10 +12003,10 @@
         <v>786</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E97" s="8">
         <v>300014109</v>
@@ -12023,10 +12020,10 @@
         <v>788</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E98" s="8">
         <v>300027354</v>
@@ -12051,10 +12048,10 @@
         <v>792</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E100" s="8">
         <v>300014206</v>
@@ -12068,10 +12065,10 @@
         <v>683</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E101" s="14">
         <v>300011176</v>
@@ -12085,10 +12082,10 @@
         <v>795</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E102" s="8">
         <v>300010900</v>
@@ -12102,10 +12099,10 @@
         <v>797</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E103" s="8">
         <v>300014248</v>
@@ -12119,10 +12116,10 @@
         <v>799</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E104" s="8">
         <v>300012849</v>
@@ -12136,10 +12133,10 @@
         <v>801</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E105" s="8">
         <v>300231565</v>
@@ -12153,10 +12150,10 @@
         <v>803</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E106" s="8">
         <v>300014203</v>
@@ -12181,10 +12178,10 @@
         <v>806</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E108" s="8">
         <v>300014184</v>
@@ -12198,10 +12195,10 @@
         <v>646</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E109" s="8">
         <v>300011002</v>
@@ -12215,10 +12212,10 @@
         <v>700</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="E110" s="8">
         <v>300011037</v>
@@ -12232,10 +12229,10 @@
         <v>698</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="E111" s="8">
         <v>300231565</v>
@@ -12249,16 +12246,16 @@
         <v>811</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E112" s="8">
         <v>300243428</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -12269,16 +12266,16 @@
         <v>811</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E113" s="8">
         <v>300243428</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -12289,10 +12286,10 @@
         <v>813</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E114" s="8">
         <v>300022453</v>
@@ -12306,10 +12303,10 @@
         <v>815</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E115" s="6">
         <v>300138699</v>
@@ -12323,10 +12320,10 @@
         <v>817</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E116" s="8">
         <v>300011729</v>
@@ -12340,10 +12337,10 @@
         <v>819</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E117" s="8">
         <v>300163347</v>
@@ -12357,10 +12354,10 @@
         <v>821</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E118" s="8">
         <v>300012862</v>
@@ -12374,10 +12371,10 @@
         <v>823</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E119" s="8">
         <v>300015012</v>
@@ -12391,10 +12388,10 @@
         <v>825</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E120" s="8">
         <v>300022413</v>
@@ -12408,10 +12405,10 @@
         <v>827</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E121" s="8">
         <v>300022441</v>
@@ -12425,10 +12422,10 @@
         <v>829</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E122" s="8">
         <v>300022413</v>
@@ -12442,10 +12439,10 @@
         <v>831</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E123" s="6">
         <v>300053277</v>
@@ -12459,10 +12456,10 @@
         <v>833</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E124" s="8">
         <v>300022439</v>
@@ -12476,10 +12473,10 @@
         <v>835</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E125" s="8">
         <v>300015018</v>
@@ -12493,10 +12490,10 @@
         <v>837</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E126" s="8">
         <v>300230810</v>
@@ -12510,10 +12507,10 @@
         <v>839</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E127" s="8">
         <v>300015018</v>
@@ -12527,10 +12524,10 @@
         <v>841</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E128" s="8">
         <v>300122621</v>
@@ -12544,10 +12541,10 @@
         <v>843</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E129" s="6">
         <v>300022452</v>
@@ -12561,10 +12558,10 @@
         <v>845</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E130" s="8">
         <v>300022439</v>
@@ -12578,10 +12575,10 @@
         <v>847</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E131" s="6">
         <v>300022552</v>
@@ -12595,10 +12592,10 @@
         <v>849</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E132" s="8">
         <v>300015012</v>
@@ -12612,10 +12609,10 @@
         <v>600</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E133" s="8">
         <v>300080064</v>
@@ -12629,10 +12626,10 @@
         <v>852</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E134" s="8">
         <v>300417481</v>
@@ -12646,10 +12643,10 @@
         <v>854</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E135" s="8">
         <v>300022458</v>
@@ -12663,10 +12660,10 @@
         <v>856</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E136" s="8">
         <v>300167812</v>
@@ -12702,10 +12699,10 @@
         <v>862</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E139" s="8">
         <v>300053796</v>
@@ -12719,10 +12716,10 @@
         <v>864</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1573</v>
+        <v>1572</v>
       </c>
       <c r="E140" s="6">
         <v>300053867</v>
@@ -12736,10 +12733,10 @@
         <v>866</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E141" s="8">
         <v>300311416</v>
@@ -12753,10 +12750,10 @@
         <v>868</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E142" s="8">
         <v>300054216</v>
@@ -12770,10 +12767,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -12787,10 +12784,10 @@
         <v>872</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E144" s="8">
         <v>300443550</v>
@@ -12804,10 +12801,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -12815,13 +12812,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B146" s="11" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C146" s="6" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D146" s="19" t="s">
         <v>1729</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>1730</v>
       </c>
       <c r="E146" s="20">
         <v>300014156</v>
@@ -12841,7 +12838,7 @@
   </sheetPr>
   <dimension ref="A1:F162"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D60" sqref="D60:E60"/>
     </sheetView>
@@ -12882,10 +12879,10 @@
         <v>1032</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E2" s="14">
         <v>300015045</v>
@@ -12899,10 +12896,10 @@
         <v>1160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E3" s="6">
         <v>300411597</v>
@@ -12927,10 +12924,10 @@
         <v>1164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E5" s="8">
         <v>300070114</v>
@@ -12944,10 +12941,10 @@
         <v>1166</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E6" s="8">
         <v>300053386</v>
@@ -13340,10 +13337,10 @@
         <v>1169</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E54" s="6">
         <v>300053241</v>
@@ -13379,10 +13376,10 @@
         <v>1174</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E57" s="6">
         <v>300053242</v>
@@ -13396,10 +13393,10 @@
         <v>1176</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E58" s="6">
         <v>300155640</v>
@@ -13413,10 +13410,10 @@
         <v>1178</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E59" s="6">
         <v>300263218</v>
@@ -13430,10 +13427,10 @@
         <v>1180</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E60" s="6">
         <v>300053225</v>
@@ -13447,10 +13444,10 @@
         <v>1182</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E61" s="8">
         <v>300053220</v>
@@ -13464,10 +13461,10 @@
         <v>1184</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E62" s="8">
         <v>300053272</v>
@@ -13492,10 +13489,10 @@
         <v>1188</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E64" s="8">
         <v>300265178</v>
@@ -13509,10 +13506,10 @@
         <v>1190</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E65" s="8">
         <v>300265082</v>
@@ -13537,10 +13534,10 @@
         <v>1194</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E67" s="6">
         <v>300053228</v>
@@ -13554,10 +13551,10 @@
         <v>1196</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E68" s="8">
         <v>300053241</v>
@@ -13571,10 +13568,10 @@
         <v>1169</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E69" s="8">
         <v>300053241</v>
@@ -13588,10 +13585,10 @@
         <v>1199</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E70" s="8">
         <v>300053207</v>
@@ -13605,10 +13602,10 @@
         <v>1201</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E71" s="8">
         <v>300053275</v>
@@ -13622,10 +13619,10 @@
         <v>1203</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E72" s="8">
         <v>300053303</v>
@@ -13639,10 +13636,10 @@
         <v>1205</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E73" s="8">
         <v>300053296</v>
@@ -13656,10 +13653,10 @@
         <v>1207</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E74" s="8">
         <v>300053242</v>
@@ -13673,10 +13670,10 @@
         <v>1209</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E75" s="8">
         <v>300263381</v>
@@ -13690,10 +13687,10 @@
         <v>1211</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E76" s="8">
         <v>300053303</v>
@@ -13707,10 +13704,10 @@
         <v>1213</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E77" s="8">
         <v>300053296</v>
@@ -13724,10 +13721,10 @@
         <v>1215</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E78" s="8">
         <v>300154361</v>
@@ -13752,10 +13749,10 @@
         <v>1219</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E80" s="8">
         <v>300053271</v>
@@ -13769,10 +13766,10 @@
         <v>1221</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E81" s="8">
         <v>300343476</v>
@@ -13786,10 +13783,10 @@
         <v>1223</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E82" s="8">
         <v>300053239</v>
@@ -13803,10 +13800,10 @@
         <v>1225</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E83" s="8">
         <v>300190531</v>
@@ -13820,10 +13817,10 @@
         <v>1227</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E84" s="8">
         <v>300154361</v>
@@ -13837,10 +13834,10 @@
         <v>1229</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E85" s="8">
         <v>300053204</v>
@@ -13854,10 +13851,10 @@
         <v>1231</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E86" s="8">
         <v>300053231</v>
@@ -13871,10 +13868,10 @@
         <v>1233</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E87" s="8">
         <v>300060720</v>
@@ -13888,10 +13885,10 @@
         <v>1235</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E88" s="8">
         <v>300053271</v>
@@ -13905,10 +13902,10 @@
         <v>1237</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E89" s="8">
         <v>300053285</v>
@@ -13941,10 +13938,10 @@
         <v>1243</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E92" s="8">
         <v>300053233</v>
@@ -13958,10 +13955,10 @@
         <v>1245</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E93" s="8">
         <v>300053277</v>
@@ -13997,10 +13994,10 @@
         <v>1251</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E96" s="9">
         <v>300053279</v>
@@ -14025,10 +14022,10 @@
         <v>1255</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E98" s="8">
         <v>300190536</v>
@@ -14042,10 +14039,10 @@
         <v>1257</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E99" s="8">
         <v>300053285</v>
@@ -14059,10 +14056,10 @@
         <v>1259</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E100" s="8">
         <v>300053239</v>
@@ -14109,10 +14106,10 @@
         <v>1267</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E104" s="8">
         <v>300053271</v>
@@ -14126,10 +14123,10 @@
         <v>1269</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E105" s="8">
         <v>300157897</v>
@@ -14143,10 +14140,10 @@
         <v>1271</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E106" s="8">
         <v>300053251</v>
@@ -14160,10 +14157,10 @@
         <v>1273</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E107" s="8">
         <v>300157968</v>
@@ -14177,10 +14174,10 @@
         <v>1275</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E108" s="8">
         <v>300053281</v>
@@ -14194,10 +14191,10 @@
         <v>1277</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E109" s="14">
         <v>300014426</v>
@@ -14211,10 +14208,10 @@
         <v>1279</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1444</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1445</v>
       </c>
       <c r="E110" s="6">
         <v>300053366</v>
@@ -14228,10 +14225,10 @@
         <v>1281</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E111" s="14">
         <v>300015050</v>
@@ -14245,10 +14242,10 @@
         <v>1283</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E112" s="14">
         <v>300015062</v>
@@ -14262,10 +14259,10 @@
         <v>1285</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E113" s="14">
         <v>300015050</v>
@@ -14555,10 +14552,10 @@
         <v>1287</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E137" s="8">
         <v>300053781</v>
@@ -14572,10 +14569,10 @@
         <v>1289</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E138" s="8">
         <v>300053104</v>
@@ -14589,10 +14586,10 @@
         <v>1291</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E139" s="8">
         <v>300053225</v>
@@ -14617,10 +14614,10 @@
         <v>862</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E141" s="8">
         <v>300053796</v>
@@ -14634,10 +14631,10 @@
         <v>1296</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E142" s="8">
         <v>300010902</v>
@@ -14651,10 +14648,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -14679,10 +14676,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -14696,10 +14693,10 @@
         <v>1032</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E146" s="14">
         <v>300015045</v>
@@ -14713,10 +14710,10 @@
         <v>1174</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E147" s="6">
         <v>300053242</v>
@@ -14741,10 +14738,10 @@
         <v>1306</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E149" s="8">
         <v>300013351</v>
@@ -14758,10 +14755,10 @@
         <v>1194</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E150" s="6">
         <v>300053228</v>
@@ -14775,10 +14772,10 @@
         <v>1309</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E151" s="14">
         <v>300015071</v>
@@ -14803,10 +14800,10 @@
         <v>1313</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E153" s="8">
         <v>300053363</v>
@@ -14820,10 +14817,10 @@
         <v>1315</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E154" s="8">
         <v>300404638</v>
@@ -14837,10 +14834,10 @@
         <v>1225</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E155" s="8">
         <v>300190531</v>
@@ -14854,10 +14851,10 @@
         <v>1318</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E156" s="8">
         <v>300417481</v>
@@ -14871,10 +14868,10 @@
         <v>1243</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E157" s="8">
         <v>300053233</v>
@@ -14888,10 +14885,10 @@
         <v>1281</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E158" s="14">
         <v>300015050</v>
@@ -14916,10 +14913,10 @@
         <v>1324</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E160" s="8">
         <v>300404072</v>
@@ -14933,10 +14930,10 @@
         <v>1271</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E161" s="8">
         <v>300053251</v>
@@ -14950,10 +14947,10 @@
         <v>1327</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E162" s="14">
         <v>300015045</v>
@@ -15067,10 +15064,10 @@
         <v>877</v>
       </c>
       <c r="C2" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D2" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E2">
         <v>300026823</v>
@@ -15084,10 +15081,10 @@
         <v>879</v>
       </c>
       <c r="C3" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E3">
         <v>300026867</v>
@@ -15101,10 +15098,10 @@
         <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D4" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E4">
         <v>300026879</v>
@@ -15118,10 +15115,10 @@
         <v>191</v>
       </c>
       <c r="C5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D5" t="s">
         <v>1603</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1604</v>
       </c>
       <c r="E5">
         <v>300026816</v>
@@ -15135,10 +15132,10 @@
         <v>884</v>
       </c>
       <c r="C6" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D6" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E6">
         <v>300026030</v>
@@ -15152,10 +15149,10 @@
         <v>886</v>
       </c>
       <c r="C7" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D7" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="E7">
         <v>300028051</v>
@@ -15169,10 +15166,10 @@
         <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D8" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E8">
         <v>300026879</v>
@@ -15186,10 +15183,10 @@
         <v>889</v>
       </c>
       <c r="C9" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D9" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E9">
         <v>300026942</v>
@@ -15214,10 +15211,10 @@
         <v>893</v>
       </c>
       <c r="C11" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D11" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E11">
         <v>300026942</v>
@@ -15231,10 +15228,10 @@
         <v>895</v>
       </c>
       <c r="C12" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D12" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E12">
         <v>300264639</v>
@@ -15248,10 +15245,10 @@
         <v>897</v>
       </c>
       <c r="C13" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D13" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="E13">
         <v>300212274</v>
@@ -15265,10 +15262,10 @@
         <v>286</v>
       </c>
       <c r="C14" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="D14" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="E14">
         <v>300136847</v>
@@ -15282,10 +15279,10 @@
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D15" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E15">
         <v>300046300</v>
@@ -15299,10 +15296,10 @@
         <v>901</v>
       </c>
       <c r="C16" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D16" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="E16">
         <v>300049060</v>
@@ -15316,10 +15313,10 @@
         <v>903</v>
       </c>
       <c r="C17" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D17" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E17">
         <v>300053225</v>
@@ -15333,10 +15330,10 @@
         <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D18" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E18">
         <v>300028569</v>
@@ -15350,10 +15347,10 @@
         <v>906</v>
       </c>
       <c r="C19" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D19" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="E19">
         <v>300053463</v>
@@ -15367,10 +15364,10 @@
         <v>908</v>
       </c>
       <c r="C20" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D20" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="E20">
         <v>300048715</v>
@@ -15384,10 +15381,10 @@
         <v>910</v>
       </c>
       <c r="C21" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D21" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="E21">
         <v>300026931</v>
@@ -15401,10 +15398,10 @@
         <v>912</v>
       </c>
       <c r="C22" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D22" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="E22">
         <v>300026867</v>
@@ -15440,10 +15437,10 @@
         <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D25" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="E25">
         <v>300264354</v>
@@ -15457,10 +15454,10 @@
         <v>919</v>
       </c>
       <c r="C26" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D26" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E26">
         <v>300027200</v>
@@ -15474,10 +15471,10 @@
         <v>921</v>
       </c>
       <c r="C27" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D27" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="E27">
         <v>300262918</v>
@@ -15502,10 +15499,10 @@
         <v>924</v>
       </c>
       <c r="C29" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="D29" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="E29">
         <v>300264639</v>
@@ -15541,10 +15538,10 @@
         <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D32" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="E32">
         <v>300026819</v>
@@ -15558,10 +15555,10 @@
         <v>931</v>
       </c>
       <c r="C33" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D33" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="E33">
         <v>300027264</v>
@@ -15575,10 +15572,10 @@
         <v>933</v>
       </c>
       <c r="C34" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D34" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="E34">
         <v>300311954</v>
@@ -15592,10 +15589,10 @@
         <v>935</v>
       </c>
       <c r="C35" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D35" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="E35">
         <v>300134722</v>
@@ -15609,10 +15606,10 @@
         <v>937</v>
       </c>
       <c r="C36" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D36" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E36">
         <v>300145802</v>
@@ -15637,10 +15634,10 @@
         <v>941</v>
       </c>
       <c r="C38" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D38" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="E38">
         <v>300027200</v>
@@ -15676,10 +15673,10 @@
         <v>947</v>
       </c>
       <c r="C41" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D41" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="E41">
         <v>300026096</v>
@@ -15693,10 +15690,10 @@
         <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D42" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="E42">
         <v>300026909</v>
@@ -15721,10 +15718,10 @@
         <v>952</v>
       </c>
       <c r="C44" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D44" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="E44">
         <v>300127478</v>
@@ -15738,10 +15735,10 @@
         <v>954</v>
       </c>
       <c r="C45" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D45" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="E45">
         <v>300026657</v>
@@ -15755,10 +15752,10 @@
         <v>956</v>
       </c>
       <c r="C46" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="D46" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="E46">
         <v>300247929</v>
@@ -15772,10 +15769,10 @@
         <v>958</v>
       </c>
       <c r="C47" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D47" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="E47">
         <v>300027083</v>
@@ -15789,10 +15786,10 @@
         <v>960</v>
       </c>
       <c r="C48" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D48" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="E48">
         <v>300026068</v>
@@ -15817,10 +15814,10 @@
         <v>964</v>
       </c>
       <c r="C50" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D50" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="E50">
         <v>300026823</v>
@@ -15834,10 +15831,10 @@
         <v>966</v>
       </c>
       <c r="C51" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D51" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="E51">
         <v>300026074</v>
@@ -15939,10 +15936,10 @@
         <v>978</v>
       </c>
       <c r="C60" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D60" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E60">
         <v>300027388</v>
@@ -15978,10 +15975,10 @@
         <v>205</v>
       </c>
       <c r="C63" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D63" t="s">
         <v>1580</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1581</v>
       </c>
       <c r="E63">
         <v>300263886</v>
@@ -15995,10 +15992,10 @@
         <v>986</v>
       </c>
       <c r="C64" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="D64" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="E64">
         <v>300034104</v>
@@ -16012,10 +16009,10 @@
         <v>950</v>
       </c>
       <c r="C65" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="D65" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E65">
         <v>300033973</v>
@@ -16029,10 +16026,10 @@
         <v>989</v>
       </c>
       <c r="C66" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D66" t="s">
         <v>1584</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1585</v>
       </c>
       <c r="E66">
         <v>300263898</v>
@@ -16046,10 +16043,10 @@
         <v>991</v>
       </c>
       <c r="C67" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D67" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="E67">
         <v>300266808</v>
@@ -16063,10 +16060,10 @@
         <v>993</v>
       </c>
       <c r="C68" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D68" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="E68">
         <v>300234117</v>
@@ -16080,10 +16077,10 @@
         <v>995</v>
       </c>
       <c r="C69" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D69" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="E69">
         <v>300343358</v>
@@ -16097,10 +16094,10 @@
         <v>997</v>
       </c>
       <c r="C70" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D70" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="E70">
         <v>300266810</v>
@@ -16114,10 +16111,10 @@
         <v>999</v>
       </c>
       <c r="C71" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D71" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="E71">
         <v>300133005</v>
@@ -16131,10 +16128,10 @@
         <v>1001</v>
       </c>
       <c r="C72" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D72" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="E72">
         <v>300046025</v>
@@ -16148,10 +16145,10 @@
         <v>1003</v>
       </c>
       <c r="C73" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D73" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="E73">
         <v>300028884</v>
@@ -16165,10 +16162,10 @@
         <v>1005</v>
       </c>
       <c r="C74" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D74" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="E74">
         <v>300037680</v>
@@ -16182,10 +16179,10 @@
         <v>1007</v>
       </c>
       <c r="C75" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D75" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="E75">
         <v>300041620</v>
@@ -16199,10 +16196,10 @@
         <v>1009</v>
       </c>
       <c r="C76" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D76" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E76">
         <v>300215545</v>
@@ -16216,10 +16213,10 @@
         <v>1011</v>
       </c>
       <c r="C77" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D77" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="E77">
         <v>300263853</v>
@@ -16233,10 +16230,10 @@
         <v>1013</v>
       </c>
       <c r="C78" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D78" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="E78">
         <v>300433073</v>
@@ -16250,10 +16247,10 @@
         <v>1015</v>
       </c>
       <c r="C79" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D79" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="E79">
         <v>300014842</v>
@@ -16267,10 +16264,10 @@
         <v>1017</v>
       </c>
       <c r="C80" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D80" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="E80">
         <v>300168224</v>
@@ -16284,10 +16281,10 @@
         <v>1019</v>
       </c>
       <c r="C81" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D81" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="E81">
         <v>300209286</v>
@@ -16301,10 +16298,10 @@
         <v>1021</v>
       </c>
       <c r="C82" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D82" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E82">
         <v>300231565</v>
@@ -16318,10 +16315,10 @@
         <v>1023</v>
       </c>
       <c r="C83" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D83" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="E83">
         <v>300233975</v>
@@ -16335,10 +16332,10 @@
         <v>1025</v>
       </c>
       <c r="C84" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D84" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="E84">
         <v>300195678</v>
@@ -16352,10 +16349,10 @@
         <v>1027</v>
       </c>
       <c r="C85" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D85" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E85">
         <v>300224230</v>
@@ -16369,10 +16366,10 @@
         <v>1029</v>
       </c>
       <c r="C86" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D86" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="E86">
         <v>300036926</v>
@@ -16380,13 +16377,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D87" t="s">
         <v>1674</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1675</v>
       </c>
       <c r="E87">
         <v>300257199</v>
@@ -16394,13 +16391,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C88" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="D88" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="E88">
         <v>300262254</v>
@@ -16408,13 +16405,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D89" t="s">
         <v>1669</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1670</v>
       </c>
       <c r="E89">
         <v>300046230</v>
@@ -16422,13 +16419,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D90" t="s">
         <v>1672</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1584</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1673</v>
       </c>
       <c r="E90">
         <v>300046227</v>
@@ -16436,13 +16433,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C91" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="D91" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="E91">
         <v>300193993</v>
@@ -16500,7 +16497,7 @@
         <v>1030</v>
       </c>
       <c r="C2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D2" t="s">
         <v>1030</v>
@@ -16514,10 +16511,10 @@
         <v>1032</v>
       </c>
       <c r="C3" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16539,10 +16536,10 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D5" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -16553,10 +16550,10 @@
         <v>1036</v>
       </c>
       <c r="C6" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D6" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16567,10 +16564,10 @@
         <v>1036</v>
       </c>
       <c r="C7" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D7" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16581,10 +16578,10 @@
         <v>1039</v>
       </c>
       <c r="C8" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D8" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16606,10 +16603,10 @@
         <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D10" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -16620,10 +16617,10 @@
         <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D11" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -16645,10 +16642,10 @@
         <v>1043</v>
       </c>
       <c r="C13" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D13" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -16659,10 +16656,10 @@
         <v>1045</v>
       </c>
       <c r="C14" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D14" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16673,10 +16670,10 @@
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D15" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16687,10 +16684,10 @@
         <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D16" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -16701,10 +16698,10 @@
         <v>1048</v>
       </c>
       <c r="C17" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D17" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -16715,10 +16712,10 @@
         <v>1049</v>
       </c>
       <c r="C18" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D18" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -16729,7 +16726,7 @@
         <v>1051</v>
       </c>
       <c r="C19" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D19" t="s">
         <v>1051</v>
@@ -16743,10 +16740,10 @@
         <v>1045</v>
       </c>
       <c r="C20" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D20" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -16757,10 +16754,10 @@
         <v>950</v>
       </c>
       <c r="C21" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="D21" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
   </sheetData>
@@ -16815,10 +16812,10 @@
         <v>1056</v>
       </c>
       <c r="C2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D2" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E2">
         <v>300022453</v>
@@ -16832,10 +16829,10 @@
         <v>854</v>
       </c>
       <c r="C3" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D3" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E3">
         <v>300022458</v>
@@ -16860,10 +16857,10 @@
         <v>823</v>
       </c>
       <c r="C5" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D5" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E5">
         <v>300015012</v>
@@ -16877,10 +16874,10 @@
         <v>845</v>
       </c>
       <c r="C6" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="D6" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="E6">
         <v>300022439</v>
@@ -16939,7 +16936,7 @@
         <v>1063</v>
       </c>
       <c r="C2" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D2" t="s">
         <v>1363</v>
@@ -16956,7 +16953,7 @@
         <v>1065</v>
       </c>
       <c r="C3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D3" t="s">
         <v>1364</v>
@@ -16973,7 +16970,7 @@
         <v>1067</v>
       </c>
       <c r="C4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D4" t="s">
         <v>1365</v>
@@ -16990,7 +16987,7 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D5" t="s">
         <v>1366</v>
@@ -17007,7 +17004,7 @@
         <v>1070</v>
       </c>
       <c r="C6" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D6" t="s">
         <v>1367</v>
@@ -17024,7 +17021,7 @@
         <v>1070</v>
       </c>
       <c r="C7" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D7" t="s">
         <v>1368</v>
@@ -17041,7 +17038,7 @@
         <v>1073</v>
       </c>
       <c r="C8" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D8" t="s">
         <v>1369</v>
@@ -17058,7 +17055,7 @@
         <v>1075</v>
       </c>
       <c r="C9" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D9" t="s">
         <v>1370</v>
@@ -17075,7 +17072,7 @@
         <v>1077</v>
       </c>
       <c r="C10" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D10" t="s">
         <v>1371</v>
@@ -17092,7 +17089,7 @@
         <v>1079</v>
       </c>
       <c r="C11" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D11" t="s">
         <v>1372</v>
@@ -17109,7 +17106,7 @@
         <v>1081</v>
       </c>
       <c r="C12" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D12" t="s">
         <v>1373</v>
@@ -17126,7 +17123,7 @@
         <v>1083</v>
       </c>
       <c r="C13" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D13" t="s">
         <v>1374</v>
@@ -17143,7 +17140,7 @@
         <v>1085</v>
       </c>
       <c r="C14" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D14" t="s">
         <v>1375</v>
@@ -17160,7 +17157,7 @@
         <v>1087</v>
       </c>
       <c r="C15" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D15" t="s">
         <v>1380</v>
@@ -17177,7 +17174,7 @@
         <v>1089</v>
       </c>
       <c r="C16" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D16" t="s">
         <v>1363</v>
@@ -17194,7 +17191,7 @@
         <v>1091</v>
       </c>
       <c r="C17" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D17" t="s">
         <v>1363</v>
@@ -17267,7 +17264,7 @@
         <v>1094</v>
       </c>
       <c r="C3" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D3" t="s">
         <v>1376</v>
@@ -17284,7 +17281,7 @@
         <v>1095</v>
       </c>
       <c r="C4" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D4" t="s">
         <v>1377</v>
@@ -17301,7 +17298,7 @@
         <v>1096</v>
       </c>
       <c r="C5" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D5" t="s">
         <v>1377</v>
@@ -17329,7 +17326,7 @@
         <v>1100</v>
       </c>
       <c r="C7" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D7" t="s">
         <v>1378</v>
@@ -17346,7 +17343,7 @@
         <v>1102</v>
       </c>
       <c r="C8" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="D8" t="s">
         <v>1379</v>
@@ -17461,7 +17458,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D2" t="s">
         <v>1358</v>
@@ -17478,7 +17475,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D3" t="s">
         <v>1359</v>
@@ -17495,7 +17492,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D4" t="s">
         <v>1360</v>
@@ -17512,7 +17509,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D5" t="s">
         <v>1361</v>
@@ -17529,7 +17526,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D6" t="s">
         <v>1362</v>
@@ -17546,7 +17543,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D7" t="s">
         <v>1331</v>
@@ -17563,10 +17560,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D8" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -17577,7 +17574,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D9" t="s">
         <v>1358</v>
@@ -17594,7 +17591,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D10" t="s">
         <v>1360</v>
@@ -17622,7 +17619,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D12" t="s">
         <v>1361</v>
@@ -17639,7 +17636,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D13" t="s">
         <v>1331</v>
@@ -17656,7 +17653,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D14" t="s">
         <v>1331</v>
@@ -17673,7 +17670,7 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D15" t="s">
         <v>1358</v>
@@ -17690,7 +17687,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D16" t="s">
         <v>1358</v>
@@ -17707,7 +17704,7 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D17" t="s">
         <v>1361</v>
@@ -17735,7 +17732,7 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D19" t="s">
         <v>1358</v>
@@ -17749,7 +17746,7 @@
         <v>1332</v>
       </c>
       <c r="C20" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D20" t="s">
         <v>1332</v>
@@ -17760,7 +17757,7 @@
         <v>1333</v>
       </c>
       <c r="C21" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D21" t="s">
         <v>1333</v>
@@ -17768,24 +17765,24 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C22" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D22" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C23" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D23" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
     </row>
   </sheetData>
@@ -18530,10 +18527,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D6" t="s">
         <v>1360</v>
@@ -18547,7 +18544,7 @@
         <v>1361</v>
       </c>
       <c r="C7" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D7" t="s">
         <v>1361</v>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="19" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -70,7 +70,6 @@
     <definedName name="toegang_types" localSheetId="25">toegang_types.csv!$A$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -285,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1735">
   <si>
     <t>code</t>
   </si>
@@ -4293,9 +4292,6 @@
   </si>
   <si>
     <t>centuries</t>
-  </si>
-  <si>
-    <t>datum voor</t>
   </si>
   <si>
     <t>datum na</t>
@@ -4989,9 +4985,6 @@
   </si>
   <si>
     <t>zinc</t>
-  </si>
-  <si>
-    <t>pencils</t>
   </si>
   <si>
     <t xml:space="preserve">kenmerken/lhmateriaalaanvob/lhmateriaalsoortob
@@ -5423,9 +5416,6 @@
     <t>daguerreotypes (photographs)</t>
   </si>
   <si>
-    <t>glasplaatnegatief</t>
-  </si>
-  <si>
     <t>sepia prints</t>
   </si>
   <si>
@@ -5438,9 +5428,6 @@
     <t>black-and-white photographs</t>
   </si>
   <si>
-    <t>photograph albums (albums (books)</t>
-  </si>
-  <si>
     <t>Digipolis Thesauri\Productiestadium Type\</t>
   </si>
   <si>
@@ -5499,6 +5486,18 @@
   </si>
   <si>
     <t>zonder datum</t>
+  </si>
+  <si>
+    <t>datum vóór</t>
+  </si>
+  <si>
+    <t>clichés-verre (negatives)</t>
+  </si>
+  <si>
+    <t>photograph albums</t>
+  </si>
+  <si>
+    <t>Beeldhouwwerk</t>
   </si>
 </sst>
 </file>
@@ -6266,8 +6265,8 @@
   </sheetPr>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6286,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -6317,10 +6316,10 @@
         <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D3" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6331,7 +6330,7 @@
         <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D4" t="s">
         <v>1334</v>
@@ -6348,7 +6347,7 @@
         <v>147</v>
       </c>
       <c r="C5" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D5" t="s">
         <v>1335</v>
@@ -6365,7 +6364,7 @@
         <v>149</v>
       </c>
       <c r="C6" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D6" t="s">
         <v>1334</v>
@@ -6382,10 +6381,10 @@
         <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D7" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6396,10 +6395,10 @@
         <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D8" t="s">
-        <v>1336</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6410,10 +6409,10 @@
         <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D9" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -6424,7 +6423,7 @@
         <v>157</v>
       </c>
       <c r="C10" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D10" t="s">
         <v>1334</v>
@@ -6503,7 +6502,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -6544,8 +6543,8 @@
   <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62:C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -6564,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -6584,10 +6583,10 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D2" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="E2">
         <v>300164785</v>
@@ -6601,10 +6600,10 @@
         <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D3" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E3">
         <v>300250949</v>
@@ -6618,10 +6617,10 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D4" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E4">
         <v>300312154</v>
@@ -6635,10 +6634,10 @@
         <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D5" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E5">
         <v>300026676</v>
@@ -6652,10 +6651,10 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D6" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="E6">
         <v>300027573</v>
@@ -6669,10 +6668,10 @@
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D7" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E7">
         <v>300027621</v>
@@ -6686,10 +6685,10 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D8" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E8">
         <v>300027392</v>
@@ -6703,10 +6702,10 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D9" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E9">
         <v>300027527</v>
@@ -6720,10 +6719,10 @@
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D10" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E10">
         <v>300027621</v>
@@ -6737,10 +6736,10 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D11" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6751,10 +6750,10 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D12" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="E12">
         <v>300027764</v>
@@ -6768,10 +6767,10 @@
         <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D13" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="E13">
         <v>300026925</v>
@@ -6785,10 +6784,10 @@
         <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="D14" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E14">
         <v>300201447</v>
@@ -6802,10 +6801,10 @@
         <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D15" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E15">
         <v>300026879</v>
@@ -6819,10 +6818,10 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D16" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E16">
         <v>300026816</v>
@@ -6836,10 +6835,10 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D17" t="s">
         <v>1602</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1604</v>
       </c>
       <c r="E17">
         <v>300026882</v>
@@ -6853,10 +6852,10 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D18" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E18">
         <v>300026114</v>
@@ -6870,10 +6869,10 @@
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D19" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E19">
         <v>300149026</v>
@@ -6887,10 +6886,10 @@
         <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D20" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E20">
         <v>300240262</v>
@@ -6904,10 +6903,10 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D21" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E21">
         <v>300026778</v>
@@ -6932,10 +6931,10 @@
         <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D23" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E23">
         <v>300026931</v>
@@ -6949,10 +6948,10 @@
         <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D24" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E24">
         <v>300026816</v>
@@ -6966,10 +6965,10 @@
         <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D25" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E25">
         <v>300026819</v>
@@ -6983,10 +6982,10 @@
         <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D26" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E26">
         <v>300026909</v>
@@ -7000,10 +6999,10 @@
         <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D27" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="E27">
         <v>300400813</v>
@@ -7017,10 +7016,10 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D28" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E28">
         <v>300026823</v>
@@ -7034,10 +7033,10 @@
         <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D29" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E29">
         <v>300026931</v>
@@ -7051,10 +7050,10 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D30" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="E30">
         <v>300026487</v>
@@ -7079,16 +7078,16 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D32" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E32">
         <v>300026030</v>
       </c>
       <c r="G32" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -7099,16 +7098,16 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D33" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E33">
         <v>300026942</v>
       </c>
       <c r="G33" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -7119,10 +7118,10 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D34" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E34">
         <v>300027473</v>
@@ -7136,10 +7135,10 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D35" t="s">
         <v>1616</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1618</v>
       </c>
       <c r="E35">
         <v>300212274</v>
@@ -7153,10 +7152,10 @@
         <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D36" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E36">
         <v>300026676</v>
@@ -7170,10 +7169,10 @@
         <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D37" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E37">
         <v>300026799</v>
@@ -7187,10 +7186,10 @@
         <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D38" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E38">
         <v>300026756</v>
@@ -7204,10 +7203,10 @@
         <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D39" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E39">
         <v>300026867</v>
@@ -7221,10 +7220,10 @@
         <v>235</v>
       </c>
       <c r="C40" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D40" t="s">
         <v>1616</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1618</v>
       </c>
       <c r="E40">
         <v>300212274</v>
@@ -7238,10 +7237,10 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D41" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E41">
         <v>300026432</v>
@@ -7255,10 +7254,10 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D42" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E42">
         <v>300255378</v>
@@ -7272,10 +7271,10 @@
         <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D43" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E43">
         <v>300026424</v>
@@ -7289,10 +7288,10 @@
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D44" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="E44">
         <v>300027191</v>
@@ -7306,10 +7305,10 @@
         <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D45" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="E45">
         <v>300026443</v>
@@ -7323,10 +7322,10 @@
         <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D46" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E46">
         <v>300262918</v>
@@ -7362,10 +7361,10 @@
         <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D49" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E49">
         <v>300027240</v>
@@ -7379,10 +7378,10 @@
         <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D50" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E50">
         <v>300049060</v>
@@ -7396,10 +7395,10 @@
         <v>257</v>
       </c>
       <c r="C51" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D51" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E51">
         <v>300252927</v>
@@ -7413,10 +7412,10 @@
         <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D52" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E52">
         <v>300247929</v>
@@ -7430,10 +7429,10 @@
         <v>261</v>
       </c>
       <c r="C53" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D53" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E53">
         <v>300053319</v>
@@ -7447,10 +7446,10 @@
         <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D54" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E54">
         <v>300026693</v>
@@ -7464,10 +7463,10 @@
         <v>265</v>
       </c>
       <c r="C55" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D55" t="s">
         <v>1642</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1644</v>
       </c>
       <c r="E55">
         <v>300027489</v>
@@ -7481,10 +7480,10 @@
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D56" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="E56">
         <v>300027496</v>
@@ -7498,10 +7497,10 @@
         <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D57" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="E57">
         <v>300027045</v>
@@ -7515,10 +7514,10 @@
         <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="D58" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7529,10 +7528,10 @@
         <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D59" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="E59">
         <v>300404333</v>
@@ -7546,10 +7545,10 @@
         <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D60" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="E60">
         <v>300404333</v>
@@ -7563,10 +7562,10 @@
         <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D61" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E61">
         <v>300247929</v>
@@ -7580,10 +7579,10 @@
         <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>1693</v>
+        <v>1711</v>
       </c>
       <c r="D62" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7594,10 +7593,10 @@
         <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>1693</v>
+        <v>1711</v>
       </c>
       <c r="D63" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7608,10 +7607,10 @@
         <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>1693</v>
+        <v>1711</v>
       </c>
       <c r="D64" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7622,10 +7621,10 @@
         <v>284</v>
       </c>
       <c r="C65" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D65" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E65">
         <v>300266791</v>
@@ -7639,10 +7638,10 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D66" t="s">
         <v>1693</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1695</v>
       </c>
       <c r="E66">
         <v>300136847</v>
@@ -7656,10 +7655,10 @@
         <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D67" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E67">
         <v>300046300</v>
@@ -7673,10 +7672,10 @@
         <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="D68" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="E68">
         <v>300028467</v>
@@ -7690,10 +7689,10 @@
         <v>292</v>
       </c>
       <c r="C70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D70" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E70">
         <v>300053319</v>
@@ -7707,10 +7706,10 @@
         <v>294</v>
       </c>
       <c r="C71" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D71" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E71">
         <v>300374824</v>
@@ -7735,10 +7734,10 @@
         <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="D73" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="E73">
         <v>300417667</v>
@@ -7752,10 +7751,10 @@
         <v>300</v>
       </c>
       <c r="C74" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="D74" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7766,10 +7765,10 @@
         <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>1716</v>
+        <v>1712</v>
       </c>
       <c r="D75" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="E75">
         <v>300028705</v>
@@ -7789,7 +7788,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7808,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -7828,10 +7827,10 @@
         <v>304</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D2" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -7842,10 +7841,10 @@
         <v>306</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D3" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -7856,10 +7855,10 @@
         <v>308</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D4" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -7870,10 +7869,10 @@
         <v>310</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D5" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -7884,10 +7883,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D6" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -7909,10 +7908,10 @@
         <v>315</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D8" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E8">
         <v>300027388</v>
@@ -7970,10 +7969,10 @@
         <v>310</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D13" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -7984,10 +7983,10 @@
         <v>325</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D14" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="E14">
         <v>300026614</v>
@@ -8067,10 +8066,10 @@
         <v>339</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D21" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
@@ -8103,10 +8102,10 @@
         <v>345</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D24" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
     </row>
   </sheetData>
@@ -8140,7 +8139,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -8176,7 +8175,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8193,7 +8192,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -8213,10 +8212,10 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D2" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="E2">
         <v>300128366</v>
@@ -8230,10 +8229,10 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D3" t="s">
         <v>1704</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1706</v>
       </c>
       <c r="E3">
         <v>300128357</v>
@@ -8247,10 +8246,10 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D4" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E4">
         <v>300128359</v>
@@ -8264,10 +8263,10 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D5" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E5">
         <v>300127181</v>
@@ -8292,10 +8291,10 @@
         <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D7" t="s">
-        <v>1709</v>
+        <v>1732</v>
       </c>
       <c r="E7">
         <v>300265083</v>
@@ -8309,10 +8308,10 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D8" t="s">
-        <v>1710</v>
+        <v>1707</v>
       </c>
       <c r="E8">
         <v>300115233</v>
@@ -8326,10 +8325,10 @@
         <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D9" t="s">
-        <v>1711</v>
+        <v>1708</v>
       </c>
       <c r="E9">
         <v>300128374</v>
@@ -8343,10 +8342,10 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D10" t="s">
-        <v>1712</v>
+        <v>1709</v>
       </c>
       <c r="E10">
         <v>300128343</v>
@@ -8360,10 +8359,10 @@
         <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D11" t="s">
-        <v>1713</v>
+        <v>1710</v>
       </c>
       <c r="E11">
         <v>300128347</v>
@@ -8371,13 +8370,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="C12" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D12" t="s">
-        <v>1714</v>
+        <v>1733</v>
       </c>
       <c r="E12">
         <v>300026695</v>
@@ -8397,7 +8396,7 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1048576"/>
+      <selection sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8413,13 +8412,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1157</v>
@@ -8439,10 +8438,10 @@
         <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E2" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="F2">
         <v>300026710</v>
@@ -8456,10 +8455,10 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E3" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="F3">
         <v>300027473</v>
@@ -8473,10 +8472,10 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E4" t="s">
         <v>1574</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1576</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8487,10 +8486,10 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E5" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="F5">
         <v>300417554</v>
@@ -8504,10 +8503,10 @@
         <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E6" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F6">
         <v>300138696</v>
@@ -8521,10 +8520,10 @@
         <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E7" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="F7">
         <v>300138696</v>
@@ -8538,10 +8537,10 @@
         <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E8" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="F8">
         <v>300053623</v>
@@ -8555,10 +8554,10 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E9" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="F9">
         <v>300047457</v>
@@ -8572,10 +8571,10 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E10" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F10">
         <v>300047724</v>
@@ -8589,10 +8588,10 @@
         <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E11" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F11">
         <v>300028569</v>
@@ -8606,10 +8605,10 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E12" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="F12">
         <v>300047469</v>
@@ -8623,10 +8622,10 @@
         <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E13" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F13">
         <v>300028569</v>
@@ -8640,10 +8639,10 @@
         <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E14" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="F14">
         <v>300047724</v>
@@ -8657,10 +8656,10 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E15" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="F15">
         <v>300047896</v>
@@ -8674,10 +8673,10 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E16" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="F16">
         <v>300262520</v>
@@ -8691,10 +8690,10 @@
         <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E17" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="F17">
         <v>300077357</v>
@@ -8708,10 +8707,10 @@
         <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E18" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="F18">
         <v>300138758</v>
@@ -8725,10 +8724,10 @@
         <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E19" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="F19">
         <v>300047837</v>
@@ -8742,10 +8741,10 @@
         <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E20" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="F20">
         <v>300010262</v>
@@ -8770,10 +8769,10 @@
         <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E22" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="F22">
         <v>300343592</v>
@@ -8787,10 +8786,10 @@
         <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E23" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="F23">
         <v>300404835</v>
@@ -8804,10 +8803,10 @@
         <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E24" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="F24">
         <v>300027200</v>
@@ -8821,10 +8820,10 @@
         <v>415</v>
       </c>
       <c r="D25" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E25" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="F25">
         <v>300026427</v>
@@ -8838,10 +8837,10 @@
         <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E26" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F26">
         <v>300264354</v>
@@ -8855,10 +8854,10 @@
         <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E27" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="F27">
         <v>300055931</v>
@@ -8872,10 +8871,10 @@
         <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E28" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F28">
         <v>300264330</v>
@@ -8889,10 +8888,10 @@
         <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E29" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="F29">
         <v>300028569</v>
@@ -8906,10 +8905,10 @@
         <v>425</v>
       </c>
       <c r="D30" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E30" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -8920,10 +8919,10 @@
         <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E31" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="F31">
         <v>300027267</v>
@@ -9185,7 +9184,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="A38" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9203,7 +9202,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -9223,10 +9222,10 @@
         <v>473</v>
       </c>
       <c r="C2" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D2" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -9237,10 +9236,10 @@
         <v>475</v>
       </c>
       <c r="C3" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D3" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E3">
         <v>300025103</v>
@@ -9254,10 +9253,10 @@
         <v>477</v>
       </c>
       <c r="C4" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D4" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E4">
         <v>300024987</v>
@@ -9271,10 +9270,10 @@
         <v>479</v>
       </c>
       <c r="C5" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D5" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E5">
         <v>300025492</v>
@@ -9288,10 +9287,10 @@
         <v>481</v>
       </c>
       <c r="C6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D6" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E6">
         <v>300386177</v>
@@ -9305,10 +9304,10 @@
         <v>483</v>
       </c>
       <c r="C7" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D7" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E7">
         <v>300025704</v>
@@ -9322,10 +9321,10 @@
         <v>485</v>
       </c>
       <c r="C8" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D8" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E8">
         <v>300443565</v>
@@ -9339,10 +9338,10 @@
         <v>487</v>
       </c>
       <c r="C9" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D9" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E9">
         <v>300225705</v>
@@ -9356,10 +9355,10 @@
         <v>489</v>
       </c>
       <c r="C10" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D10" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E10">
         <v>300025671</v>
@@ -9373,10 +9372,10 @@
         <v>491</v>
       </c>
       <c r="C11" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D11" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E11">
         <v>300443565</v>
@@ -9401,10 +9400,10 @@
         <v>495</v>
       </c>
       <c r="C13" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D13" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="E13">
         <v>300132961</v>
@@ -9418,10 +9417,10 @@
         <v>496</v>
       </c>
       <c r="C14" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D14" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="E14">
         <v>300025732</v>
@@ -9435,10 +9434,10 @@
         <v>498</v>
       </c>
       <c r="C15" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D15" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="E15">
         <v>300025190</v>
@@ -9463,10 +9462,10 @@
         <v>502</v>
       </c>
       <c r="C17" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D17" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="E17">
         <v>300025687</v>
@@ -9480,10 +9479,10 @@
         <v>504</v>
       </c>
       <c r="C18" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D18" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9494,10 +9493,10 @@
         <v>506</v>
       </c>
       <c r="C19" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D19" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="E19">
         <v>300025165</v>
@@ -9511,10 +9510,10 @@
         <v>508</v>
       </c>
       <c r="C20" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D20" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="E20">
         <v>300025257</v>
@@ -9539,10 +9538,10 @@
         <v>512</v>
       </c>
       <c r="C22" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D22" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="E22">
         <v>300025123</v>
@@ -9556,10 +9555,10 @@
         <v>514</v>
       </c>
       <c r="C23" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D23" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E23">
         <v>300311841</v>
@@ -9573,10 +9572,10 @@
         <v>516</v>
       </c>
       <c r="C24" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D24" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="E24">
         <v>300025175</v>
@@ -9590,10 +9589,10 @@
         <v>518</v>
       </c>
       <c r="C25" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D25" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="E25">
         <v>300251917</v>
@@ -9607,10 +9606,10 @@
         <v>520</v>
       </c>
       <c r="C26" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D26" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E26">
         <v>300137375</v>
@@ -9624,10 +9623,10 @@
         <v>521</v>
       </c>
       <c r="C27" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D27" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="E27">
         <v>300121765</v>
@@ -9641,10 +9640,10 @@
         <v>523</v>
       </c>
       <c r="C28" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D28" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E28">
         <v>300386629</v>
@@ -9658,10 +9657,10 @@
         <v>525</v>
       </c>
       <c r="C29" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D29" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="E29">
         <v>300404126</v>
@@ -9686,10 +9685,10 @@
         <v>529</v>
       </c>
       <c r="C31" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D31" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="E31">
         <v>300025654</v>
@@ -9703,10 +9702,10 @@
         <v>531</v>
       </c>
       <c r="C32" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D32" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="E32">
         <v>300137375</v>
@@ -9720,10 +9719,10 @@
         <v>532</v>
       </c>
       <c r="C33" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D33" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E33">
         <v>300025492</v>
@@ -9737,10 +9736,10 @@
         <v>534</v>
       </c>
       <c r="C34" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D34" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="E34">
         <v>300025574</v>
@@ -9754,10 +9753,10 @@
         <v>535</v>
       </c>
       <c r="C35" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D35" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E35">
         <v>300443565</v>
@@ -9771,10 +9770,10 @@
         <v>537</v>
       </c>
       <c r="C36" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D36" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="E36">
         <v>300311841</v>
@@ -9788,10 +9787,10 @@
         <v>539</v>
       </c>
       <c r="C37" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D37" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9802,10 +9801,10 @@
         <v>540</v>
       </c>
       <c r="C38" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D38" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="E38">
         <v>300025601</v>
@@ -9819,10 +9818,10 @@
         <v>542</v>
       </c>
       <c r="C39" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="D39" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E39">
         <v>300417530</v>
@@ -9830,10 +9829,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
       <c r="B40" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="F40" t="s">
         <v>1329</v>
@@ -9853,7 +9852,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9872,7 +9871,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -9892,10 +9891,10 @@
         <v>544</v>
       </c>
       <c r="C2" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D2" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="E2">
         <v>300266234</v>
@@ -9908,9 +9907,6 @@
       <c r="B3" t="s">
         <v>546</v>
       </c>
-      <c r="C3" t="s">
-        <v>1398</v>
-      </c>
       <c r="F3" t="s">
         <v>1329</v>
       </c>
@@ -9923,10 +9919,10 @@
         <v>548</v>
       </c>
       <c r="C4" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D4" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E4">
         <v>300129361</v>
@@ -9940,10 +9936,10 @@
         <v>550</v>
       </c>
       <c r="C5" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D5" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E5">
         <v>300129361</v>
@@ -9957,10 +9953,10 @@
         <v>552</v>
       </c>
       <c r="C6" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D6" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E6">
         <v>300127490</v>
@@ -9974,10 +9970,10 @@
         <v>554</v>
       </c>
       <c r="C7" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D7" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="E7">
         <v>300311355</v>
@@ -10002,10 +9998,10 @@
         <v>558</v>
       </c>
       <c r="C9" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D9" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E9">
         <v>300129361</v>
@@ -10019,10 +10015,10 @@
         <v>560</v>
       </c>
       <c r="C10" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D10" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E10">
         <v>300127490</v>
@@ -10036,10 +10032,10 @@
         <v>562</v>
       </c>
       <c r="C11" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D11" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="E11">
         <v>300127794</v>
@@ -10064,10 +10060,10 @@
         <v>566</v>
       </c>
       <c r="C13" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="E13">
         <v>300128438</v>
@@ -10081,10 +10077,10 @@
         <v>568</v>
       </c>
       <c r="C14" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D14" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="E14">
         <v>300266242</v>
@@ -10098,10 +10094,10 @@
         <v>570</v>
       </c>
       <c r="C15" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D15" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="E15">
         <v>300266252</v>
@@ -10126,10 +10122,10 @@
         <v>574</v>
       </c>
       <c r="C17" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D17" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="E17">
         <v>300130811</v>
@@ -10143,10 +10139,10 @@
         <v>576</v>
       </c>
       <c r="C18" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D18" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="E18">
         <v>300266267</v>
@@ -10160,10 +10156,10 @@
         <v>578</v>
       </c>
       <c r="C19" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D19" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="E19">
         <v>300129361</v>
@@ -10177,10 +10173,10 @@
         <v>580</v>
       </c>
       <c r="C20" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D20" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="E20">
         <v>300127490</v>
@@ -10227,10 +10223,10 @@
         <v>588</v>
       </c>
       <c r="C24" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D24" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="E24">
         <v>300126734</v>
@@ -10255,10 +10251,10 @@
         <v>592</v>
       </c>
       <c r="C26" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D26" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="E26">
         <v>300311191</v>
@@ -10272,10 +10268,10 @@
         <v>594</v>
       </c>
       <c r="C27" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D27" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="E27">
         <v>300130257</v>
@@ -10289,10 +10285,10 @@
         <v>596</v>
       </c>
       <c r="C28" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D28" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E28">
         <v>300126225</v>
@@ -10306,10 +10302,10 @@
         <v>598</v>
       </c>
       <c r="C29" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D29" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="E29">
         <v>300124707</v>
@@ -10334,10 +10330,10 @@
         <v>602</v>
       </c>
       <c r="C31" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D31" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="E31">
         <v>300266260</v>
@@ -10373,10 +10369,10 @@
         <v>608</v>
       </c>
       <c r="C34" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D34" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="E34">
         <v>300129784</v>
@@ -10390,10 +10386,10 @@
         <v>610</v>
       </c>
       <c r="C35" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D35" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="E35">
         <v>300311368</v>
@@ -10407,10 +10403,10 @@
         <v>612</v>
       </c>
       <c r="C36" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D36" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="E36">
         <v>300130920</v>
@@ -10431,7 +10427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <selection pane="bottomLeft" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10453,7 +10449,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1157</v>
@@ -10484,10 +10480,10 @@
         <v>616</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="E3" s="8">
         <v>300011015</v>
@@ -10501,10 +10497,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E4" s="14">
         <v>300011176</v>
@@ -10518,10 +10514,10 @@
         <v>620</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E5" s="8">
         <v>300010957</v>
@@ -10557,10 +10553,10 @@
         <v>626</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E8" s="8">
         <v>300011914</v>
@@ -10596,10 +10592,10 @@
         <v>632</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="E11" s="8">
         <v>300011099</v>
@@ -10625,10 +10621,10 @@
         <v>636</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E13" s="14">
         <v>300011176</v>
@@ -10642,10 +10638,10 @@
         <v>638</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E14" s="8">
         <v>300010797</v>
@@ -10681,10 +10677,10 @@
         <v>644</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E17" s="8">
         <v>300011914</v>
@@ -10698,10 +10694,10 @@
         <v>646</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E18" s="8">
         <v>300011002</v>
@@ -10715,10 +10711,10 @@
         <v>648</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E19" s="8">
         <v>300011857</v>
@@ -10732,10 +10728,10 @@
         <v>650</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E20" s="8">
         <v>300235507</v>
@@ -10749,10 +10745,10 @@
         <v>652</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E21" s="8">
         <v>300011020</v>
@@ -10766,10 +10762,10 @@
         <v>654</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E22" s="8">
         <v>300014570</v>
@@ -10794,10 +10790,10 @@
         <v>658</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E24" s="8">
         <v>300011914</v>
@@ -10811,10 +10807,10 @@
         <v>660</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E25" s="8">
         <v>300011443</v>
@@ -10828,10 +10824,10 @@
         <v>662</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E26" s="8">
         <v>300011443</v>
@@ -10856,10 +10852,10 @@
         <v>666</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E28" s="8">
         <v>300163347</v>
@@ -10873,10 +10869,10 @@
         <v>668</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="E29" s="8">
         <v>300014741</v>
@@ -10890,10 +10886,10 @@
         <v>670</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E30" s="8">
         <v>300011914</v>
@@ -10907,10 +10903,10 @@
         <v>672</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E31" s="8">
         <v>300011914</v>
@@ -10924,10 +10920,10 @@
         <v>674</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E32" s="8">
         <v>300014436</v>
@@ -10941,10 +10937,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="E33" s="8">
         <v>300014546</v>
@@ -10958,10 +10954,10 @@
         <v>677</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E34" s="8">
         <v>300010662</v>
@@ -10975,10 +10971,10 @@
         <v>679</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E35" s="14">
         <v>300011176</v>
@@ -10992,10 +10988,10 @@
         <v>681</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="E36" s="8">
         <v>300010822</v>
@@ -11009,10 +11005,10 @@
         <v>683</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E37" s="14">
         <v>300011176</v>
@@ -11037,10 +11033,10 @@
         <v>604</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="E39" s="8">
         <v>300010669</v>
@@ -11054,10 +11050,10 @@
         <v>688</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E40" s="8">
         <v>300011914</v>
@@ -11082,10 +11078,10 @@
         <v>692</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="E42" s="8">
         <v>300014585</v>
@@ -11099,10 +11095,10 @@
         <v>694</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E43" s="14">
         <v>300011176</v>
@@ -11116,10 +11112,10 @@
         <v>696</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E44" s="14">
         <v>300011176</v>
@@ -11133,10 +11129,10 @@
         <v>698</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E45" s="8">
         <v>300231565</v>
@@ -11172,10 +11168,10 @@
         <v>704</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="E48" s="8">
         <v>300235507</v>
@@ -11200,10 +11196,10 @@
         <v>708</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="E50" s="8">
         <v>300011798</v>
@@ -11228,10 +11224,10 @@
         <v>620</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="8">
         <v>300010957</v>
@@ -11245,16 +11241,16 @@
         <v>652</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="E53" s="8">
         <v>300011020</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11265,10 +11261,10 @@
         <v>714</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E54" s="8">
         <v>300014078</v>
@@ -11282,10 +11278,10 @@
         <v>716</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E55" s="8">
         <v>300014078</v>
@@ -11299,10 +11295,10 @@
         <v>718</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="E56" s="8">
         <v>300014078</v>
@@ -11316,10 +11312,10 @@
         <v>720</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E57" s="8">
         <v>300014910</v>
@@ -11333,10 +11329,10 @@
         <v>722</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="E58" s="8">
         <v>300010367</v>
@@ -11361,10 +11357,10 @@
         <v>726</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E60" s="8">
         <v>300014069</v>
@@ -11378,10 +11374,10 @@
         <v>728</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="E61" s="8">
         <v>300011021</v>
@@ -11395,10 +11391,10 @@
         <v>730</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E62" s="8">
         <v>300014109</v>
@@ -11412,16 +11408,16 @@
         <v>638</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E63" s="8">
         <v>300010797</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -11432,16 +11428,16 @@
         <v>638</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="E64" s="8">
         <v>300010797</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11452,10 +11448,10 @@
         <v>733</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E65" s="8">
         <v>300011914</v>
@@ -11469,16 +11465,16 @@
         <v>644</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E66" s="8">
         <v>300011914</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11489,16 +11485,16 @@
         <v>644</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="E67" s="8">
         <v>300011914</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -11509,10 +11505,10 @@
         <v>736</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="E68" s="8">
         <v>300411543</v>
@@ -11526,10 +11522,10 @@
         <v>648</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="E69" s="6">
         <v>300011857</v>
@@ -11543,10 +11539,10 @@
         <v>739</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="E70" s="8">
         <v>300014143</v>
@@ -11560,10 +11556,10 @@
         <v>741</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E71" s="8">
         <v>300231565</v>
@@ -11577,10 +11573,10 @@
         <v>743</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="E72" s="8">
         <v>300435274</v>
@@ -11594,10 +11590,10 @@
         <v>745</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="E73" s="8">
         <v>300014161</v>
@@ -11611,10 +11607,10 @@
         <v>747</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E74" s="8">
         <v>300014109</v>
@@ -11628,16 +11624,16 @@
         <v>749</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E75" s="8">
         <v>300014224</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11648,16 +11644,16 @@
         <v>749</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="E76" s="8">
         <v>300014224</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -11668,10 +11664,10 @@
         <v>654</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="E77" s="8">
         <v>300014570</v>
@@ -11685,10 +11681,10 @@
         <v>752</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E78" s="8">
         <v>300014069</v>
@@ -11702,10 +11698,10 @@
         <v>754</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="E79" s="8">
         <v>300011845</v>
@@ -11719,10 +11715,10 @@
         <v>756</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
       <c r="E80" s="8">
         <v>300014069</v>
@@ -11736,10 +11732,10 @@
         <v>758</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="E81" s="8">
         <v>300011022</v>
@@ -11753,10 +11749,10 @@
         <v>760</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E82" s="8">
         <v>300014109</v>
@@ -11770,10 +11766,10 @@
         <v>660</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E83" s="8">
         <v>300011443</v>
@@ -11788,10 +11784,10 @@
         <v>763</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="E84" s="8">
         <v>300390932</v>
@@ -11805,10 +11801,10 @@
         <v>765</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E85" s="8">
         <v>300010900</v>
@@ -11844,10 +11840,10 @@
         <v>770</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="E88" s="8">
         <v>300014657</v>
@@ -11861,10 +11857,10 @@
         <v>772</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E89" s="8">
         <v>300011851</v>
@@ -11878,10 +11874,10 @@
         <v>774</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E90" s="8">
         <v>300014109</v>
@@ -11895,10 +11891,10 @@
         <v>776</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E91" s="8">
         <v>300014109</v>
@@ -11912,10 +11908,10 @@
         <v>778</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="E92" s="8">
         <v>300011851</v>
@@ -11929,10 +11925,10 @@
         <v>780</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="E93" s="8">
         <v>300010662</v>
@@ -11946,16 +11942,16 @@
         <v>782</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E94" s="8">
         <v>300014109</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11966,16 +11962,16 @@
         <v>782</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E95" s="8">
         <v>300014109</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -11986,10 +11982,10 @@
         <v>784</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E96" s="8">
         <v>300014109</v>
@@ -12003,10 +11999,10 @@
         <v>786</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="E97" s="8">
         <v>300014109</v>
@@ -12020,10 +12016,10 @@
         <v>788</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="E98" s="8">
         <v>300027354</v>
@@ -12048,10 +12044,10 @@
         <v>792</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="E100" s="8">
         <v>300014206</v>
@@ -12065,10 +12061,10 @@
         <v>683</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="E101" s="14">
         <v>300011176</v>
@@ -12082,10 +12078,10 @@
         <v>795</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="E102" s="8">
         <v>300010900</v>
@@ -12099,10 +12095,10 @@
         <v>797</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="E103" s="8">
         <v>300014248</v>
@@ -12116,10 +12112,10 @@
         <v>799</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
       <c r="E104" s="8">
         <v>300012849</v>
@@ -12133,10 +12129,10 @@
         <v>801</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E105" s="8">
         <v>300231565</v>
@@ -12150,10 +12146,10 @@
         <v>803</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
       <c r="E106" s="8">
         <v>300014203</v>
@@ -12178,10 +12174,10 @@
         <v>806</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
       <c r="E108" s="8">
         <v>300014184</v>
@@ -12195,10 +12191,10 @@
         <v>646</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="E109" s="8">
         <v>300011002</v>
@@ -12212,10 +12208,10 @@
         <v>700</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="E110" s="8">
         <v>300011037</v>
@@ -12229,10 +12225,10 @@
         <v>698</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="E111" s="8">
         <v>300231565</v>
@@ -12246,16 +12242,16 @@
         <v>811</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E112" s="8">
         <v>300243428</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -12266,16 +12262,16 @@
         <v>811</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="E113" s="8">
         <v>300243428</v>
       </c>
       <c r="G113" s="12" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
@@ -12286,10 +12282,10 @@
         <v>813</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E114" s="8">
         <v>300022453</v>
@@ -12303,10 +12299,10 @@
         <v>815</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="E115" s="6">
         <v>300138699</v>
@@ -12320,10 +12316,10 @@
         <v>817</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="E116" s="8">
         <v>300011729</v>
@@ -12337,10 +12333,10 @@
         <v>819</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="E117" s="8">
         <v>300163347</v>
@@ -12354,10 +12350,10 @@
         <v>821</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="E118" s="8">
         <v>300012862</v>
@@ -12371,10 +12367,10 @@
         <v>823</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E119" s="8">
         <v>300015012</v>
@@ -12388,10 +12384,10 @@
         <v>825</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E120" s="8">
         <v>300022413</v>
@@ -12405,10 +12401,10 @@
         <v>827</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D121" s="7" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="E121" s="8">
         <v>300022441</v>
@@ -12422,10 +12418,10 @@
         <v>829</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="E122" s="8">
         <v>300022413</v>
@@ -12439,10 +12435,10 @@
         <v>831</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E123" s="6">
         <v>300053277</v>
@@ -12456,10 +12452,10 @@
         <v>833</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E124" s="8">
         <v>300022439</v>
@@ -12473,10 +12469,10 @@
         <v>835</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E125" s="8">
         <v>300015018</v>
@@ -12490,10 +12486,10 @@
         <v>837</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="E126" s="8">
         <v>300230810</v>
@@ -12507,10 +12503,10 @@
         <v>839</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="E127" s="8">
         <v>300015018</v>
@@ -12524,10 +12520,10 @@
         <v>841</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="E128" s="8">
         <v>300122621</v>
@@ -12541,10 +12537,10 @@
         <v>843</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="E129" s="6">
         <v>300022452</v>
@@ -12558,10 +12554,10 @@
         <v>845</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="E130" s="8">
         <v>300022439</v>
@@ -12575,10 +12571,10 @@
         <v>847</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="E131" s="6">
         <v>300022552</v>
@@ -12592,10 +12588,10 @@
         <v>849</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E132" s="8">
         <v>300015012</v>
@@ -12609,10 +12605,10 @@
         <v>600</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="E133" s="8">
         <v>300080064</v>
@@ -12626,10 +12622,10 @@
         <v>852</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E134" s="8">
         <v>300417481</v>
@@ -12643,10 +12639,10 @@
         <v>854</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E135" s="8">
         <v>300022458</v>
@@ -12660,10 +12656,10 @@
         <v>856</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
       <c r="E136" s="8">
         <v>300167812</v>
@@ -12699,10 +12695,10 @@
         <v>862</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E139" s="8">
         <v>300053796</v>
@@ -12716,10 +12712,10 @@
         <v>864</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="E140" s="6">
         <v>300053867</v>
@@ -12733,10 +12729,10 @@
         <v>866</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E141" s="8">
         <v>300311416</v>
@@ -12750,10 +12746,10 @@
         <v>868</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="E142" s="8">
         <v>300054216</v>
@@ -12767,10 +12763,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -12784,10 +12780,10 @@
         <v>872</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E144" s="8">
         <v>300443550</v>
@@ -12801,10 +12797,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -12812,13 +12808,13 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B146" s="11" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="D146" s="19" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="E146" s="20">
         <v>300014156</v>
@@ -12839,8 +12835,8 @@
   <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60:E60"/>
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12859,7 +12855,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1157</v>
@@ -12879,10 +12875,10 @@
         <v>1032</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E2" s="14">
         <v>300015045</v>
@@ -12896,10 +12892,10 @@
         <v>1160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="E3" s="6">
         <v>300411597</v>
@@ -12924,10 +12920,10 @@
         <v>1164</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="E5" s="8">
         <v>300070114</v>
@@ -12941,10 +12937,10 @@
         <v>1166</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="E6" s="8">
         <v>300053386</v>
@@ -13337,10 +13333,10 @@
         <v>1169</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E54" s="6">
         <v>300053241</v>
@@ -13376,10 +13372,10 @@
         <v>1174</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E57" s="6">
         <v>300053242</v>
@@ -13393,10 +13389,10 @@
         <v>1176</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="E58" s="6">
         <v>300155640</v>
@@ -13410,10 +13406,10 @@
         <v>1178</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="E59" s="6">
         <v>300263218</v>
@@ -13427,10 +13423,10 @@
         <v>1180</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E60" s="6">
         <v>300053225</v>
@@ -13444,10 +13440,10 @@
         <v>1182</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="E61" s="8">
         <v>300053220</v>
@@ -13461,10 +13457,10 @@
         <v>1184</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="E62" s="8">
         <v>300053272</v>
@@ -13489,10 +13485,10 @@
         <v>1188</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="E64" s="8">
         <v>300265178</v>
@@ -13506,10 +13502,10 @@
         <v>1190</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="E65" s="8">
         <v>300265082</v>
@@ -13534,10 +13530,10 @@
         <v>1194</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E67" s="6">
         <v>300053228</v>
@@ -13551,10 +13547,10 @@
         <v>1196</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E68" s="8">
         <v>300053241</v>
@@ -13568,10 +13564,10 @@
         <v>1169</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="E69" s="8">
         <v>300053241</v>
@@ -13585,10 +13581,10 @@
         <v>1199</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="E70" s="8">
         <v>300053207</v>
@@ -13602,10 +13598,10 @@
         <v>1201</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E71" s="8">
         <v>300053275</v>
@@ -13619,10 +13615,10 @@
         <v>1203</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E72" s="8">
         <v>300053303</v>
@@ -13636,10 +13632,10 @@
         <v>1205</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E73" s="8">
         <v>300053296</v>
@@ -13653,10 +13649,10 @@
         <v>1207</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E74" s="8">
         <v>300053242</v>
@@ -13670,10 +13666,10 @@
         <v>1209</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="E75" s="8">
         <v>300263381</v>
@@ -13687,10 +13683,10 @@
         <v>1211</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="E76" s="8">
         <v>300053303</v>
@@ -13704,10 +13700,10 @@
         <v>1213</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="E77" s="8">
         <v>300053296</v>
@@ -13721,10 +13717,10 @@
         <v>1215</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E78" s="8">
         <v>300154361</v>
@@ -13749,10 +13745,10 @@
         <v>1219</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E80" s="8">
         <v>300053271</v>
@@ -13766,10 +13762,10 @@
         <v>1221</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="E81" s="8">
         <v>300343476</v>
@@ -13783,10 +13779,10 @@
         <v>1223</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E82" s="8">
         <v>300053239</v>
@@ -13800,10 +13796,10 @@
         <v>1225</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E83" s="8">
         <v>300190531</v>
@@ -13817,10 +13813,10 @@
         <v>1227</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="E84" s="8">
         <v>300154361</v>
@@ -13834,10 +13830,10 @@
         <v>1229</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="E85" s="8">
         <v>300053204</v>
@@ -13851,10 +13847,10 @@
         <v>1231</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="E86" s="8">
         <v>300053231</v>
@@ -13868,10 +13864,10 @@
         <v>1233</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="E87" s="8">
         <v>300060720</v>
@@ -13885,10 +13881,10 @@
         <v>1235</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E88" s="8">
         <v>300053271</v>
@@ -13902,10 +13898,10 @@
         <v>1237</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E89" s="8">
         <v>300053285</v>
@@ -13938,10 +13934,10 @@
         <v>1243</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E92" s="8">
         <v>300053233</v>
@@ -13955,10 +13951,10 @@
         <v>1245</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="E93" s="8">
         <v>300053277</v>
@@ -13994,10 +13990,10 @@
         <v>1251</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="E96" s="9">
         <v>300053279</v>
@@ -14022,10 +14018,10 @@
         <v>1255</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="E98" s="8">
         <v>300190536</v>
@@ -14039,10 +14035,10 @@
         <v>1257</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E99" s="8">
         <v>300053285</v>
@@ -14056,10 +14052,10 @@
         <v>1259</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="E100" s="8">
         <v>300053239</v>
@@ -14106,10 +14102,10 @@
         <v>1267</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="E104" s="8">
         <v>300053271</v>
@@ -14123,10 +14119,10 @@
         <v>1269</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="E105" s="8">
         <v>300157897</v>
@@ -14140,10 +14136,10 @@
         <v>1271</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E106" s="8">
         <v>300053251</v>
@@ -14157,10 +14153,10 @@
         <v>1273</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="E107" s="8">
         <v>300157968</v>
@@ -14174,10 +14170,10 @@
         <v>1275</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="E108" s="8">
         <v>300053281</v>
@@ -14191,10 +14187,10 @@
         <v>1277</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E109" s="14">
         <v>300014426</v>
@@ -14208,10 +14204,10 @@
         <v>1279</v>
       </c>
       <c r="C110" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D110" s="6" t="s">
         <v>1443</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>1444</v>
       </c>
       <c r="E110" s="6">
         <v>300053366</v>
@@ -14225,10 +14221,10 @@
         <v>1281</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E111" s="14">
         <v>300015050</v>
@@ -14242,10 +14238,10 @@
         <v>1283</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="E112" s="14">
         <v>300015062</v>
@@ -14259,10 +14255,10 @@
         <v>1285</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E113" s="14">
         <v>300015050</v>
@@ -14552,10 +14548,10 @@
         <v>1287</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E137" s="8">
         <v>300053781</v>
@@ -14569,10 +14565,10 @@
         <v>1289</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E138" s="8">
         <v>300053104</v>
@@ -14586,10 +14582,10 @@
         <v>1291</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E139" s="8">
         <v>300053225</v>
@@ -14614,10 +14610,10 @@
         <v>862</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="E141" s="8">
         <v>300053796</v>
@@ -14631,10 +14627,10 @@
         <v>1296</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="E142" s="8">
         <v>300010902</v>
@@ -14648,10 +14644,10 @@
         <v>870</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="E143" s="8">
         <v>300443550</v>
@@ -14676,10 +14672,10 @@
         <v>874</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="E145" s="8">
         <v>300053989</v>
@@ -14693,10 +14689,10 @@
         <v>1032</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D146" s="12" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E146" s="14">
         <v>300015045</v>
@@ -14710,10 +14706,10 @@
         <v>1174</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E147" s="6">
         <v>300053242</v>
@@ -14738,10 +14734,10 @@
         <v>1306</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="E149" s="8">
         <v>300013351</v>
@@ -14755,10 +14751,10 @@
         <v>1194</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="E150" s="6">
         <v>300053228</v>
@@ -14772,10 +14768,10 @@
         <v>1309</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E151" s="14">
         <v>300015071</v>
@@ -14800,10 +14796,10 @@
         <v>1313</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E153" s="8">
         <v>300053363</v>
@@ -14817,10 +14813,10 @@
         <v>1315</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="E154" s="8">
         <v>300404638</v>
@@ -14834,10 +14830,10 @@
         <v>1225</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="E155" s="8">
         <v>300190531</v>
@@ -14851,10 +14847,10 @@
         <v>1318</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="E156" s="8">
         <v>300417481</v>
@@ -14868,10 +14864,10 @@
         <v>1243</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="E157" s="8">
         <v>300053233</v>
@@ -14885,10 +14881,10 @@
         <v>1281</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="E158" s="14">
         <v>300015050</v>
@@ -14913,10 +14909,10 @@
         <v>1324</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="E160" s="8">
         <v>300404072</v>
@@ -14930,10 +14926,10 @@
         <v>1271</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="E161" s="8">
         <v>300053251</v>
@@ -14947,10 +14943,10 @@
         <v>1327</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="E162" s="14">
         <v>300015045</v>
@@ -14988,7 +14984,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -15025,7 +15021,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15044,7 +15040,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -15064,10 +15060,10 @@
         <v>877</v>
       </c>
       <c r="C2" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D2" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E2">
         <v>300026823</v>
@@ -15081,10 +15077,10 @@
         <v>879</v>
       </c>
       <c r="C3" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D3" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E3">
         <v>300026867</v>
@@ -15098,10 +15094,10 @@
         <v>881</v>
       </c>
       <c r="C4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E4">
         <v>300026879</v>
@@ -15115,10 +15111,10 @@
         <v>191</v>
       </c>
       <c r="C5" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D5" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E5">
         <v>300026816</v>
@@ -15132,10 +15128,10 @@
         <v>884</v>
       </c>
       <c r="C6" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D6" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="E6">
         <v>300026030</v>
@@ -15149,10 +15145,10 @@
         <v>886</v>
       </c>
       <c r="C7" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D7" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="E7">
         <v>300028051</v>
@@ -15166,10 +15162,10 @@
         <v>189</v>
       </c>
       <c r="C8" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D8" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="E8">
         <v>300026879</v>
@@ -15183,10 +15179,10 @@
         <v>889</v>
       </c>
       <c r="C9" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D9" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E9">
         <v>300026942</v>
@@ -15211,10 +15207,10 @@
         <v>893</v>
       </c>
       <c r="C11" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D11" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="E11">
         <v>300026942</v>
@@ -15228,10 +15224,10 @@
         <v>895</v>
       </c>
       <c r="C12" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D12" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="E12">
         <v>300264639</v>
@@ -15245,10 +15241,10 @@
         <v>897</v>
       </c>
       <c r="C13" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D13" t="s">
         <v>1616</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1618</v>
       </c>
       <c r="E13">
         <v>300212274</v>
@@ -15262,10 +15258,10 @@
         <v>286</v>
       </c>
       <c r="C14" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D14" t="s">
         <v>1693</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1695</v>
       </c>
       <c r="E14">
         <v>300136847</v>
@@ -15279,10 +15275,10 @@
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D15" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="E15">
         <v>300046300</v>
@@ -15296,10 +15292,10 @@
         <v>901</v>
       </c>
       <c r="C16" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D16" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E16">
         <v>300049060</v>
@@ -15313,10 +15309,10 @@
         <v>903</v>
       </c>
       <c r="C17" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D17" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="E17">
         <v>300053225</v>
@@ -15330,10 +15326,10 @@
         <v>296</v>
       </c>
       <c r="C18" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D18" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="E18">
         <v>300028569</v>
@@ -15347,10 +15343,10 @@
         <v>906</v>
       </c>
       <c r="C19" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D19" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="E19">
         <v>300053463</v>
@@ -15364,10 +15360,10 @@
         <v>908</v>
       </c>
       <c r="C20" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D20" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E20">
         <v>300048715</v>
@@ -15381,10 +15377,10 @@
         <v>910</v>
       </c>
       <c r="C21" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D21" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E21">
         <v>300026931</v>
@@ -15398,10 +15394,10 @@
         <v>912</v>
       </c>
       <c r="C22" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D22" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E22">
         <v>300026867</v>
@@ -15437,10 +15433,10 @@
         <v>417</v>
       </c>
       <c r="C25" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D25" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="E25">
         <v>300264354</v>
@@ -15454,10 +15450,10 @@
         <v>919</v>
       </c>
       <c r="C26" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D26" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E26">
         <v>300027200</v>
@@ -15471,10 +15467,10 @@
         <v>921</v>
       </c>
       <c r="C27" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D27" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E27">
         <v>300262918</v>
@@ -15499,10 +15495,10 @@
         <v>924</v>
       </c>
       <c r="C29" t="s">
-        <v>1715</v>
+        <v>1711</v>
       </c>
       <c r="D29" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="E29">
         <v>300264639</v>
@@ -15538,10 +15534,10 @@
         <v>207</v>
       </c>
       <c r="C32" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D32" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="E32">
         <v>300026819</v>
@@ -15555,10 +15551,10 @@
         <v>931</v>
       </c>
       <c r="C33" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D33" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E33">
         <v>300027264</v>
@@ -15572,10 +15568,10 @@
         <v>933</v>
       </c>
       <c r="C34" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D34" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E34">
         <v>300311954</v>
@@ -15589,10 +15585,10 @@
         <v>935</v>
       </c>
       <c r="C35" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D35" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="E35">
         <v>300134722</v>
@@ -15606,10 +15602,10 @@
         <v>937</v>
       </c>
       <c r="C36" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D36" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E36">
         <v>300145802</v>
@@ -15634,10 +15630,10 @@
         <v>941</v>
       </c>
       <c r="C38" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="D38" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E38">
         <v>300027200</v>
@@ -15673,10 +15669,10 @@
         <v>947</v>
       </c>
       <c r="C41" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D41" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E41">
         <v>300026096</v>
@@ -15690,10 +15686,10 @@
         <v>209</v>
       </c>
       <c r="C42" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D42" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="E42">
         <v>300026909</v>
@@ -15718,10 +15714,10 @@
         <v>952</v>
       </c>
       <c r="C44" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="D44" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="E44">
         <v>300127478</v>
@@ -15735,10 +15731,10 @@
         <v>954</v>
       </c>
       <c r="C45" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D45" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="E45">
         <v>300026657</v>
@@ -15752,10 +15748,10 @@
         <v>956</v>
       </c>
       <c r="C46" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D46" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E46">
         <v>300247929</v>
@@ -15769,10 +15765,10 @@
         <v>958</v>
       </c>
       <c r="C47" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D47" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E47">
         <v>300027083</v>
@@ -15786,10 +15782,10 @@
         <v>960</v>
       </c>
       <c r="C48" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D48" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="E48">
         <v>300026068</v>
@@ -15814,10 +15810,10 @@
         <v>964</v>
       </c>
       <c r="C50" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="D50" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E50">
         <v>300026823</v>
@@ -15831,10 +15827,10 @@
         <v>966</v>
       </c>
       <c r="C51" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D51" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="E51">
         <v>300026074</v>
@@ -15936,10 +15932,10 @@
         <v>978</v>
       </c>
       <c r="C60" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="D60" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="E60">
         <v>300027388</v>
@@ -15975,10 +15971,10 @@
         <v>205</v>
       </c>
       <c r="C63" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D63" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E63">
         <v>300263886</v>
@@ -15992,10 +15988,10 @@
         <v>986</v>
       </c>
       <c r="C64" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D64" t="s">
         <v>1579</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1581</v>
       </c>
       <c r="E64">
         <v>300034104</v>
@@ -16009,10 +16005,10 @@
         <v>950</v>
       </c>
       <c r="C65" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D65" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="E65">
         <v>300033973</v>
@@ -16026,10 +16022,10 @@
         <v>989</v>
       </c>
       <c r="C66" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D66" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E66">
         <v>300263898</v>
@@ -16043,10 +16039,10 @@
         <v>991</v>
       </c>
       <c r="C67" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D67" t="s">
         <v>1583</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1585</v>
       </c>
       <c r="E67">
         <v>300266808</v>
@@ -16060,10 +16056,10 @@
         <v>993</v>
       </c>
       <c r="C68" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D68" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E68">
         <v>300234117</v>
@@ -16077,10 +16073,10 @@
         <v>995</v>
       </c>
       <c r="C69" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D69" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="E69">
         <v>300343358</v>
@@ -16094,10 +16090,10 @@
         <v>997</v>
       </c>
       <c r="C70" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D70" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E70">
         <v>300266810</v>
@@ -16111,10 +16107,10 @@
         <v>999</v>
       </c>
       <c r="C71" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D71" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E71">
         <v>300133005</v>
@@ -16128,10 +16124,10 @@
         <v>1001</v>
       </c>
       <c r="C72" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D72" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E72">
         <v>300046025</v>
@@ -16145,10 +16141,10 @@
         <v>1003</v>
       </c>
       <c r="C73" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D73" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E73">
         <v>300028884</v>
@@ -16162,10 +16158,10 @@
         <v>1005</v>
       </c>
       <c r="C74" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D74" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E74">
         <v>300037680</v>
@@ -16179,10 +16175,10 @@
         <v>1007</v>
       </c>
       <c r="C75" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D75" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="E75">
         <v>300041620</v>
@@ -16196,10 +16192,10 @@
         <v>1009</v>
       </c>
       <c r="C76" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D76" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="E76">
         <v>300215545</v>
@@ -16213,10 +16209,10 @@
         <v>1011</v>
       </c>
       <c r="C77" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D77" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E77">
         <v>300263853</v>
@@ -16230,10 +16226,10 @@
         <v>1013</v>
       </c>
       <c r="C78" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D78" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="E78">
         <v>300433073</v>
@@ -16247,10 +16243,10 @@
         <v>1015</v>
       </c>
       <c r="C79" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D79" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E79">
         <v>300014842</v>
@@ -16264,10 +16260,10 @@
         <v>1017</v>
       </c>
       <c r="C80" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D80" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="E80">
         <v>300168224</v>
@@ -16281,10 +16277,10 @@
         <v>1019</v>
       </c>
       <c r="C81" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D81" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="E81">
         <v>300209286</v>
@@ -16298,10 +16294,10 @@
         <v>1021</v>
       </c>
       <c r="C82" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D82" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="E82">
         <v>300231565</v>
@@ -16315,10 +16311,10 @@
         <v>1023</v>
       </c>
       <c r="C83" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D83" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E83">
         <v>300233975</v>
@@ -16332,10 +16328,10 @@
         <v>1025</v>
       </c>
       <c r="C84" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D84" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="E84">
         <v>300195678</v>
@@ -16349,10 +16345,10 @@
         <v>1027</v>
       </c>
       <c r="C85" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D85" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E85">
         <v>300224230</v>
@@ -16366,10 +16362,10 @@
         <v>1029</v>
       </c>
       <c r="C86" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D86" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E86">
         <v>300036926</v>
@@ -16377,13 +16373,13 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="C87" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D87" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="E87">
         <v>300257199</v>
@@ -16391,13 +16387,13 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C88" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D88" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="E88">
         <v>300262254</v>
@@ -16405,13 +16401,13 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C89" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D89" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="E89">
         <v>300046230</v>
@@ -16419,13 +16415,13 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="C90" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D90" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="E90">
         <v>300046227</v>
@@ -16433,13 +16429,13 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C91" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="D91" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="E91">
         <v>300193993</v>
@@ -16459,7 +16455,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16477,7 +16473,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -16497,7 +16493,7 @@
         <v>1030</v>
       </c>
       <c r="C2" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D2" t="s">
         <v>1030</v>
@@ -16511,10 +16507,10 @@
         <v>1032</v>
       </c>
       <c r="C3" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D3" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -16536,10 +16532,10 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D5" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -16550,10 +16546,10 @@
         <v>1036</v>
       </c>
       <c r="C6" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D6" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -16564,10 +16560,10 @@
         <v>1036</v>
       </c>
       <c r="C7" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D7" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -16578,10 +16574,10 @@
         <v>1039</v>
       </c>
       <c r="C8" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D8" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -16603,10 +16599,10 @@
         <v>296</v>
       </c>
       <c r="C10" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D10" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -16617,10 +16613,10 @@
         <v>296</v>
       </c>
       <c r="C11" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D11" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -16642,10 +16638,10 @@
         <v>1043</v>
       </c>
       <c r="C13" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D13" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -16656,10 +16652,10 @@
         <v>1045</v>
       </c>
       <c r="C14" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D14" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -16670,10 +16666,10 @@
         <v>288</v>
       </c>
       <c r="C15" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D15" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -16684,10 +16680,10 @@
         <v>288</v>
       </c>
       <c r="C16" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D16" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -16698,10 +16694,10 @@
         <v>1048</v>
       </c>
       <c r="C17" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D17" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -16712,10 +16708,10 @@
         <v>1049</v>
       </c>
       <c r="C18" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D18" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -16726,7 +16722,7 @@
         <v>1051</v>
       </c>
       <c r="C19" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D19" t="s">
         <v>1051</v>
@@ -16737,13 +16733,13 @@
         <v>1053</v>
       </c>
       <c r="B20" t="s">
-        <v>1045</v>
+        <v>1734</v>
       </c>
       <c r="C20" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D20" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -16754,10 +16750,10 @@
         <v>950</v>
       </c>
       <c r="C21" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="D21" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
   </sheetData>
@@ -16773,8 +16769,8 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -16792,7 +16788,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -16812,10 +16808,10 @@
         <v>1056</v>
       </c>
       <c r="C2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D2" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="E2">
         <v>300022453</v>
@@ -16829,10 +16825,10 @@
         <v>854</v>
       </c>
       <c r="C3" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D3" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="E3">
         <v>300022458</v>
@@ -16857,10 +16853,10 @@
         <v>823</v>
       </c>
       <c r="C5" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D5" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="E5">
         <v>300015012</v>
@@ -16874,10 +16870,10 @@
         <v>845</v>
       </c>
       <c r="C6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="D6" t="s">
-        <v>1567</v>
+        <v>1527</v>
       </c>
       <c r="E6">
         <v>300022439</v>
@@ -16916,7 +16912,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -16936,10 +16932,10 @@
         <v>1063</v>
       </c>
       <c r="C2" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D2" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E2">
         <v>300388256</v>
@@ -16953,10 +16949,10 @@
         <v>1065</v>
       </c>
       <c r="C3" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D3" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="E3">
         <v>300388277</v>
@@ -16970,10 +16966,10 @@
         <v>1067</v>
       </c>
       <c r="C4" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D4" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="E4">
         <v>300388306</v>
@@ -16987,10 +16983,10 @@
         <v>1069</v>
       </c>
       <c r="C5" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D5" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="E5">
         <v>300388344</v>
@@ -17004,10 +17000,10 @@
         <v>1070</v>
       </c>
       <c r="C6" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D6" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E6">
         <v>300387827</v>
@@ -17021,10 +17017,10 @@
         <v>1070</v>
       </c>
       <c r="C7" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D7" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="E7">
         <v>300389734</v>
@@ -17038,10 +17034,10 @@
         <v>1073</v>
       </c>
       <c r="C8" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D8" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="E8">
         <v>300388401</v>
@@ -17055,10 +17051,10 @@
         <v>1075</v>
       </c>
       <c r="C9" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D9" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="E9">
         <v>300388474</v>
@@ -17072,10 +17068,10 @@
         <v>1077</v>
       </c>
       <c r="C10" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D10" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="E10">
         <v>300388693</v>
@@ -17089,10 +17085,10 @@
         <v>1079</v>
       </c>
       <c r="C11" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D11" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E11">
         <v>300443706</v>
@@ -17106,10 +17102,10 @@
         <v>1081</v>
       </c>
       <c r="C12" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D12" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="E12">
         <v>300389115</v>
@@ -17123,10 +17119,10 @@
         <v>1083</v>
       </c>
       <c r="C13" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D13" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="E13">
         <v>300389311</v>
@@ -17140,10 +17136,10 @@
         <v>1085</v>
       </c>
       <c r="C14" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D14" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="E14">
         <v>300389336</v>
@@ -17157,10 +17153,10 @@
         <v>1087</v>
       </c>
       <c r="C15" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D15" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="E15">
         <v>300388737</v>
@@ -17174,10 +17170,10 @@
         <v>1089</v>
       </c>
       <c r="C16" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D16" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E16">
         <v>300388256</v>
@@ -17191,10 +17187,10 @@
         <v>1091</v>
       </c>
       <c r="C17" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D17" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="E17">
         <v>300388256</v>
@@ -17233,7 +17229,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -17264,10 +17260,10 @@
         <v>1094</v>
       </c>
       <c r="C3" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D3" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E3">
         <v>300417206</v>
@@ -17281,10 +17277,10 @@
         <v>1095</v>
       </c>
       <c r="C4" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D4" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E4">
         <v>300055029</v>
@@ -17298,10 +17294,10 @@
         <v>1096</v>
       </c>
       <c r="C5" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D5" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E5">
         <v>300055029</v>
@@ -17326,10 +17322,10 @@
         <v>1100</v>
       </c>
       <c r="C7" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D7" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="E7">
         <v>300417198</v>
@@ -17343,10 +17339,10 @@
         <v>1102</v>
       </c>
       <c r="C8" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D8" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="E8">
         <v>300417196</v>
@@ -17383,7 +17379,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -17419,7 +17415,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1048576"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17438,7 +17434,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -17458,10 +17454,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D2" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E2">
         <v>300435415</v>
@@ -17475,10 +17471,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D3" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="E3">
         <v>300435425</v>
@@ -17492,10 +17488,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D4" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E4">
         <v>300435416</v>
@@ -17509,10 +17505,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D5" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E5">
         <v>300435416</v>
@@ -17526,10 +17522,10 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D6" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="E6">
         <v>300435438</v>
@@ -17543,7 +17539,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D7" t="s">
         <v>1331</v>
@@ -17560,10 +17556,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D8" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -17574,10 +17570,10 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D9" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E9">
         <v>300435415</v>
@@ -17591,10 +17587,10 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D10" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E10">
         <v>300435416</v>
@@ -17619,10 +17615,10 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D12" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E12">
         <v>300435416</v>
@@ -17636,7 +17632,7 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D13" t="s">
         <v>1331</v>
@@ -17653,7 +17649,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D14" t="s">
         <v>1331</v>
@@ -17670,10 +17666,10 @@
         <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D15" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E15">
         <v>300435415</v>
@@ -17687,10 +17683,10 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D16" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E16">
         <v>300435415</v>
@@ -17704,10 +17700,10 @@
         <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D17" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="E17">
         <v>300435416</v>
@@ -17732,10 +17728,10 @@
         <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D19" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="E19">
         <v>300435415</v>
@@ -17746,7 +17742,7 @@
         <v>1332</v>
       </c>
       <c r="C20" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D20" t="s">
         <v>1332</v>
@@ -17757,7 +17753,7 @@
         <v>1333</v>
       </c>
       <c r="C21" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D21" t="s">
         <v>1333</v>
@@ -17765,24 +17761,24 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C22" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="C23" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="D23" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
   </sheetData>
@@ -17816,7 +17812,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -17891,7 +17887,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -18329,7 +18325,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -18393,7 +18389,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -18451,7 +18447,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -18469,7 +18465,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>
@@ -18527,13 +18523,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="C6" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D6" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="E6">
         <v>300435416</v>
@@ -18541,13 +18537,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="C7" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="D7" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
   </sheetData>
@@ -18581,7 +18577,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1157</v>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="19" activeTab="22"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -284,7 +284,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2949" uniqueCount="1735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2952" uniqueCount="1735">
   <si>
     <t>code</t>
   </si>
@@ -16769,7 +16769,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -17210,7 +17210,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17248,8 +17248,14 @@
       <c r="B2" t="s">
         <v>1092</v>
       </c>
-      <c r="F2" t="s">
-        <v>1329</v>
+      <c r="C2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E2">
+        <v>300435416</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -17310,8 +17316,14 @@
       <c r="B6" t="s">
         <v>1098</v>
       </c>
-      <c r="F6" t="s">
-        <v>1329</v>
+      <c r="C6" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E6">
+        <v>300435416</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -17361,8 +17373,8 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -17398,8 +17410,14 @@
       <c r="B2" t="s">
         <v>1104</v>
       </c>
-      <c r="F2" t="s">
-        <v>1329</v>
+      <c r="C2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E2">
+        <v>300435415</v>
       </c>
     </row>
   </sheetData>
@@ -17415,7 +17433,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="C2" sqref="C2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="1"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="21" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="1740">
   <si>
     <t>code</t>
   </si>
@@ -5511,6 +5511,9 @@
   </si>
   <si>
     <t>prints (visual works)</t>
+  </si>
+  <si>
+    <t>constructed titles</t>
   </si>
 </sst>
 </file>
@@ -10574,8 +10577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G679"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A460" workbookViewId="0">
+      <selection activeCell="C463" sqref="C463:E463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11395,7 +11398,7 @@
       </c>
       <c r="G45" s="21"/>
     </row>
-    <row r="46" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
         <v>484</v>
       </c>
@@ -11403,13 +11406,13 @@
         <v>1092</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>1359</v>
+        <v>1739</v>
       </c>
       <c r="E46" s="23">
-        <v>300435416</v>
+        <v>300417205</v>
       </c>
       <c r="F46" s="22"/>
       <c r="G46" s="21"/>
@@ -18984,7 +18987,7 @@
       <c r="F462" s="22"/>
       <c r="G462" s="22"/>
     </row>
-    <row r="463" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:7" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A463" s="21" t="s">
         <v>1097</v>
       </c>
@@ -18992,13 +18995,13 @@
         <v>1098</v>
       </c>
       <c r="C463" s="22" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="D463" s="22" t="s">
-        <v>1359</v>
+        <v>1739</v>
       </c>
       <c r="E463" s="23">
-        <v>300435416</v>
+        <v>300417205</v>
       </c>
       <c r="F463" s="22"/>
       <c r="G463" s="21"/>
@@ -27606,8 +27609,8 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -27646,13 +27649,13 @@
         <v>1092</v>
       </c>
       <c r="C2" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="D2" t="s">
-        <v>1359</v>
+        <v>1739</v>
       </c>
       <c r="E2">
-        <v>300435416</v>
+        <v>300417205</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -27714,13 +27717,13 @@
         <v>1098</v>
       </c>
       <c r="C6" t="s">
-        <v>1395</v>
+        <v>1399</v>
       </c>
       <c r="D6" t="s">
-        <v>1359</v>
+        <v>1739</v>
       </c>
       <c r="E6">
-        <v>300435416</v>
+        <v>300417205</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5519" uniqueCount="1739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="1741">
   <si>
     <t>code</t>
   </si>
@@ -5511,15 +5511,28 @@
   </si>
   <si>
     <t>constructed titles</t>
+  </si>
+  <si>
+    <t>afgebeeld op</t>
+  </si>
+  <si>
+    <t>representation (form of expression)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5614,15 +5627,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5642,7 +5655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5659,15 +5672,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -9343,10 +9357,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A38" sqref="A1:E1048576"/>
+      <selection activeCell="E41" sqref="B41:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -9998,6 +10012,20 @@
       </c>
       <c r="F40" t="s">
         <v>1329</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E41">
+        <v>300069747</v>
       </c>
     </row>
   </sheetData>
@@ -10582,13 +10610,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G678"/>
+  <dimension ref="A1:G679"/>
   <sheetViews>
-    <sheetView topLeftCell="A537" workbookViewId="0">
-      <selection activeCell="B541" sqref="B541"/>
+    <sheetView tabSelected="1" topLeftCell="A678" workbookViewId="0">
+      <selection activeCell="F678" sqref="F678"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -22935,6 +22966,20 @@
       </c>
       <c r="F678" s="22"/>
       <c r="G678" s="21"/>
+    </row>
+    <row r="679" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B679" s="25" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C679" s="25" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D679" s="25" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E679" s="25">
+        <v>300069747</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30988,7 +31033,7 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>

--- a/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
+++ b/admin/rdm/Digipolis_Lookup_RDM_Cleaning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="24" yWindow="456" windowWidth="28404" windowHeight="17040" firstSheet="17" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="CSV &lt;-&gt; RDM" sheetId="25" r:id="rId1"/>
@@ -285,7 +285,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="1740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5525" uniqueCount="1738">
   <si>
     <t>code</t>
   </si>
@@ -4658,9 +4658,6 @@
     <t>aquarelle (technique)</t>
   </si>
   <si>
-    <t>verdigris (color)</t>
-  </si>
-  <si>
     <t>enameling</t>
   </si>
   <si>
@@ -4674,9 +4671,6 @@
   </si>
   <si>
     <t>artificial patina</t>
-  </si>
-  <si>
-    <t>painting (image-making)</t>
   </si>
   <si>
     <t>ink wash (technique)</t>
@@ -5520,9 +5514,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5624,15 +5625,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -5652,7 +5653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -5669,16 +5670,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -6492,7 +6499,7 @@
         <v>1395</v>
       </c>
       <c r="D3" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -6557,7 +6564,7 @@
         <v>1395</v>
       </c>
       <c r="D7" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -6571,7 +6578,7 @@
         <v>1395</v>
       </c>
       <c r="D8" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -6756,7 +6763,7 @@
         <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D2" t="s">
         <v>1399</v>
@@ -6773,10 +6780,10 @@
         <v>165</v>
       </c>
       <c r="C3" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D3" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="E3">
         <v>300250949</v>
@@ -6790,10 +6797,10 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D4" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E4">
         <v>300312154</v>
@@ -6807,10 +6814,10 @@
         <v>169</v>
       </c>
       <c r="C5" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D5" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E5">
         <v>300026676</v>
@@ -6824,10 +6831,10 @@
         <v>171</v>
       </c>
       <c r="C6" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D6" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E6">
         <v>300027573</v>
@@ -6841,10 +6848,10 @@
         <v>173</v>
       </c>
       <c r="C7" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D7" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E7">
         <v>300027621</v>
@@ -6858,10 +6865,10 @@
         <v>175</v>
       </c>
       <c r="C8" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D8" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E8">
         <v>300027392</v>
@@ -6875,10 +6882,10 @@
         <v>177</v>
       </c>
       <c r="C9" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D9" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E9">
         <v>300027527</v>
@@ -6892,10 +6899,10 @@
         <v>179</v>
       </c>
       <c r="C10" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D10" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E10">
         <v>300027621</v>
@@ -6909,10 +6916,10 @@
         <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D11" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -6923,10 +6930,10 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D12" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E12">
         <v>300027764</v>
@@ -6940,10 +6947,10 @@
         <v>185</v>
       </c>
       <c r="C13" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D13" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E13">
         <v>300026925</v>
@@ -6957,10 +6964,10 @@
         <v>187</v>
       </c>
       <c r="C14" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D14" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E14">
         <v>300201447</v>
@@ -6974,7 +6981,7 @@
         <v>189</v>
       </c>
       <c r="C15" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D15" t="s">
         <v>1400</v>
@@ -6991,10 +6998,10 @@
         <v>191</v>
       </c>
       <c r="C16" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D16" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E16">
         <v>300026816</v>
@@ -7008,10 +7015,10 @@
         <v>193</v>
       </c>
       <c r="C17" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D17" t="s">
         <v>1598</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1600</v>
       </c>
       <c r="E17">
         <v>300026882</v>
@@ -7025,10 +7032,10 @@
         <v>195</v>
       </c>
       <c r="C18" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D18" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E18">
         <v>300026114</v>
@@ -7042,10 +7049,10 @@
         <v>197</v>
       </c>
       <c r="C19" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D19" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E19">
         <v>300149026</v>
@@ -7059,10 +7066,10 @@
         <v>199</v>
       </c>
       <c r="C20" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D20" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E20">
         <v>300240262</v>
@@ -7076,10 +7083,10 @@
         <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D21" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E21">
         <v>300026778</v>
@@ -7104,10 +7111,10 @@
         <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D23" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E23">
         <v>300026931</v>
@@ -7121,10 +7128,10 @@
         <v>205</v>
       </c>
       <c r="C24" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D24" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E24">
         <v>300026816</v>
@@ -7138,10 +7145,10 @@
         <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D25" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E25">
         <v>300026819</v>
@@ -7155,10 +7162,10 @@
         <v>209</v>
       </c>
       <c r="C26" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D26" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E26">
         <v>300026909</v>
@@ -7172,10 +7179,10 @@
         <v>211</v>
       </c>
       <c r="C27" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D27" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E27">
         <v>300400813</v>
@@ -7189,10 +7196,10 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D28" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E28">
         <v>300026823</v>
@@ -7206,10 +7213,10 @@
         <v>215</v>
       </c>
       <c r="C29" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D29" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E29">
         <v>300026931</v>
@@ -7223,10 +7230,10 @@
         <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D30" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="E30">
         <v>300026487</v>
@@ -7251,7 +7258,7 @@
         <v>221</v>
       </c>
       <c r="C32" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D32" t="s">
         <v>1401</v>
@@ -7260,7 +7267,7 @@
         <v>300026030</v>
       </c>
       <c r="G32" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -7271,7 +7278,7 @@
         <v>221</v>
       </c>
       <c r="C33" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D33" t="s">
         <v>1402</v>
@@ -7280,7 +7287,7 @@
         <v>300026942</v>
       </c>
       <c r="G33" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -7291,10 +7298,10 @@
         <v>223</v>
       </c>
       <c r="C34" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D34" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E34">
         <v>300027473</v>
@@ -7308,10 +7315,10 @@
         <v>225</v>
       </c>
       <c r="C35" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D35" t="s">
         <v>1612</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1614</v>
       </c>
       <c r="E35">
         <v>300212274</v>
@@ -7325,10 +7332,10 @@
         <v>227</v>
       </c>
       <c r="C36" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D36" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E36">
         <v>300026676</v>
@@ -7342,10 +7349,10 @@
         <v>229</v>
       </c>
       <c r="C37" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D37" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E37">
         <v>300026799</v>
@@ -7359,10 +7366,10 @@
         <v>231</v>
       </c>
       <c r="C38" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D38" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E38">
         <v>300026756</v>
@@ -7376,10 +7383,10 @@
         <v>233</v>
       </c>
       <c r="C39" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D39" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E39">
         <v>300026867</v>
@@ -7393,10 +7400,10 @@
         <v>235</v>
       </c>
       <c r="C40" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D40" t="s">
         <v>1612</v>
-      </c>
-      <c r="D40" t="s">
-        <v>1614</v>
       </c>
       <c r="E40">
         <v>300212274</v>
@@ -7410,10 +7417,10 @@
         <v>237</v>
       </c>
       <c r="C41" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D41" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E41">
         <v>300026432</v>
@@ -7427,10 +7434,10 @@
         <v>239</v>
       </c>
       <c r="C42" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D42" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E42">
         <v>300255378</v>
@@ -7444,10 +7451,10 @@
         <v>241</v>
       </c>
       <c r="C43" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D43" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E43">
         <v>300026424</v>
@@ -7461,10 +7468,10 @@
         <v>243</v>
       </c>
       <c r="C44" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D44" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E44">
         <v>300027191</v>
@@ -7478,10 +7485,10 @@
         <v>245</v>
       </c>
       <c r="C45" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D45" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="E45">
         <v>300026443</v>
@@ -7495,10 +7502,10 @@
         <v>247</v>
       </c>
       <c r="C46" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D46" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E46">
         <v>300262918</v>
@@ -7534,10 +7541,10 @@
         <v>253</v>
       </c>
       <c r="C49" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D49" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E49">
         <v>300027240</v>
@@ -7551,10 +7558,10 @@
         <v>255</v>
       </c>
       <c r="C50" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D50" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="E50">
         <v>300049060</v>
@@ -7571,7 +7578,7 @@
         <v>1440</v>
       </c>
       <c r="D51" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E51">
         <v>300252927</v>
@@ -7588,7 +7595,7 @@
         <v>1440</v>
       </c>
       <c r="D52" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="E52">
         <v>300247929</v>
@@ -7605,7 +7612,7 @@
         <v>1440</v>
       </c>
       <c r="D53" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E53">
         <v>300053319</v>
@@ -7619,10 +7626,10 @@
         <v>263</v>
       </c>
       <c r="C54" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D54" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="E54">
         <v>300026693</v>
@@ -7636,10 +7643,10 @@
         <v>265</v>
       </c>
       <c r="C55" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D55" t="s">
         <v>1638</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1640</v>
       </c>
       <c r="E55">
         <v>300027489</v>
@@ -7653,10 +7660,10 @@
         <v>267</v>
       </c>
       <c r="C56" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D56" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E56">
         <v>300027496</v>
@@ -7670,10 +7677,10 @@
         <v>269</v>
       </c>
       <c r="C57" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D57" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="E57">
         <v>300027045</v>
@@ -7687,10 +7694,10 @@
         <v>271</v>
       </c>
       <c r="C58" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D58" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -7701,10 +7708,10 @@
         <v>273</v>
       </c>
       <c r="C59" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D59" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E59">
         <v>300404333</v>
@@ -7718,10 +7725,10 @@
         <v>273</v>
       </c>
       <c r="C60" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D60" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E60">
         <v>300404333</v>
@@ -7738,7 +7745,7 @@
         <v>1440</v>
       </c>
       <c r="D61" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="E61">
         <v>300247929</v>
@@ -7752,10 +7759,10 @@
         <v>278</v>
       </c>
       <c r="C62" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D62" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -7766,10 +7773,10 @@
         <v>280</v>
       </c>
       <c r="C63" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D63" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -7780,10 +7787,10 @@
         <v>282</v>
       </c>
       <c r="C64" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D64" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -7794,10 +7801,10 @@
         <v>284</v>
       </c>
       <c r="C65" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D65" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E65">
         <v>300266791</v>
@@ -7811,10 +7818,10 @@
         <v>286</v>
       </c>
       <c r="C66" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D66" t="s">
         <v>1689</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1691</v>
       </c>
       <c r="E66">
         <v>300136847</v>
@@ -7828,7 +7835,7 @@
         <v>288</v>
       </c>
       <c r="C67" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D67" t="s">
         <v>1404</v>
@@ -7845,10 +7852,10 @@
         <v>290</v>
       </c>
       <c r="C68" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D68" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="E68">
         <v>300028467</v>
@@ -7865,7 +7872,7 @@
         <v>1440</v>
       </c>
       <c r="D70" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E70">
         <v>300053319</v>
@@ -7882,7 +7889,7 @@
         <v>1440</v>
       </c>
       <c r="D71" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E71">
         <v>300374824</v>
@@ -7907,10 +7914,10 @@
         <v>298</v>
       </c>
       <c r="C73" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D73" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="E73">
         <v>300417667</v>
@@ -7924,10 +7931,10 @@
         <v>300</v>
       </c>
       <c r="C74" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D74" t="s">
         <v>1710</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -7938,10 +7945,10 @@
         <v>302</v>
       </c>
       <c r="C75" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D75" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E75">
         <v>300028705</v>
@@ -8385,10 +8392,10 @@
         <v>349</v>
       </c>
       <c r="C2" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D2" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E2">
         <v>300128366</v>
@@ -8402,10 +8409,10 @@
         <v>351</v>
       </c>
       <c r="C3" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D3" t="s">
         <v>1700</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1702</v>
       </c>
       <c r="E3">
         <v>300128357</v>
@@ -8419,10 +8426,10 @@
         <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D4" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E4">
         <v>300128359</v>
@@ -8436,10 +8443,10 @@
         <v>355</v>
       </c>
       <c r="C5" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D5" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="E5">
         <v>300127181</v>
@@ -8464,10 +8471,10 @@
         <v>359</v>
       </c>
       <c r="C7" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D7" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="E7">
         <v>300265083</v>
@@ -8481,10 +8488,10 @@
         <v>361</v>
       </c>
       <c r="C8" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D8" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="E8">
         <v>300115233</v>
@@ -8498,10 +8505,10 @@
         <v>363</v>
       </c>
       <c r="C9" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D9" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="E9">
         <v>300128374</v>
@@ -8515,10 +8522,10 @@
         <v>365</v>
       </c>
       <c r="C10" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D10" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E10">
         <v>300128343</v>
@@ -8532,10 +8539,10 @@
         <v>367</v>
       </c>
       <c r="C11" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D11" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E11">
         <v>300128347</v>
@@ -8543,13 +8550,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C12" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D12" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E12">
         <v>300026695</v>
@@ -8611,10 +8618,10 @@
         <v>369</v>
       </c>
       <c r="D2" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E2" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="F2">
         <v>300026710</v>
@@ -8628,10 +8635,10 @@
         <v>371</v>
       </c>
       <c r="D3" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E3" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="F3">
         <v>300027473</v>
@@ -8645,10 +8652,10 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E4" t="s">
         <v>1570</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -8659,10 +8666,10 @@
         <v>375</v>
       </c>
       <c r="D5" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E5" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="F5">
         <v>300417554</v>
@@ -8676,7 +8683,7 @@
         <v>377</v>
       </c>
       <c r="D6" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E6" t="s">
         <v>1380</v>
@@ -8693,7 +8700,7 @@
         <v>379</v>
       </c>
       <c r="D7" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E7" t="s">
         <v>1380</v>
@@ -8710,7 +8717,7 @@
         <v>381</v>
       </c>
       <c r="D8" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E8" t="s">
         <v>1381</v>
@@ -8727,7 +8734,7 @@
         <v>383</v>
       </c>
       <c r="D9" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E9" t="s">
         <v>1382</v>
@@ -8744,7 +8751,7 @@
         <v>385</v>
       </c>
       <c r="D10" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E10" t="s">
         <v>1383</v>
@@ -8761,7 +8768,7 @@
         <v>387</v>
       </c>
       <c r="D11" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E11" t="s">
         <v>1403</v>
@@ -8778,7 +8785,7 @@
         <v>389</v>
       </c>
       <c r="D12" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E12" t="s">
         <v>1384</v>
@@ -8795,7 +8802,7 @@
         <v>391</v>
       </c>
       <c r="D13" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E13" t="s">
         <v>1403</v>
@@ -8812,7 +8819,7 @@
         <v>393</v>
       </c>
       <c r="D14" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E14" t="s">
         <v>1383</v>
@@ -8829,7 +8836,7 @@
         <v>395</v>
       </c>
       <c r="D15" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E15" t="s">
         <v>1385</v>
@@ -8846,7 +8853,7 @@
         <v>397</v>
       </c>
       <c r="D16" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E16" t="s">
         <v>1386</v>
@@ -8863,7 +8870,7 @@
         <v>399</v>
       </c>
       <c r="D17" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E17" t="s">
         <v>1387</v>
@@ -8880,7 +8887,7 @@
         <v>401</v>
       </c>
       <c r="D18" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E18" t="s">
         <v>1388</v>
@@ -8897,7 +8904,7 @@
         <v>403</v>
       </c>
       <c r="D19" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E19" t="s">
         <v>1389</v>
@@ -8914,7 +8921,7 @@
         <v>405</v>
       </c>
       <c r="D20" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E20" t="s">
         <v>1390</v>
@@ -8942,7 +8949,7 @@
         <v>409</v>
       </c>
       <c r="D22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E22" t="s">
         <v>1391</v>
@@ -8959,7 +8966,7 @@
         <v>411</v>
       </c>
       <c r="D23" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="E23" t="s">
         <v>1392</v>
@@ -8976,10 +8983,10 @@
         <v>413</v>
       </c>
       <c r="D24" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E24" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F24">
         <v>300027200</v>
@@ -8993,10 +9000,10 @@
         <v>415</v>
       </c>
       <c r="D25" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E25" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="F25">
         <v>300026427</v>
@@ -9010,10 +9017,10 @@
         <v>417</v>
       </c>
       <c r="D26" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E26" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="F26">
         <v>300264354</v>
@@ -9027,10 +9034,10 @@
         <v>419</v>
       </c>
       <c r="D27" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E27" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="F27">
         <v>300055931</v>
@@ -9044,10 +9051,10 @@
         <v>421</v>
       </c>
       <c r="D28" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E28" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F28">
         <v>300264330</v>
@@ -9061,7 +9068,7 @@
         <v>423</v>
       </c>
       <c r="D29" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="E29" t="s">
         <v>1403</v>
@@ -9078,10 +9085,10 @@
         <v>425</v>
       </c>
       <c r="D30" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="E30" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -9092,10 +9099,10 @@
         <v>427</v>
       </c>
       <c r="D31" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="E31" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F31">
         <v>300027267</v>
@@ -9356,7 +9363,7 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="D31" sqref="D31:E31"/>
     </sheetView>
   </sheetViews>
@@ -9816,7 +9823,7 @@
         <v>1433</v>
       </c>
       <c r="D28" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="E28">
         <v>300386629</v>
@@ -10002,10 +10009,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B40" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F40" t="s">
         <v>1329</v>
@@ -10013,13 +10020,13 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C41" t="s">
         <v>1433</v>
       </c>
       <c r="D41" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E41">
         <v>300069747</v>
@@ -10609,8 +10616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G679"/>
   <sheetViews>
-    <sheetView topLeftCell="A538" workbookViewId="0">
-      <selection activeCell="D538" sqref="D538:E538"/>
+    <sheetView topLeftCell="A639" workbookViewId="0">
+      <selection activeCell="D640" sqref="D640:E640"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -10647,10 +10654,10 @@
         <v>1032</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E2" s="23">
         <v>300015045</v>
@@ -10704,10 +10711,10 @@
         <v>369</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="E5" s="23">
         <v>300026710</v>
@@ -10738,10 +10745,10 @@
         <v>1164</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="E7" s="23">
         <v>300070114</v>
@@ -10760,7 +10767,7 @@
         <v>1440</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="E8" s="23">
         <v>300053386</v>
@@ -10808,7 +10815,7 @@
         <v>163</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>1399</v>
@@ -10827,10 +10834,10 @@
         <v>165</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="E12" s="23">
         <v>300250949</v>
@@ -10846,10 +10853,10 @@
         <v>167</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="E13" s="23">
         <v>300312154</v>
@@ -10865,10 +10872,10 @@
         <v>169</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E14" s="23">
         <v>300026676</v>
@@ -10884,10 +10891,10 @@
         <v>171</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="E15" s="23">
         <v>300027573</v>
@@ -10903,10 +10910,10 @@
         <v>173</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E16" s="23">
         <v>300027621</v>
@@ -10922,10 +10929,10 @@
         <v>175</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="E17" s="23">
         <v>300027392</v>
@@ -10941,10 +10948,10 @@
         <v>177</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="E18" s="23">
         <v>300027527</v>
@@ -10960,10 +10967,10 @@
         <v>179</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="E19" s="23">
         <v>300027621</v>
@@ -10979,10 +10986,10 @@
         <v>181</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="22"/>
@@ -10996,10 +11003,10 @@
         <v>183</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="E21" s="23">
         <v>300027764</v>
@@ -11015,10 +11022,10 @@
         <v>185</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="E22" s="23">
         <v>300026925</v>
@@ -11034,10 +11041,10 @@
         <v>187</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="E23" s="23">
         <v>300201447</v>
@@ -11053,10 +11060,10 @@
         <v>300</v>
       </c>
       <c r="C24" s="22" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D24" s="22" t="s">
         <v>1710</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>1712</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="22"/>
@@ -11070,10 +11077,10 @@
         <v>302</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D25" s="22" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="E25" s="23">
         <v>300028705</v>
@@ -11089,10 +11096,10 @@
         <v>298</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="D26" s="22" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="E26" s="23">
         <v>300417667</v>
@@ -11128,7 +11135,7 @@
         <v>1434</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
@@ -11180,10 +11187,10 @@
         <v>273</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E31" s="23">
         <v>300404333</v>
@@ -11350,10 +11357,10 @@
         <v>616</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E41" s="23">
         <v>300011015</v>
@@ -11369,10 +11376,10 @@
         <v>618</v>
       </c>
       <c r="C42" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E42" s="23">
         <v>300011176</v>
@@ -11407,10 +11414,10 @@
         <v>620</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E44" s="23">
         <v>300010957</v>
@@ -11444,7 +11451,7 @@
         <v>1398</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="E46" s="23">
         <v>300417205</v>
@@ -11494,10 +11501,10 @@
         <v>626</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E49" s="23">
         <v>300011914</v>
@@ -11543,10 +11550,10 @@
         <v>632</v>
       </c>
       <c r="C52" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D52" s="22" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="23">
         <v>300011099</v>
@@ -11577,10 +11584,10 @@
         <v>636</v>
       </c>
       <c r="C54" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D54" s="22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E54" s="23">
         <v>300011176</v>
@@ -11596,10 +11603,10 @@
         <v>638</v>
       </c>
       <c r="C55" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D55" s="22" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E55" s="23">
         <v>300010797</v>
@@ -11615,10 +11622,10 @@
         <v>371</v>
       </c>
       <c r="C56" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E56" s="23">
         <v>300027473</v>
@@ -11664,10 +11671,10 @@
         <v>644</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E59" s="23">
         <v>300011914</v>
@@ -11683,10 +11690,10 @@
         <v>1056</v>
       </c>
       <c r="C60" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E60" s="23">
         <v>300022453</v>
@@ -11702,10 +11709,10 @@
         <v>646</v>
       </c>
       <c r="C61" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E61" s="23">
         <v>300011002</v>
@@ -11721,10 +11728,10 @@
         <v>648</v>
       </c>
       <c r="C62" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E62" s="23">
         <v>300011857</v>
@@ -11740,10 +11747,10 @@
         <v>650</v>
       </c>
       <c r="C63" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E63" s="23">
         <v>300235507</v>
@@ -11759,10 +11766,10 @@
         <v>652</v>
       </c>
       <c r="C64" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E64" s="23">
         <v>300011020</v>
@@ -11778,10 +11785,10 @@
         <v>654</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E65" s="23">
         <v>300014570</v>
@@ -11812,10 +11819,10 @@
         <v>658</v>
       </c>
       <c r="C67" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E67" s="23">
         <v>300011914</v>
@@ -11831,10 +11838,10 @@
         <v>660</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D68" s="22" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E68" s="23">
         <v>300011443</v>
@@ -11850,10 +11857,10 @@
         <v>662</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E69" s="23">
         <v>300011443</v>
@@ -11884,10 +11891,10 @@
         <v>666</v>
       </c>
       <c r="C71" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E71" s="23">
         <v>300163347</v>
@@ -11903,10 +11910,10 @@
         <v>668</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E72" s="23">
         <v>300014741</v>
@@ -11922,10 +11929,10 @@
         <v>670</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E73" s="23">
         <v>300011914</v>
@@ -11941,10 +11948,10 @@
         <v>373</v>
       </c>
       <c r="C74" s="22" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>1570</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>1572</v>
       </c>
       <c r="E74" s="22"/>
       <c r="F74" s="22"/>
@@ -11958,7 +11965,7 @@
         <v>373</v>
       </c>
       <c r="C75" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D75" s="22" t="s">
         <v>1403</v>
@@ -11977,10 +11984,10 @@
         <v>672</v>
       </c>
       <c r="C76" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E76" s="23">
         <v>300011914</v>
@@ -11996,10 +12003,10 @@
         <v>674</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E77" s="23">
         <v>300014436</v>
@@ -12015,10 +12022,10 @@
         <v>38</v>
       </c>
       <c r="C78" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E78" s="23">
         <v>300014546</v>
@@ -12034,10 +12041,10 @@
         <v>677</v>
       </c>
       <c r="C79" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E79" s="23">
         <v>300010662</v>
@@ -12056,7 +12063,7 @@
         <v>1434</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22"/>
@@ -12070,7 +12077,7 @@
         <v>189</v>
       </c>
       <c r="C81" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D81" s="22" t="s">
         <v>1400</v>
@@ -12089,10 +12096,10 @@
         <v>191</v>
       </c>
       <c r="C82" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E82" s="23">
         <v>300026816</v>
@@ -12108,10 +12115,10 @@
         <v>193</v>
       </c>
       <c r="C83" s="22" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D83" s="22" t="s">
         <v>1598</v>
-      </c>
-      <c r="D83" s="22" t="s">
-        <v>1600</v>
       </c>
       <c r="E83" s="23">
         <v>300026882</v>
@@ -12127,10 +12134,10 @@
         <v>195</v>
       </c>
       <c r="C84" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="E84" s="23">
         <v>300026114</v>
@@ -12146,10 +12153,10 @@
         <v>197</v>
       </c>
       <c r="C85" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="E85" s="23">
         <v>300149026</v>
@@ -12165,10 +12172,10 @@
         <v>197</v>
       </c>
       <c r="C86" s="22" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="E86" s="23">
         <v>300028467</v>
@@ -12184,10 +12191,10 @@
         <v>199</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="E87" s="23">
         <v>300240262</v>
@@ -12203,10 +12210,10 @@
         <v>201</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="E88" s="23">
         <v>300026778</v>
@@ -12271,10 +12278,10 @@
         <v>203</v>
       </c>
       <c r="C92" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D92" s="21" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E92" s="23">
         <v>300026931</v>
@@ -12290,7 +12297,7 @@
         <v>203</v>
       </c>
       <c r="C93" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D93" s="22" t="s">
         <v>1400</v>
@@ -12309,10 +12316,10 @@
         <v>205</v>
       </c>
       <c r="C94" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D94" s="22" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E94" s="23">
         <v>300026816</v>
@@ -12328,10 +12335,10 @@
         <v>207</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E95" s="23">
         <v>300026819</v>
@@ -12347,10 +12354,10 @@
         <v>209</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E96" s="23">
         <v>300026909</v>
@@ -12366,10 +12373,10 @@
         <v>211</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="E97" s="23">
         <v>300400813</v>
@@ -12385,10 +12392,10 @@
         <v>213</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E98" s="23">
         <v>300026823</v>
@@ -12423,10 +12430,10 @@
         <v>679</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E100" s="23">
         <v>300011176</v>
@@ -12442,10 +12449,10 @@
         <v>681</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E101" s="23">
         <v>300010822</v>
@@ -12461,10 +12468,10 @@
         <v>683</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E102" s="23">
         <v>300011176</v>
@@ -12495,10 +12502,10 @@
         <v>604</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E104" s="23">
         <v>300010669</v>
@@ -12514,10 +12521,10 @@
         <v>688</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E105" s="23">
         <v>300011914</v>
@@ -12548,10 +12555,10 @@
         <v>692</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E107" s="23">
         <v>300014585</v>
@@ -12567,10 +12574,10 @@
         <v>694</v>
       </c>
       <c r="C108" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D108" s="22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E108" s="23">
         <v>300011176</v>
@@ -12586,10 +12593,10 @@
         <v>696</v>
       </c>
       <c r="C109" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D109" s="22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E109" s="23">
         <v>300011176</v>
@@ -12605,10 +12612,10 @@
         <v>698</v>
       </c>
       <c r="C110" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D110" s="22" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E110" s="23">
         <v>300231565</v>
@@ -12688,10 +12695,10 @@
         <v>284</v>
       </c>
       <c r="C115" s="22" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D115" s="22" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="E115" s="23">
         <v>300266791</v>
@@ -12707,10 +12714,10 @@
         <v>349</v>
       </c>
       <c r="C116" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D116" s="22" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="E116" s="23">
         <v>300128366</v>
@@ -12745,10 +12752,10 @@
         <v>351</v>
       </c>
       <c r="C118" s="22" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D118" s="22" t="s">
         <v>1700</v>
-      </c>
-      <c r="D118" s="22" t="s">
-        <v>1702</v>
       </c>
       <c r="E118" s="23">
         <v>300128357</v>
@@ -12783,10 +12790,10 @@
         <v>215</v>
       </c>
       <c r="C120" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D120" s="22" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E120" s="23">
         <v>300026931</v>
@@ -12802,10 +12809,10 @@
         <v>353</v>
       </c>
       <c r="C121" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D121" s="22" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="E121" s="23">
         <v>300128359</v>
@@ -12837,7 +12844,7 @@
       </c>
       <c r="C123" s="22"/>
       <c r="D123" s="22" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="E123" s="23">
         <v>300435447</v>
@@ -12855,10 +12862,10 @@
         <v>704</v>
       </c>
       <c r="C124" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E124" s="23">
         <v>300235507</v>
@@ -12892,7 +12899,7 @@
         <v>1395</v>
       </c>
       <c r="D126" s="22" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="E126" s="22"/>
       <c r="F126" s="22"/>
@@ -12938,7 +12945,7 @@
         <v>300379247</v>
       </c>
       <c r="F128" s="22" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="G128" s="22" t="s">
         <v>1135</v>
@@ -12962,7 +12969,7 @@
       </c>
       <c r="F129" s="22"/>
       <c r="G129" s="22" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -12976,12 +12983,12 @@
         <v>1395</v>
       </c>
       <c r="D130" s="22" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="E130" s="22"/>
       <c r="F130" s="22"/>
       <c r="G130" s="22" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -12995,12 +13002,12 @@
         <v>1395</v>
       </c>
       <c r="D131" s="22" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="E131" s="21"/>
       <c r="F131" s="22"/>
       <c r="G131" s="22" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -13019,7 +13026,7 @@
       <c r="E132" s="21"/>
       <c r="F132" s="22"/>
       <c r="G132" s="22" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
@@ -13040,7 +13047,7 @@
       </c>
       <c r="F133" s="22"/>
       <c r="G133" s="22" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -13066,10 +13073,10 @@
         <v>708</v>
       </c>
       <c r="C135" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E135" s="23">
         <v>300011798</v>
@@ -13100,10 +13107,10 @@
         <v>620</v>
       </c>
       <c r="C137" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E137" s="23">
         <v>300010957</v>
@@ -13122,7 +13129,7 @@
         <v>1434</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="E138" s="22"/>
       <c r="F138" s="22"/>
@@ -13136,10 +13143,10 @@
         <v>217</v>
       </c>
       <c r="C139" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="E139" s="23">
         <v>300026487</v>
@@ -13172,7 +13179,7 @@
         <v>221</v>
       </c>
       <c r="C141" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D141" s="22" t="s">
         <v>1401</v>
@@ -13191,7 +13198,7 @@
         <v>221</v>
       </c>
       <c r="C142" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D142" s="22" t="s">
         <v>1402</v>
@@ -13210,10 +13217,10 @@
         <v>223</v>
       </c>
       <c r="C143" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="E143" s="23">
         <v>300027473</v>
@@ -13229,10 +13236,10 @@
         <v>225</v>
       </c>
       <c r="C144" s="22" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D144" s="22" t="s">
         <v>1612</v>
-      </c>
-      <c r="D144" s="22" t="s">
-        <v>1614</v>
       </c>
       <c r="E144" s="23">
         <v>300212274</v>
@@ -13265,10 +13272,10 @@
         <v>227</v>
       </c>
       <c r="C146" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="E146" s="23">
         <v>300026676</v>
@@ -13284,10 +13291,10 @@
         <v>229</v>
       </c>
       <c r="C147" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D147" s="22" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="E147" s="23">
         <v>300026799</v>
@@ -13303,10 +13310,10 @@
         <v>231</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="E148" s="23">
         <v>300026756</v>
@@ -13322,10 +13329,10 @@
         <v>233</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E149" s="23">
         <v>300026867</v>
@@ -13341,10 +13348,10 @@
         <v>235</v>
       </c>
       <c r="C150" s="22" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D150" s="22" t="s">
         <v>1612</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>1614</v>
       </c>
       <c r="E150" s="23">
         <v>300212274</v>
@@ -13360,10 +13367,10 @@
         <v>237</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="E151" s="23">
         <v>300026432</v>
@@ -13379,10 +13386,10 @@
         <v>239</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="E152" s="23">
         <v>300255378</v>
@@ -13398,10 +13405,10 @@
         <v>241</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="E153" s="23">
         <v>300026424</v>
@@ -13417,10 +13424,10 @@
         <v>243</v>
       </c>
       <c r="C154" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D154" s="22" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="E154" s="23">
         <v>300027191</v>
@@ -13436,10 +13443,10 @@
         <v>245</v>
       </c>
       <c r="C155" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D155" s="22" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="E155" s="23">
         <v>300026443</v>
@@ -13455,10 +13462,10 @@
         <v>247</v>
       </c>
       <c r="C156" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D156" s="22" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E156" s="23">
         <v>300262918</v>
@@ -13506,10 +13513,10 @@
         <v>253</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="E159" s="23">
         <v>300027240</v>
@@ -13525,10 +13532,10 @@
         <v>652</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E160" s="23">
         <v>300011020</v>
@@ -13544,10 +13551,10 @@
         <v>714</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D161" s="22" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E161" s="23">
         <v>300014078</v>
@@ -13563,10 +13570,10 @@
         <v>716</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D162" s="22" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E162" s="23">
         <v>300014078</v>
@@ -13582,10 +13589,10 @@
         <v>718</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D163" s="22" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E163" s="23">
         <v>300014078</v>
@@ -13601,10 +13608,10 @@
         <v>720</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D164" s="22" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E164" s="23">
         <v>300014910</v>
@@ -13620,10 +13627,10 @@
         <v>722</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D165" s="22" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E165" s="23">
         <v>300010367</v>
@@ -13642,7 +13649,7 @@
         <v>1440</v>
       </c>
       <c r="D166" s="22" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="E166" s="23">
         <v>300374824</v>
@@ -13673,10 +13680,10 @@
         <v>726</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D168" s="22" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E168" s="23">
         <v>300014069</v>
@@ -13692,10 +13699,10 @@
         <v>728</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D169" s="22" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E169" s="23">
         <v>300011021</v>
@@ -13711,10 +13718,10 @@
         <v>730</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D170" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E170" s="23">
         <v>300014109</v>
@@ -13730,10 +13737,10 @@
         <v>638</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D171" s="22" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E171" s="23">
         <v>300010797</v>
@@ -13749,10 +13756,10 @@
         <v>638</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D172" s="22" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E172" s="23">
         <v>300010797</v>
@@ -13768,10 +13775,10 @@
         <v>733</v>
       </c>
       <c r="C173" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D173" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E173" s="23">
         <v>300011914</v>
@@ -13787,10 +13794,10 @@
         <v>644</v>
       </c>
       <c r="C174" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D174" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E174" s="23">
         <v>300011914</v>
@@ -13806,10 +13813,10 @@
         <v>644</v>
       </c>
       <c r="C175" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D175" s="22" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E175" s="23">
         <v>300011914</v>
@@ -13825,10 +13832,10 @@
         <v>736</v>
       </c>
       <c r="C176" s="22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D176" s="22" t="s">
         <v>1547</v>
-      </c>
-      <c r="D176" s="22" t="s">
-        <v>1549</v>
       </c>
       <c r="E176" s="23">
         <v>300411543</v>
@@ -13844,10 +13851,10 @@
         <v>648</v>
       </c>
       <c r="C177" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D177" s="21" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E177" s="23">
         <v>300011857</v>
@@ -13863,10 +13870,10 @@
         <v>739</v>
       </c>
       <c r="C178" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D178" s="22" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E178" s="23">
         <v>300014143</v>
@@ -13885,7 +13892,7 @@
         <v>1440</v>
       </c>
       <c r="D179" s="22" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E179" s="23">
         <v>300053319</v>
@@ -13901,10 +13908,10 @@
         <v>741</v>
       </c>
       <c r="C180" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D180" s="22" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E180" s="23">
         <v>300231565</v>
@@ -13920,10 +13927,10 @@
         <v>743</v>
       </c>
       <c r="C181" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D181" s="22" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E181" s="23">
         <v>300435274</v>
@@ -13939,10 +13946,10 @@
         <v>745</v>
       </c>
       <c r="C182" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D182" s="22" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E182" s="23">
         <v>300014161</v>
@@ -13958,10 +13965,10 @@
         <v>747</v>
       </c>
       <c r="C183" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D183" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E183" s="23">
         <v>300014109</v>
@@ -13977,10 +13984,10 @@
         <v>749</v>
       </c>
       <c r="C184" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D184" s="22" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E184" s="23">
         <v>300014224</v>
@@ -13996,10 +14003,10 @@
         <v>749</v>
       </c>
       <c r="C185" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D185" s="22" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E185" s="23">
         <v>300014224</v>
@@ -14015,10 +14022,10 @@
         <v>654</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D186" s="22" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E186" s="23">
         <v>300014570</v>
@@ -14034,10 +14041,10 @@
         <v>752</v>
       </c>
       <c r="C187" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D187" s="22" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E187" s="23">
         <v>300014069</v>
@@ -14053,10 +14060,10 @@
         <v>754</v>
       </c>
       <c r="C188" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D188" s="22" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E188" s="23">
         <v>300011845</v>
@@ -14072,10 +14079,10 @@
         <v>756</v>
       </c>
       <c r="C189" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D189" s="22" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E189" s="23">
         <v>300014069</v>
@@ -14091,10 +14098,10 @@
         <v>758</v>
       </c>
       <c r="C190" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D190" s="22" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E190" s="23">
         <v>300011022</v>
@@ -14110,10 +14117,10 @@
         <v>760</v>
       </c>
       <c r="C191" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D191" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E191" s="23">
         <v>300014109</v>
@@ -14129,10 +14136,10 @@
         <v>660</v>
       </c>
       <c r="C192" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D192" s="22" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E192" s="23">
         <v>300011443</v>
@@ -14148,10 +14155,10 @@
         <v>763</v>
       </c>
       <c r="C193" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D193" s="22" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E193" s="23">
         <v>300390932</v>
@@ -14167,10 +14174,10 @@
         <v>765</v>
       </c>
       <c r="C194" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D194" s="22" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E194" s="23">
         <v>300010900</v>
@@ -14204,7 +14211,7 @@
         <v>1434</v>
       </c>
       <c r="D196" s="22" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="E196" s="22"/>
       <c r="F196" s="22"/>
@@ -14252,10 +14259,10 @@
         <v>770</v>
       </c>
       <c r="C199" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D199" s="22" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E199" s="23">
         <v>300014657</v>
@@ -14271,10 +14278,10 @@
         <v>772</v>
       </c>
       <c r="C200" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D200" s="22" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E200" s="23">
         <v>300011851</v>
@@ -14290,10 +14297,10 @@
         <v>774</v>
       </c>
       <c r="C201" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D201" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E201" s="23">
         <v>300014109</v>
@@ -14309,10 +14316,10 @@
         <v>776</v>
       </c>
       <c r="C202" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D202" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E202" s="23">
         <v>300014109</v>
@@ -14328,10 +14335,10 @@
         <v>778</v>
       </c>
       <c r="C203" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D203" s="22" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="E203" s="23">
         <v>300011851</v>
@@ -14347,10 +14354,10 @@
         <v>780</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D204" s="22" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E204" s="23">
         <v>300010662</v>
@@ -14366,10 +14373,10 @@
         <v>782</v>
       </c>
       <c r="C205" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D205" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E205" s="23">
         <v>300014109</v>
@@ -14385,10 +14392,10 @@
         <v>782</v>
       </c>
       <c r="C206" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D206" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E206" s="23">
         <v>300014109</v>
@@ -14404,10 +14411,10 @@
         <v>784</v>
       </c>
       <c r="C207" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D207" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E207" s="23">
         <v>300014109</v>
@@ -14423,10 +14430,10 @@
         <v>375</v>
       </c>
       <c r="C208" s="22" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D208" s="22" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="E208" s="23">
         <v>300417554</v>
@@ -14442,7 +14449,7 @@
         <v>375</v>
       </c>
       <c r="C209" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D209" s="22" t="s">
         <v>1403</v>
@@ -14480,10 +14487,10 @@
         <v>786</v>
       </c>
       <c r="C211" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D211" s="22" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E211" s="23">
         <v>300014109</v>
@@ -14518,10 +14525,10 @@
         <v>788</v>
       </c>
       <c r="C213" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D213" s="22" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="E213" s="23">
         <v>300027354</v>
@@ -14552,10 +14559,10 @@
         <v>792</v>
       </c>
       <c r="C215" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D215" s="22" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="E215" s="23">
         <v>300014206</v>
@@ -14571,10 +14578,10 @@
         <v>683</v>
       </c>
       <c r="C216" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D216" s="22" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E216" s="23">
         <v>300011176</v>
@@ -14590,10 +14597,10 @@
         <v>355</v>
       </c>
       <c r="C217" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D217" s="22" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="E217" s="23">
         <v>300127181</v>
@@ -14628,10 +14635,10 @@
         <v>795</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D219" s="22" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E219" s="23">
         <v>300010900</v>
@@ -14647,10 +14654,10 @@
         <v>797</v>
       </c>
       <c r="C220" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D220" s="22" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="E220" s="23">
         <v>300014248</v>
@@ -14666,10 +14673,10 @@
         <v>799</v>
       </c>
       <c r="C221" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D221" s="22" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="E221" s="23">
         <v>300012849</v>
@@ -14685,10 +14692,10 @@
         <v>877</v>
       </c>
       <c r="C222" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D222" s="22" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E222" s="23">
         <v>300026823</v>
@@ -14704,10 +14711,10 @@
         <v>879</v>
       </c>
       <c r="C223" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D223" s="22" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E223" s="23">
         <v>300026867</v>
@@ -14723,7 +14730,7 @@
         <v>881</v>
       </c>
       <c r="C224" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D224" s="22" t="s">
         <v>1400</v>
@@ -14742,10 +14749,10 @@
         <v>191</v>
       </c>
       <c r="C225" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D225" s="22" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="E225" s="23">
         <v>300026816</v>
@@ -14761,7 +14768,7 @@
         <v>884</v>
       </c>
       <c r="C226" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D226" s="22" t="s">
         <v>1401</v>
@@ -14780,10 +14787,10 @@
         <v>886</v>
       </c>
       <c r="C227" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D227" s="22" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="E227" s="23">
         <v>300028051</v>
@@ -14799,7 +14806,7 @@
         <v>189</v>
       </c>
       <c r="C228" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D228" s="22" t="s">
         <v>1400</v>
@@ -14818,7 +14825,7 @@
         <v>889</v>
       </c>
       <c r="C229" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D229" s="22" t="s">
         <v>1402</v>
@@ -14854,7 +14861,7 @@
         <v>893</v>
       </c>
       <c r="C231" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D231" s="22" t="s">
         <v>1402</v>
@@ -14873,10 +14880,10 @@
         <v>895</v>
       </c>
       <c r="C232" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D232" s="21" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="E232" s="23">
         <v>300264639</v>
@@ -14892,7 +14899,7 @@
         <v>895</v>
       </c>
       <c r="C233" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D233" s="22" t="s">
         <v>1403</v>
@@ -14911,10 +14918,10 @@
         <v>897</v>
       </c>
       <c r="C234" s="22" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D234" s="22" t="s">
         <v>1612</v>
-      </c>
-      <c r="D234" s="22" t="s">
-        <v>1614</v>
       </c>
       <c r="E234" s="23">
         <v>300212274</v>
@@ -14933,7 +14940,7 @@
         <v>1440</v>
       </c>
       <c r="D235" s="22" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E235" s="23">
         <v>300053319</v>
@@ -14949,10 +14956,10 @@
         <v>286</v>
       </c>
       <c r="C236" s="22" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D236" s="22" t="s">
         <v>1689</v>
-      </c>
-      <c r="D236" s="22" t="s">
-        <v>1691</v>
       </c>
       <c r="E236" s="23">
         <v>300136847</v>
@@ -14968,7 +14975,7 @@
         <v>286</v>
       </c>
       <c r="C237" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D237" s="22" t="s">
         <v>1401</v>
@@ -14987,7 +14994,7 @@
         <v>288</v>
       </c>
       <c r="C238" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D238" s="22" t="s">
         <v>1404</v>
@@ -15006,10 +15013,10 @@
         <v>901</v>
       </c>
       <c r="C239" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D239" s="22" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="E239" s="23">
         <v>300049060</v>
@@ -15028,7 +15035,7 @@
         <v>1440</v>
       </c>
       <c r="D240" s="21" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E240" s="23">
         <v>300053225</v>
@@ -15044,10 +15051,10 @@
         <v>903</v>
       </c>
       <c r="C241" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D241" s="22" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="E241" s="23">
         <v>300041273</v>
@@ -15063,7 +15070,7 @@
         <v>296</v>
       </c>
       <c r="C242" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D242" s="22" t="s">
         <v>1403</v>
@@ -15085,7 +15092,7 @@
         <v>1440</v>
       </c>
       <c r="D243" s="22" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E243" s="23">
         <v>300252927</v>
@@ -15104,7 +15111,7 @@
         <v>1440</v>
       </c>
       <c r="D244" s="22" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="E244" s="23">
         <v>300053463</v>
@@ -15120,7 +15127,7 @@
         <v>906</v>
       </c>
       <c r="C245" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D245" s="22" t="s">
         <v>1404</v>
@@ -15139,10 +15146,10 @@
         <v>908</v>
       </c>
       <c r="C246" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D246" s="22" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="E246" s="23">
         <v>300048715</v>
@@ -15158,10 +15165,10 @@
         <v>910</v>
       </c>
       <c r="C247" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D247" s="22" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="E247" s="23">
         <v>300026931</v>
@@ -15177,7 +15184,7 @@
         <v>910</v>
       </c>
       <c r="C248" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D248" s="22" t="s">
         <v>1400</v>
@@ -15196,10 +15203,10 @@
         <v>912</v>
       </c>
       <c r="C249" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D249" s="22" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="E249" s="23">
         <v>300026867</v>
@@ -15247,10 +15254,10 @@
         <v>417</v>
       </c>
       <c r="C252" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D252" s="22" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="E252" s="23">
         <v>300264354</v>
@@ -15269,7 +15276,7 @@
         <v>1440</v>
       </c>
       <c r="D253" s="22" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E253" s="23">
         <v>300252927</v>
@@ -15285,10 +15292,10 @@
         <v>919</v>
       </c>
       <c r="C254" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D254" s="22" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E254" s="23">
         <v>300027200</v>
@@ -15307,7 +15314,7 @@
         <v>1440</v>
       </c>
       <c r="D255" s="22" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E255" s="23">
         <v>300252927</v>
@@ -15323,10 +15330,10 @@
         <v>921</v>
       </c>
       <c r="C256" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D256" s="22" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="E256" s="23">
         <v>300262918</v>
@@ -15345,7 +15352,7 @@
         <v>1440</v>
       </c>
       <c r="D257" s="22" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E257" s="23">
         <v>300053319</v>
@@ -15378,10 +15385,10 @@
         <v>924</v>
       </c>
       <c r="C259" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D259" s="21" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="E259" s="23">
         <v>300264639</v>
@@ -15397,7 +15404,7 @@
         <v>924</v>
       </c>
       <c r="C260" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D260" s="22" t="s">
         <v>1403</v>
@@ -15450,10 +15457,10 @@
         <v>207</v>
       </c>
       <c r="C263" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D263" s="22" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="E263" s="23">
         <v>300026819</v>
@@ -15469,10 +15476,10 @@
         <v>931</v>
       </c>
       <c r="C264" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D264" s="22" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E264" s="23">
         <v>300027264</v>
@@ -15488,10 +15495,10 @@
         <v>933</v>
       </c>
       <c r="C265" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D265" s="22" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E265" s="23">
         <v>300311954</v>
@@ -15507,10 +15514,10 @@
         <v>935</v>
       </c>
       <c r="C266" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D266" s="22" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="E266" s="23">
         <v>300134722</v>
@@ -15526,10 +15533,10 @@
         <v>937</v>
       </c>
       <c r="C267" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D267" s="22" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="E267" s="23">
         <v>300145802</v>
@@ -15562,10 +15569,10 @@
         <v>941</v>
       </c>
       <c r="C269" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D269" s="22" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E269" s="23">
         <v>300027200</v>
@@ -15584,7 +15591,7 @@
         <v>1440</v>
       </c>
       <c r="D270" s="22" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E270" s="23">
         <v>300252927</v>
@@ -15634,10 +15641,10 @@
         <v>947</v>
       </c>
       <c r="C273" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D273" s="22" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E273" s="23">
         <v>300026096</v>
@@ -15653,10 +15660,10 @@
         <v>209</v>
       </c>
       <c r="C274" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D274" s="22" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="E274" s="23">
         <v>300026909</v>
@@ -15689,10 +15696,10 @@
         <v>952</v>
       </c>
       <c r="C276" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D276" s="22" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="E276" s="23">
         <v>300127478</v>
@@ -15708,10 +15715,10 @@
         <v>954</v>
       </c>
       <c r="C277" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D277" s="22" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E277" s="23">
         <v>300026657</v>
@@ -15730,7 +15737,7 @@
         <v>1440</v>
       </c>
       <c r="D278" s="21" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="E278" s="23">
         <v>300247929</v>
@@ -15746,7 +15753,7 @@
         <v>956</v>
       </c>
       <c r="C279" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D279" s="22" t="s">
         <v>1403</v>
@@ -15765,10 +15772,10 @@
         <v>958</v>
       </c>
       <c r="C280" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D280" s="22" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E280" s="23">
         <v>300027083</v>
@@ -15784,10 +15791,10 @@
         <v>960</v>
       </c>
       <c r="C281" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D281" s="22" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E281" s="23">
         <v>300026068</v>
@@ -15820,10 +15827,10 @@
         <v>964</v>
       </c>
       <c r="C283" s="22" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="D283" s="22" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="E283" s="23">
         <v>300026823</v>
@@ -15839,10 +15846,10 @@
         <v>966</v>
       </c>
       <c r="C284" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D284" s="22" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E284" s="23">
         <v>300026074</v>
@@ -15892,10 +15899,10 @@
         <v>801</v>
       </c>
       <c r="C287" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D287" s="22" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E287" s="23">
         <v>300231565</v>
@@ -15911,10 +15918,10 @@
         <v>803</v>
       </c>
       <c r="C288" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D288" s="22" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="E288" s="23">
         <v>300014203</v>
@@ -15964,10 +15971,10 @@
         <v>806</v>
       </c>
       <c r="C291" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D291" s="22" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="E291" s="23">
         <v>300014184</v>
@@ -15983,10 +15990,10 @@
         <v>646</v>
       </c>
       <c r="C292" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D292" s="21" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E292" s="23">
         <v>300011002</v>
@@ -16002,10 +16009,10 @@
         <v>700</v>
       </c>
       <c r="C293" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D293" s="22" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="E293" s="23">
         <v>300011037</v>
@@ -16021,10 +16028,10 @@
         <v>698</v>
       </c>
       <c r="C294" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D294" s="22" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E294" s="23">
         <v>300231565</v>
@@ -16040,10 +16047,10 @@
         <v>811</v>
       </c>
       <c r="C295" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D295" s="22" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E295" s="23">
         <v>300243428</v>
@@ -16059,10 +16066,10 @@
         <v>811</v>
       </c>
       <c r="C296" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D296" s="22" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="E296" s="23">
         <v>300243428</v>
@@ -16113,7 +16120,7 @@
       </c>
       <c r="C299" s="22"/>
       <c r="D299" s="22" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="E299" s="23">
         <v>300435447</v>
@@ -16131,10 +16138,10 @@
         <v>286</v>
       </c>
       <c r="C300" s="22" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D300" s="22" t="s">
         <v>1689</v>
-      </c>
-      <c r="D300" s="22" t="s">
-        <v>1691</v>
       </c>
       <c r="E300" s="23">
         <v>300136847</v>
@@ -16169,10 +16176,10 @@
         <v>255</v>
       </c>
       <c r="C302" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D302" s="22" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="E302" s="23">
         <v>300049060</v>
@@ -16191,7 +16198,7 @@
         <v>1440</v>
       </c>
       <c r="D303" s="22" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E303" s="23">
         <v>300252927</v>
@@ -16210,7 +16217,7 @@
         <v>1440</v>
       </c>
       <c r="D304" s="22" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E304" s="23">
         <v>300053319</v>
@@ -16264,10 +16271,10 @@
         <v>854</v>
       </c>
       <c r="C307" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D307" s="22" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E307" s="23">
         <v>300022458</v>
@@ -16298,7 +16305,7 @@
         <v>377</v>
       </c>
       <c r="C309" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D309" s="21" t="s">
         <v>1380</v>
@@ -16317,7 +16324,7 @@
         <v>379</v>
       </c>
       <c r="C310" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D310" s="22" t="s">
         <v>1380</v>
@@ -16336,7 +16343,7 @@
         <v>381</v>
       </c>
       <c r="C311" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D311" s="22" t="s">
         <v>1381</v>
@@ -16355,7 +16362,7 @@
         <v>383</v>
       </c>
       <c r="C312" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D312" s="21" t="s">
         <v>1382</v>
@@ -16391,7 +16398,7 @@
         <v>385</v>
       </c>
       <c r="C314" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D314" s="22" t="s">
         <v>1383</v>
@@ -16425,7 +16432,7 @@
         <v>387</v>
       </c>
       <c r="C316" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D316" s="22" t="s">
         <v>1403</v>
@@ -16463,7 +16470,7 @@
         <v>389</v>
       </c>
       <c r="C318" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D318" s="22" t="s">
         <v>1384</v>
@@ -16482,7 +16489,7 @@
         <v>391</v>
       </c>
       <c r="C319" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D319" s="22" t="s">
         <v>1403</v>
@@ -16501,7 +16508,7 @@
         <v>393</v>
       </c>
       <c r="C320" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D320" s="21" t="s">
         <v>1383</v>
@@ -16537,7 +16544,7 @@
         <v>395</v>
       </c>
       <c r="C322" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D322" s="22" t="s">
         <v>1385</v>
@@ -16556,7 +16563,7 @@
         <v>397</v>
       </c>
       <c r="C323" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D323" s="22" t="s">
         <v>1386</v>
@@ -16575,7 +16582,7 @@
         <v>399</v>
       </c>
       <c r="C324" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D324" s="22" t="s">
         <v>1387</v>
@@ -16594,7 +16601,7 @@
         <v>401</v>
       </c>
       <c r="C325" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D325" s="22" t="s">
         <v>1388</v>
@@ -16613,7 +16620,7 @@
         <v>403</v>
       </c>
       <c r="C326" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D326" s="22" t="s">
         <v>1389</v>
@@ -16632,10 +16639,10 @@
         <v>359</v>
       </c>
       <c r="C327" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D327" s="22" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="E327" s="23">
         <v>300265083</v>
@@ -16666,7 +16673,7 @@
         <v>405</v>
       </c>
       <c r="C329" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D329" s="22" t="s">
         <v>1390</v>
@@ -16707,7 +16714,7 @@
         <v>1434</v>
       </c>
       <c r="D331" s="22" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="E331" s="21"/>
       <c r="F331" s="22"/>
@@ -16776,7 +16783,7 @@
         <v>409</v>
       </c>
       <c r="C335" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D335" s="21" t="s">
         <v>1391</v>
@@ -16814,7 +16821,7 @@
         <v>411</v>
       </c>
       <c r="C337" s="22" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D337" s="22" t="s">
         <v>1392</v>
@@ -16836,7 +16843,7 @@
         <v>1434</v>
       </c>
       <c r="D338" s="22" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E338" s="22"/>
       <c r="F338" s="22"/>
@@ -16904,7 +16911,7 @@
         <v>1440</v>
       </c>
       <c r="D342" s="22" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E342" s="23">
         <v>300252927</v>
@@ -16923,7 +16930,7 @@
         <v>1434</v>
       </c>
       <c r="D343" s="22" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="E343" s="22"/>
       <c r="F343" s="22"/>
@@ -16940,7 +16947,7 @@
         <v>1440</v>
       </c>
       <c r="D344" s="22" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="E344" s="23">
         <v>300247929</v>
@@ -16959,7 +16966,7 @@
         <v>1440</v>
       </c>
       <c r="D345" s="22" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="E345" s="23">
         <v>300252927</v>
@@ -17013,10 +17020,10 @@
         <v>823</v>
       </c>
       <c r="C348" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D348" s="22" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E348" s="23">
         <v>300015012</v>
@@ -17986,7 +17993,7 @@
         <v>1393</v>
       </c>
       <c r="D402" s="22" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="E402" s="21"/>
       <c r="F402" s="22"/>
@@ -18019,10 +18026,10 @@
         <v>413</v>
       </c>
       <c r="C404" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D404" s="22" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="E404" s="23">
         <v>300027200</v>
@@ -18918,10 +18925,10 @@
         <v>415</v>
       </c>
       <c r="C457" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D457" s="22" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="E457" s="23">
         <v>300026427</v>
@@ -18937,10 +18944,10 @@
         <v>417</v>
       </c>
       <c r="C458" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D458" s="22" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="E458" s="23">
         <v>300264354</v>
@@ -18997,7 +19004,7 @@
         <v>1434</v>
       </c>
       <c r="D461" s="22" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="E461" s="22"/>
       <c r="F461" s="22"/>
@@ -19033,7 +19040,7 @@
         <v>1398</v>
       </c>
       <c r="D463" s="22" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="E463" s="23">
         <v>300417205</v>
@@ -19068,10 +19075,10 @@
         <v>290</v>
       </c>
       <c r="C465" s="22" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D465" s="22" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="E465" s="23">
         <v>300028467</v>
@@ -19090,7 +19097,7 @@
         <v>1433</v>
       </c>
       <c r="D466" s="22" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="E466" s="23">
         <v>300386629</v>
@@ -19147,7 +19154,7 @@
         <v>1434</v>
       </c>
       <c r="D469" s="22" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="E469" s="22"/>
       <c r="F469" s="22"/>
@@ -19221,7 +19228,7 @@
         <v>1440</v>
       </c>
       <c r="D473" s="22" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E473" s="23">
         <v>300053225</v>
@@ -19237,10 +19244,10 @@
         <v>845</v>
       </c>
       <c r="C474" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D474" s="22" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E474" s="23">
         <v>300022439</v>
@@ -19457,7 +19464,7 @@
         <v>288</v>
       </c>
       <c r="C486" s="22" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D486" s="22" t="s">
         <v>1404</v>
@@ -19479,7 +19486,7 @@
         <v>1434</v>
       </c>
       <c r="D487" s="22" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="E487" s="22"/>
       <c r="F487" s="22"/>
@@ -19496,7 +19503,7 @@
         <v>1440</v>
       </c>
       <c r="D488" s="22" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E488" s="23">
         <v>300053303</v>
@@ -19515,7 +19522,7 @@
         <v>1440</v>
       </c>
       <c r="D489" s="22" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E489" s="23">
         <v>300053296</v>
@@ -19553,7 +19560,7 @@
         <v>1440</v>
       </c>
       <c r="D491" s="22" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="E491" s="23">
         <v>300263381</v>
@@ -19572,7 +19579,7 @@
         <v>1440</v>
       </c>
       <c r="D492" s="22" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="E492" s="23">
         <v>300053303</v>
@@ -19591,7 +19598,7 @@
         <v>1440</v>
       </c>
       <c r="D493" s="22" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="E493" s="23">
         <v>300053296</v>
@@ -19610,7 +19617,7 @@
         <v>1440</v>
       </c>
       <c r="D494" s="22" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E494" s="23">
         <v>300154361</v>
@@ -19644,7 +19651,7 @@
         <v>1440</v>
       </c>
       <c r="D496" s="22" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E496" s="23">
         <v>300053271</v>
@@ -19663,7 +19670,7 @@
         <v>1440</v>
       </c>
       <c r="D497" s="22" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="E497" s="23">
         <v>300343476</v>
@@ -19682,7 +19689,7 @@
         <v>1440</v>
       </c>
       <c r="D498" s="22" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E498" s="23">
         <v>300053239</v>
@@ -19701,7 +19708,7 @@
         <v>1440</v>
       </c>
       <c r="D499" s="22" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E499" s="23">
         <v>300190531</v>
@@ -19720,7 +19727,7 @@
         <v>1440</v>
       </c>
       <c r="D500" s="22" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="E500" s="23">
         <v>300154361</v>
@@ -19739,7 +19746,7 @@
         <v>1440</v>
       </c>
       <c r="D501" s="22" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="E501" s="23">
         <v>300053204</v>
@@ -19758,7 +19765,7 @@
         <v>1440</v>
       </c>
       <c r="D502" s="22" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="E502" s="23">
         <v>300053231</v>
@@ -19777,7 +19784,7 @@
         <v>1440</v>
       </c>
       <c r="D503" s="22" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="E503" s="23">
         <v>300060720</v>
@@ -19796,7 +19803,7 @@
         <v>1440</v>
       </c>
       <c r="D504" s="22" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E504" s="23">
         <v>300053271</v>
@@ -19815,7 +19822,7 @@
         <v>1440</v>
       </c>
       <c r="D505" s="22" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E505" s="23">
         <v>300053285</v>
@@ -19864,7 +19871,7 @@
         <v>1440</v>
       </c>
       <c r="D508" s="22" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E508" s="23">
         <v>300053233</v>
@@ -19883,7 +19890,7 @@
         <v>1440</v>
       </c>
       <c r="D509" s="22" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E509" s="23">
         <v>300053277</v>
@@ -19951,7 +19958,7 @@
         <v>1440</v>
       </c>
       <c r="D513" s="22" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="E513" s="23">
         <v>300053279</v>
@@ -19970,7 +19977,7 @@
         <v>1440</v>
       </c>
       <c r="D514" s="22" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="E514" s="23">
         <v>300053319</v>
@@ -19989,7 +19996,7 @@
         <v>1434</v>
       </c>
       <c r="D515" s="22" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="E515" s="22"/>
       <c r="F515" s="22"/>
@@ -20006,7 +20013,7 @@
         <v>1434</v>
       </c>
       <c r="D516" s="22" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="E516" s="22"/>
       <c r="F516" s="22"/>
@@ -20038,7 +20045,7 @@
         <v>1440</v>
       </c>
       <c r="D518" s="22" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="E518" s="23">
         <v>300190536</v>
@@ -20057,7 +20064,7 @@
         <v>1440</v>
       </c>
       <c r="D519" s="22" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="E519" s="23">
         <v>300053285</v>
@@ -20076,7 +20083,7 @@
         <v>1440</v>
       </c>
       <c r="D520" s="22" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="E520" s="23">
         <v>300053239</v>
@@ -20140,7 +20147,7 @@
         <v>1440</v>
       </c>
       <c r="D524" s="22" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="E524" s="23">
         <v>300053271</v>
@@ -20193,7 +20200,7 @@
         <v>1440</v>
       </c>
       <c r="D527" s="22" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E527" s="23">
         <v>300053251</v>
@@ -20209,10 +20216,10 @@
         <v>419</v>
       </c>
       <c r="C528" s="22" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D528" s="22" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="E528" s="23">
         <v>300055931</v>
@@ -20228,7 +20235,7 @@
         <v>419</v>
       </c>
       <c r="C529" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D529" s="22" t="s">
         <v>1403</v>
@@ -20250,7 +20257,7 @@
         <v>1440</v>
       </c>
       <c r="D530" s="22" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="E530" s="23">
         <v>300157968</v>
@@ -20269,7 +20276,7 @@
         <v>1440</v>
       </c>
       <c r="D531" s="22" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="E531" s="23">
         <v>300053281</v>
@@ -20302,10 +20309,10 @@
         <v>263</v>
       </c>
       <c r="C533" s="22" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D533" s="22" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="E533" s="23">
         <v>300026693</v>
@@ -20321,10 +20328,10 @@
         <v>265</v>
       </c>
       <c r="C534" s="22" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D534" s="22" t="s">
         <v>1638</v>
-      </c>
-      <c r="D534" s="22" t="s">
-        <v>1640</v>
       </c>
       <c r="E534" s="23">
         <v>300027489</v>
@@ -20340,10 +20347,10 @@
         <v>267</v>
       </c>
       <c r="C535" s="22" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D535" s="22" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="E535" s="23">
         <v>300027496</v>
@@ -20359,10 +20366,10 @@
         <v>269</v>
       </c>
       <c r="C536" s="22" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D536" s="22" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="E536" s="23">
         <v>300027045</v>
@@ -20378,10 +20385,10 @@
         <v>271</v>
       </c>
       <c r="C537" s="22" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="D537" s="22" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="E537" s="21"/>
       <c r="F537" s="22"/>
@@ -20602,7 +20609,7 @@
         <v>1434</v>
       </c>
       <c r="D550" s="22" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="E550" s="22"/>
       <c r="F550" s="22"/>
@@ -20616,10 +20623,10 @@
         <v>1277</v>
       </c>
       <c r="C551" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D551" s="22" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="E551" s="23">
         <v>300014426</v>
@@ -20651,13 +20658,13 @@
         <v>1053</v>
       </c>
       <c r="B553" s="22" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C553" s="22" t="s">
         <v>1434</v>
       </c>
       <c r="D553" s="22" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="E553" s="22"/>
       <c r="F553" s="22"/>
@@ -20671,10 +20678,10 @@
         <v>361</v>
       </c>
       <c r="C554" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D554" s="22" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="E554" s="23">
         <v>300115233</v>
@@ -20709,10 +20716,10 @@
         <v>1281</v>
       </c>
       <c r="C556" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D556" s="22" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E556" s="23">
         <v>300015050</v>
@@ -20747,10 +20754,10 @@
         <v>1283</v>
       </c>
       <c r="C558" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D558" s="22" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="E558" s="23">
         <v>300015062</v>
@@ -20766,10 +20773,10 @@
         <v>1285</v>
       </c>
       <c r="C559" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D559" s="22" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E559" s="23">
         <v>300015050</v>
@@ -20785,10 +20792,10 @@
         <v>421</v>
       </c>
       <c r="C560" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D560" s="22" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="E560" s="23">
         <v>300264330</v>
@@ -20804,10 +20811,10 @@
         <v>813</v>
       </c>
       <c r="C561" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D561" s="22" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="E561" s="23">
         <v>300022453</v>
@@ -20823,10 +20830,10 @@
         <v>273</v>
       </c>
       <c r="C562" s="22" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D562" s="22" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="E562" s="23">
         <v>300404333</v>
@@ -20861,10 +20868,10 @@
         <v>817</v>
       </c>
       <c r="C564" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D564" s="22" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="E564" s="23">
         <v>300011729</v>
@@ -20883,7 +20890,7 @@
         <v>1440</v>
       </c>
       <c r="D565" s="22" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E565" s="23">
         <v>300163347</v>
@@ -20899,10 +20906,10 @@
         <v>821</v>
       </c>
       <c r="C566" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D566" s="22" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="E566" s="23">
         <v>300012862</v>
@@ -20937,10 +20944,10 @@
         <v>823</v>
       </c>
       <c r="C568" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D568" s="22" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E568" s="23">
         <v>300015012</v>
@@ -20959,7 +20966,7 @@
         <v>1434</v>
       </c>
       <c r="D569" s="22" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="E569" s="22"/>
       <c r="F569" s="22"/>
@@ -20973,10 +20980,10 @@
         <v>825</v>
       </c>
       <c r="C570" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D570" s="22" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E570" s="23">
         <v>300022413</v>
@@ -20992,10 +20999,10 @@
         <v>827</v>
       </c>
       <c r="C571" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D571" s="22" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="E571" s="23">
         <v>300022441</v>
@@ -21011,10 +21018,10 @@
         <v>829</v>
       </c>
       <c r="C572" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D572" s="22" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="E572" s="23">
         <v>300022413</v>
@@ -21033,7 +21040,7 @@
         <v>1440</v>
       </c>
       <c r="D573" s="22" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="E573" s="23">
         <v>300053277</v>
@@ -21049,10 +21056,10 @@
         <v>833</v>
       </c>
       <c r="C574" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D574" s="22" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E574" s="23">
         <v>300022439</v>
@@ -21068,10 +21075,10 @@
         <v>835</v>
       </c>
       <c r="C575" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D575" s="22" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E575" s="23">
         <v>300015018</v>
@@ -21087,10 +21094,10 @@
         <v>837</v>
       </c>
       <c r="C576" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D576" s="22" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="E576" s="23">
         <v>300230810</v>
@@ -21106,10 +21113,10 @@
         <v>839</v>
       </c>
       <c r="C577" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D577" s="22" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="E577" s="23">
         <v>300015018</v>
@@ -21125,10 +21132,10 @@
         <v>841</v>
       </c>
       <c r="C578" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D578" s="22" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="E578" s="23">
         <v>300122621</v>
@@ -21147,7 +21154,7 @@
         <v>1440</v>
       </c>
       <c r="D579" s="22" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="E579" s="23">
         <v>300022452</v>
@@ -21163,10 +21170,10 @@
         <v>845</v>
       </c>
       <c r="C580" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D580" s="22" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="E580" s="23">
         <v>300022439</v>
@@ -21185,7 +21192,7 @@
         <v>1440</v>
       </c>
       <c r="D581" s="22" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="E581" s="23">
         <v>300022552</v>
@@ -21201,10 +21208,10 @@
         <v>849</v>
       </c>
       <c r="C582" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D582" s="22" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="E582" s="23">
         <v>300015012</v>
@@ -21223,7 +21230,7 @@
         <v>1440</v>
       </c>
       <c r="D583" s="22" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="E583" s="23">
         <v>300247929</v>
@@ -21258,10 +21265,10 @@
         <v>600</v>
       </c>
       <c r="C585" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D585" s="22" t="s">
-        <v>1533</v>
+        <v>1531</v>
       </c>
       <c r="E585" s="23">
         <v>300080064</v>
@@ -21277,10 +21284,10 @@
         <v>852</v>
       </c>
       <c r="C586" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D586" s="22" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E586" s="23">
         <v>300417481</v>
@@ -21296,10 +21303,10 @@
         <v>205</v>
       </c>
       <c r="C587" s="22" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="D587" s="22" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="E587" s="23">
         <v>300263886</v>
@@ -21315,10 +21322,10 @@
         <v>986</v>
       </c>
       <c r="C588" s="22" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D588" s="22" t="s">
         <v>1575</v>
-      </c>
-      <c r="D588" s="22" t="s">
-        <v>1577</v>
       </c>
       <c r="E588" s="23">
         <v>300034104</v>
@@ -21334,7 +21341,7 @@
         <v>950</v>
       </c>
       <c r="C589" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D589" s="22" t="s">
         <v>1405</v>
@@ -21353,10 +21360,10 @@
         <v>854</v>
       </c>
       <c r="C590" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D590" s="22" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="E590" s="23">
         <v>300022458</v>
@@ -21372,10 +21379,10 @@
         <v>856</v>
       </c>
       <c r="C591" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D591" s="22" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="E591" s="23">
         <v>300167812</v>
@@ -21429,7 +21436,7 @@
         <v>423</v>
       </c>
       <c r="C594" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D594" s="22" t="s">
         <v>1403</v>
@@ -21467,10 +21474,10 @@
         <v>989</v>
       </c>
       <c r="C596" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D596" s="22" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="E596" s="23">
         <v>300263898</v>
@@ -21505,10 +21512,10 @@
         <v>991</v>
       </c>
       <c r="C598" s="22" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D598" s="22" t="s">
         <v>1579</v>
-      </c>
-      <c r="D598" s="22" t="s">
-        <v>1581</v>
       </c>
       <c r="E598" s="23">
         <v>300266808</v>
@@ -21524,10 +21531,10 @@
         <v>993</v>
       </c>
       <c r="C599" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D599" s="22" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="E599" s="23">
         <v>300234117</v>
@@ -21560,10 +21567,10 @@
         <v>278</v>
       </c>
       <c r="C601" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D601" s="22" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="E601" s="22"/>
       <c r="F601" s="22"/>
@@ -21577,10 +21584,10 @@
         <v>280</v>
       </c>
       <c r="C602" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D602" s="22" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="E602" s="22"/>
       <c r="F602" s="22"/>
@@ -21597,7 +21604,7 @@
         <v>1440</v>
       </c>
       <c r="D603" s="22" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="E603" s="23">
         <v>300053773</v>
@@ -21616,7 +21623,7 @@
         <v>1440</v>
       </c>
       <c r="D604" s="22" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="E604" s="23">
         <v>300053104</v>
@@ -21635,7 +21642,7 @@
         <v>1440</v>
       </c>
       <c r="D605" s="22" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="E605" s="23">
         <v>300053225</v>
@@ -21666,10 +21673,10 @@
         <v>995</v>
       </c>
       <c r="C607" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D607" s="22" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="E607" s="23">
         <v>300343358</v>
@@ -21685,10 +21692,10 @@
         <v>997</v>
       </c>
       <c r="C608" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D608" s="22" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="E608" s="23">
         <v>300266810</v>
@@ -21704,10 +21711,10 @@
         <v>999</v>
       </c>
       <c r="C609" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D609" s="22" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="E609" s="23">
         <v>300133005</v>
@@ -21726,7 +21733,7 @@
         <v>1440</v>
       </c>
       <c r="D610" s="22" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E610" s="23">
         <v>300053796</v>
@@ -21742,10 +21749,10 @@
         <v>1296</v>
       </c>
       <c r="C611" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D611" s="22" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="E611" s="23">
         <v>300010902</v>
@@ -21761,10 +21768,10 @@
         <v>1001</v>
       </c>
       <c r="C612" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D612" s="22" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="E612" s="23">
         <v>300046025</v>
@@ -21780,10 +21787,10 @@
         <v>1003</v>
       </c>
       <c r="C613" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D613" s="22" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="E613" s="23">
         <v>300028884</v>
@@ -21799,10 +21806,10 @@
         <v>1005</v>
       </c>
       <c r="C614" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D614" s="22" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="E614" s="23">
         <v>300037680</v>
@@ -21818,10 +21825,10 @@
         <v>1007</v>
       </c>
       <c r="C615" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D615" s="22" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E615" s="23">
         <v>300041620</v>
@@ -21837,10 +21844,10 @@
         <v>425</v>
       </c>
       <c r="C616" s="22" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D616" s="22" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="E616" s="22"/>
       <c r="F616" s="22"/>
@@ -21854,7 +21861,7 @@
         <v>425</v>
       </c>
       <c r="C617" s="22" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="D617" s="22" t="s">
         <v>1403</v>
@@ -21876,7 +21883,7 @@
         <v>1440</v>
       </c>
       <c r="D618" s="22" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E618" s="23">
         <v>300443550</v>
@@ -21892,10 +21899,10 @@
         <v>1009</v>
       </c>
       <c r="C619" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D619" s="22" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="E619" s="23">
         <v>300215545</v>
@@ -21911,10 +21918,10 @@
         <v>1011</v>
       </c>
       <c r="C620" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D620" s="22" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="E620" s="23">
         <v>300263853</v>
@@ -21930,10 +21937,10 @@
         <v>1013</v>
       </c>
       <c r="C621" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D621" s="22" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="E621" s="23">
         <v>300433073</v>
@@ -21949,10 +21956,10 @@
         <v>427</v>
       </c>
       <c r="C622" s="22" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="D622" s="22" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="E622" s="23">
         <v>300027267</v>
@@ -21968,10 +21975,10 @@
         <v>1015</v>
       </c>
       <c r="C623" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D623" s="22" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="E623" s="23">
         <v>300014842</v>
@@ -21987,10 +21994,10 @@
         <v>1017</v>
       </c>
       <c r="C624" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D624" s="22" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="E624" s="23">
         <v>300168224</v>
@@ -22006,10 +22013,10 @@
         <v>1019</v>
       </c>
       <c r="C625" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D625" s="22" t="s">
-        <v>1594</v>
+        <v>1592</v>
       </c>
       <c r="E625" s="23">
         <v>300209286</v>
@@ -22040,10 +22047,10 @@
         <v>282</v>
       </c>
       <c r="C627" s="22" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="D627" s="22" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E627" s="22"/>
       <c r="F627" s="22"/>
@@ -22076,10 +22083,10 @@
         <v>1021</v>
       </c>
       <c r="C629" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D629" s="22" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E629" s="23">
         <v>300231565</v>
@@ -22095,10 +22102,10 @@
         <v>1023</v>
       </c>
       <c r="C630" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D630" s="22" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="E630" s="23">
         <v>300233975</v>
@@ -22133,10 +22140,10 @@
         <v>1025</v>
       </c>
       <c r="C632" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D632" s="22" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="E632" s="23">
         <v>300195678</v>
@@ -22152,10 +22159,10 @@
         <v>1027</v>
       </c>
       <c r="C633" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D633" s="22" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="E633" s="23">
         <v>300224230</v>
@@ -22171,10 +22178,10 @@
         <v>1029</v>
       </c>
       <c r="C634" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D634" s="22" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="E634" s="23">
         <v>300036926</v>
@@ -22193,7 +22200,7 @@
         <v>1440</v>
       </c>
       <c r="D635" s="22" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E635" s="23">
         <v>300053989</v>
@@ -22242,7 +22249,7 @@
         <v>1440</v>
       </c>
       <c r="D638" s="22" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="E638" s="23">
         <v>300053796</v>
@@ -22261,7 +22268,7 @@
         <v>1440</v>
       </c>
       <c r="D639" s="22" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="E639" s="23">
         <v>300053867</v>
@@ -22279,11 +22286,11 @@
       <c r="C640" s="22" t="s">
         <v>1440</v>
       </c>
-      <c r="D640" s="22" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E640" s="23">
-        <v>300311416</v>
+      <c r="D640" s="26" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E640" s="27">
+        <v>300443550</v>
       </c>
       <c r="F640" s="22"/>
       <c r="G640" s="21"/>
@@ -22298,11 +22305,11 @@
       <c r="C641" s="22" t="s">
         <v>1440</v>
       </c>
-      <c r="D641" s="22" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E641" s="23">
-        <v>300054216</v>
+      <c r="D641" s="26" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E641" s="27">
+        <v>300443550</v>
       </c>
       <c r="F641" s="22"/>
       <c r="G641" s="21"/>
@@ -22318,7 +22325,7 @@
         <v>1440</v>
       </c>
       <c r="D642" s="22" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E642" s="23">
         <v>300443550</v>
@@ -22337,7 +22344,7 @@
         <v>1440</v>
       </c>
       <c r="D643" s="22" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="E643" s="23">
         <v>300443550</v>
@@ -22347,10 +22354,10 @@
     </row>
     <row r="644" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A644" s="22" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="B644" s="22" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="C644" s="22"/>
       <c r="D644" s="22"/>
@@ -22373,7 +22380,7 @@
         <v>1440</v>
       </c>
       <c r="D645" s="22" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="E645" s="23">
         <v>300053989</v>
@@ -22389,10 +22396,10 @@
         <v>1032</v>
       </c>
       <c r="C646" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D646" s="22" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E646" s="23">
         <v>300015045</v>
@@ -22442,10 +22449,10 @@
         <v>1306</v>
       </c>
       <c r="C649" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D649" s="22" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E649" s="23">
         <v>300013351</v>
@@ -22461,10 +22468,10 @@
         <v>363</v>
       </c>
       <c r="C650" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D650" s="22" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="E650" s="23">
         <v>300128374</v>
@@ -22499,10 +22506,10 @@
         <v>1309</v>
       </c>
       <c r="C652" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D652" s="22" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="E652" s="23">
         <v>300015071</v>
@@ -22555,7 +22562,7 @@
         <v>1440</v>
       </c>
       <c r="D655" s="22" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="E655" s="23">
         <v>300404638</v>
@@ -22574,7 +22581,7 @@
         <v>1440</v>
       </c>
       <c r="D656" s="22" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="E656" s="23">
         <v>300190531</v>
@@ -22593,7 +22600,7 @@
         <v>1440</v>
       </c>
       <c r="D657" s="22" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="E657" s="23">
         <v>300417481</v>
@@ -22612,7 +22619,7 @@
         <v>1440</v>
       </c>
       <c r="D658" s="22" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="E658" s="23">
         <v>300053233</v>
@@ -22628,10 +22635,10 @@
         <v>365</v>
       </c>
       <c r="C659" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D659" s="22" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="E659" s="23">
         <v>300128343</v>
@@ -22647,10 +22654,10 @@
         <v>1281</v>
       </c>
       <c r="C660" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D660" s="22" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="E660" s="23">
         <v>300015050</v>
@@ -22666,10 +22673,10 @@
         <v>367</v>
       </c>
       <c r="C661" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D661" s="22" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E661" s="23">
         <v>300128347</v>
@@ -22703,7 +22710,7 @@
         <v>1440</v>
       </c>
       <c r="D663" s="22" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="E663" s="23">
         <v>300404072</v>
@@ -22722,7 +22729,7 @@
         <v>1440</v>
       </c>
       <c r="D664" s="22" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="E664" s="23">
         <v>300053251</v>
@@ -22757,10 +22764,10 @@
         <v>1327</v>
       </c>
       <c r="C666" s="22" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D666" s="22" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="E666" s="23">
         <v>300015045</v>
@@ -22771,13 +22778,13 @@
     <row r="667" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A667" s="21"/>
       <c r="B667" s="22" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="C667" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D667" s="22" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="E667" s="23">
         <v>300257199</v>
@@ -22788,13 +22795,13 @@
     <row r="668" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A668" s="21"/>
       <c r="B668" s="22" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C668" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D668" s="22" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="E668" s="23">
         <v>300262254</v>
@@ -22805,7 +22812,7 @@
     <row r="669" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A669" s="21"/>
       <c r="B669" s="22" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C669" s="22" t="s">
         <v>1394</v>
@@ -22822,13 +22829,13 @@
     <row r="670" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A670" s="21"/>
       <c r="B670" s="22" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C670" s="22" t="s">
         <v>1393</v>
       </c>
       <c r="D670" s="22" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="E670" s="21"/>
       <c r="F670" s="22"/>
@@ -22837,13 +22844,13 @@
     <row r="671" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A671" s="21"/>
       <c r="B671" s="22" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C671" s="22" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D671" s="22" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="E671" s="23">
         <v>300014156</v>
@@ -22854,13 +22861,13 @@
     <row r="672" spans="1:7" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A672" s="21"/>
       <c r="B672" s="22" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="C672" s="22" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="D672" s="22" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E672" s="23">
         <v>300026695</v>
@@ -22901,13 +22908,13 @@
     <row r="675" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A675" s="21"/>
       <c r="B675" s="22" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="C675" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D675" s="22" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="E675" s="23">
         <v>300046227</v>
@@ -22918,13 +22925,13 @@
     <row r="676" spans="1:7" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A676" s="21"/>
       <c r="B676" s="22" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C676" s="22" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="D676" s="22" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="E676" s="23">
         <v>300046230</v>
@@ -22935,13 +22942,13 @@
     <row r="677" spans="1:7" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A677" s="21"/>
       <c r="B677" s="22" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="C677" s="22" t="s">
         <v>1393</v>
       </c>
       <c r="D677" s="22" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="E677" s="21"/>
       <c r="F677" s="22"/>
@@ -22950,13 +22957,13 @@
     <row r="678" spans="1:7" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A678" s="21"/>
       <c r="B678" s="22" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C678" s="22" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="D678" s="22" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="E678" s="23">
         <v>300193993</v>
@@ -22966,13 +22973,13 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B679" s="25" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C679" s="25" t="s">
         <v>1433</v>
       </c>
       <c r="D679" s="25" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="E679" s="25">
         <v>300069747</v>
@@ -22991,9 +22998,9 @@
   </sheetPr>
   <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D141" sqref="D141:E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -23046,10 +23053,10 @@
         <v>616</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="E3" s="8">
         <v>300011015</v>
@@ -23063,10 +23070,10 @@
         <v>618</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E4" s="14">
         <v>300011176</v>
@@ -23080,10 +23087,10 @@
         <v>620</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E5" s="8">
         <v>300010957</v>
@@ -23119,10 +23126,10 @@
         <v>626</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E8" s="8">
         <v>300011914</v>
@@ -23158,10 +23165,10 @@
         <v>632</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="E11" s="8">
         <v>300011099</v>
@@ -23187,10 +23194,10 @@
         <v>636</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E13" s="14">
         <v>300011176</v>
@@ -23204,10 +23211,10 @@
         <v>638</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E14" s="8">
         <v>300010797</v>
@@ -23243,10 +23250,10 @@
         <v>644</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E17" s="8">
         <v>300011914</v>
@@ -23260,10 +23267,10 @@
         <v>646</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="E18" s="8">
         <v>300011002</v>
@@ -23277,10 +23284,10 @@
         <v>648</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E19" s="8">
         <v>300011857</v>
@@ -23294,10 +23301,10 @@
         <v>650</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E20" s="8">
         <v>300235507</v>
@@ -23311,10 +23318,10 @@
         <v>652</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E21" s="8">
         <v>300011020</v>
@@ -23328,10 +23335,10 @@
         <v>654</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E22" s="8">
         <v>300014570</v>
@@ -23356,10 +23363,10 @@
         <v>658</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E24" s="8">
         <v>300011914</v>
@@ -23373,10 +23380,10 @@
         <v>660</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E25" s="8">
         <v>300011443</v>
@@ -23390,10 +23397,10 @@
         <v>662</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E26" s="8">
         <v>300011443</v>
@@ -23418,10 +23425,10 @@
         <v>666</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="E28" s="8">
         <v>300163347</v>
@@ -23435,10 +23442,10 @@
         <v>668</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="E29" s="8">
         <v>300014741</v>
@@ -23452,10 +23459,10 @@
         <v>670</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E30" s="8">
         <v>300011914</v>
@@ -23469,10 +23476,10 @@
         <v>672</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E31" s="8">
         <v>300011914</v>
@@ -23486,10 +23493,10 @@
         <v>674</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="E32" s="8">
         <v>300014436</v>
@@ -23503,10 +23510,10 @@
         <v>38</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="E33" s="8">
         <v>300014546</v>
@@ -23520,10 +23527,10 @@
         <v>677</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="E34" s="8">
         <v>300010662</v>
@@ -23537,10 +23544,10 @@
         <v>679</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E35" s="14">
         <v>300011176</v>
@@ -23554,10 +23561,10 @@
         <v>681</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="E36" s="8">
         <v>300010822</v>
@@ -23571,10 +23578,10 @@
         <v>683</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E37" s="14">
         <v>300011176</v>
@@ -23599,10 +23606,10 @@
         <v>604</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="E39" s="8">
         <v>300010669</v>
@@ -23616,10 +23623,10 @@
         <v>688</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E40" s="8">
         <v>300011914</v>
@@ -23644,10 +23651,10 @@
         <v>692</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="E42" s="8">
         <v>300014585</v>
@@ -23661,10 +23668,10 @@
         <v>694</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E43" s="14">
         <v>300011176</v>
@@ -23678,10 +23685,10 @@
         <v>696</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="E44" s="14">
         <v>300011176</v>
@@ -23695,10 +23702,10 @@
         <v>698</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="E45" s="8">
         <v>300231565</v>
@@ -23734,10 +23741,10 @@
         <v>704</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="E48" s="8">
         <v>300235507</v>
@@ -23762,10 +23769,10 @@
         <v>708</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E50" s="8">
         <v>300011798</v>
@@ -23790,10 +23797,10 @@
         <v>620</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="E52" s="8">
         <v>300010957</v>
@@ -23807,16 +23814,16 @@
         <v>652</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="E53" s="8">
         <v>300011020</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -23827,10 +23834,10 @@
         <v>714</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E54" s="8">
         <v>300014078</v>
@@ -23844,10 +23851,10 @@
         <v>716</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E55" s="8">
         <v>300014078</v>
@@ -23861,10 +23868,10 @@
         <v>718</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="E56" s="8">
         <v>300014078</v>
@@ -23878,10 +23885,10 @@
         <v>720</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="E57" s="8">
         <v>300014910</v>
@@ -23895,10 +23902,10 @@
         <v>722</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="E58" s="8">
         <v>300010367</v>
@@ -23923,10 +23930,10 @@
         <v>726</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E60" s="8">
         <v>300014069</v>
@@ -23940,10 +23947,10 @@
         <v>728</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="E61" s="8">
         <v>300011021</v>
@@ -23957,10 +23964,10 @@
         <v>730</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E62" s="8">
         <v>300014109</v>
@@ -23974,16 +23981,16 @@
         <v>638</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E63" s="8">
         <v>300010797</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -23994,16 +24001,16 @@
         <v>638</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="E64" s="8">
         <v>300010797</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -24014,10 +24021,10 @@
         <v>733</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E65" s="8">
         <v>300011914</v>
@@ -24031,16 +24038,16 @@
         <v>644</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E66" s="8">
         <v>300011914</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -24051,16 +24058,16 @@
         <v>644</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="E67" s="8">
         <v>300011914</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -24071,10 +24078,10 @@
         <v>736</v>
       </c>
       <c r="C68" s="6" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>1547</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>1549</v>
       </c>
       <c r="E68" s="8">
         <v>300411543</v>
@@ -24088,10 +24095,10 @@
         <v>648</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="E69" s="6">
         <v>300011857</v>
@@ -24105,10 +24112,10 @@
         <v>739</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="E70" s="8">
         <v>300014143</v>
@@ -24122,10 +24129,10 @@
         <v>741</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="E71" s="8">
         <v>300231565</v>
@@ -24139,10 +24146,10 @@
         <v>743</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="E72" s="8">
         <v>300435274</v>
@@ -24156,10 +24163,10 @@
         <v>745</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="E73" s="8">
         <v>300014161</v>
@@ -24173,10 +24180,10 @@
         <v>747</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E74" s="8">
         <v>300014109</v>
@@ -24190,16 +24197,16 @@
         <v>749</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E75" s="8">
         <v>300014224</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -24210,16 +24217,16 @@
         <v>749</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="E76" s="8">
         <v>300014224</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -24230,10 +24237,10 @@
         <v>654</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="E77" s="8">
         <v>300014570</v>
@@ -24247,10 +24254,10 @@
         <v>752</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E78" s="8">
         <v>300014069</v>
@@ -24264,10 +24271,10 @@
         <v>754</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="E79" s="8">
         <v>300011845</v>
@@ -24281,10 +24288,10 @@
         <v>756</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="E80" s="8">
         <v>300014069</v>
@@ -24298,10 +24305,10 @@
         <v>758</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="E81" s="8">
         <v>300011022</v>
@@ -24315,10 +24322,10 @@
         <v>760</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="E82" s="8">
         <v>300014109</v>
@@ -24332,10 +24339,10 @@
         <v>660</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="E83" s="8">
         <v>300011443</v>
@@ -24350,10 +24357,10 @@
         <v>763</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="E84" s="8">
         <v>300390932</v>
@@ -24367,10 +24374,10 @@
         <v>765</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="E85" s="8">
         <v>300010900</v>
@@ -24406,10 +24413,10 @@
         <v>770</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="E88" s="8">
         <v>300014657</v>
@@ -24423,10 +24430,10 @@
         <v>772</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
   